--- a/litreview/heattol_litreview.xlsx
+++ b/litreview/heattol_litreview.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicole/GitHub/heattolerance/litreview/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184686B3-8B1E-9F44-A508-18FE6F58FF32}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="780" windowWidth="34900" windowHeight="15220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="740" yWindow="560" windowWidth="11240" windowHeight="15220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="heattol_litreview" sheetId="2" r:id="rId2"/>
     <sheet name="scratch" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="152">
   <si>
     <t>Below metadata by Lizzie Wolkovich started on 29 July 2016</t>
   </si>
@@ -389,12 +395,111 @@
       <t>Good methods paper to review!</t>
     </r>
   </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Varieties</t>
+  </si>
+  <si>
+    <t>Semillon</t>
+  </si>
+  <si>
+    <t>Greer and Weston 2010</t>
+  </si>
+  <si>
+    <t>Greer and Weedon 2012</t>
+  </si>
+  <si>
+    <t>Greer and Weedon 2013</t>
+  </si>
+  <si>
+    <t>Greer and Weedon 2014</t>
+  </si>
+  <si>
+    <t>Kliewer 1968</t>
+  </si>
+  <si>
+    <t>Chardonnay, Merlot, Semillon</t>
+  </si>
+  <si>
+    <t>Cardinal, Chardonnay, Malbec, Petite Sirah, White Reisling</t>
+  </si>
+  <si>
+    <t>Kriedemann 1968</t>
+  </si>
+  <si>
+    <t>Sultana</t>
+  </si>
+  <si>
+    <t>Red Tempranillo, White Tempranillo</t>
+  </si>
+  <si>
+    <t>Hulands et al. 2013</t>
+  </si>
+  <si>
+    <t>Hulands et al. 2014</t>
+  </si>
+  <si>
+    <t>Martinez-Luscher et al. 2016</t>
+  </si>
+  <si>
+    <t>Petrie and Clingeleffer 2005</t>
+  </si>
+  <si>
+    <t>Chardonnay</t>
+  </si>
+  <si>
+    <t>Salazar Paara et al. 2010</t>
+  </si>
+  <si>
+    <t>Tempranillo</t>
+  </si>
+  <si>
+    <t>Soar et al. 2009</t>
+  </si>
+  <si>
+    <t>Shiraz</t>
+  </si>
+  <si>
+    <t>Wample et al 1991</t>
+  </si>
+  <si>
+    <t>Cabernet Sauvignon, Chardonnay, Chenin Blanc, Merlot</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>The number of flowers was siginificantly reduced by heat treatments before budburst, but not after budburst.</t>
+  </si>
+  <si>
+    <t>Max Temp (°C)</t>
+  </si>
+  <si>
+    <t>NOT IN ENDNOTE</t>
+  </si>
+  <si>
+    <t>Heat treatments later in ripening slowed ripeing to a greater degree than heat treaments earlier in berry ripening.</t>
+  </si>
+  <si>
+    <t>The rate of ripening was a curvilinear fuction of temperature, as both dry matter and sugar accumulation were affected by temperature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flowers in plants that underwent heat treatments during flowering completely abcised.  Berry devlopment in plants treated at fruit set was not affected, but was negatively impacted when plants were treated at veraison and mid-ripening.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berries exposed to higher temperatures later in ripening suffered greater suscepability to sunburn and had smaller diameters on average than untreated plants. </t>
+  </si>
+  <si>
+    <t>Photosynthesis is optimal at 30 °C, but negatively impacted by 35 °C.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -414,6 +519,19 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -436,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,12 +565,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -777,12 +920,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="26" width="10.5" customWidth="1"/>
   </cols>
@@ -898,17 +1041,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="3" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="8" width="20.5" customWidth="1"/>
     <col min="9" max="27" width="10.5" customWidth="1"/>
@@ -918,7 +1062,7 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -967,7 +1111,7 @@
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -995,11 +1139,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1025,7 +1169,7 @@
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1055,7 +1199,7 @@
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1084,7 +1228,7 @@
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1104,11 +1248,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="31" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1140,7 +1284,7 @@
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1169,7 +1313,7 @@
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1194,11 +1338,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="30" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1225,7 +1369,7 @@
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1254,7 +1398,7 @@
       <c r="A12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1283,7 +1427,7 @@
       <c r="A13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1315,7 +1459,7 @@
       <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -9239,17 +9383,221 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="26" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="26" width="10.5" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="130" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6">
+        <v>38</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="78" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>39</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="61" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="44" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/litreview/heattol_litreview.xlsx
+++ b/litreview/heattol_litreview.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicole/GitHub/heattolerance/litreview/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184686B3-8B1E-9F44-A508-18FE6F58FF32}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="560" windowWidth="11240" windowHeight="15220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6020" yWindow="2000" windowWidth="34960" windowHeight="15780" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="heattol_litreview" sheetId="2" r:id="rId2"/>
     <sheet name="scratch" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="157">
   <si>
     <t>Below metadata by Lizzie Wolkovich started on 29 July 2016</t>
   </si>
@@ -494,12 +488,27 @@
   <si>
     <t>Photosynthesis is optimal at 30 °C, but negatively impacted by 35 °C.</t>
   </si>
+  <si>
+    <t>Phenological stage</t>
+  </si>
+  <si>
+    <t>Berry ripening</t>
+  </si>
+  <si>
+    <t>Flowering, berry ripening</t>
+  </si>
+  <si>
+    <t>Photosynthesis</t>
+  </si>
+  <si>
+    <t>Before and after budburst</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -533,6 +542,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -551,8 +572,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -583,7 +606,9 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -920,12 +945,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="26" width="10.5" customWidth="1"/>
   </cols>
@@ -1041,14 +1066,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="11" customWidth="1"/>
@@ -1455,7 +1480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="30">
       <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
@@ -9383,23 +9408,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="26" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="27" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>119</v>
       </c>
@@ -9409,11 +9435,14 @@
       <c r="C1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>123</v>
       </c>
@@ -9423,11 +9452,11 @@
       <c r="C2">
         <v>40</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>124</v>
       </c>
@@ -9437,11 +9466,11 @@
       <c r="C3">
         <v>45</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="63" customHeight="1">
+    <row r="4" spans="1:5" ht="63" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>125</v>
       </c>
@@ -9451,11 +9480,14 @@
       <c r="C4">
         <v>40</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="130" customHeight="1">
+    <row r="5" spans="1:5" ht="130" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>122</v>
       </c>
@@ -9465,11 +9497,14 @@
       <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64" customHeight="1">
+    <row r="6" spans="1:5" ht="64" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>132</v>
       </c>
@@ -9479,11 +9514,14 @@
       <c r="C6">
         <v>38</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="78" customHeight="1">
+    <row r="7" spans="1:5" ht="78" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>133</v>
       </c>
@@ -9493,11 +9531,14 @@
       <c r="C7">
         <v>39</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" customHeight="1">
+    <row r="8" spans="1:5" ht="45" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>126</v>
       </c>
@@ -9507,11 +9548,11 @@
       <c r="C8">
         <v>38</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="31" customHeight="1">
+    <row r="9" spans="1:5" ht="31" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>129</v>
       </c>
@@ -9521,11 +9562,14 @@
       <c r="C9">
         <v>50</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="31" customHeight="1">
+    <row r="10" spans="1:5" ht="31" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>134</v>
       </c>
@@ -9535,11 +9579,11 @@
       <c r="C10">
         <v>30</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="61" customHeight="1">
+    <row r="11" spans="1:5" ht="61" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>135</v>
       </c>
@@ -9549,11 +9593,14 @@
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
+    <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>137</v>
       </c>
@@ -9563,11 +9610,11 @@
       <c r="C12">
         <v>28</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
+    <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>139</v>
       </c>
@@ -9577,11 +9624,11 @@
       <c r="C13">
         <v>45</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="44" customHeight="1">
+    <row r="14" spans="1:5" ht="44" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>141</v>
       </c>
@@ -9591,13 +9638,13 @@
       <c r="C14">
         <v>60</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/litreview/heattol_litreview.xlsx
+++ b/litreview/heattol_litreview.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicole/GitHub/heattolerance/litreview/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8EF82E-C4A8-0B46-9BAF-5DAA4E694B3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="2000" windowWidth="34960" windowHeight="15780" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="heattol_litreview" sheetId="2" r:id="rId2"/>
     <sheet name="scratch" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="165">
   <si>
     <t>Below metadata by Lizzie Wolkovich started on 29 July 2016</t>
   </si>
@@ -444,12 +450,6 @@
     <t>Chardonnay</t>
   </si>
   <si>
-    <t>Salazar Paara et al. 2010</t>
-  </si>
-  <si>
-    <t>Tempranillo</t>
-  </si>
-  <si>
     <t>Soar et al. 2009</t>
   </si>
   <si>
@@ -471,9 +471,6 @@
     <t>Max Temp (°C)</t>
   </si>
   <si>
-    <t>NOT IN ENDNOTE</t>
-  </si>
-  <si>
     <t>Heat treatments later in ripening slowed ripeing to a greater degree than heat treaments earlier in berry ripening.</t>
   </si>
   <si>
@@ -502,13 +499,46 @@
   </si>
   <si>
     <t>Before and after budburst</t>
+  </si>
+  <si>
+    <t>Min Temp (°C)</t>
+  </si>
+  <si>
+    <t>Reduction in berry growth and sugar accumulation when berries treated with heat just after fruit set.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All varieties survived 30 minutes at 54 °C with growth similar to controls.   Some varieties still had root and shoot growth after being heated at 58 °C for 30 minutes. </t>
+  </si>
+  <si>
+    <t>Pre-budburst, vegetative growth</t>
+  </si>
+  <si>
+    <t>Photosynthesis rates 60% inhibited at 45 °C.</t>
+  </si>
+  <si>
+    <t>Berry ripening, photosynthesis</t>
+  </si>
+  <si>
+    <t>Plants that were exposed to heat event (14 days over 40 °C), had a 50% reduction in berry ripening rate and photosynthesis was reduced by 35%.</t>
+  </si>
+  <si>
+    <t>White Reisling berries ripened faster in cooler phytotron than in field conditions.</t>
+  </si>
+  <si>
+    <t>Warmer temperatures caused phenology to advance.  The effect was seen most prominently before budburst.  Between budburst and flowering the effect of higher temperatures was slithly less.  The increased temperatures had the least  effect on phenological timing between flowering and fruit set.</t>
+  </si>
+  <si>
+    <t>Before and after budburst, flowering, fruit set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -945,12 +975,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="26" width="10.5" customWidth="1"/>
   </cols>
@@ -1066,14 +1096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="11" customWidth="1"/>
@@ -1083,7 +1113,7 @@
     <col min="9" max="27" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="17">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1132,7 +1162,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" ht="17">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1190,7 +1220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="17">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1220,7 +1250,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="17">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1249,7 +1279,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="17">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1305,7 +1335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="17">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -1334,7 +1364,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="17">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -1390,7 +1420,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="17">
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
@@ -1419,7 +1449,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="17">
       <c r="A12" s="5" t="s">
         <v>88</v>
       </c>
@@ -1448,7 +1478,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="17">
       <c r="A13" s="5" t="s">
         <v>93</v>
       </c>
@@ -1480,7 +1510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="30">
+    <row r="14" spans="1:27" ht="34">
       <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
@@ -1509,7 +1539,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="16">
       <c r="A15" s="2"/>
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
@@ -1517,7 +1547,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="16">
       <c r="A16" s="2"/>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
@@ -1525,7 +1555,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="16">
       <c r="A17" s="2"/>
       <c r="D17" s="6"/>
       <c r="E17" s="2"/>
@@ -1533,7 +1563,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="16">
       <c r="A18" s="2"/>
       <c r="D18" s="6"/>
       <c r="E18" s="2"/>
@@ -1541,7 +1571,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="16">
       <c r="A19" s="2"/>
       <c r="D19" s="6"/>
       <c r="E19" s="2"/>
@@ -1549,7 +1579,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="16">
       <c r="A20" s="2"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
@@ -1557,7 +1587,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="16">
       <c r="A21" s="2"/>
       <c r="D21" s="6"/>
       <c r="E21" s="2"/>
@@ -1565,7 +1595,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="16">
       <c r="A22" s="2"/>
       <c r="D22" s="6"/>
       <c r="E22" s="2"/>
@@ -1573,7 +1603,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="16">
       <c r="A23" s="2"/>
       <c r="D23" s="6"/>
       <c r="E23" s="2"/>
@@ -1581,7 +1611,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="16">
       <c r="A24" s="2"/>
       <c r="D24" s="6"/>
       <c r="E24" s="2"/>
@@ -1589,7 +1619,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="16">
       <c r="A25" s="2"/>
       <c r="D25" s="6"/>
       <c r="E25" s="2"/>
@@ -1597,7 +1627,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="16">
       <c r="A26" s="2"/>
       <c r="D26" s="6"/>
       <c r="E26" s="2"/>
@@ -1605,7 +1635,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="16">
       <c r="A27" s="2"/>
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
@@ -1613,7 +1643,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="16">
       <c r="A28" s="2"/>
       <c r="D28" s="6"/>
       <c r="E28" s="2"/>
@@ -1621,7 +1651,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="16">
       <c r="A29" s="2"/>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
@@ -1629,7 +1659,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="16">
       <c r="A30" s="2"/>
       <c r="D30" s="6"/>
       <c r="E30" s="2"/>
@@ -1637,7 +1667,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="16">
       <c r="A31" s="2"/>
       <c r="D31" s="6"/>
       <c r="E31" s="2"/>
@@ -1645,7 +1675,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="16">
       <c r="A32" s="2"/>
       <c r="D32" s="6"/>
       <c r="E32" s="2"/>
@@ -1653,7 +1683,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="16">
       <c r="A33" s="2"/>
       <c r="D33" s="6"/>
       <c r="E33" s="2"/>
@@ -1661,7 +1691,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="16">
       <c r="A34" s="2"/>
       <c r="D34" s="6"/>
       <c r="E34" s="2"/>
@@ -1669,7 +1699,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="16">
       <c r="A35" s="2"/>
       <c r="D35" s="6"/>
       <c r="E35" s="2"/>
@@ -1677,7 +1707,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="16">
       <c r="A36" s="2"/>
       <c r="D36" s="6"/>
       <c r="E36" s="2"/>
@@ -1685,7 +1715,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="16">
       <c r="A37" s="2"/>
       <c r="D37" s="6"/>
       <c r="E37" s="2"/>
@@ -1693,7 +1723,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="16">
       <c r="A38" s="2"/>
       <c r="D38" s="6"/>
       <c r="E38" s="2"/>
@@ -1701,7 +1731,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="16">
       <c r="A39" s="2"/>
       <c r="D39" s="6"/>
       <c r="E39" s="2"/>
@@ -1709,7 +1739,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="16">
       <c r="A40" s="2"/>
       <c r="D40" s="6"/>
       <c r="E40" s="2"/>
@@ -1717,7 +1747,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="16">
       <c r="A41" s="2"/>
       <c r="D41" s="6"/>
       <c r="E41" s="2"/>
@@ -1725,7 +1755,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="16">
       <c r="A42" s="2"/>
       <c r="D42" s="6"/>
       <c r="E42" s="2"/>
@@ -1733,7 +1763,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="16">
       <c r="A43" s="2"/>
       <c r="D43" s="6"/>
       <c r="E43" s="2"/>
@@ -1741,7 +1771,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="16">
       <c r="A44" s="2"/>
       <c r="D44" s="6"/>
       <c r="E44" s="2"/>
@@ -1749,7 +1779,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="16">
       <c r="A45" s="2"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2"/>
@@ -1757,7 +1787,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="16">
       <c r="A46" s="2"/>
       <c r="D46" s="6"/>
       <c r="E46" s="2"/>
@@ -1765,7 +1795,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="16">
       <c r="A47" s="2"/>
       <c r="D47" s="6"/>
       <c r="E47" s="2"/>
@@ -1773,7 +1803,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="16">
       <c r="A48" s="2"/>
       <c r="D48" s="6"/>
       <c r="E48" s="2"/>
@@ -1781,7 +1811,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="16">
       <c r="A49" s="2"/>
       <c r="D49" s="6"/>
       <c r="E49" s="2"/>
@@ -1789,7 +1819,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="16">
       <c r="A50" s="2"/>
       <c r="D50" s="6"/>
       <c r="E50" s="2"/>
@@ -1797,7 +1827,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" ht="16">
       <c r="A51" s="2"/>
       <c r="D51" s="6"/>
       <c r="E51" s="2"/>
@@ -1805,7 +1835,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="16">
       <c r="A52" s="2"/>
       <c r="D52" s="6"/>
       <c r="E52" s="2"/>
@@ -1813,7 +1843,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="16">
       <c r="A53" s="2"/>
       <c r="D53" s="6"/>
       <c r="E53" s="2"/>
@@ -1821,7 +1851,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="16">
       <c r="A54" s="2"/>
       <c r="D54" s="6"/>
       <c r="E54" s="2"/>
@@ -1829,7 +1859,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="16">
       <c r="A55" s="2"/>
       <c r="D55" s="6"/>
       <c r="E55" s="2"/>
@@ -1837,7 +1867,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="16">
       <c r="A56" s="2"/>
       <c r="D56" s="6"/>
       <c r="E56" s="2"/>
@@ -1845,7 +1875,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="16">
       <c r="A57" s="2"/>
       <c r="D57" s="6"/>
       <c r="E57" s="2"/>
@@ -1853,7 +1883,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" ht="16">
       <c r="A58" s="2"/>
       <c r="D58" s="6"/>
       <c r="E58" s="2"/>
@@ -1861,7 +1891,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" ht="16">
       <c r="A59" s="2"/>
       <c r="D59" s="6"/>
       <c r="E59" s="2"/>
@@ -1869,7 +1899,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" ht="16">
       <c r="A60" s="2"/>
       <c r="D60" s="6"/>
       <c r="E60" s="2"/>
@@ -1877,7 +1907,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" ht="16">
       <c r="A61" s="2"/>
       <c r="D61" s="6"/>
       <c r="E61" s="2"/>
@@ -1885,7 +1915,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="16">
       <c r="A62" s="2"/>
       <c r="D62" s="6"/>
       <c r="E62" s="2"/>
@@ -1893,7 +1923,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" ht="16">
       <c r="A63" s="2"/>
       <c r="D63" s="6"/>
       <c r="E63" s="2"/>
@@ -1901,7 +1931,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" ht="16">
       <c r="A64" s="2"/>
       <c r="D64" s="6"/>
       <c r="E64" s="2"/>
@@ -1909,7 +1939,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="16">
       <c r="A65" s="2"/>
       <c r="D65" s="6"/>
       <c r="E65" s="2"/>
@@ -1917,7 +1947,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="16">
       <c r="A66" s="2"/>
       <c r="D66" s="6"/>
       <c r="E66" s="2"/>
@@ -1925,7 +1955,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="16">
       <c r="A67" s="2"/>
       <c r="D67" s="6"/>
       <c r="E67" s="2"/>
@@ -1933,7 +1963,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="16">
       <c r="A68" s="2"/>
       <c r="D68" s="6"/>
       <c r="E68" s="2"/>
@@ -1941,7 +1971,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="16">
       <c r="A69" s="2"/>
       <c r="D69" s="6"/>
       <c r="E69" s="2"/>
@@ -1949,7 +1979,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="16">
       <c r="A70" s="2"/>
       <c r="D70" s="6"/>
       <c r="E70" s="2"/>
@@ -1957,7 +1987,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="16">
       <c r="A71" s="2"/>
       <c r="D71" s="6"/>
       <c r="E71" s="2"/>
@@ -1965,7 +1995,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="16">
       <c r="A72" s="2"/>
       <c r="D72" s="6"/>
       <c r="E72" s="2"/>
@@ -1973,7 +2003,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" ht="16">
       <c r="A73" s="2"/>
       <c r="D73" s="6"/>
       <c r="E73" s="2"/>
@@ -1981,7 +2011,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="16">
       <c r="A74" s="2"/>
       <c r="D74" s="6"/>
       <c r="E74" s="2"/>
@@ -1989,7 +2019,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" ht="16">
       <c r="A75" s="2"/>
       <c r="D75" s="6"/>
       <c r="E75" s="2"/>
@@ -1997,7 +2027,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" ht="16">
       <c r="A76" s="2"/>
       <c r="D76" s="6"/>
       <c r="E76" s="2"/>
@@ -2005,7 +2035,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="16">
       <c r="A77" s="2"/>
       <c r="D77" s="6"/>
       <c r="E77" s="2"/>
@@ -2013,7 +2043,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" ht="16">
       <c r="A78" s="2"/>
       <c r="D78" s="6"/>
       <c r="E78" s="2"/>
@@ -2021,7 +2051,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="16">
       <c r="A79" s="2"/>
       <c r="D79" s="6"/>
       <c r="E79" s="2"/>
@@ -2029,7 +2059,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="16">
       <c r="A80" s="2"/>
       <c r="D80" s="6"/>
       <c r="E80" s="2"/>
@@ -2037,7 +2067,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="16">
       <c r="A81" s="2"/>
       <c r="D81" s="6"/>
       <c r="E81" s="2"/>
@@ -2045,7 +2075,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="16">
       <c r="A82" s="2"/>
       <c r="D82" s="6"/>
       <c r="E82" s="2"/>
@@ -2053,7 +2083,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" ht="16">
       <c r="A83" s="2"/>
       <c r="D83" s="6"/>
       <c r="E83" s="2"/>
@@ -2061,7 +2091,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" ht="16">
       <c r="A84" s="2"/>
       <c r="D84" s="6"/>
       <c r="E84" s="2"/>
@@ -2069,7 +2099,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" ht="16">
       <c r="A85" s="2"/>
       <c r="D85" s="6"/>
       <c r="E85" s="2"/>
@@ -2077,7 +2107,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" ht="16">
       <c r="A86" s="2"/>
       <c r="D86" s="6"/>
       <c r="E86" s="2"/>
@@ -2085,7 +2115,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" ht="16">
       <c r="A87" s="2"/>
       <c r="D87" s="6"/>
       <c r="E87" s="2"/>
@@ -2093,7 +2123,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" ht="16">
       <c r="A88" s="2"/>
       <c r="D88" s="6"/>
       <c r="E88" s="2"/>
@@ -2101,7 +2131,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" ht="16">
       <c r="A89" s="2"/>
       <c r="D89" s="6"/>
       <c r="E89" s="2"/>
@@ -2109,7 +2139,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" ht="16">
       <c r="A90" s="2"/>
       <c r="D90" s="6"/>
       <c r="E90" s="2"/>
@@ -2117,7 +2147,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" ht="16">
       <c r="A91" s="2"/>
       <c r="D91" s="6"/>
       <c r="E91" s="2"/>
@@ -2125,7 +2155,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" ht="16">
       <c r="A92" s="2"/>
       <c r="D92" s="6"/>
       <c r="E92" s="2"/>
@@ -2133,7 +2163,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" ht="16">
       <c r="A93" s="2"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
@@ -2141,7 +2171,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" ht="16">
       <c r="A94" s="2"/>
       <c r="D94" s="6"/>
       <c r="E94" s="2"/>
@@ -2149,7 +2179,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" ht="16">
       <c r="A95" s="2"/>
       <c r="D95" s="6"/>
       <c r="E95" s="2"/>
@@ -2157,7 +2187,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" ht="16">
       <c r="A96" s="2"/>
       <c r="D96" s="6"/>
       <c r="E96" s="2"/>
@@ -2165,7 +2195,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" ht="16">
       <c r="A97" s="2"/>
       <c r="D97" s="6"/>
       <c r="E97" s="2"/>
@@ -2173,7 +2203,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" ht="16">
       <c r="A98" s="2"/>
       <c r="D98" s="6"/>
       <c r="E98" s="2"/>
@@ -2181,7 +2211,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" ht="16">
       <c r="A99" s="2"/>
       <c r="D99" s="6"/>
       <c r="E99" s="2"/>
@@ -2189,7 +2219,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" ht="16">
       <c r="A100" s="2"/>
       <c r="D100" s="6"/>
       <c r="E100" s="2"/>
@@ -2197,7 +2227,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" ht="16">
       <c r="A101" s="2"/>
       <c r="D101" s="6"/>
       <c r="E101" s="2"/>
@@ -2205,7 +2235,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" ht="16">
       <c r="A102" s="2"/>
       <c r="D102" s="6"/>
       <c r="E102" s="2"/>
@@ -2213,7 +2243,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" ht="16">
       <c r="A103" s="2"/>
       <c r="D103" s="6"/>
       <c r="E103" s="2"/>
@@ -2221,7 +2251,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" ht="16">
       <c r="A104" s="2"/>
       <c r="D104" s="6"/>
       <c r="E104" s="2"/>
@@ -2229,7 +2259,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" ht="16">
       <c r="A105" s="2"/>
       <c r="D105" s="6"/>
       <c r="E105" s="2"/>
@@ -2237,7 +2267,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" ht="16">
       <c r="A106" s="2"/>
       <c r="D106" s="6"/>
       <c r="E106" s="2"/>
@@ -2245,7 +2275,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" ht="16">
       <c r="A107" s="2"/>
       <c r="D107" s="6"/>
       <c r="E107" s="2"/>
@@ -2253,7 +2283,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" ht="16">
       <c r="A108" s="2"/>
       <c r="D108" s="6"/>
       <c r="E108" s="2"/>
@@ -2261,7 +2291,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" ht="16">
       <c r="A109" s="2"/>
       <c r="D109" s="6"/>
       <c r="E109" s="2"/>
@@ -2269,7 +2299,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" ht="16">
       <c r="A110" s="2"/>
       <c r="D110" s="6"/>
       <c r="E110" s="2"/>
@@ -2277,7 +2307,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" ht="16">
       <c r="A111" s="2"/>
       <c r="D111" s="6"/>
       <c r="E111" s="2"/>
@@ -2285,7 +2315,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" ht="16">
       <c r="A112" s="2"/>
       <c r="D112" s="6"/>
       <c r="E112" s="2"/>
@@ -2293,7 +2323,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" ht="16">
       <c r="A113" s="2"/>
       <c r="D113" s="6"/>
       <c r="E113" s="2"/>
@@ -2301,7 +2331,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" ht="16">
       <c r="A114" s="2"/>
       <c r="D114" s="6"/>
       <c r="E114" s="2"/>
@@ -2309,7 +2339,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" ht="16">
       <c r="A115" s="2"/>
       <c r="D115" s="6"/>
       <c r="E115" s="2"/>
@@ -2317,7 +2347,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" ht="16">
       <c r="A116" s="2"/>
       <c r="D116" s="6"/>
       <c r="E116" s="2"/>
@@ -2325,7 +2355,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" ht="16">
       <c r="A117" s="2"/>
       <c r="D117" s="6"/>
       <c r="E117" s="2"/>
@@ -2333,7 +2363,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" ht="16">
       <c r="A118" s="2"/>
       <c r="D118" s="6"/>
       <c r="E118" s="2"/>
@@ -2341,7 +2371,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" ht="16">
       <c r="A119" s="2"/>
       <c r="D119" s="6"/>
       <c r="E119" s="2"/>
@@ -2349,7 +2379,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" ht="16">
       <c r="A120" s="2"/>
       <c r="D120" s="6"/>
       <c r="E120" s="2"/>
@@ -2357,7 +2387,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" ht="16">
       <c r="A121" s="2"/>
       <c r="D121" s="6"/>
       <c r="E121" s="2"/>
@@ -2365,7 +2395,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" ht="16">
       <c r="A122" s="2"/>
       <c r="D122" s="6"/>
       <c r="E122" s="2"/>
@@ -2373,7 +2403,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" ht="16">
       <c r="A123" s="2"/>
       <c r="D123" s="6"/>
       <c r="E123" s="2"/>
@@ -2381,7 +2411,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" ht="16">
       <c r="A124" s="2"/>
       <c r="D124" s="6"/>
       <c r="E124" s="2"/>
@@ -2389,7 +2419,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" ht="16">
       <c r="A125" s="2"/>
       <c r="D125" s="6"/>
       <c r="E125" s="2"/>
@@ -2397,7 +2427,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" ht="16">
       <c r="A126" s="2"/>
       <c r="D126" s="6"/>
       <c r="E126" s="2"/>
@@ -2405,7 +2435,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" ht="16">
       <c r="A127" s="2"/>
       <c r="D127" s="6"/>
       <c r="E127" s="2"/>
@@ -2413,7 +2443,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" ht="16">
       <c r="A128" s="2"/>
       <c r="D128" s="6"/>
       <c r="E128" s="2"/>
@@ -2421,7 +2451,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" ht="16">
       <c r="A129" s="2"/>
       <c r="D129" s="6"/>
       <c r="E129" s="2"/>
@@ -2429,7 +2459,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" ht="16">
       <c r="A130" s="2"/>
       <c r="D130" s="6"/>
       <c r="E130" s="2"/>
@@ -2437,7 +2467,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" ht="16">
       <c r="A131" s="2"/>
       <c r="D131" s="6"/>
       <c r="E131" s="2"/>
@@ -2445,7 +2475,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" ht="16">
       <c r="A132" s="2"/>
       <c r="D132" s="6"/>
       <c r="E132" s="2"/>
@@ -2453,7 +2483,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" ht="16">
       <c r="A133" s="2"/>
       <c r="D133" s="6"/>
       <c r="E133" s="2"/>
@@ -2461,7 +2491,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" ht="16">
       <c r="A134" s="2"/>
       <c r="D134" s="6"/>
       <c r="E134" s="2"/>
@@ -2469,7 +2499,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" ht="16">
       <c r="A135" s="2"/>
       <c r="D135" s="6"/>
       <c r="E135" s="2"/>
@@ -2477,7 +2507,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" ht="16">
       <c r="A136" s="2"/>
       <c r="D136" s="6"/>
       <c r="E136" s="2"/>
@@ -2485,7 +2515,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" ht="16">
       <c r="A137" s="2"/>
       <c r="D137" s="6"/>
       <c r="E137" s="2"/>
@@ -2493,7 +2523,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" ht="16">
       <c r="A138" s="2"/>
       <c r="D138" s="6"/>
       <c r="E138" s="2"/>
@@ -2501,7 +2531,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" ht="16">
       <c r="A139" s="2"/>
       <c r="D139" s="6"/>
       <c r="E139" s="2"/>
@@ -2509,7 +2539,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" ht="16">
       <c r="A140" s="2"/>
       <c r="D140" s="6"/>
       <c r="E140" s="2"/>
@@ -2517,7 +2547,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" ht="16">
       <c r="A141" s="2"/>
       <c r="D141" s="6"/>
       <c r="E141" s="2"/>
@@ -2525,7 +2555,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" ht="16">
       <c r="A142" s="2"/>
       <c r="D142" s="6"/>
       <c r="E142" s="2"/>
@@ -2533,7 +2563,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" ht="16">
       <c r="A143" s="2"/>
       <c r="D143" s="6"/>
       <c r="E143" s="2"/>
@@ -2541,7 +2571,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" ht="16">
       <c r="A144" s="2"/>
       <c r="D144" s="6"/>
       <c r="E144" s="2"/>
@@ -2549,7 +2579,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" ht="16">
       <c r="A145" s="2"/>
       <c r="D145" s="6"/>
       <c r="E145" s="2"/>
@@ -2557,7 +2587,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" ht="16">
       <c r="A146" s="2"/>
       <c r="D146" s="6"/>
       <c r="E146" s="2"/>
@@ -2565,7 +2595,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" ht="16">
       <c r="A147" s="2"/>
       <c r="D147" s="6"/>
       <c r="E147" s="2"/>
@@ -2573,7 +2603,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" ht="16">
       <c r="A148" s="2"/>
       <c r="D148" s="6"/>
       <c r="E148" s="2"/>
@@ -2581,7 +2611,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" ht="16">
       <c r="A149" s="2"/>
       <c r="D149" s="6"/>
       <c r="E149" s="2"/>
@@ -2589,7 +2619,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" ht="16">
       <c r="A150" s="2"/>
       <c r="D150" s="6"/>
       <c r="E150" s="2"/>
@@ -2597,7 +2627,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" ht="16">
       <c r="A151" s="2"/>
       <c r="D151" s="6"/>
       <c r="E151" s="2"/>
@@ -2605,7 +2635,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" ht="16">
       <c r="A152" s="2"/>
       <c r="D152" s="6"/>
       <c r="E152" s="2"/>
@@ -2613,7 +2643,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" ht="16">
       <c r="A153" s="2"/>
       <c r="D153" s="6"/>
       <c r="E153" s="2"/>
@@ -2621,7 +2651,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" ht="16">
       <c r="A154" s="2"/>
       <c r="D154" s="6"/>
       <c r="E154" s="2"/>
@@ -2629,7 +2659,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" ht="16">
       <c r="A155" s="2"/>
       <c r="D155" s="6"/>
       <c r="E155" s="2"/>
@@ -2637,7 +2667,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" ht="16">
       <c r="A156" s="2"/>
       <c r="D156" s="6"/>
       <c r="E156" s="2"/>
@@ -2645,7 +2675,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" ht="16">
       <c r="A157" s="2"/>
       <c r="D157" s="6"/>
       <c r="E157" s="2"/>
@@ -2653,7 +2683,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" ht="16">
       <c r="A158" s="2"/>
       <c r="D158" s="6"/>
       <c r="E158" s="2"/>
@@ -2661,7 +2691,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" ht="16">
       <c r="A159" s="2"/>
       <c r="D159" s="6"/>
       <c r="E159" s="2"/>
@@ -2669,7 +2699,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" ht="16">
       <c r="A160" s="2"/>
       <c r="D160" s="6"/>
       <c r="E160" s="2"/>
@@ -2677,7 +2707,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" ht="16">
       <c r="A161" s="2"/>
       <c r="D161" s="6"/>
       <c r="E161" s="2"/>
@@ -2685,7 +2715,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" ht="16">
       <c r="A162" s="2"/>
       <c r="D162" s="6"/>
       <c r="E162" s="2"/>
@@ -2693,7 +2723,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" ht="16">
       <c r="A163" s="2"/>
       <c r="D163" s="6"/>
       <c r="E163" s="2"/>
@@ -2701,7 +2731,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" ht="16">
       <c r="A164" s="2"/>
       <c r="D164" s="6"/>
       <c r="E164" s="2"/>
@@ -2709,7 +2739,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" ht="16">
       <c r="A165" s="2"/>
       <c r="D165" s="6"/>
       <c r="E165" s="2"/>
@@ -2717,7 +2747,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" ht="16">
       <c r="A166" s="2"/>
       <c r="D166" s="6"/>
       <c r="E166" s="2"/>
@@ -2725,7 +2755,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" ht="16">
       <c r="A167" s="2"/>
       <c r="D167" s="6"/>
       <c r="E167" s="2"/>
@@ -2733,7 +2763,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" ht="16">
       <c r="A168" s="2"/>
       <c r="D168" s="6"/>
       <c r="E168" s="2"/>
@@ -2741,7 +2771,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" ht="16">
       <c r="A169" s="2"/>
       <c r="D169" s="6"/>
       <c r="E169" s="2"/>
@@ -2749,7 +2779,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" ht="16">
       <c r="A170" s="2"/>
       <c r="D170" s="6"/>
       <c r="E170" s="2"/>
@@ -2757,7 +2787,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" ht="16">
       <c r="A171" s="2"/>
       <c r="D171" s="6"/>
       <c r="E171" s="2"/>
@@ -2765,7 +2795,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" ht="16">
       <c r="A172" s="2"/>
       <c r="D172" s="6"/>
       <c r="E172" s="2"/>
@@ -2773,7 +2803,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" ht="16">
       <c r="A173" s="2"/>
       <c r="D173" s="6"/>
       <c r="E173" s="2"/>
@@ -2781,7 +2811,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" ht="16">
       <c r="A174" s="2"/>
       <c r="D174" s="6"/>
       <c r="E174" s="2"/>
@@ -2789,7 +2819,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" ht="16">
       <c r="A175" s="2"/>
       <c r="D175" s="6"/>
       <c r="E175" s="2"/>
@@ -2797,7 +2827,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" ht="16">
       <c r="A176" s="2"/>
       <c r="D176" s="6"/>
       <c r="E176" s="2"/>
@@ -2805,7 +2835,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" ht="16">
       <c r="A177" s="2"/>
       <c r="D177" s="6"/>
       <c r="E177" s="2"/>
@@ -2813,7 +2843,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" ht="16">
       <c r="A178" s="2"/>
       <c r="D178" s="6"/>
       <c r="E178" s="2"/>
@@ -2821,7 +2851,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" ht="16">
       <c r="A179" s="2"/>
       <c r="D179" s="6"/>
       <c r="E179" s="2"/>
@@ -2829,7 +2859,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" ht="16">
       <c r="A180" s="2"/>
       <c r="D180" s="6"/>
       <c r="E180" s="2"/>
@@ -2837,7 +2867,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" ht="16">
       <c r="A181" s="2"/>
       <c r="D181" s="6"/>
       <c r="E181" s="2"/>
@@ -2845,7 +2875,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" ht="16">
       <c r="A182" s="2"/>
       <c r="D182" s="6"/>
       <c r="E182" s="2"/>
@@ -2853,7 +2883,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" ht="16">
       <c r="A183" s="2"/>
       <c r="D183" s="6"/>
       <c r="E183" s="2"/>
@@ -2861,7 +2891,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" ht="16">
       <c r="A184" s="2"/>
       <c r="D184" s="6"/>
       <c r="E184" s="2"/>
@@ -2869,7 +2899,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" ht="16">
       <c r="A185" s="2"/>
       <c r="D185" s="6"/>
       <c r="E185" s="2"/>
@@ -2877,7 +2907,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" ht="16">
       <c r="A186" s="2"/>
       <c r="D186" s="6"/>
       <c r="E186" s="2"/>
@@ -2885,7 +2915,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" ht="16">
       <c r="A187" s="2"/>
       <c r="D187" s="6"/>
       <c r="E187" s="2"/>
@@ -2893,7 +2923,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" ht="16">
       <c r="A188" s="2"/>
       <c r="D188" s="6"/>
       <c r="E188" s="2"/>
@@ -2901,7 +2931,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" ht="16">
       <c r="A189" s="2"/>
       <c r="D189" s="6"/>
       <c r="E189" s="2"/>
@@ -2909,7 +2939,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" ht="16">
       <c r="A190" s="2"/>
       <c r="D190" s="6"/>
       <c r="E190" s="2"/>
@@ -2917,7 +2947,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" ht="16">
       <c r="A191" s="2"/>
       <c r="D191" s="6"/>
       <c r="E191" s="2"/>
@@ -2925,7 +2955,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" ht="16">
       <c r="A192" s="2"/>
       <c r="D192" s="6"/>
       <c r="E192" s="2"/>
@@ -2933,7 +2963,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" ht="16">
       <c r="A193" s="2"/>
       <c r="D193" s="6"/>
       <c r="E193" s="2"/>
@@ -2941,7 +2971,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" ht="16">
       <c r="A194" s="2"/>
       <c r="D194" s="6"/>
       <c r="E194" s="2"/>
@@ -2949,7 +2979,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" ht="16">
       <c r="A195" s="2"/>
       <c r="D195" s="6"/>
       <c r="E195" s="2"/>
@@ -2957,7 +2987,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" ht="16">
       <c r="A196" s="2"/>
       <c r="D196" s="6"/>
       <c r="E196" s="2"/>
@@ -2965,7 +2995,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" ht="16">
       <c r="A197" s="2"/>
       <c r="D197" s="6"/>
       <c r="E197" s="2"/>
@@ -2973,7 +3003,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" ht="16">
       <c r="A198" s="2"/>
       <c r="D198" s="6"/>
       <c r="E198" s="2"/>
@@ -2981,7 +3011,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" ht="16">
       <c r="A199" s="2"/>
       <c r="D199" s="6"/>
       <c r="E199" s="2"/>
@@ -2989,7 +3019,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" ht="16">
       <c r="A200" s="2"/>
       <c r="D200" s="6"/>
       <c r="E200" s="2"/>
@@ -2997,7 +3027,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" ht="16">
       <c r="A201" s="2"/>
       <c r="D201" s="6"/>
       <c r="E201" s="2"/>
@@ -3005,7 +3035,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" ht="16">
       <c r="A202" s="2"/>
       <c r="D202" s="6"/>
       <c r="E202" s="2"/>
@@ -3013,7 +3043,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" ht="16">
       <c r="A203" s="2"/>
       <c r="D203" s="6"/>
       <c r="E203" s="2"/>
@@ -3021,7 +3051,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" ht="16">
       <c r="A204" s="2"/>
       <c r="D204" s="6"/>
       <c r="E204" s="2"/>
@@ -3029,7 +3059,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" ht="16">
       <c r="A205" s="2"/>
       <c r="D205" s="6"/>
       <c r="E205" s="2"/>
@@ -3037,7 +3067,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" ht="16">
       <c r="A206" s="2"/>
       <c r="D206" s="6"/>
       <c r="E206" s="2"/>
@@ -3045,7 +3075,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" ht="16">
       <c r="A207" s="2"/>
       <c r="D207" s="6"/>
       <c r="E207" s="2"/>
@@ -3053,7 +3083,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" ht="16">
       <c r="A208" s="2"/>
       <c r="D208" s="6"/>
       <c r="E208" s="2"/>
@@ -3061,7 +3091,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" ht="16">
       <c r="A209" s="2"/>
       <c r="D209" s="6"/>
       <c r="E209" s="2"/>
@@ -3069,7 +3099,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" ht="16">
       <c r="A210" s="2"/>
       <c r="D210" s="6"/>
       <c r="E210" s="2"/>
@@ -3077,7 +3107,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" ht="16">
       <c r="A211" s="2"/>
       <c r="D211" s="6"/>
       <c r="E211" s="2"/>
@@ -3085,7 +3115,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" ht="16">
       <c r="A212" s="2"/>
       <c r="D212" s="6"/>
       <c r="E212" s="2"/>
@@ -3093,7 +3123,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" ht="16">
       <c r="A213" s="2"/>
       <c r="D213" s="6"/>
       <c r="E213" s="2"/>
@@ -3101,7 +3131,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" ht="16">
       <c r="A214" s="2"/>
       <c r="D214" s="6"/>
       <c r="E214" s="2"/>
@@ -3109,7 +3139,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" ht="16">
       <c r="A215" s="2"/>
       <c r="D215" s="6"/>
       <c r="E215" s="2"/>
@@ -3117,7 +3147,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" ht="16">
       <c r="A216" s="2"/>
       <c r="D216" s="6"/>
       <c r="E216" s="2"/>
@@ -3125,7 +3155,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" ht="16">
       <c r="A217" s="2"/>
       <c r="D217" s="6"/>
       <c r="E217" s="2"/>
@@ -3133,7 +3163,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" ht="16">
       <c r="A218" s="2"/>
       <c r="D218" s="6"/>
       <c r="E218" s="2"/>
@@ -3141,7 +3171,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" ht="16">
       <c r="A219" s="2"/>
       <c r="D219" s="6"/>
       <c r="E219" s="2"/>
@@ -3149,7 +3179,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" ht="16">
       <c r="A220" s="2"/>
       <c r="D220" s="6"/>
       <c r="E220" s="2"/>
@@ -3157,7 +3187,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" ht="16">
       <c r="A221" s="2"/>
       <c r="D221" s="6"/>
       <c r="E221" s="2"/>
@@ -3165,7 +3195,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" ht="16">
       <c r="A222" s="2"/>
       <c r="D222" s="6"/>
       <c r="E222" s="2"/>
@@ -3173,7 +3203,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" ht="16">
       <c r="A223" s="2"/>
       <c r="D223" s="6"/>
       <c r="E223" s="2"/>
@@ -3181,7 +3211,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" ht="16">
       <c r="A224" s="2"/>
       <c r="D224" s="6"/>
       <c r="E224" s="2"/>
@@ -3189,7 +3219,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" ht="16">
       <c r="A225" s="2"/>
       <c r="D225" s="6"/>
       <c r="E225" s="2"/>
@@ -3197,7 +3227,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" ht="16">
       <c r="A226" s="2"/>
       <c r="D226" s="6"/>
       <c r="E226" s="2"/>
@@ -3205,7 +3235,7 @@
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" ht="16">
       <c r="A227" s="2"/>
       <c r="D227" s="6"/>
       <c r="E227" s="2"/>
@@ -3213,7 +3243,7 @@
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" ht="16">
       <c r="A228" s="2"/>
       <c r="D228" s="6"/>
       <c r="E228" s="2"/>
@@ -3221,7 +3251,7 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" ht="16">
       <c r="A229" s="2"/>
       <c r="D229" s="6"/>
       <c r="E229" s="2"/>
@@ -3229,7 +3259,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" ht="16">
       <c r="A230" s="2"/>
       <c r="D230" s="6"/>
       <c r="E230" s="2"/>
@@ -3237,7 +3267,7 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" ht="16">
       <c r="A231" s="2"/>
       <c r="D231" s="6"/>
       <c r="E231" s="2"/>
@@ -3245,7 +3275,7 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" ht="16">
       <c r="A232" s="2"/>
       <c r="D232" s="6"/>
       <c r="E232" s="2"/>
@@ -3253,7 +3283,7 @@
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" ht="16">
       <c r="A233" s="2"/>
       <c r="D233" s="6"/>
       <c r="E233" s="2"/>
@@ -3261,7 +3291,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" ht="16">
       <c r="A234" s="2"/>
       <c r="D234" s="6"/>
       <c r="E234" s="2"/>
@@ -3269,7 +3299,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" ht="16">
       <c r="A235" s="2"/>
       <c r="D235" s="6"/>
       <c r="E235" s="2"/>
@@ -3277,7 +3307,7 @@
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" ht="16">
       <c r="A236" s="2"/>
       <c r="D236" s="6"/>
       <c r="E236" s="2"/>
@@ -3285,7 +3315,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" ht="16">
       <c r="A237" s="2"/>
       <c r="D237" s="6"/>
       <c r="E237" s="2"/>
@@ -3293,7 +3323,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" ht="16">
       <c r="A238" s="2"/>
       <c r="D238" s="6"/>
       <c r="E238" s="2"/>
@@ -3301,7 +3331,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" ht="16">
       <c r="A239" s="2"/>
       <c r="D239" s="6"/>
       <c r="E239" s="2"/>
@@ -3309,7 +3339,7 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" ht="16">
       <c r="A240" s="2"/>
       <c r="D240" s="6"/>
       <c r="E240" s="2"/>
@@ -3317,7 +3347,7 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" ht="16">
       <c r="A241" s="2"/>
       <c r="D241" s="6"/>
       <c r="E241" s="2"/>
@@ -3325,7 +3355,7 @@
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" ht="16">
       <c r="A242" s="2"/>
       <c r="D242" s="6"/>
       <c r="E242" s="2"/>
@@ -3333,7 +3363,7 @@
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" ht="16">
       <c r="A243" s="2"/>
       <c r="D243" s="6"/>
       <c r="E243" s="2"/>
@@ -3341,7 +3371,7 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" ht="16">
       <c r="A244" s="2"/>
       <c r="D244" s="6"/>
       <c r="E244" s="2"/>
@@ -3349,7 +3379,7 @@
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" ht="16">
       <c r="A245" s="2"/>
       <c r="D245" s="6"/>
       <c r="E245" s="2"/>
@@ -3357,7 +3387,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" ht="16">
       <c r="A246" s="2"/>
       <c r="D246" s="6"/>
       <c r="E246" s="2"/>
@@ -3365,7 +3395,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" ht="16">
       <c r="A247" s="2"/>
       <c r="D247" s="6"/>
       <c r="E247" s="2"/>
@@ -3373,7 +3403,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" ht="16">
       <c r="A248" s="2"/>
       <c r="D248" s="6"/>
       <c r="E248" s="2"/>
@@ -3381,7 +3411,7 @@
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" ht="16">
       <c r="A249" s="2"/>
       <c r="D249" s="6"/>
       <c r="E249" s="2"/>
@@ -3389,7 +3419,7 @@
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" ht="16">
       <c r="A250" s="2"/>
       <c r="D250" s="6"/>
       <c r="E250" s="2"/>
@@ -3397,7 +3427,7 @@
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" ht="16">
       <c r="A251" s="2"/>
       <c r="D251" s="6"/>
       <c r="E251" s="2"/>
@@ -3405,7 +3435,7 @@
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" ht="16">
       <c r="A252" s="2"/>
       <c r="D252" s="6"/>
       <c r="E252" s="2"/>
@@ -3413,7 +3443,7 @@
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" ht="16">
       <c r="A253" s="2"/>
       <c r="D253" s="6"/>
       <c r="E253" s="2"/>
@@ -3421,7 +3451,7 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" ht="16">
       <c r="A254" s="2"/>
       <c r="D254" s="6"/>
       <c r="E254" s="2"/>
@@ -3429,7 +3459,7 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" ht="16">
       <c r="A255" s="2"/>
       <c r="D255" s="6"/>
       <c r="E255" s="2"/>
@@ -3437,7 +3467,7 @@
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" ht="16">
       <c r="A256" s="2"/>
       <c r="D256" s="6"/>
       <c r="E256" s="2"/>
@@ -3445,7 +3475,7 @@
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" ht="16">
       <c r="A257" s="2"/>
       <c r="D257" s="6"/>
       <c r="E257" s="2"/>
@@ -3453,7 +3483,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" ht="16">
       <c r="A258" s="2"/>
       <c r="D258" s="6"/>
       <c r="E258" s="2"/>
@@ -3461,7 +3491,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" ht="16">
       <c r="A259" s="2"/>
       <c r="D259" s="6"/>
       <c r="E259" s="2"/>
@@ -3469,7 +3499,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" ht="16">
       <c r="A260" s="2"/>
       <c r="D260" s="6"/>
       <c r="E260" s="2"/>
@@ -3477,7 +3507,7 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" ht="16">
       <c r="A261" s="2"/>
       <c r="D261" s="6"/>
       <c r="E261" s="2"/>
@@ -3485,7 +3515,7 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" ht="16">
       <c r="A262" s="2"/>
       <c r="D262" s="6"/>
       <c r="E262" s="2"/>
@@ -3493,7 +3523,7 @@
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" ht="16">
       <c r="A263" s="2"/>
       <c r="D263" s="6"/>
       <c r="E263" s="2"/>
@@ -3501,7 +3531,7 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" ht="16">
       <c r="A264" s="2"/>
       <c r="D264" s="6"/>
       <c r="E264" s="2"/>
@@ -3509,7 +3539,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" ht="16">
       <c r="A265" s="2"/>
       <c r="D265" s="6"/>
       <c r="E265" s="2"/>
@@ -3517,7 +3547,7 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" ht="16">
       <c r="A266" s="2"/>
       <c r="D266" s="6"/>
       <c r="E266" s="2"/>
@@ -3525,7 +3555,7 @@
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" ht="16">
       <c r="A267" s="2"/>
       <c r="D267" s="6"/>
       <c r="E267" s="2"/>
@@ -3533,7 +3563,7 @@
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" ht="16">
       <c r="A268" s="2"/>
       <c r="D268" s="6"/>
       <c r="E268" s="2"/>
@@ -3541,7 +3571,7 @@
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" ht="16">
       <c r="A269" s="2"/>
       <c r="D269" s="6"/>
       <c r="E269" s="2"/>
@@ -3549,7 +3579,7 @@
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" ht="16">
       <c r="A270" s="2"/>
       <c r="D270" s="6"/>
       <c r="E270" s="2"/>
@@ -3557,7 +3587,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" ht="16">
       <c r="A271" s="2"/>
       <c r="D271" s="6"/>
       <c r="E271" s="2"/>
@@ -3565,7 +3595,7 @@
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" ht="16">
       <c r="A272" s="2"/>
       <c r="D272" s="6"/>
       <c r="E272" s="2"/>
@@ -3573,7 +3603,7 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" ht="16">
       <c r="A273" s="2"/>
       <c r="D273" s="6"/>
       <c r="E273" s="2"/>
@@ -3581,7 +3611,7 @@
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" ht="16">
       <c r="A274" s="2"/>
       <c r="D274" s="6"/>
       <c r="E274" s="2"/>
@@ -3589,7 +3619,7 @@
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" ht="16">
       <c r="A275" s="2"/>
       <c r="D275" s="6"/>
       <c r="E275" s="2"/>
@@ -3597,7 +3627,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" ht="16">
       <c r="A276" s="2"/>
       <c r="D276" s="6"/>
       <c r="E276" s="2"/>
@@ -3605,7 +3635,7 @@
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" ht="16">
       <c r="A277" s="2"/>
       <c r="D277" s="6"/>
       <c r="E277" s="2"/>
@@ -3613,7 +3643,7 @@
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" ht="16">
       <c r="A278" s="2"/>
       <c r="D278" s="6"/>
       <c r="E278" s="2"/>
@@ -3621,7 +3651,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" ht="16">
       <c r="A279" s="2"/>
       <c r="D279" s="6"/>
       <c r="E279" s="2"/>
@@ -3629,7 +3659,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" ht="16">
       <c r="A280" s="2"/>
       <c r="D280" s="6"/>
       <c r="E280" s="2"/>
@@ -3637,7 +3667,7 @@
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" ht="16">
       <c r="A281" s="2"/>
       <c r="D281" s="6"/>
       <c r="E281" s="2"/>
@@ -3645,7 +3675,7 @@
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" ht="16">
       <c r="A282" s="2"/>
       <c r="D282" s="6"/>
       <c r="E282" s="2"/>
@@ -3653,7 +3683,7 @@
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" ht="16">
       <c r="A283" s="2"/>
       <c r="D283" s="6"/>
       <c r="E283" s="2"/>
@@ -3661,7 +3691,7 @@
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" ht="16">
       <c r="A284" s="2"/>
       <c r="D284" s="6"/>
       <c r="E284" s="2"/>
@@ -3669,7 +3699,7 @@
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" ht="16">
       <c r="A285" s="2"/>
       <c r="D285" s="6"/>
       <c r="E285" s="2"/>
@@ -3677,7 +3707,7 @@
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" ht="16">
       <c r="A286" s="2"/>
       <c r="D286" s="6"/>
       <c r="E286" s="2"/>
@@ -3685,7 +3715,7 @@
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" ht="16">
       <c r="A287" s="2"/>
       <c r="D287" s="6"/>
       <c r="E287" s="2"/>
@@ -3693,7 +3723,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" ht="16">
       <c r="A288" s="2"/>
       <c r="D288" s="6"/>
       <c r="E288" s="2"/>
@@ -3701,7 +3731,7 @@
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" ht="16">
       <c r="A289" s="2"/>
       <c r="D289" s="6"/>
       <c r="E289" s="2"/>
@@ -3709,7 +3739,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" ht="16">
       <c r="A290" s="2"/>
       <c r="D290" s="6"/>
       <c r="E290" s="2"/>
@@ -3717,7 +3747,7 @@
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" ht="16">
       <c r="A291" s="2"/>
       <c r="D291" s="6"/>
       <c r="E291" s="2"/>
@@ -3725,7 +3755,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" ht="16">
       <c r="A292" s="2"/>
       <c r="D292" s="6"/>
       <c r="E292" s="2"/>
@@ -3733,7 +3763,7 @@
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" ht="16">
       <c r="A293" s="2"/>
       <c r="D293" s="6"/>
       <c r="E293" s="2"/>
@@ -3741,7 +3771,7 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" ht="16">
       <c r="A294" s="2"/>
       <c r="D294" s="6"/>
       <c r="E294" s="2"/>
@@ -3749,7 +3779,7 @@
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" ht="16">
       <c r="A295" s="2"/>
       <c r="D295" s="6"/>
       <c r="E295" s="2"/>
@@ -3757,7 +3787,7 @@
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" ht="16">
       <c r="A296" s="2"/>
       <c r="D296" s="6"/>
       <c r="E296" s="2"/>
@@ -3765,7 +3795,7 @@
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" ht="16">
       <c r="A297" s="2"/>
       <c r="D297" s="6"/>
       <c r="E297" s="2"/>
@@ -3773,7 +3803,7 @@
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" ht="16">
       <c r="A298" s="2"/>
       <c r="D298" s="6"/>
       <c r="E298" s="2"/>
@@ -3781,7 +3811,7 @@
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" ht="16">
       <c r="A299" s="2"/>
       <c r="D299" s="6"/>
       <c r="E299" s="2"/>
@@ -3789,7 +3819,7 @@
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" ht="16">
       <c r="A300" s="2"/>
       <c r="D300" s="6"/>
       <c r="E300" s="2"/>
@@ -3797,7 +3827,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" ht="16">
       <c r="A301" s="2"/>
       <c r="D301" s="6"/>
       <c r="E301" s="2"/>
@@ -3805,7 +3835,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" ht="16">
       <c r="A302" s="2"/>
       <c r="D302" s="6"/>
       <c r="E302" s="2"/>
@@ -3813,7 +3843,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" ht="16">
       <c r="A303" s="2"/>
       <c r="D303" s="6"/>
       <c r="E303" s="2"/>
@@ -3821,7 +3851,7 @@
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" ht="16">
       <c r="A304" s="2"/>
       <c r="D304" s="6"/>
       <c r="E304" s="2"/>
@@ -3829,7 +3859,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" ht="16">
       <c r="A305" s="2"/>
       <c r="D305" s="6"/>
       <c r="E305" s="2"/>
@@ -3837,7 +3867,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" ht="16">
       <c r="A306" s="2"/>
       <c r="D306" s="6"/>
       <c r="E306" s="2"/>
@@ -3845,7 +3875,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" ht="16">
       <c r="A307" s="2"/>
       <c r="D307" s="6"/>
       <c r="E307" s="2"/>
@@ -3853,7 +3883,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" ht="16">
       <c r="A308" s="2"/>
       <c r="D308" s="6"/>
       <c r="E308" s="2"/>
@@ -3861,7 +3891,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" ht="16">
       <c r="A309" s="2"/>
       <c r="D309" s="6"/>
       <c r="E309" s="2"/>
@@ -3869,7 +3899,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" ht="16">
       <c r="A310" s="2"/>
       <c r="D310" s="6"/>
       <c r="E310" s="2"/>
@@ -3877,7 +3907,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" ht="16">
       <c r="A311" s="2"/>
       <c r="D311" s="6"/>
       <c r="E311" s="2"/>
@@ -3885,7 +3915,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" ht="16">
       <c r="A312" s="2"/>
       <c r="D312" s="6"/>
       <c r="E312" s="2"/>
@@ -3893,7 +3923,7 @@
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" ht="16">
       <c r="A313" s="2"/>
       <c r="D313" s="6"/>
       <c r="E313" s="2"/>
@@ -3901,7 +3931,7 @@
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" ht="16">
       <c r="A314" s="2"/>
       <c r="D314" s="6"/>
       <c r="E314" s="2"/>
@@ -3909,7 +3939,7 @@
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" ht="16">
       <c r="A315" s="2"/>
       <c r="D315" s="6"/>
       <c r="E315" s="2"/>
@@ -3917,7 +3947,7 @@
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" ht="16">
       <c r="A316" s="2"/>
       <c r="D316" s="6"/>
       <c r="E316" s="2"/>
@@ -3925,7 +3955,7 @@
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" ht="16">
       <c r="A317" s="2"/>
       <c r="D317" s="6"/>
       <c r="E317" s="2"/>
@@ -3933,7 +3963,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" ht="16">
       <c r="A318" s="2"/>
       <c r="D318" s="6"/>
       <c r="E318" s="2"/>
@@ -3941,7 +3971,7 @@
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" ht="16">
       <c r="A319" s="2"/>
       <c r="D319" s="6"/>
       <c r="E319" s="2"/>
@@ -3949,7 +3979,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" ht="16">
       <c r="A320" s="2"/>
       <c r="D320" s="6"/>
       <c r="E320" s="2"/>
@@ -3957,7 +3987,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" ht="16">
       <c r="A321" s="2"/>
       <c r="D321" s="6"/>
       <c r="E321" s="2"/>
@@ -3965,7 +3995,7 @@
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" ht="16">
       <c r="A322" s="2"/>
       <c r="D322" s="6"/>
       <c r="E322" s="2"/>
@@ -3973,7 +4003,7 @@
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" ht="16">
       <c r="A323" s="2"/>
       <c r="D323" s="6"/>
       <c r="E323" s="2"/>
@@ -3981,7 +4011,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" ht="16">
       <c r="A324" s="2"/>
       <c r="D324" s="6"/>
       <c r="E324" s="2"/>
@@ -3989,7 +4019,7 @@
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" ht="16">
       <c r="A325" s="2"/>
       <c r="D325" s="6"/>
       <c r="E325" s="2"/>
@@ -3997,7 +4027,7 @@
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" ht="16">
       <c r="A326" s="2"/>
       <c r="D326" s="6"/>
       <c r="E326" s="2"/>
@@ -4005,7 +4035,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" ht="16">
       <c r="A327" s="2"/>
       <c r="D327" s="6"/>
       <c r="E327" s="2"/>
@@ -4013,7 +4043,7 @@
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" ht="16">
       <c r="A328" s="2"/>
       <c r="D328" s="6"/>
       <c r="E328" s="2"/>
@@ -4021,7 +4051,7 @@
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" ht="16">
       <c r="A329" s="2"/>
       <c r="D329" s="6"/>
       <c r="E329" s="2"/>
@@ -4029,7 +4059,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" ht="16">
       <c r="A330" s="2"/>
       <c r="D330" s="6"/>
       <c r="E330" s="2"/>
@@ -4037,7 +4067,7 @@
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" ht="16">
       <c r="A331" s="2"/>
       <c r="D331" s="6"/>
       <c r="E331" s="2"/>
@@ -4045,7 +4075,7 @@
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" ht="16">
       <c r="A332" s="2"/>
       <c r="D332" s="6"/>
       <c r="E332" s="2"/>
@@ -4053,7 +4083,7 @@
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" ht="16">
       <c r="A333" s="2"/>
       <c r="D333" s="6"/>
       <c r="E333" s="2"/>
@@ -4061,7 +4091,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" ht="16">
       <c r="A334" s="2"/>
       <c r="D334" s="6"/>
       <c r="E334" s="2"/>
@@ -4069,7 +4099,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" ht="16">
       <c r="A335" s="2"/>
       <c r="D335" s="6"/>
       <c r="E335" s="2"/>
@@ -4077,7 +4107,7 @@
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" ht="16">
       <c r="A336" s="2"/>
       <c r="D336" s="6"/>
       <c r="E336" s="2"/>
@@ -4085,7 +4115,7 @@
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" ht="16">
       <c r="A337" s="2"/>
       <c r="D337" s="6"/>
       <c r="E337" s="2"/>
@@ -4093,7 +4123,7 @@
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" ht="16">
       <c r="A338" s="2"/>
       <c r="D338" s="6"/>
       <c r="E338" s="2"/>
@@ -4101,7 +4131,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" ht="16">
       <c r="A339" s="2"/>
       <c r="D339" s="6"/>
       <c r="E339" s="2"/>
@@ -4109,7 +4139,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" ht="16">
       <c r="A340" s="2"/>
       <c r="D340" s="6"/>
       <c r="E340" s="2"/>
@@ -4117,7 +4147,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" ht="16">
       <c r="A341" s="2"/>
       <c r="D341" s="6"/>
       <c r="E341" s="2"/>
@@ -4125,7 +4155,7 @@
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" ht="16">
       <c r="A342" s="2"/>
       <c r="D342" s="6"/>
       <c r="E342" s="2"/>
@@ -4133,7 +4163,7 @@
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" ht="16">
       <c r="A343" s="2"/>
       <c r="D343" s="6"/>
       <c r="E343" s="2"/>
@@ -4141,7 +4171,7 @@
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" ht="16">
       <c r="A344" s="2"/>
       <c r="D344" s="6"/>
       <c r="E344" s="2"/>
@@ -4149,7 +4179,7 @@
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" ht="16">
       <c r="A345" s="2"/>
       <c r="D345" s="6"/>
       <c r="E345" s="2"/>
@@ -4157,7 +4187,7 @@
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" ht="16">
       <c r="A346" s="2"/>
       <c r="D346" s="6"/>
       <c r="E346" s="2"/>
@@ -4165,7 +4195,7 @@
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" ht="16">
       <c r="A347" s="2"/>
       <c r="D347" s="6"/>
       <c r="E347" s="2"/>
@@ -4173,7 +4203,7 @@
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" ht="16">
       <c r="A348" s="2"/>
       <c r="D348" s="6"/>
       <c r="E348" s="2"/>
@@ -4181,7 +4211,7 @@
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" ht="16">
       <c r="A349" s="2"/>
       <c r="D349" s="6"/>
       <c r="E349" s="2"/>
@@ -4189,7 +4219,7 @@
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" ht="16">
       <c r="A350" s="2"/>
       <c r="D350" s="6"/>
       <c r="E350" s="2"/>
@@ -4197,7 +4227,7 @@
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" ht="16">
       <c r="A351" s="2"/>
       <c r="D351" s="6"/>
       <c r="E351" s="2"/>
@@ -4205,7 +4235,7 @@
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" ht="16">
       <c r="A352" s="2"/>
       <c r="D352" s="6"/>
       <c r="E352" s="2"/>
@@ -4213,7 +4243,7 @@
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" ht="16">
       <c r="A353" s="2"/>
       <c r="D353" s="6"/>
       <c r="E353" s="2"/>
@@ -4221,7 +4251,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" ht="16">
       <c r="A354" s="2"/>
       <c r="D354" s="6"/>
       <c r="E354" s="2"/>
@@ -4229,7 +4259,7 @@
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" ht="16">
       <c r="A355" s="2"/>
       <c r="D355" s="6"/>
       <c r="E355" s="2"/>
@@ -4237,7 +4267,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" ht="16">
       <c r="A356" s="2"/>
       <c r="D356" s="6"/>
       <c r="E356" s="2"/>
@@ -4245,7 +4275,7 @@
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" ht="16">
       <c r="A357" s="2"/>
       <c r="D357" s="6"/>
       <c r="E357" s="2"/>
@@ -4253,7 +4283,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" ht="16">
       <c r="A358" s="2"/>
       <c r="D358" s="6"/>
       <c r="E358" s="2"/>
@@ -4261,7 +4291,7 @@
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" ht="16">
       <c r="A359" s="2"/>
       <c r="D359" s="6"/>
       <c r="E359" s="2"/>
@@ -4269,7 +4299,7 @@
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" ht="16">
       <c r="A360" s="2"/>
       <c r="D360" s="6"/>
       <c r="E360" s="2"/>
@@ -4277,7 +4307,7 @@
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" ht="16">
       <c r="A361" s="2"/>
       <c r="D361" s="6"/>
       <c r="E361" s="2"/>
@@ -4285,7 +4315,7 @@
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" ht="16">
       <c r="A362" s="2"/>
       <c r="D362" s="6"/>
       <c r="E362" s="2"/>
@@ -4293,7 +4323,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" ht="16">
       <c r="A363" s="2"/>
       <c r="D363" s="6"/>
       <c r="E363" s="2"/>
@@ -4301,7 +4331,7 @@
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" ht="16">
       <c r="A364" s="2"/>
       <c r="D364" s="6"/>
       <c r="E364" s="2"/>
@@ -4309,7 +4339,7 @@
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" ht="16">
       <c r="A365" s="2"/>
       <c r="D365" s="6"/>
       <c r="E365" s="2"/>
@@ -4317,7 +4347,7 @@
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" ht="16">
       <c r="A366" s="2"/>
       <c r="D366" s="6"/>
       <c r="E366" s="2"/>
@@ -4325,7 +4355,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" ht="16">
       <c r="A367" s="2"/>
       <c r="D367" s="6"/>
       <c r="E367" s="2"/>
@@ -4333,7 +4363,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" ht="16">
       <c r="A368" s="2"/>
       <c r="D368" s="6"/>
       <c r="E368" s="2"/>
@@ -4341,7 +4371,7 @@
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" ht="16">
       <c r="A369" s="2"/>
       <c r="D369" s="6"/>
       <c r="E369" s="2"/>
@@ -4349,7 +4379,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" ht="16">
       <c r="A370" s="2"/>
       <c r="D370" s="6"/>
       <c r="E370" s="2"/>
@@ -4357,7 +4387,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" ht="16">
       <c r="A371" s="2"/>
       <c r="D371" s="6"/>
       <c r="E371" s="2"/>
@@ -4365,7 +4395,7 @@
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" ht="16">
       <c r="A372" s="2"/>
       <c r="D372" s="6"/>
       <c r="E372" s="2"/>
@@ -4373,7 +4403,7 @@
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" ht="16">
       <c r="A373" s="2"/>
       <c r="D373" s="6"/>
       <c r="E373" s="2"/>
@@ -4381,7 +4411,7 @@
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" ht="16">
       <c r="A374" s="2"/>
       <c r="D374" s="6"/>
       <c r="E374" s="2"/>
@@ -4389,7 +4419,7 @@
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" ht="16">
       <c r="A375" s="2"/>
       <c r="D375" s="6"/>
       <c r="E375" s="2"/>
@@ -4397,7 +4427,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" ht="16">
       <c r="A376" s="2"/>
       <c r="D376" s="6"/>
       <c r="E376" s="2"/>
@@ -4405,7 +4435,7 @@
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" ht="16">
       <c r="A377" s="2"/>
       <c r="D377" s="6"/>
       <c r="E377" s="2"/>
@@ -4413,7 +4443,7 @@
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" ht="16">
       <c r="A378" s="2"/>
       <c r="D378" s="6"/>
       <c r="E378" s="2"/>
@@ -4421,7 +4451,7 @@
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" ht="16">
       <c r="A379" s="2"/>
       <c r="D379" s="6"/>
       <c r="E379" s="2"/>
@@ -4429,7 +4459,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" ht="16">
       <c r="A380" s="2"/>
       <c r="D380" s="6"/>
       <c r="E380" s="2"/>
@@ -4437,7 +4467,7 @@
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" ht="16">
       <c r="A381" s="2"/>
       <c r="D381" s="6"/>
       <c r="E381" s="2"/>
@@ -4445,7 +4475,7 @@
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" ht="16">
       <c r="A382" s="2"/>
       <c r="D382" s="6"/>
       <c r="E382" s="2"/>
@@ -4453,7 +4483,7 @@
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" ht="16">
       <c r="A383" s="2"/>
       <c r="D383" s="6"/>
       <c r="E383" s="2"/>
@@ -4461,7 +4491,7 @@
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" ht="16">
       <c r="A384" s="2"/>
       <c r="D384" s="6"/>
       <c r="E384" s="2"/>
@@ -4469,7 +4499,7 @@
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" ht="16">
       <c r="A385" s="2"/>
       <c r="D385" s="6"/>
       <c r="E385" s="2"/>
@@ -4477,7 +4507,7 @@
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" ht="16">
       <c r="A386" s="2"/>
       <c r="D386" s="6"/>
       <c r="E386" s="2"/>
@@ -4485,7 +4515,7 @@
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" ht="16">
       <c r="A387" s="2"/>
       <c r="D387" s="6"/>
       <c r="E387" s="2"/>
@@ -4493,7 +4523,7 @@
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" ht="16">
       <c r="A388" s="2"/>
       <c r="D388" s="6"/>
       <c r="E388" s="2"/>
@@ -4501,7 +4531,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" ht="16">
       <c r="A389" s="2"/>
       <c r="D389" s="6"/>
       <c r="E389" s="2"/>
@@ -4509,7 +4539,7 @@
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" ht="16">
       <c r="A390" s="2"/>
       <c r="D390" s="6"/>
       <c r="E390" s="2"/>
@@ -4517,7 +4547,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" ht="16">
       <c r="A391" s="2"/>
       <c r="D391" s="6"/>
       <c r="E391" s="2"/>
@@ -4525,7 +4555,7 @@
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" ht="16">
       <c r="A392" s="2"/>
       <c r="D392" s="6"/>
       <c r="E392" s="2"/>
@@ -4533,7 +4563,7 @@
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" ht="16">
       <c r="A393" s="2"/>
       <c r="D393" s="6"/>
       <c r="E393" s="2"/>
@@ -4541,7 +4571,7 @@
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" ht="16">
       <c r="A394" s="2"/>
       <c r="D394" s="6"/>
       <c r="E394" s="2"/>
@@ -4549,7 +4579,7 @@
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" ht="16">
       <c r="A395" s="2"/>
       <c r="D395" s="6"/>
       <c r="E395" s="2"/>
@@ -4557,7 +4587,7 @@
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" ht="16">
       <c r="A396" s="2"/>
       <c r="D396" s="6"/>
       <c r="E396" s="2"/>
@@ -4565,7 +4595,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" ht="16">
       <c r="A397" s="2"/>
       <c r="D397" s="6"/>
       <c r="E397" s="2"/>
@@ -4573,7 +4603,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" ht="16">
       <c r="A398" s="2"/>
       <c r="D398" s="6"/>
       <c r="E398" s="2"/>
@@ -4581,7 +4611,7 @@
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" ht="16">
       <c r="A399" s="2"/>
       <c r="D399" s="6"/>
       <c r="E399" s="2"/>
@@ -4589,7 +4619,7 @@
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" ht="16">
       <c r="A400" s="2"/>
       <c r="D400" s="6"/>
       <c r="E400" s="2"/>
@@ -4597,7 +4627,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" ht="16">
       <c r="A401" s="2"/>
       <c r="D401" s="6"/>
       <c r="E401" s="2"/>
@@ -4605,7 +4635,7 @@
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" ht="16">
       <c r="A402" s="2"/>
       <c r="D402" s="6"/>
       <c r="E402" s="2"/>
@@ -4613,7 +4643,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" ht="16">
       <c r="A403" s="2"/>
       <c r="D403" s="6"/>
       <c r="E403" s="2"/>
@@ -4621,7 +4651,7 @@
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" ht="16">
       <c r="A404" s="2"/>
       <c r="D404" s="6"/>
       <c r="E404" s="2"/>
@@ -4629,7 +4659,7 @@
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" ht="16">
       <c r="A405" s="2"/>
       <c r="D405" s="6"/>
       <c r="E405" s="2"/>
@@ -4637,7 +4667,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" ht="16">
       <c r="A406" s="2"/>
       <c r="D406" s="6"/>
       <c r="E406" s="2"/>
@@ -4645,7 +4675,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" ht="16">
       <c r="A407" s="2"/>
       <c r="D407" s="6"/>
       <c r="E407" s="2"/>
@@ -4653,7 +4683,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" ht="16">
       <c r="A408" s="2"/>
       <c r="D408" s="6"/>
       <c r="E408" s="2"/>
@@ -4661,7 +4691,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" ht="16">
       <c r="A409" s="2"/>
       <c r="D409" s="6"/>
       <c r="E409" s="2"/>
@@ -4669,7 +4699,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" ht="16">
       <c r="A410" s="2"/>
       <c r="D410" s="6"/>
       <c r="E410" s="2"/>
@@ -4677,7 +4707,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" ht="16">
       <c r="A411" s="2"/>
       <c r="D411" s="6"/>
       <c r="E411" s="2"/>
@@ -4685,7 +4715,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" ht="16">
       <c r="A412" s="2"/>
       <c r="D412" s="6"/>
       <c r="E412" s="2"/>
@@ -4693,7 +4723,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" ht="16">
       <c r="A413" s="2"/>
       <c r="D413" s="6"/>
       <c r="E413" s="2"/>
@@ -4701,7 +4731,7 @@
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" ht="16">
       <c r="A414" s="2"/>
       <c r="D414" s="6"/>
       <c r="E414" s="2"/>
@@ -4709,7 +4739,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" ht="16">
       <c r="A415" s="2"/>
       <c r="D415" s="6"/>
       <c r="E415" s="2"/>
@@ -4717,7 +4747,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" ht="16">
       <c r="A416" s="2"/>
       <c r="D416" s="6"/>
       <c r="E416" s="2"/>
@@ -4725,7 +4755,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" ht="16">
       <c r="A417" s="2"/>
       <c r="D417" s="6"/>
       <c r="E417" s="2"/>
@@ -4733,7 +4763,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" ht="16">
       <c r="A418" s="2"/>
       <c r="D418" s="6"/>
       <c r="E418" s="2"/>
@@ -4741,7 +4771,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" ht="16">
       <c r="A419" s="2"/>
       <c r="D419" s="6"/>
       <c r="E419" s="2"/>
@@ -4749,7 +4779,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" ht="16">
       <c r="A420" s="2"/>
       <c r="D420" s="6"/>
       <c r="E420" s="2"/>
@@ -4757,7 +4787,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" ht="16">
       <c r="A421" s="2"/>
       <c r="D421" s="6"/>
       <c r="E421" s="2"/>
@@ -4765,7 +4795,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" ht="16">
       <c r="A422" s="2"/>
       <c r="D422" s="6"/>
       <c r="E422" s="2"/>
@@ -4773,7 +4803,7 @@
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" ht="16">
       <c r="A423" s="2"/>
       <c r="D423" s="6"/>
       <c r="E423" s="2"/>
@@ -4781,7 +4811,7 @@
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" ht="16">
       <c r="A424" s="2"/>
       <c r="D424" s="6"/>
       <c r="E424" s="2"/>
@@ -4789,7 +4819,7 @@
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" ht="16">
       <c r="A425" s="2"/>
       <c r="D425" s="6"/>
       <c r="E425" s="2"/>
@@ -4797,7 +4827,7 @@
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" ht="16">
       <c r="A426" s="2"/>
       <c r="D426" s="6"/>
       <c r="E426" s="2"/>
@@ -4805,7 +4835,7 @@
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" ht="16">
       <c r="A427" s="2"/>
       <c r="D427" s="6"/>
       <c r="E427" s="2"/>
@@ -4813,7 +4843,7 @@
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" ht="16">
       <c r="A428" s="2"/>
       <c r="D428" s="6"/>
       <c r="E428" s="2"/>
@@ -4821,7 +4851,7 @@
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" ht="16">
       <c r="A429" s="2"/>
       <c r="D429" s="6"/>
       <c r="E429" s="2"/>
@@ -4829,7 +4859,7 @@
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" ht="16">
       <c r="A430" s="2"/>
       <c r="D430" s="6"/>
       <c r="E430" s="2"/>
@@ -4837,7 +4867,7 @@
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" ht="16">
       <c r="A431" s="2"/>
       <c r="D431" s="6"/>
       <c r="E431" s="2"/>
@@ -4845,7 +4875,7 @@
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" ht="16">
       <c r="A432" s="2"/>
       <c r="D432" s="6"/>
       <c r="E432" s="2"/>
@@ -4853,7 +4883,7 @@
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" ht="16">
       <c r="A433" s="2"/>
       <c r="D433" s="6"/>
       <c r="E433" s="2"/>
@@ -4861,7 +4891,7 @@
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" ht="16">
       <c r="A434" s="2"/>
       <c r="D434" s="6"/>
       <c r="E434" s="2"/>
@@ -4869,7 +4899,7 @@
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" ht="16">
       <c r="A435" s="2"/>
       <c r="D435" s="6"/>
       <c r="E435" s="2"/>
@@ -4877,7 +4907,7 @@
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" ht="16">
       <c r="A436" s="2"/>
       <c r="D436" s="6"/>
       <c r="E436" s="2"/>
@@ -4885,7 +4915,7 @@
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" ht="16">
       <c r="A437" s="2"/>
       <c r="D437" s="6"/>
       <c r="E437" s="2"/>
@@ -4893,7 +4923,7 @@
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" ht="16">
       <c r="A438" s="2"/>
       <c r="D438" s="6"/>
       <c r="E438" s="2"/>
@@ -4901,7 +4931,7 @@
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" ht="16">
       <c r="A439" s="2"/>
       <c r="D439" s="6"/>
       <c r="E439" s="2"/>
@@ -4909,7 +4939,7 @@
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" ht="16">
       <c r="A440" s="2"/>
       <c r="D440" s="6"/>
       <c r="E440" s="2"/>
@@ -4917,7 +4947,7 @@
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" ht="16">
       <c r="A441" s="2"/>
       <c r="D441" s="6"/>
       <c r="E441" s="2"/>
@@ -4925,7 +4955,7 @@
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" ht="16">
       <c r="A442" s="2"/>
       <c r="D442" s="6"/>
       <c r="E442" s="2"/>
@@ -4933,7 +4963,7 @@
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" ht="16">
       <c r="A443" s="2"/>
       <c r="D443" s="6"/>
       <c r="E443" s="2"/>
@@ -4941,7 +4971,7 @@
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" ht="16">
       <c r="A444" s="2"/>
       <c r="D444" s="6"/>
       <c r="E444" s="2"/>
@@ -4949,7 +4979,7 @@
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" ht="16">
       <c r="A445" s="2"/>
       <c r="D445" s="6"/>
       <c r="E445" s="2"/>
@@ -4957,7 +4987,7 @@
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" ht="16">
       <c r="A446" s="2"/>
       <c r="D446" s="6"/>
       <c r="E446" s="2"/>
@@ -4965,7 +4995,7 @@
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" ht="16">
       <c r="A447" s="2"/>
       <c r="D447" s="6"/>
       <c r="E447" s="2"/>
@@ -4973,7 +5003,7 @@
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" ht="16">
       <c r="A448" s="2"/>
       <c r="D448" s="6"/>
       <c r="E448" s="2"/>
@@ -4981,7 +5011,7 @@
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" ht="16">
       <c r="A449" s="2"/>
       <c r="D449" s="6"/>
       <c r="E449" s="2"/>
@@ -4989,7 +5019,7 @@
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" ht="16">
       <c r="A450" s="2"/>
       <c r="D450" s="6"/>
       <c r="E450" s="2"/>
@@ -4997,7 +5027,7 @@
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" ht="16">
       <c r="A451" s="2"/>
       <c r="D451" s="6"/>
       <c r="E451" s="2"/>
@@ -5005,7 +5035,7 @@
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" ht="16">
       <c r="A452" s="2"/>
       <c r="D452" s="6"/>
       <c r="E452" s="2"/>
@@ -5013,7 +5043,7 @@
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" ht="16">
       <c r="A453" s="2"/>
       <c r="D453" s="6"/>
       <c r="E453" s="2"/>
@@ -5021,7 +5051,7 @@
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" ht="16">
       <c r="A454" s="2"/>
       <c r="D454" s="6"/>
       <c r="E454" s="2"/>
@@ -5029,7 +5059,7 @@
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" ht="16">
       <c r="A455" s="2"/>
       <c r="D455" s="6"/>
       <c r="E455" s="2"/>
@@ -5037,7 +5067,7 @@
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" ht="16">
       <c r="A456" s="2"/>
       <c r="D456" s="6"/>
       <c r="E456" s="2"/>
@@ -5045,7 +5075,7 @@
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" ht="16">
       <c r="A457" s="2"/>
       <c r="D457" s="6"/>
       <c r="E457" s="2"/>
@@ -5053,7 +5083,7 @@
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" ht="16">
       <c r="A458" s="2"/>
       <c r="D458" s="6"/>
       <c r="E458" s="2"/>
@@ -5061,7 +5091,7 @@
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" ht="16">
       <c r="A459" s="2"/>
       <c r="D459" s="6"/>
       <c r="E459" s="2"/>
@@ -5069,7 +5099,7 @@
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" ht="16">
       <c r="A460" s="2"/>
       <c r="D460" s="6"/>
       <c r="E460" s="2"/>
@@ -5077,7 +5107,7 @@
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" ht="16">
       <c r="A461" s="2"/>
       <c r="D461" s="6"/>
       <c r="E461" s="2"/>
@@ -5085,7 +5115,7 @@
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" ht="16">
       <c r="A462" s="2"/>
       <c r="D462" s="6"/>
       <c r="E462" s="2"/>
@@ -5093,7 +5123,7 @@
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" ht="16">
       <c r="A463" s="2"/>
       <c r="D463" s="6"/>
       <c r="E463" s="2"/>
@@ -5101,7 +5131,7 @@
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" ht="16">
       <c r="A464" s="2"/>
       <c r="D464" s="6"/>
       <c r="E464" s="2"/>
@@ -5109,7 +5139,7 @@
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" ht="16">
       <c r="A465" s="2"/>
       <c r="D465" s="6"/>
       <c r="E465" s="2"/>
@@ -5117,7 +5147,7 @@
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" ht="16">
       <c r="A466" s="2"/>
       <c r="D466" s="6"/>
       <c r="E466" s="2"/>
@@ -5125,7 +5155,7 @@
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" ht="16">
       <c r="A467" s="2"/>
       <c r="D467" s="6"/>
       <c r="E467" s="2"/>
@@ -5133,7 +5163,7 @@
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" ht="16">
       <c r="A468" s="2"/>
       <c r="D468" s="6"/>
       <c r="E468" s="2"/>
@@ -5141,7 +5171,7 @@
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" ht="16">
       <c r="A469" s="2"/>
       <c r="D469" s="6"/>
       <c r="E469" s="2"/>
@@ -5149,7 +5179,7 @@
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" ht="16">
       <c r="A470" s="2"/>
       <c r="D470" s="6"/>
       <c r="E470" s="2"/>
@@ -5157,7 +5187,7 @@
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" ht="16">
       <c r="A471" s="2"/>
       <c r="D471" s="6"/>
       <c r="E471" s="2"/>
@@ -5165,7 +5195,7 @@
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" ht="16">
       <c r="A472" s="2"/>
       <c r="D472" s="6"/>
       <c r="E472" s="2"/>
@@ -5173,7 +5203,7 @@
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" ht="16">
       <c r="A473" s="2"/>
       <c r="D473" s="6"/>
       <c r="E473" s="2"/>
@@ -5181,7 +5211,7 @@
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" ht="16">
       <c r="A474" s="2"/>
       <c r="D474" s="6"/>
       <c r="E474" s="2"/>
@@ -5189,7 +5219,7 @@
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" ht="16">
       <c r="A475" s="2"/>
       <c r="D475" s="6"/>
       <c r="E475" s="2"/>
@@ -5197,7 +5227,7 @@
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" ht="16">
       <c r="A476" s="2"/>
       <c r="D476" s="6"/>
       <c r="E476" s="2"/>
@@ -5205,7 +5235,7 @@
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" ht="16">
       <c r="A477" s="2"/>
       <c r="D477" s="6"/>
       <c r="E477" s="2"/>
@@ -5213,7 +5243,7 @@
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" ht="16">
       <c r="A478" s="2"/>
       <c r="D478" s="6"/>
       <c r="E478" s="2"/>
@@ -5221,7 +5251,7 @@
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" ht="16">
       <c r="A479" s="2"/>
       <c r="D479" s="6"/>
       <c r="E479" s="2"/>
@@ -5229,7 +5259,7 @@
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" ht="16">
       <c r="A480" s="2"/>
       <c r="D480" s="6"/>
       <c r="E480" s="2"/>
@@ -5237,7 +5267,7 @@
       <c r="G480" s="2"/>
       <c r="H480" s="2"/>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" ht="16">
       <c r="A481" s="2"/>
       <c r="D481" s="6"/>
       <c r="E481" s="2"/>
@@ -5245,7 +5275,7 @@
       <c r="G481" s="2"/>
       <c r="H481" s="2"/>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" ht="16">
       <c r="A482" s="2"/>
       <c r="D482" s="6"/>
       <c r="E482" s="2"/>
@@ -5253,7 +5283,7 @@
       <c r="G482" s="2"/>
       <c r="H482" s="2"/>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" ht="16">
       <c r="A483" s="2"/>
       <c r="D483" s="6"/>
       <c r="E483" s="2"/>
@@ -5261,7 +5291,7 @@
       <c r="G483" s="2"/>
       <c r="H483" s="2"/>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" ht="16">
       <c r="A484" s="2"/>
       <c r="D484" s="6"/>
       <c r="E484" s="2"/>
@@ -5269,7 +5299,7 @@
       <c r="G484" s="2"/>
       <c r="H484" s="2"/>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" ht="16">
       <c r="A485" s="2"/>
       <c r="D485" s="6"/>
       <c r="E485" s="2"/>
@@ -5277,7 +5307,7 @@
       <c r="G485" s="2"/>
       <c r="H485" s="2"/>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" ht="16">
       <c r="A486" s="2"/>
       <c r="D486" s="6"/>
       <c r="E486" s="2"/>
@@ -5285,7 +5315,7 @@
       <c r="G486" s="2"/>
       <c r="H486" s="2"/>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" ht="16">
       <c r="A487" s="2"/>
       <c r="D487" s="6"/>
       <c r="E487" s="2"/>
@@ -5293,7 +5323,7 @@
       <c r="G487" s="2"/>
       <c r="H487" s="2"/>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" ht="16">
       <c r="A488" s="2"/>
       <c r="D488" s="6"/>
       <c r="E488" s="2"/>
@@ -5301,7 +5331,7 @@
       <c r="G488" s="2"/>
       <c r="H488" s="2"/>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" ht="16">
       <c r="A489" s="2"/>
       <c r="D489" s="6"/>
       <c r="E489" s="2"/>
@@ -5309,7 +5339,7 @@
       <c r="G489" s="2"/>
       <c r="H489" s="2"/>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" ht="16">
       <c r="A490" s="2"/>
       <c r="D490" s="6"/>
       <c r="E490" s="2"/>
@@ -5317,7 +5347,7 @@
       <c r="G490" s="2"/>
       <c r="H490" s="2"/>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" ht="16">
       <c r="A491" s="2"/>
       <c r="D491" s="6"/>
       <c r="E491" s="2"/>
@@ -5325,7 +5355,7 @@
       <c r="G491" s="2"/>
       <c r="H491" s="2"/>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" ht="16">
       <c r="A492" s="2"/>
       <c r="D492" s="6"/>
       <c r="E492" s="2"/>
@@ -5333,7 +5363,7 @@
       <c r="G492" s="2"/>
       <c r="H492" s="2"/>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" ht="16">
       <c r="A493" s="2"/>
       <c r="D493" s="6"/>
       <c r="E493" s="2"/>
@@ -5341,7 +5371,7 @@
       <c r="G493" s="2"/>
       <c r="H493" s="2"/>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" ht="16">
       <c r="A494" s="2"/>
       <c r="D494" s="6"/>
       <c r="E494" s="2"/>
@@ -5349,7 +5379,7 @@
       <c r="G494" s="2"/>
       <c r="H494" s="2"/>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" ht="16">
       <c r="A495" s="2"/>
       <c r="D495" s="6"/>
       <c r="E495" s="2"/>
@@ -5357,7 +5387,7 @@
       <c r="G495" s="2"/>
       <c r="H495" s="2"/>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" ht="16">
       <c r="A496" s="2"/>
       <c r="D496" s="6"/>
       <c r="E496" s="2"/>
@@ -5365,7 +5395,7 @@
       <c r="G496" s="2"/>
       <c r="H496" s="2"/>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" ht="16">
       <c r="A497" s="2"/>
       <c r="D497" s="6"/>
       <c r="E497" s="2"/>
@@ -5373,7 +5403,7 @@
       <c r="G497" s="2"/>
       <c r="H497" s="2"/>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" ht="16">
       <c r="A498" s="2"/>
       <c r="D498" s="6"/>
       <c r="E498" s="2"/>
@@ -5381,7 +5411,7 @@
       <c r="G498" s="2"/>
       <c r="H498" s="2"/>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" ht="16">
       <c r="A499" s="2"/>
       <c r="D499" s="6"/>
       <c r="E499" s="2"/>
@@ -5389,7 +5419,7 @@
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" ht="16">
       <c r="A500" s="2"/>
       <c r="D500" s="6"/>
       <c r="E500" s="2"/>
@@ -5397,7 +5427,7 @@
       <c r="G500" s="2"/>
       <c r="H500" s="2"/>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" ht="16">
       <c r="A501" s="2"/>
       <c r="D501" s="6"/>
       <c r="E501" s="2"/>
@@ -5405,7 +5435,7 @@
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" ht="16">
       <c r="A502" s="2"/>
       <c r="D502" s="6"/>
       <c r="E502" s="2"/>
@@ -5413,7 +5443,7 @@
       <c r="G502" s="2"/>
       <c r="H502" s="2"/>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" ht="16">
       <c r="A503" s="2"/>
       <c r="D503" s="6"/>
       <c r="E503" s="2"/>
@@ -5421,7 +5451,7 @@
       <c r="G503" s="2"/>
       <c r="H503" s="2"/>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" ht="16">
       <c r="A504" s="2"/>
       <c r="D504" s="6"/>
       <c r="E504" s="2"/>
@@ -5429,7 +5459,7 @@
       <c r="G504" s="2"/>
       <c r="H504" s="2"/>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" ht="16">
       <c r="A505" s="2"/>
       <c r="D505" s="6"/>
       <c r="E505" s="2"/>
@@ -5437,7 +5467,7 @@
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" ht="16">
       <c r="A506" s="2"/>
       <c r="D506" s="6"/>
       <c r="E506" s="2"/>
@@ -5445,7 +5475,7 @@
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" ht="16">
       <c r="A507" s="2"/>
       <c r="D507" s="6"/>
       <c r="E507" s="2"/>
@@ -5453,7 +5483,7 @@
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" ht="16">
       <c r="A508" s="2"/>
       <c r="D508" s="6"/>
       <c r="E508" s="2"/>
@@ -5461,7 +5491,7 @@
       <c r="G508" s="2"/>
       <c r="H508" s="2"/>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" ht="16">
       <c r="A509" s="2"/>
       <c r="D509" s="6"/>
       <c r="E509" s="2"/>
@@ -5469,7 +5499,7 @@
       <c r="G509" s="2"/>
       <c r="H509" s="2"/>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" ht="16">
       <c r="A510" s="2"/>
       <c r="D510" s="6"/>
       <c r="E510" s="2"/>
@@ -5477,7 +5507,7 @@
       <c r="G510" s="2"/>
       <c r="H510" s="2"/>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" ht="16">
       <c r="A511" s="2"/>
       <c r="D511" s="6"/>
       <c r="E511" s="2"/>
@@ -5485,7 +5515,7 @@
       <c r="G511" s="2"/>
       <c r="H511" s="2"/>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" ht="16">
       <c r="A512" s="2"/>
       <c r="D512" s="6"/>
       <c r="E512" s="2"/>
@@ -5493,7 +5523,7 @@
       <c r="G512" s="2"/>
       <c r="H512" s="2"/>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" ht="16">
       <c r="A513" s="2"/>
       <c r="D513" s="6"/>
       <c r="E513" s="2"/>
@@ -5501,7 +5531,7 @@
       <c r="G513" s="2"/>
       <c r="H513" s="2"/>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" ht="16">
       <c r="A514" s="2"/>
       <c r="D514" s="6"/>
       <c r="E514" s="2"/>
@@ -5509,7 +5539,7 @@
       <c r="G514" s="2"/>
       <c r="H514" s="2"/>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" ht="16">
       <c r="A515" s="2"/>
       <c r="D515" s="6"/>
       <c r="E515" s="2"/>
@@ -5517,7 +5547,7 @@
       <c r="G515" s="2"/>
       <c r="H515" s="2"/>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" ht="16">
       <c r="A516" s="2"/>
       <c r="D516" s="6"/>
       <c r="E516" s="2"/>
@@ -5525,7 +5555,7 @@
       <c r="G516" s="2"/>
       <c r="H516" s="2"/>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" ht="16">
       <c r="A517" s="2"/>
       <c r="D517" s="6"/>
       <c r="E517" s="2"/>
@@ -5533,7 +5563,7 @@
       <c r="G517" s="2"/>
       <c r="H517" s="2"/>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" ht="16">
       <c r="A518" s="2"/>
       <c r="D518" s="6"/>
       <c r="E518" s="2"/>
@@ -5541,7 +5571,7 @@
       <c r="G518" s="2"/>
       <c r="H518" s="2"/>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" ht="16">
       <c r="A519" s="2"/>
       <c r="D519" s="6"/>
       <c r="E519" s="2"/>
@@ -5549,7 +5579,7 @@
       <c r="G519" s="2"/>
       <c r="H519" s="2"/>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" ht="16">
       <c r="A520" s="2"/>
       <c r="D520" s="6"/>
       <c r="E520" s="2"/>
@@ -5557,7 +5587,7 @@
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" ht="16">
       <c r="A521" s="2"/>
       <c r="D521" s="6"/>
       <c r="E521" s="2"/>
@@ -5565,7 +5595,7 @@
       <c r="G521" s="2"/>
       <c r="H521" s="2"/>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" ht="16">
       <c r="A522" s="2"/>
       <c r="D522" s="6"/>
       <c r="E522" s="2"/>
@@ -5573,7 +5603,7 @@
       <c r="G522" s="2"/>
       <c r="H522" s="2"/>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" ht="16">
       <c r="A523" s="2"/>
       <c r="D523" s="6"/>
       <c r="E523" s="2"/>
@@ -5581,7 +5611,7 @@
       <c r="G523" s="2"/>
       <c r="H523" s="2"/>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" ht="16">
       <c r="A524" s="2"/>
       <c r="D524" s="6"/>
       <c r="E524" s="2"/>
@@ -5589,7 +5619,7 @@
       <c r="G524" s="2"/>
       <c r="H524" s="2"/>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" ht="16">
       <c r="A525" s="2"/>
       <c r="D525" s="6"/>
       <c r="E525" s="2"/>
@@ -5597,7 +5627,7 @@
       <c r="G525" s="2"/>
       <c r="H525" s="2"/>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" ht="16">
       <c r="A526" s="2"/>
       <c r="D526" s="6"/>
       <c r="E526" s="2"/>
@@ -5605,7 +5635,7 @@
       <c r="G526" s="2"/>
       <c r="H526" s="2"/>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" ht="16">
       <c r="A527" s="2"/>
       <c r="D527" s="6"/>
       <c r="E527" s="2"/>
@@ -5613,7 +5643,7 @@
       <c r="G527" s="2"/>
       <c r="H527" s="2"/>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" ht="16">
       <c r="A528" s="2"/>
       <c r="D528" s="6"/>
       <c r="E528" s="2"/>
@@ -5621,7 +5651,7 @@
       <c r="G528" s="2"/>
       <c r="H528" s="2"/>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" ht="16">
       <c r="A529" s="2"/>
       <c r="D529" s="6"/>
       <c r="E529" s="2"/>
@@ -5629,7 +5659,7 @@
       <c r="G529" s="2"/>
       <c r="H529" s="2"/>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" ht="16">
       <c r="A530" s="2"/>
       <c r="D530" s="6"/>
       <c r="E530" s="2"/>
@@ -5637,7 +5667,7 @@
       <c r="G530" s="2"/>
       <c r="H530" s="2"/>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" ht="16">
       <c r="A531" s="2"/>
       <c r="D531" s="6"/>
       <c r="E531" s="2"/>
@@ -5645,7 +5675,7 @@
       <c r="G531" s="2"/>
       <c r="H531" s="2"/>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" ht="16">
       <c r="A532" s="2"/>
       <c r="D532" s="6"/>
       <c r="E532" s="2"/>
@@ -5653,7 +5683,7 @@
       <c r="G532" s="2"/>
       <c r="H532" s="2"/>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" ht="16">
       <c r="A533" s="2"/>
       <c r="D533" s="6"/>
       <c r="E533" s="2"/>
@@ -5661,7 +5691,7 @@
       <c r="G533" s="2"/>
       <c r="H533" s="2"/>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" ht="16">
       <c r="A534" s="2"/>
       <c r="D534" s="6"/>
       <c r="E534" s="2"/>
@@ -5669,7 +5699,7 @@
       <c r="G534" s="2"/>
       <c r="H534" s="2"/>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" ht="16">
       <c r="A535" s="2"/>
       <c r="D535" s="6"/>
       <c r="E535" s="2"/>
@@ -5677,7 +5707,7 @@
       <c r="G535" s="2"/>
       <c r="H535" s="2"/>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" ht="16">
       <c r="A536" s="2"/>
       <c r="D536" s="6"/>
       <c r="E536" s="2"/>
@@ -5685,7 +5715,7 @@
       <c r="G536" s="2"/>
       <c r="H536" s="2"/>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" ht="16">
       <c r="A537" s="2"/>
       <c r="D537" s="6"/>
       <c r="E537" s="2"/>
@@ -5693,7 +5723,7 @@
       <c r="G537" s="2"/>
       <c r="H537" s="2"/>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" ht="16">
       <c r="A538" s="2"/>
       <c r="D538" s="6"/>
       <c r="E538" s="2"/>
@@ -5701,7 +5731,7 @@
       <c r="G538" s="2"/>
       <c r="H538" s="2"/>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" ht="16">
       <c r="A539" s="2"/>
       <c r="D539" s="6"/>
       <c r="E539" s="2"/>
@@ -5709,7 +5739,7 @@
       <c r="G539" s="2"/>
       <c r="H539" s="2"/>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" ht="16">
       <c r="A540" s="2"/>
       <c r="D540" s="6"/>
       <c r="E540" s="2"/>
@@ -5717,7 +5747,7 @@
       <c r="G540" s="2"/>
       <c r="H540" s="2"/>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" ht="16">
       <c r="A541" s="2"/>
       <c r="D541" s="6"/>
       <c r="E541" s="2"/>
@@ -5725,7 +5755,7 @@
       <c r="G541" s="2"/>
       <c r="H541" s="2"/>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" ht="16">
       <c r="A542" s="2"/>
       <c r="D542" s="6"/>
       <c r="E542" s="2"/>
@@ -5733,7 +5763,7 @@
       <c r="G542" s="2"/>
       <c r="H542" s="2"/>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" ht="16">
       <c r="A543" s="2"/>
       <c r="D543" s="6"/>
       <c r="E543" s="2"/>
@@ -5741,7 +5771,7 @@
       <c r="G543" s="2"/>
       <c r="H543" s="2"/>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" ht="16">
       <c r="A544" s="2"/>
       <c r="D544" s="6"/>
       <c r="E544" s="2"/>
@@ -5749,7 +5779,7 @@
       <c r="G544" s="2"/>
       <c r="H544" s="2"/>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" ht="16">
       <c r="A545" s="2"/>
       <c r="D545" s="6"/>
       <c r="E545" s="2"/>
@@ -5757,7 +5787,7 @@
       <c r="G545" s="2"/>
       <c r="H545" s="2"/>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" ht="16">
       <c r="A546" s="2"/>
       <c r="D546" s="6"/>
       <c r="E546" s="2"/>
@@ -5765,7 +5795,7 @@
       <c r="G546" s="2"/>
       <c r="H546" s="2"/>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" ht="16">
       <c r="A547" s="2"/>
       <c r="D547" s="6"/>
       <c r="E547" s="2"/>
@@ -5773,7 +5803,7 @@
       <c r="G547" s="2"/>
       <c r="H547" s="2"/>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" ht="16">
       <c r="A548" s="2"/>
       <c r="D548" s="6"/>
       <c r="E548" s="2"/>
@@ -5781,7 +5811,7 @@
       <c r="G548" s="2"/>
       <c r="H548" s="2"/>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" ht="16">
       <c r="A549" s="2"/>
       <c r="D549" s="6"/>
       <c r="E549" s="2"/>
@@ -5789,7 +5819,7 @@
       <c r="G549" s="2"/>
       <c r="H549" s="2"/>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" ht="16">
       <c r="A550" s="2"/>
       <c r="D550" s="6"/>
       <c r="E550" s="2"/>
@@ -5797,7 +5827,7 @@
       <c r="G550" s="2"/>
       <c r="H550" s="2"/>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" ht="16">
       <c r="A551" s="2"/>
       <c r="D551" s="6"/>
       <c r="E551" s="2"/>
@@ -5805,7 +5835,7 @@
       <c r="G551" s="2"/>
       <c r="H551" s="2"/>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" ht="16">
       <c r="A552" s="2"/>
       <c r="D552" s="6"/>
       <c r="E552" s="2"/>
@@ -5813,7 +5843,7 @@
       <c r="G552" s="2"/>
       <c r="H552" s="2"/>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" ht="16">
       <c r="A553" s="2"/>
       <c r="D553" s="6"/>
       <c r="E553" s="2"/>
@@ -5821,7 +5851,7 @@
       <c r="G553" s="2"/>
       <c r="H553" s="2"/>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" ht="16">
       <c r="A554" s="2"/>
       <c r="D554" s="6"/>
       <c r="E554" s="2"/>
@@ -5829,7 +5859,7 @@
       <c r="G554" s="2"/>
       <c r="H554" s="2"/>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" ht="16">
       <c r="A555" s="2"/>
       <c r="D555" s="6"/>
       <c r="E555" s="2"/>
@@ -5837,7 +5867,7 @@
       <c r="G555" s="2"/>
       <c r="H555" s="2"/>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" ht="16">
       <c r="A556" s="2"/>
       <c r="D556" s="6"/>
       <c r="E556" s="2"/>
@@ -5845,7 +5875,7 @@
       <c r="G556" s="2"/>
       <c r="H556" s="2"/>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" ht="16">
       <c r="A557" s="2"/>
       <c r="D557" s="6"/>
       <c r="E557" s="2"/>
@@ -5853,7 +5883,7 @@
       <c r="G557" s="2"/>
       <c r="H557" s="2"/>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" ht="16">
       <c r="A558" s="2"/>
       <c r="D558" s="6"/>
       <c r="E558" s="2"/>
@@ -5861,7 +5891,7 @@
       <c r="G558" s="2"/>
       <c r="H558" s="2"/>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" ht="16">
       <c r="A559" s="2"/>
       <c r="D559" s="6"/>
       <c r="E559" s="2"/>
@@ -5869,7 +5899,7 @@
       <c r="G559" s="2"/>
       <c r="H559" s="2"/>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" ht="16">
       <c r="A560" s="2"/>
       <c r="D560" s="6"/>
       <c r="E560" s="2"/>
@@ -5877,7 +5907,7 @@
       <c r="G560" s="2"/>
       <c r="H560" s="2"/>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" ht="16">
       <c r="A561" s="2"/>
       <c r="D561" s="6"/>
       <c r="E561" s="2"/>
@@ -5885,7 +5915,7 @@
       <c r="G561" s="2"/>
       <c r="H561" s="2"/>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" ht="16">
       <c r="A562" s="2"/>
       <c r="D562" s="6"/>
       <c r="E562" s="2"/>
@@ -5893,7 +5923,7 @@
       <c r="G562" s="2"/>
       <c r="H562" s="2"/>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" ht="16">
       <c r="A563" s="2"/>
       <c r="D563" s="6"/>
       <c r="E563" s="2"/>
@@ -5901,7 +5931,7 @@
       <c r="G563" s="2"/>
       <c r="H563" s="2"/>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" ht="16">
       <c r="A564" s="2"/>
       <c r="D564" s="6"/>
       <c r="E564" s="2"/>
@@ -5909,7 +5939,7 @@
       <c r="G564" s="2"/>
       <c r="H564" s="2"/>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" ht="16">
       <c r="A565" s="2"/>
       <c r="D565" s="6"/>
       <c r="E565" s="2"/>
@@ -5917,7 +5947,7 @@
       <c r="G565" s="2"/>
       <c r="H565" s="2"/>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" ht="16">
       <c r="A566" s="2"/>
       <c r="D566" s="6"/>
       <c r="E566" s="2"/>
@@ -5925,7 +5955,7 @@
       <c r="G566" s="2"/>
       <c r="H566" s="2"/>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" ht="16">
       <c r="A567" s="2"/>
       <c r="D567" s="6"/>
       <c r="E567" s="2"/>
@@ -5933,7 +5963,7 @@
       <c r="G567" s="2"/>
       <c r="H567" s="2"/>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" ht="16">
       <c r="A568" s="2"/>
       <c r="D568" s="6"/>
       <c r="E568" s="2"/>
@@ -5941,7 +5971,7 @@
       <c r="G568" s="2"/>
       <c r="H568" s="2"/>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" ht="16">
       <c r="A569" s="2"/>
       <c r="D569" s="6"/>
       <c r="E569" s="2"/>
@@ -5949,7 +5979,7 @@
       <c r="G569" s="2"/>
       <c r="H569" s="2"/>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" ht="16">
       <c r="A570" s="2"/>
       <c r="D570" s="6"/>
       <c r="E570" s="2"/>
@@ -5957,7 +5987,7 @@
       <c r="G570" s="2"/>
       <c r="H570" s="2"/>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" ht="16">
       <c r="A571" s="2"/>
       <c r="D571" s="6"/>
       <c r="E571" s="2"/>
@@ -5965,7 +5995,7 @@
       <c r="G571" s="2"/>
       <c r="H571" s="2"/>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" ht="16">
       <c r="A572" s="2"/>
       <c r="D572" s="6"/>
       <c r="E572" s="2"/>
@@ -5973,7 +6003,7 @@
       <c r="G572" s="2"/>
       <c r="H572" s="2"/>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" ht="16">
       <c r="A573" s="2"/>
       <c r="D573" s="6"/>
       <c r="E573" s="2"/>
@@ -5981,7 +6011,7 @@
       <c r="G573" s="2"/>
       <c r="H573" s="2"/>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" ht="16">
       <c r="A574" s="2"/>
       <c r="D574" s="6"/>
       <c r="E574" s="2"/>
@@ -5989,7 +6019,7 @@
       <c r="G574" s="2"/>
       <c r="H574" s="2"/>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" ht="16">
       <c r="A575" s="2"/>
       <c r="D575" s="6"/>
       <c r="E575" s="2"/>
@@ -5997,7 +6027,7 @@
       <c r="G575" s="2"/>
       <c r="H575" s="2"/>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" ht="16">
       <c r="A576" s="2"/>
       <c r="D576" s="6"/>
       <c r="E576" s="2"/>
@@ -6005,7 +6035,7 @@
       <c r="G576" s="2"/>
       <c r="H576" s="2"/>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" ht="16">
       <c r="A577" s="2"/>
       <c r="D577" s="6"/>
       <c r="E577" s="2"/>
@@ -6013,7 +6043,7 @@
       <c r="G577" s="2"/>
       <c r="H577" s="2"/>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" ht="16">
       <c r="A578" s="2"/>
       <c r="D578" s="6"/>
       <c r="E578" s="2"/>
@@ -6021,7 +6051,7 @@
       <c r="G578" s="2"/>
       <c r="H578" s="2"/>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" ht="16">
       <c r="A579" s="2"/>
       <c r="D579" s="6"/>
       <c r="E579" s="2"/>
@@ -6029,7 +6059,7 @@
       <c r="G579" s="2"/>
       <c r="H579" s="2"/>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" ht="16">
       <c r="A580" s="2"/>
       <c r="D580" s="6"/>
       <c r="E580" s="2"/>
@@ -6037,7 +6067,7 @@
       <c r="G580" s="2"/>
       <c r="H580" s="2"/>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" ht="16">
       <c r="A581" s="2"/>
       <c r="D581" s="6"/>
       <c r="E581" s="2"/>
@@ -6045,7 +6075,7 @@
       <c r="G581" s="2"/>
       <c r="H581" s="2"/>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" ht="16">
       <c r="A582" s="2"/>
       <c r="D582" s="6"/>
       <c r="E582" s="2"/>
@@ -6053,7 +6083,7 @@
       <c r="G582" s="2"/>
       <c r="H582" s="2"/>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" ht="16">
       <c r="A583" s="2"/>
       <c r="D583" s="6"/>
       <c r="E583" s="2"/>
@@ -6061,7 +6091,7 @@
       <c r="G583" s="2"/>
       <c r="H583" s="2"/>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" ht="16">
       <c r="A584" s="2"/>
       <c r="D584" s="6"/>
       <c r="E584" s="2"/>
@@ -6069,7 +6099,7 @@
       <c r="G584" s="2"/>
       <c r="H584" s="2"/>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" ht="16">
       <c r="A585" s="2"/>
       <c r="D585" s="6"/>
       <c r="E585" s="2"/>
@@ -6077,7 +6107,7 @@
       <c r="G585" s="2"/>
       <c r="H585" s="2"/>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" ht="16">
       <c r="A586" s="2"/>
       <c r="D586" s="6"/>
       <c r="E586" s="2"/>
@@ -6085,7 +6115,7 @@
       <c r="G586" s="2"/>
       <c r="H586" s="2"/>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" ht="16">
       <c r="A587" s="2"/>
       <c r="D587" s="6"/>
       <c r="E587" s="2"/>
@@ -6093,7 +6123,7 @@
       <c r="G587" s="2"/>
       <c r="H587" s="2"/>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" ht="16">
       <c r="A588" s="2"/>
       <c r="D588" s="6"/>
       <c r="E588" s="2"/>
@@ -6101,7 +6131,7 @@
       <c r="G588" s="2"/>
       <c r="H588" s="2"/>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" ht="16">
       <c r="A589" s="2"/>
       <c r="D589" s="6"/>
       <c r="E589" s="2"/>
@@ -6109,7 +6139,7 @@
       <c r="G589" s="2"/>
       <c r="H589" s="2"/>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" ht="16">
       <c r="A590" s="2"/>
       <c r="D590" s="6"/>
       <c r="E590" s="2"/>
@@ -6117,7 +6147,7 @@
       <c r="G590" s="2"/>
       <c r="H590" s="2"/>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" ht="16">
       <c r="A591" s="2"/>
       <c r="D591" s="6"/>
       <c r="E591" s="2"/>
@@ -6125,7 +6155,7 @@
       <c r="G591" s="2"/>
       <c r="H591" s="2"/>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" ht="16">
       <c r="A592" s="2"/>
       <c r="D592" s="6"/>
       <c r="E592" s="2"/>
@@ -6133,7 +6163,7 @@
       <c r="G592" s="2"/>
       <c r="H592" s="2"/>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" ht="16">
       <c r="A593" s="2"/>
       <c r="D593" s="6"/>
       <c r="E593" s="2"/>
@@ -6141,7 +6171,7 @@
       <c r="G593" s="2"/>
       <c r="H593" s="2"/>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" ht="16">
       <c r="A594" s="2"/>
       <c r="D594" s="6"/>
       <c r="E594" s="2"/>
@@ -6149,7 +6179,7 @@
       <c r="G594" s="2"/>
       <c r="H594" s="2"/>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" ht="16">
       <c r="A595" s="2"/>
       <c r="D595" s="6"/>
       <c r="E595" s="2"/>
@@ -6157,7 +6187,7 @@
       <c r="G595" s="2"/>
       <c r="H595" s="2"/>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" ht="16">
       <c r="A596" s="2"/>
       <c r="D596" s="6"/>
       <c r="E596" s="2"/>
@@ -6165,7 +6195,7 @@
       <c r="G596" s="2"/>
       <c r="H596" s="2"/>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" ht="16">
       <c r="A597" s="2"/>
       <c r="D597" s="6"/>
       <c r="E597" s="2"/>
@@ -6173,7 +6203,7 @@
       <c r="G597" s="2"/>
       <c r="H597" s="2"/>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" ht="16">
       <c r="A598" s="2"/>
       <c r="D598" s="6"/>
       <c r="E598" s="2"/>
@@ -6181,7 +6211,7 @@
       <c r="G598" s="2"/>
       <c r="H598" s="2"/>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" ht="16">
       <c r="A599" s="2"/>
       <c r="D599" s="6"/>
       <c r="E599" s="2"/>
@@ -6189,7 +6219,7 @@
       <c r="G599" s="2"/>
       <c r="H599" s="2"/>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" ht="16">
       <c r="A600" s="2"/>
       <c r="D600" s="6"/>
       <c r="E600" s="2"/>
@@ -6197,7 +6227,7 @@
       <c r="G600" s="2"/>
       <c r="H600" s="2"/>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" ht="16">
       <c r="A601" s="2"/>
       <c r="D601" s="6"/>
       <c r="E601" s="2"/>
@@ -6205,7 +6235,7 @@
       <c r="G601" s="2"/>
       <c r="H601" s="2"/>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" ht="16">
       <c r="A602" s="2"/>
       <c r="D602" s="6"/>
       <c r="E602" s="2"/>
@@ -6213,7 +6243,7 @@
       <c r="G602" s="2"/>
       <c r="H602" s="2"/>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" ht="16">
       <c r="A603" s="2"/>
       <c r="D603" s="6"/>
       <c r="E603" s="2"/>
@@ -6221,7 +6251,7 @@
       <c r="G603" s="2"/>
       <c r="H603" s="2"/>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" ht="16">
       <c r="A604" s="2"/>
       <c r="D604" s="6"/>
       <c r="E604" s="2"/>
@@ -6229,7 +6259,7 @@
       <c r="G604" s="2"/>
       <c r="H604" s="2"/>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" ht="16">
       <c r="A605" s="2"/>
       <c r="D605" s="6"/>
       <c r="E605" s="2"/>
@@ -6237,7 +6267,7 @@
       <c r="G605" s="2"/>
       <c r="H605" s="2"/>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" ht="16">
       <c r="A606" s="2"/>
       <c r="D606" s="6"/>
       <c r="E606" s="2"/>
@@ -6245,7 +6275,7 @@
       <c r="G606" s="2"/>
       <c r="H606" s="2"/>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" ht="16">
       <c r="A607" s="2"/>
       <c r="D607" s="6"/>
       <c r="E607" s="2"/>
@@ -6253,7 +6283,7 @@
       <c r="G607" s="2"/>
       <c r="H607" s="2"/>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" ht="16">
       <c r="A608" s="2"/>
       <c r="D608" s="6"/>
       <c r="E608" s="2"/>
@@ -6261,7 +6291,7 @@
       <c r="G608" s="2"/>
       <c r="H608" s="2"/>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" ht="16">
       <c r="A609" s="2"/>
       <c r="D609" s="6"/>
       <c r="E609" s="2"/>
@@ -6269,7 +6299,7 @@
       <c r="G609" s="2"/>
       <c r="H609" s="2"/>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" ht="16">
       <c r="A610" s="2"/>
       <c r="D610" s="6"/>
       <c r="E610" s="2"/>
@@ -6277,7 +6307,7 @@
       <c r="G610" s="2"/>
       <c r="H610" s="2"/>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" ht="16">
       <c r="A611" s="2"/>
       <c r="D611" s="6"/>
       <c r="E611" s="2"/>
@@ -6285,7 +6315,7 @@
       <c r="G611" s="2"/>
       <c r="H611" s="2"/>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" ht="16">
       <c r="A612" s="2"/>
       <c r="D612" s="6"/>
       <c r="E612" s="2"/>
@@ -6293,7 +6323,7 @@
       <c r="G612" s="2"/>
       <c r="H612" s="2"/>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" ht="16">
       <c r="A613" s="2"/>
       <c r="D613" s="6"/>
       <c r="E613" s="2"/>
@@ -6301,7 +6331,7 @@
       <c r="G613" s="2"/>
       <c r="H613" s="2"/>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" ht="16">
       <c r="A614" s="2"/>
       <c r="D614" s="6"/>
       <c r="E614" s="2"/>
@@ -6309,7 +6339,7 @@
       <c r="G614" s="2"/>
       <c r="H614" s="2"/>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" ht="16">
       <c r="A615" s="2"/>
       <c r="D615" s="6"/>
       <c r="E615" s="2"/>
@@ -6317,7 +6347,7 @@
       <c r="G615" s="2"/>
       <c r="H615" s="2"/>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" ht="16">
       <c r="A616" s="2"/>
       <c r="D616" s="6"/>
       <c r="E616" s="2"/>
@@ -6325,7 +6355,7 @@
       <c r="G616" s="2"/>
       <c r="H616" s="2"/>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" ht="16">
       <c r="A617" s="2"/>
       <c r="D617" s="6"/>
       <c r="E617" s="2"/>
@@ -6333,7 +6363,7 @@
       <c r="G617" s="2"/>
       <c r="H617" s="2"/>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" ht="16">
       <c r="A618" s="2"/>
       <c r="D618" s="6"/>
       <c r="E618" s="2"/>
@@ -6341,7 +6371,7 @@
       <c r="G618" s="2"/>
       <c r="H618" s="2"/>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" ht="16">
       <c r="A619" s="2"/>
       <c r="D619" s="6"/>
       <c r="E619" s="2"/>
@@ -6349,7 +6379,7 @@
       <c r="G619" s="2"/>
       <c r="H619" s="2"/>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" ht="16">
       <c r="A620" s="2"/>
       <c r="D620" s="6"/>
       <c r="E620" s="2"/>
@@ -6357,7 +6387,7 @@
       <c r="G620" s="2"/>
       <c r="H620" s="2"/>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" ht="16">
       <c r="A621" s="2"/>
       <c r="D621" s="6"/>
       <c r="E621" s="2"/>
@@ -6365,7 +6395,7 @@
       <c r="G621" s="2"/>
       <c r="H621" s="2"/>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" ht="16">
       <c r="A622" s="2"/>
       <c r="D622" s="6"/>
       <c r="E622" s="2"/>
@@ -6373,7 +6403,7 @@
       <c r="G622" s="2"/>
       <c r="H622" s="2"/>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" ht="16">
       <c r="A623" s="2"/>
       <c r="D623" s="6"/>
       <c r="E623" s="2"/>
@@ -6381,7 +6411,7 @@
       <c r="G623" s="2"/>
       <c r="H623" s="2"/>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" ht="16">
       <c r="A624" s="2"/>
       <c r="D624" s="6"/>
       <c r="E624" s="2"/>
@@ -6389,7 +6419,7 @@
       <c r="G624" s="2"/>
       <c r="H624" s="2"/>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" ht="16">
       <c r="A625" s="2"/>
       <c r="D625" s="6"/>
       <c r="E625" s="2"/>
@@ -6397,7 +6427,7 @@
       <c r="G625" s="2"/>
       <c r="H625" s="2"/>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" ht="16">
       <c r="A626" s="2"/>
       <c r="D626" s="6"/>
       <c r="E626" s="2"/>
@@ -6405,7 +6435,7 @@
       <c r="G626" s="2"/>
       <c r="H626" s="2"/>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" ht="16">
       <c r="A627" s="2"/>
       <c r="D627" s="6"/>
       <c r="E627" s="2"/>
@@ -6413,7 +6443,7 @@
       <c r="G627" s="2"/>
       <c r="H627" s="2"/>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" ht="16">
       <c r="A628" s="2"/>
       <c r="D628" s="6"/>
       <c r="E628" s="2"/>
@@ -6421,7 +6451,7 @@
       <c r="G628" s="2"/>
       <c r="H628" s="2"/>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" ht="16">
       <c r="A629" s="2"/>
       <c r="D629" s="6"/>
       <c r="E629" s="2"/>
@@ -6429,7 +6459,7 @@
       <c r="G629" s="2"/>
       <c r="H629" s="2"/>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" ht="16">
       <c r="A630" s="2"/>
       <c r="D630" s="6"/>
       <c r="E630" s="2"/>
@@ -6437,7 +6467,7 @@
       <c r="G630" s="2"/>
       <c r="H630" s="2"/>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" ht="16">
       <c r="A631" s="2"/>
       <c r="D631" s="6"/>
       <c r="E631" s="2"/>
@@ -6445,7 +6475,7 @@
       <c r="G631" s="2"/>
       <c r="H631" s="2"/>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" ht="16">
       <c r="A632" s="2"/>
       <c r="D632" s="6"/>
       <c r="E632" s="2"/>
@@ -6453,7 +6483,7 @@
       <c r="G632" s="2"/>
       <c r="H632" s="2"/>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" ht="16">
       <c r="A633" s="2"/>
       <c r="D633" s="6"/>
       <c r="E633" s="2"/>
@@ -6461,7 +6491,7 @@
       <c r="G633" s="2"/>
       <c r="H633" s="2"/>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" ht="16">
       <c r="A634" s="2"/>
       <c r="D634" s="6"/>
       <c r="E634" s="2"/>
@@ -6469,7 +6499,7 @@
       <c r="G634" s="2"/>
       <c r="H634" s="2"/>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" ht="16">
       <c r="A635" s="2"/>
       <c r="D635" s="6"/>
       <c r="E635" s="2"/>
@@ -6477,7 +6507,7 @@
       <c r="G635" s="2"/>
       <c r="H635" s="2"/>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" ht="16">
       <c r="A636" s="2"/>
       <c r="D636" s="6"/>
       <c r="E636" s="2"/>
@@ -6485,7 +6515,7 @@
       <c r="G636" s="2"/>
       <c r="H636" s="2"/>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" ht="16">
       <c r="A637" s="2"/>
       <c r="D637" s="6"/>
       <c r="E637" s="2"/>
@@ -6493,7 +6523,7 @@
       <c r="G637" s="2"/>
       <c r="H637" s="2"/>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" ht="16">
       <c r="A638" s="2"/>
       <c r="D638" s="6"/>
       <c r="E638" s="2"/>
@@ -6501,7 +6531,7 @@
       <c r="G638" s="2"/>
       <c r="H638" s="2"/>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" ht="16">
       <c r="A639" s="2"/>
       <c r="D639" s="6"/>
       <c r="E639" s="2"/>
@@ -6509,7 +6539,7 @@
       <c r="G639" s="2"/>
       <c r="H639" s="2"/>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" ht="16">
       <c r="A640" s="2"/>
       <c r="D640" s="6"/>
       <c r="E640" s="2"/>
@@ -6517,7 +6547,7 @@
       <c r="G640" s="2"/>
       <c r="H640" s="2"/>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" ht="16">
       <c r="A641" s="2"/>
       <c r="D641" s="6"/>
       <c r="E641" s="2"/>
@@ -6525,7 +6555,7 @@
       <c r="G641" s="2"/>
       <c r="H641" s="2"/>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" ht="16">
       <c r="A642" s="2"/>
       <c r="D642" s="6"/>
       <c r="E642" s="2"/>
@@ -6533,7 +6563,7 @@
       <c r="G642" s="2"/>
       <c r="H642" s="2"/>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" ht="16">
       <c r="A643" s="2"/>
       <c r="D643" s="6"/>
       <c r="E643" s="2"/>
@@ -6541,7 +6571,7 @@
       <c r="G643" s="2"/>
       <c r="H643" s="2"/>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" ht="16">
       <c r="A644" s="2"/>
       <c r="D644" s="6"/>
       <c r="E644" s="2"/>
@@ -6549,7 +6579,7 @@
       <c r="G644" s="2"/>
       <c r="H644" s="2"/>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" ht="16">
       <c r="A645" s="2"/>
       <c r="D645" s="6"/>
       <c r="E645" s="2"/>
@@ -6557,7 +6587,7 @@
       <c r="G645" s="2"/>
       <c r="H645" s="2"/>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" ht="16">
       <c r="A646" s="2"/>
       <c r="D646" s="6"/>
       <c r="E646" s="2"/>
@@ -6565,7 +6595,7 @@
       <c r="G646" s="2"/>
       <c r="H646" s="2"/>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" ht="16">
       <c r="A647" s="2"/>
       <c r="D647" s="6"/>
       <c r="E647" s="2"/>
@@ -6573,7 +6603,7 @@
       <c r="G647" s="2"/>
       <c r="H647" s="2"/>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" ht="16">
       <c r="A648" s="2"/>
       <c r="D648" s="6"/>
       <c r="E648" s="2"/>
@@ -6581,7 +6611,7 @@
       <c r="G648" s="2"/>
       <c r="H648" s="2"/>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" ht="16">
       <c r="A649" s="2"/>
       <c r="D649" s="6"/>
       <c r="E649" s="2"/>
@@ -6589,7 +6619,7 @@
       <c r="G649" s="2"/>
       <c r="H649" s="2"/>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" ht="16">
       <c r="A650" s="2"/>
       <c r="D650" s="6"/>
       <c r="E650" s="2"/>
@@ -6597,7 +6627,7 @@
       <c r="G650" s="2"/>
       <c r="H650" s="2"/>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" ht="16">
       <c r="A651" s="2"/>
       <c r="D651" s="6"/>
       <c r="E651" s="2"/>
@@ -6605,7 +6635,7 @@
       <c r="G651" s="2"/>
       <c r="H651" s="2"/>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" ht="16">
       <c r="A652" s="2"/>
       <c r="D652" s="6"/>
       <c r="E652" s="2"/>
@@ -6613,7 +6643,7 @@
       <c r="G652" s="2"/>
       <c r="H652" s="2"/>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" ht="16">
       <c r="A653" s="2"/>
       <c r="D653" s="6"/>
       <c r="E653" s="2"/>
@@ -6621,7 +6651,7 @@
       <c r="G653" s="2"/>
       <c r="H653" s="2"/>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" ht="16">
       <c r="A654" s="2"/>
       <c r="D654" s="6"/>
       <c r="E654" s="2"/>
@@ -6629,7 +6659,7 @@
       <c r="G654" s="2"/>
       <c r="H654" s="2"/>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" ht="16">
       <c r="A655" s="2"/>
       <c r="D655" s="6"/>
       <c r="E655" s="2"/>
@@ -6637,7 +6667,7 @@
       <c r="G655" s="2"/>
       <c r="H655" s="2"/>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" ht="16">
       <c r="A656" s="2"/>
       <c r="D656" s="6"/>
       <c r="E656" s="2"/>
@@ -6645,7 +6675,7 @@
       <c r="G656" s="2"/>
       <c r="H656" s="2"/>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" ht="16">
       <c r="A657" s="2"/>
       <c r="D657" s="6"/>
       <c r="E657" s="2"/>
@@ -6653,7 +6683,7 @@
       <c r="G657" s="2"/>
       <c r="H657" s="2"/>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" ht="16">
       <c r="A658" s="2"/>
       <c r="D658" s="6"/>
       <c r="E658" s="2"/>
@@ -6661,7 +6691,7 @@
       <c r="G658" s="2"/>
       <c r="H658" s="2"/>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" ht="16">
       <c r="A659" s="2"/>
       <c r="D659" s="6"/>
       <c r="E659" s="2"/>
@@ -6669,7 +6699,7 @@
       <c r="G659" s="2"/>
       <c r="H659" s="2"/>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" ht="16">
       <c r="A660" s="2"/>
       <c r="D660" s="6"/>
       <c r="E660" s="2"/>
@@ -6677,7 +6707,7 @@
       <c r="G660" s="2"/>
       <c r="H660" s="2"/>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" ht="16">
       <c r="A661" s="2"/>
       <c r="D661" s="6"/>
       <c r="E661" s="2"/>
@@ -6685,7 +6715,7 @@
       <c r="G661" s="2"/>
       <c r="H661" s="2"/>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" ht="16">
       <c r="A662" s="2"/>
       <c r="D662" s="6"/>
       <c r="E662" s="2"/>
@@ -6693,7 +6723,7 @@
       <c r="G662" s="2"/>
       <c r="H662" s="2"/>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" ht="16">
       <c r="A663" s="2"/>
       <c r="D663" s="6"/>
       <c r="E663" s="2"/>
@@ -6701,7 +6731,7 @@
       <c r="G663" s="2"/>
       <c r="H663" s="2"/>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" ht="16">
       <c r="A664" s="2"/>
       <c r="D664" s="6"/>
       <c r="E664" s="2"/>
@@ -6709,7 +6739,7 @@
       <c r="G664" s="2"/>
       <c r="H664" s="2"/>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" ht="16">
       <c r="A665" s="2"/>
       <c r="D665" s="6"/>
       <c r="E665" s="2"/>
@@ -6717,7 +6747,7 @@
       <c r="G665" s="2"/>
       <c r="H665" s="2"/>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" ht="16">
       <c r="A666" s="2"/>
       <c r="D666" s="6"/>
       <c r="E666" s="2"/>
@@ -6725,7 +6755,7 @@
       <c r="G666" s="2"/>
       <c r="H666" s="2"/>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" ht="16">
       <c r="A667" s="2"/>
       <c r="D667" s="6"/>
       <c r="E667" s="2"/>
@@ -6733,7 +6763,7 @@
       <c r="G667" s="2"/>
       <c r="H667" s="2"/>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" ht="16">
       <c r="A668" s="2"/>
       <c r="D668" s="6"/>
       <c r="E668" s="2"/>
@@ -6741,7 +6771,7 @@
       <c r="G668" s="2"/>
       <c r="H668" s="2"/>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" ht="16">
       <c r="A669" s="2"/>
       <c r="D669" s="6"/>
       <c r="E669" s="2"/>
@@ -6749,7 +6779,7 @@
       <c r="G669" s="2"/>
       <c r="H669" s="2"/>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" ht="16">
       <c r="A670" s="2"/>
       <c r="D670" s="6"/>
       <c r="E670" s="2"/>
@@ -6757,7 +6787,7 @@
       <c r="G670" s="2"/>
       <c r="H670" s="2"/>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" ht="16">
       <c r="A671" s="2"/>
       <c r="D671" s="6"/>
       <c r="E671" s="2"/>
@@ -6765,7 +6795,7 @@
       <c r="G671" s="2"/>
       <c r="H671" s="2"/>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" ht="16">
       <c r="A672" s="2"/>
       <c r="D672" s="6"/>
       <c r="E672" s="2"/>
@@ -6773,7 +6803,7 @@
       <c r="G672" s="2"/>
       <c r="H672" s="2"/>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" ht="16">
       <c r="A673" s="2"/>
       <c r="D673" s="6"/>
       <c r="E673" s="2"/>
@@ -6781,7 +6811,7 @@
       <c r="G673" s="2"/>
       <c r="H673" s="2"/>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" ht="16">
       <c r="A674" s="2"/>
       <c r="D674" s="6"/>
       <c r="E674" s="2"/>
@@ -6789,7 +6819,7 @@
       <c r="G674" s="2"/>
       <c r="H674" s="2"/>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" ht="16">
       <c r="A675" s="2"/>
       <c r="D675" s="6"/>
       <c r="E675" s="2"/>
@@ -6797,7 +6827,7 @@
       <c r="G675" s="2"/>
       <c r="H675" s="2"/>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" ht="16">
       <c r="A676" s="2"/>
       <c r="D676" s="6"/>
       <c r="E676" s="2"/>
@@ -6805,7 +6835,7 @@
       <c r="G676" s="2"/>
       <c r="H676" s="2"/>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" ht="16">
       <c r="A677" s="2"/>
       <c r="D677" s="6"/>
       <c r="E677" s="2"/>
@@ -6813,7 +6843,7 @@
       <c r="G677" s="2"/>
       <c r="H677" s="2"/>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" ht="16">
       <c r="A678" s="2"/>
       <c r="D678" s="6"/>
       <c r="E678" s="2"/>
@@ -6821,7 +6851,7 @@
       <c r="G678" s="2"/>
       <c r="H678" s="2"/>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" ht="16">
       <c r="A679" s="2"/>
       <c r="D679" s="6"/>
       <c r="E679" s="2"/>
@@ -6829,7 +6859,7 @@
       <c r="G679" s="2"/>
       <c r="H679" s="2"/>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" ht="16">
       <c r="A680" s="2"/>
       <c r="D680" s="6"/>
       <c r="E680" s="2"/>
@@ -6837,7 +6867,7 @@
       <c r="G680" s="2"/>
       <c r="H680" s="2"/>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" ht="16">
       <c r="A681" s="2"/>
       <c r="D681" s="6"/>
       <c r="E681" s="2"/>
@@ -6845,7 +6875,7 @@
       <c r="G681" s="2"/>
       <c r="H681" s="2"/>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" ht="16">
       <c r="A682" s="2"/>
       <c r="D682" s="6"/>
       <c r="E682" s="2"/>
@@ -6853,7 +6883,7 @@
       <c r="G682" s="2"/>
       <c r="H682" s="2"/>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" ht="16">
       <c r="A683" s="2"/>
       <c r="D683" s="6"/>
       <c r="E683" s="2"/>
@@ -6861,7 +6891,7 @@
       <c r="G683" s="2"/>
       <c r="H683" s="2"/>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" ht="16">
       <c r="A684" s="2"/>
       <c r="D684" s="6"/>
       <c r="E684" s="2"/>
@@ -6869,7 +6899,7 @@
       <c r="G684" s="2"/>
       <c r="H684" s="2"/>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" ht="16">
       <c r="A685" s="2"/>
       <c r="D685" s="6"/>
       <c r="E685" s="2"/>
@@ -6877,7 +6907,7 @@
       <c r="G685" s="2"/>
       <c r="H685" s="2"/>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" ht="16">
       <c r="A686" s="2"/>
       <c r="D686" s="6"/>
       <c r="E686" s="2"/>
@@ -6885,7 +6915,7 @@
       <c r="G686" s="2"/>
       <c r="H686" s="2"/>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" ht="16">
       <c r="A687" s="2"/>
       <c r="D687" s="6"/>
       <c r="E687" s="2"/>
@@ -6893,7 +6923,7 @@
       <c r="G687" s="2"/>
       <c r="H687" s="2"/>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" ht="16">
       <c r="A688" s="2"/>
       <c r="D688" s="6"/>
       <c r="E688" s="2"/>
@@ -6901,7 +6931,7 @@
       <c r="G688" s="2"/>
       <c r="H688" s="2"/>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" ht="16">
       <c r="A689" s="2"/>
       <c r="D689" s="6"/>
       <c r="E689" s="2"/>
@@ -6909,7 +6939,7 @@
       <c r="G689" s="2"/>
       <c r="H689" s="2"/>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" ht="16">
       <c r="A690" s="2"/>
       <c r="D690" s="6"/>
       <c r="E690" s="2"/>
@@ -6917,7 +6947,7 @@
       <c r="G690" s="2"/>
       <c r="H690" s="2"/>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" ht="16">
       <c r="A691" s="2"/>
       <c r="D691" s="6"/>
       <c r="E691" s="2"/>
@@ -6925,7 +6955,7 @@
       <c r="G691" s="2"/>
       <c r="H691" s="2"/>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" ht="16">
       <c r="A692" s="2"/>
       <c r="D692" s="6"/>
       <c r="E692" s="2"/>
@@ -6933,7 +6963,7 @@
       <c r="G692" s="2"/>
       <c r="H692" s="2"/>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" ht="16">
       <c r="A693" s="2"/>
       <c r="D693" s="6"/>
       <c r="E693" s="2"/>
@@ -6941,7 +6971,7 @@
       <c r="G693" s="2"/>
       <c r="H693" s="2"/>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" ht="16">
       <c r="A694" s="2"/>
       <c r="D694" s="6"/>
       <c r="E694" s="2"/>
@@ -6949,7 +6979,7 @@
       <c r="G694" s="2"/>
       <c r="H694" s="2"/>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" ht="16">
       <c r="A695" s="2"/>
       <c r="D695" s="6"/>
       <c r="E695" s="2"/>
@@ -6957,7 +6987,7 @@
       <c r="G695" s="2"/>
       <c r="H695" s="2"/>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" ht="16">
       <c r="A696" s="2"/>
       <c r="D696" s="6"/>
       <c r="E696" s="2"/>
@@ -6965,7 +6995,7 @@
       <c r="G696" s="2"/>
       <c r="H696" s="2"/>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" ht="16">
       <c r="A697" s="2"/>
       <c r="D697" s="6"/>
       <c r="E697" s="2"/>
@@ -6973,7 +7003,7 @@
       <c r="G697" s="2"/>
       <c r="H697" s="2"/>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" ht="16">
       <c r="A698" s="2"/>
       <c r="D698" s="6"/>
       <c r="E698" s="2"/>
@@ -6981,7 +7011,7 @@
       <c r="G698" s="2"/>
       <c r="H698" s="2"/>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" ht="16">
       <c r="A699" s="2"/>
       <c r="D699" s="6"/>
       <c r="E699" s="2"/>
@@ -6989,7 +7019,7 @@
       <c r="G699" s="2"/>
       <c r="H699" s="2"/>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" ht="16">
       <c r="A700" s="2"/>
       <c r="D700" s="6"/>
       <c r="E700" s="2"/>
@@ -6997,7 +7027,7 @@
       <c r="G700" s="2"/>
       <c r="H700" s="2"/>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" ht="16">
       <c r="A701" s="2"/>
       <c r="D701" s="6"/>
       <c r="E701" s="2"/>
@@ -7005,7 +7035,7 @@
       <c r="G701" s="2"/>
       <c r="H701" s="2"/>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" ht="16">
       <c r="A702" s="2"/>
       <c r="D702" s="6"/>
       <c r="E702" s="2"/>
@@ -7013,7 +7043,7 @@
       <c r="G702" s="2"/>
       <c r="H702" s="2"/>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" ht="16">
       <c r="A703" s="2"/>
       <c r="D703" s="6"/>
       <c r="E703" s="2"/>
@@ -7021,7 +7051,7 @@
       <c r="G703" s="2"/>
       <c r="H703" s="2"/>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" ht="16">
       <c r="A704" s="2"/>
       <c r="D704" s="6"/>
       <c r="E704" s="2"/>
@@ -7029,7 +7059,7 @@
       <c r="G704" s="2"/>
       <c r="H704" s="2"/>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" ht="16">
       <c r="A705" s="2"/>
       <c r="D705" s="6"/>
       <c r="E705" s="2"/>
@@ -7037,7 +7067,7 @@
       <c r="G705" s="2"/>
       <c r="H705" s="2"/>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" ht="16">
       <c r="A706" s="2"/>
       <c r="D706" s="6"/>
       <c r="E706" s="2"/>
@@ -7045,7 +7075,7 @@
       <c r="G706" s="2"/>
       <c r="H706" s="2"/>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" ht="16">
       <c r="A707" s="2"/>
       <c r="D707" s="6"/>
       <c r="E707" s="2"/>
@@ -7053,7 +7083,7 @@
       <c r="G707" s="2"/>
       <c r="H707" s="2"/>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" ht="16">
       <c r="A708" s="2"/>
       <c r="D708" s="6"/>
       <c r="E708" s="2"/>
@@ -7061,7 +7091,7 @@
       <c r="G708" s="2"/>
       <c r="H708" s="2"/>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" ht="16">
       <c r="A709" s="2"/>
       <c r="D709" s="6"/>
       <c r="E709" s="2"/>
@@ -7069,7 +7099,7 @@
       <c r="G709" s="2"/>
       <c r="H709" s="2"/>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" ht="16">
       <c r="A710" s="2"/>
       <c r="D710" s="6"/>
       <c r="E710" s="2"/>
@@ -7077,7 +7107,7 @@
       <c r="G710" s="2"/>
       <c r="H710" s="2"/>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" ht="16">
       <c r="A711" s="2"/>
       <c r="D711" s="6"/>
       <c r="E711" s="2"/>
@@ -7085,7 +7115,7 @@
       <c r="G711" s="2"/>
       <c r="H711" s="2"/>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" ht="16">
       <c r="A712" s="2"/>
       <c r="D712" s="6"/>
       <c r="E712" s="2"/>
@@ -7093,7 +7123,7 @@
       <c r="G712" s="2"/>
       <c r="H712" s="2"/>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" ht="16">
       <c r="A713" s="2"/>
       <c r="D713" s="6"/>
       <c r="E713" s="2"/>
@@ -7101,7 +7131,7 @@
       <c r="G713" s="2"/>
       <c r="H713" s="2"/>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:8" ht="16">
       <c r="A714" s="2"/>
       <c r="D714" s="6"/>
       <c r="E714" s="2"/>
@@ -7109,7 +7139,7 @@
       <c r="G714" s="2"/>
       <c r="H714" s="2"/>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:8" ht="16">
       <c r="A715" s="2"/>
       <c r="D715" s="6"/>
       <c r="E715" s="2"/>
@@ -7117,7 +7147,7 @@
       <c r="G715" s="2"/>
       <c r="H715" s="2"/>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:8" ht="16">
       <c r="A716" s="2"/>
       <c r="D716" s="6"/>
       <c r="E716" s="2"/>
@@ -7125,7 +7155,7 @@
       <c r="G716" s="2"/>
       <c r="H716" s="2"/>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" ht="16">
       <c r="A717" s="2"/>
       <c r="D717" s="6"/>
       <c r="E717" s="2"/>
@@ -7133,7 +7163,7 @@
       <c r="G717" s="2"/>
       <c r="H717" s="2"/>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:8" ht="16">
       <c r="A718" s="2"/>
       <c r="D718" s="6"/>
       <c r="E718" s="2"/>
@@ -7141,7 +7171,7 @@
       <c r="G718" s="2"/>
       <c r="H718" s="2"/>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" ht="16">
       <c r="A719" s="2"/>
       <c r="D719" s="6"/>
       <c r="E719" s="2"/>
@@ -7149,7 +7179,7 @@
       <c r="G719" s="2"/>
       <c r="H719" s="2"/>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" ht="16">
       <c r="A720" s="2"/>
       <c r="D720" s="6"/>
       <c r="E720" s="2"/>
@@ -7157,7 +7187,7 @@
       <c r="G720" s="2"/>
       <c r="H720" s="2"/>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" ht="16">
       <c r="A721" s="2"/>
       <c r="D721" s="6"/>
       <c r="E721" s="2"/>
@@ -7165,7 +7195,7 @@
       <c r="G721" s="2"/>
       <c r="H721" s="2"/>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" ht="16">
       <c r="A722" s="2"/>
       <c r="D722" s="6"/>
       <c r="E722" s="2"/>
@@ -7173,7 +7203,7 @@
       <c r="G722" s="2"/>
       <c r="H722" s="2"/>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" ht="16">
       <c r="A723" s="2"/>
       <c r="D723" s="6"/>
       <c r="E723" s="2"/>
@@ -7181,7 +7211,7 @@
       <c r="G723" s="2"/>
       <c r="H723" s="2"/>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" ht="16">
       <c r="A724" s="2"/>
       <c r="D724" s="6"/>
       <c r="E724" s="2"/>
@@ -7189,7 +7219,7 @@
       <c r="G724" s="2"/>
       <c r="H724" s="2"/>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" ht="16">
       <c r="A725" s="2"/>
       <c r="D725" s="6"/>
       <c r="E725" s="2"/>
@@ -7197,7 +7227,7 @@
       <c r="G725" s="2"/>
       <c r="H725" s="2"/>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" ht="16">
       <c r="A726" s="2"/>
       <c r="D726" s="6"/>
       <c r="E726" s="2"/>
@@ -7205,7 +7235,7 @@
       <c r="G726" s="2"/>
       <c r="H726" s="2"/>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" ht="16">
       <c r="A727" s="2"/>
       <c r="D727" s="6"/>
       <c r="E727" s="2"/>
@@ -7213,7 +7243,7 @@
       <c r="G727" s="2"/>
       <c r="H727" s="2"/>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" ht="16">
       <c r="A728" s="2"/>
       <c r="D728" s="6"/>
       <c r="E728" s="2"/>
@@ -7221,7 +7251,7 @@
       <c r="G728" s="2"/>
       <c r="H728" s="2"/>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" ht="16">
       <c r="A729" s="2"/>
       <c r="D729" s="6"/>
       <c r="E729" s="2"/>
@@ -7229,7 +7259,7 @@
       <c r="G729" s="2"/>
       <c r="H729" s="2"/>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" ht="16">
       <c r="A730" s="2"/>
       <c r="D730" s="6"/>
       <c r="E730" s="2"/>
@@ -7237,7 +7267,7 @@
       <c r="G730" s="2"/>
       <c r="H730" s="2"/>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" ht="16">
       <c r="A731" s="2"/>
       <c r="D731" s="6"/>
       <c r="E731" s="2"/>
@@ -7245,7 +7275,7 @@
       <c r="G731" s="2"/>
       <c r="H731" s="2"/>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" ht="16">
       <c r="A732" s="2"/>
       <c r="D732" s="6"/>
       <c r="E732" s="2"/>
@@ -7253,7 +7283,7 @@
       <c r="G732" s="2"/>
       <c r="H732" s="2"/>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" ht="16">
       <c r="A733" s="2"/>
       <c r="D733" s="6"/>
       <c r="E733" s="2"/>
@@ -7261,7 +7291,7 @@
       <c r="G733" s="2"/>
       <c r="H733" s="2"/>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" ht="16">
       <c r="A734" s="2"/>
       <c r="D734" s="6"/>
       <c r="E734" s="2"/>
@@ -7269,7 +7299,7 @@
       <c r="G734" s="2"/>
       <c r="H734" s="2"/>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" ht="16">
       <c r="A735" s="2"/>
       <c r="D735" s="6"/>
       <c r="E735" s="2"/>
@@ -7277,7 +7307,7 @@
       <c r="G735" s="2"/>
       <c r="H735" s="2"/>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" ht="16">
       <c r="A736" s="2"/>
       <c r="D736" s="6"/>
       <c r="E736" s="2"/>
@@ -7285,7 +7315,7 @@
       <c r="G736" s="2"/>
       <c r="H736" s="2"/>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" ht="16">
       <c r="A737" s="2"/>
       <c r="D737" s="6"/>
       <c r="E737" s="2"/>
@@ -7293,7 +7323,7 @@
       <c r="G737" s="2"/>
       <c r="H737" s="2"/>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" ht="16">
       <c r="A738" s="2"/>
       <c r="D738" s="6"/>
       <c r="E738" s="2"/>
@@ -7301,7 +7331,7 @@
       <c r="G738" s="2"/>
       <c r="H738" s="2"/>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" ht="16">
       <c r="A739" s="2"/>
       <c r="D739" s="6"/>
       <c r="E739" s="2"/>
@@ -7309,7 +7339,7 @@
       <c r="G739" s="2"/>
       <c r="H739" s="2"/>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" ht="16">
       <c r="A740" s="2"/>
       <c r="D740" s="6"/>
       <c r="E740" s="2"/>
@@ -7317,7 +7347,7 @@
       <c r="G740" s="2"/>
       <c r="H740" s="2"/>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" ht="16">
       <c r="A741" s="2"/>
       <c r="D741" s="6"/>
       <c r="E741" s="2"/>
@@ -7325,7 +7355,7 @@
       <c r="G741" s="2"/>
       <c r="H741" s="2"/>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" ht="16">
       <c r="A742" s="2"/>
       <c r="D742" s="6"/>
       <c r="E742" s="2"/>
@@ -7333,7 +7363,7 @@
       <c r="G742" s="2"/>
       <c r="H742" s="2"/>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" ht="16">
       <c r="A743" s="2"/>
       <c r="D743" s="6"/>
       <c r="E743" s="2"/>
@@ -7341,7 +7371,7 @@
       <c r="G743" s="2"/>
       <c r="H743" s="2"/>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" ht="16">
       <c r="A744" s="2"/>
       <c r="D744" s="6"/>
       <c r="E744" s="2"/>
@@ -7349,7 +7379,7 @@
       <c r="G744" s="2"/>
       <c r="H744" s="2"/>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" ht="16">
       <c r="A745" s="2"/>
       <c r="D745" s="6"/>
       <c r="E745" s="2"/>
@@ -7357,7 +7387,7 @@
       <c r="G745" s="2"/>
       <c r="H745" s="2"/>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" ht="16">
       <c r="A746" s="2"/>
       <c r="D746" s="6"/>
       <c r="E746" s="2"/>
@@ -7365,7 +7395,7 @@
       <c r="G746" s="2"/>
       <c r="H746" s="2"/>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" ht="16">
       <c r="A747" s="2"/>
       <c r="D747" s="6"/>
       <c r="E747" s="2"/>
@@ -7373,7 +7403,7 @@
       <c r="G747" s="2"/>
       <c r="H747" s="2"/>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" ht="16">
       <c r="A748" s="2"/>
       <c r="D748" s="6"/>
       <c r="E748" s="2"/>
@@ -7381,7 +7411,7 @@
       <c r="G748" s="2"/>
       <c r="H748" s="2"/>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" ht="16">
       <c r="A749" s="2"/>
       <c r="D749" s="6"/>
       <c r="E749" s="2"/>
@@ -7389,7 +7419,7 @@
       <c r="G749" s="2"/>
       <c r="H749" s="2"/>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" ht="16">
       <c r="A750" s="2"/>
       <c r="D750" s="6"/>
       <c r="E750" s="2"/>
@@ -7397,7 +7427,7 @@
       <c r="G750" s="2"/>
       <c r="H750" s="2"/>
     </row>
-    <row r="751" spans="1:8">
+    <row r="751" spans="1:8" ht="16">
       <c r="A751" s="2"/>
       <c r="D751" s="6"/>
       <c r="E751" s="2"/>
@@ -7405,7 +7435,7 @@
       <c r="G751" s="2"/>
       <c r="H751" s="2"/>
     </row>
-    <row r="752" spans="1:8">
+    <row r="752" spans="1:8" ht="16">
       <c r="A752" s="2"/>
       <c r="D752" s="6"/>
       <c r="E752" s="2"/>
@@ -7413,7 +7443,7 @@
       <c r="G752" s="2"/>
       <c r="H752" s="2"/>
     </row>
-    <row r="753" spans="1:8">
+    <row r="753" spans="1:8" ht="16">
       <c r="A753" s="2"/>
       <c r="D753" s="6"/>
       <c r="E753" s="2"/>
@@ -7421,7 +7451,7 @@
       <c r="G753" s="2"/>
       <c r="H753" s="2"/>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" ht="16">
       <c r="A754" s="2"/>
       <c r="D754" s="6"/>
       <c r="E754" s="2"/>
@@ -7429,7 +7459,7 @@
       <c r="G754" s="2"/>
       <c r="H754" s="2"/>
     </row>
-    <row r="755" spans="1:8">
+    <row r="755" spans="1:8" ht="16">
       <c r="A755" s="2"/>
       <c r="D755" s="6"/>
       <c r="E755" s="2"/>
@@ -7437,7 +7467,7 @@
       <c r="G755" s="2"/>
       <c r="H755" s="2"/>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" ht="16">
       <c r="A756" s="2"/>
       <c r="D756" s="6"/>
       <c r="E756" s="2"/>
@@ -7445,7 +7475,7 @@
       <c r="G756" s="2"/>
       <c r="H756" s="2"/>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" ht="16">
       <c r="A757" s="2"/>
       <c r="D757" s="6"/>
       <c r="E757" s="2"/>
@@ -7453,7 +7483,7 @@
       <c r="G757" s="2"/>
       <c r="H757" s="2"/>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" ht="16">
       <c r="A758" s="2"/>
       <c r="D758" s="6"/>
       <c r="E758" s="2"/>
@@ -7461,7 +7491,7 @@
       <c r="G758" s="2"/>
       <c r="H758" s="2"/>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" ht="16">
       <c r="A759" s="2"/>
       <c r="D759" s="6"/>
       <c r="E759" s="2"/>
@@ -7469,7 +7499,7 @@
       <c r="G759" s="2"/>
       <c r="H759" s="2"/>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" ht="16">
       <c r="A760" s="2"/>
       <c r="D760" s="6"/>
       <c r="E760" s="2"/>
@@ -7477,7 +7507,7 @@
       <c r="G760" s="2"/>
       <c r="H760" s="2"/>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" ht="16">
       <c r="A761" s="2"/>
       <c r="D761" s="6"/>
       <c r="E761" s="2"/>
@@ -7485,7 +7515,7 @@
       <c r="G761" s="2"/>
       <c r="H761" s="2"/>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" ht="16">
       <c r="A762" s="2"/>
       <c r="D762" s="6"/>
       <c r="E762" s="2"/>
@@ -7493,7 +7523,7 @@
       <c r="G762" s="2"/>
       <c r="H762" s="2"/>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" ht="16">
       <c r="A763" s="2"/>
       <c r="D763" s="6"/>
       <c r="E763" s="2"/>
@@ -7501,7 +7531,7 @@
       <c r="G763" s="2"/>
       <c r="H763" s="2"/>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" ht="16">
       <c r="A764" s="2"/>
       <c r="D764" s="6"/>
       <c r="E764" s="2"/>
@@ -7509,7 +7539,7 @@
       <c r="G764" s="2"/>
       <c r="H764" s="2"/>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" ht="16">
       <c r="A765" s="2"/>
       <c r="D765" s="6"/>
       <c r="E765" s="2"/>
@@ -7517,7 +7547,7 @@
       <c r="G765" s="2"/>
       <c r="H765" s="2"/>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" ht="16">
       <c r="A766" s="2"/>
       <c r="D766" s="6"/>
       <c r="E766" s="2"/>
@@ -7525,7 +7555,7 @@
       <c r="G766" s="2"/>
       <c r="H766" s="2"/>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" ht="16">
       <c r="A767" s="2"/>
       <c r="D767" s="6"/>
       <c r="E767" s="2"/>
@@ -7533,7 +7563,7 @@
       <c r="G767" s="2"/>
       <c r="H767" s="2"/>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" ht="16">
       <c r="A768" s="2"/>
       <c r="D768" s="6"/>
       <c r="E768" s="2"/>
@@ -7541,7 +7571,7 @@
       <c r="G768" s="2"/>
       <c r="H768" s="2"/>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" ht="16">
       <c r="A769" s="2"/>
       <c r="D769" s="6"/>
       <c r="E769" s="2"/>
@@ -7549,7 +7579,7 @@
       <c r="G769" s="2"/>
       <c r="H769" s="2"/>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" ht="16">
       <c r="A770" s="2"/>
       <c r="D770" s="6"/>
       <c r="E770" s="2"/>
@@ -7557,7 +7587,7 @@
       <c r="G770" s="2"/>
       <c r="H770" s="2"/>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" ht="16">
       <c r="A771" s="2"/>
       <c r="D771" s="6"/>
       <c r="E771" s="2"/>
@@ -7565,7 +7595,7 @@
       <c r="G771" s="2"/>
       <c r="H771" s="2"/>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" ht="16">
       <c r="A772" s="2"/>
       <c r="D772" s="6"/>
       <c r="E772" s="2"/>
@@ -7573,7 +7603,7 @@
       <c r="G772" s="2"/>
       <c r="H772" s="2"/>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" ht="16">
       <c r="A773" s="2"/>
       <c r="D773" s="6"/>
       <c r="E773" s="2"/>
@@ -7581,7 +7611,7 @@
       <c r="G773" s="2"/>
       <c r="H773" s="2"/>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" ht="16">
       <c r="A774" s="2"/>
       <c r="D774" s="6"/>
       <c r="E774" s="2"/>
@@ -7589,7 +7619,7 @@
       <c r="G774" s="2"/>
       <c r="H774" s="2"/>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" ht="16">
       <c r="A775" s="2"/>
       <c r="D775" s="6"/>
       <c r="E775" s="2"/>
@@ -7597,7 +7627,7 @@
       <c r="G775" s="2"/>
       <c r="H775" s="2"/>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" ht="16">
       <c r="A776" s="2"/>
       <c r="D776" s="6"/>
       <c r="E776" s="2"/>
@@ -7605,7 +7635,7 @@
       <c r="G776" s="2"/>
       <c r="H776" s="2"/>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" ht="16">
       <c r="A777" s="2"/>
       <c r="D777" s="6"/>
       <c r="E777" s="2"/>
@@ -7613,7 +7643,7 @@
       <c r="G777" s="2"/>
       <c r="H777" s="2"/>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" ht="16">
       <c r="A778" s="2"/>
       <c r="D778" s="6"/>
       <c r="E778" s="2"/>
@@ -7621,7 +7651,7 @@
       <c r="G778" s="2"/>
       <c r="H778" s="2"/>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" ht="16">
       <c r="A779" s="2"/>
       <c r="D779" s="6"/>
       <c r="E779" s="2"/>
@@ -7629,7 +7659,7 @@
       <c r="G779" s="2"/>
       <c r="H779" s="2"/>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" ht="16">
       <c r="A780" s="2"/>
       <c r="D780" s="6"/>
       <c r="E780" s="2"/>
@@ -7637,7 +7667,7 @@
       <c r="G780" s="2"/>
       <c r="H780" s="2"/>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" ht="16">
       <c r="A781" s="2"/>
       <c r="D781" s="6"/>
       <c r="E781" s="2"/>
@@ -7645,7 +7675,7 @@
       <c r="G781" s="2"/>
       <c r="H781" s="2"/>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" ht="16">
       <c r="A782" s="2"/>
       <c r="D782" s="6"/>
       <c r="E782" s="2"/>
@@ -7653,7 +7683,7 @@
       <c r="G782" s="2"/>
       <c r="H782" s="2"/>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" ht="16">
       <c r="A783" s="2"/>
       <c r="D783" s="6"/>
       <c r="E783" s="2"/>
@@ -7661,7 +7691,7 @@
       <c r="G783" s="2"/>
       <c r="H783" s="2"/>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" ht="16">
       <c r="A784" s="2"/>
       <c r="D784" s="6"/>
       <c r="E784" s="2"/>
@@ -7669,7 +7699,7 @@
       <c r="G784" s="2"/>
       <c r="H784" s="2"/>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" ht="16">
       <c r="A785" s="2"/>
       <c r="D785" s="6"/>
       <c r="E785" s="2"/>
@@ -7677,7 +7707,7 @@
       <c r="G785" s="2"/>
       <c r="H785" s="2"/>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" ht="16">
       <c r="A786" s="2"/>
       <c r="D786" s="6"/>
       <c r="E786" s="2"/>
@@ -7685,7 +7715,7 @@
       <c r="G786" s="2"/>
       <c r="H786" s="2"/>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" ht="16">
       <c r="A787" s="2"/>
       <c r="D787" s="6"/>
       <c r="E787" s="2"/>
@@ -7693,7 +7723,7 @@
       <c r="G787" s="2"/>
       <c r="H787" s="2"/>
     </row>
-    <row r="788" spans="1:8">
+    <row r="788" spans="1:8" ht="16">
       <c r="A788" s="2"/>
       <c r="D788" s="6"/>
       <c r="E788" s="2"/>
@@ -7701,7 +7731,7 @@
       <c r="G788" s="2"/>
       <c r="H788" s="2"/>
     </row>
-    <row r="789" spans="1:8">
+    <row r="789" spans="1:8" ht="16">
       <c r="A789" s="2"/>
       <c r="D789" s="6"/>
       <c r="E789" s="2"/>
@@ -7709,7 +7739,7 @@
       <c r="G789" s="2"/>
       <c r="H789" s="2"/>
     </row>
-    <row r="790" spans="1:8">
+    <row r="790" spans="1:8" ht="16">
       <c r="A790" s="2"/>
       <c r="D790" s="6"/>
       <c r="E790" s="2"/>
@@ -7717,7 +7747,7 @@
       <c r="G790" s="2"/>
       <c r="H790" s="2"/>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" ht="16">
       <c r="A791" s="2"/>
       <c r="D791" s="6"/>
       <c r="E791" s="2"/>
@@ -7725,7 +7755,7 @@
       <c r="G791" s="2"/>
       <c r="H791" s="2"/>
     </row>
-    <row r="792" spans="1:8">
+    <row r="792" spans="1:8" ht="16">
       <c r="A792" s="2"/>
       <c r="D792" s="6"/>
       <c r="E792" s="2"/>
@@ -7733,7 +7763,7 @@
       <c r="G792" s="2"/>
       <c r="H792" s="2"/>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" ht="16">
       <c r="A793" s="2"/>
       <c r="D793" s="6"/>
       <c r="E793" s="2"/>
@@ -7741,7 +7771,7 @@
       <c r="G793" s="2"/>
       <c r="H793" s="2"/>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" ht="16">
       <c r="A794" s="2"/>
       <c r="D794" s="6"/>
       <c r="E794" s="2"/>
@@ -7749,7 +7779,7 @@
       <c r="G794" s="2"/>
       <c r="H794" s="2"/>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" ht="16">
       <c r="A795" s="2"/>
       <c r="D795" s="6"/>
       <c r="E795" s="2"/>
@@ -7757,7 +7787,7 @@
       <c r="G795" s="2"/>
       <c r="H795" s="2"/>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" ht="16">
       <c r="A796" s="2"/>
       <c r="D796" s="6"/>
       <c r="E796" s="2"/>
@@ -7765,7 +7795,7 @@
       <c r="G796" s="2"/>
       <c r="H796" s="2"/>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" ht="16">
       <c r="A797" s="2"/>
       <c r="D797" s="6"/>
       <c r="E797" s="2"/>
@@ -7773,7 +7803,7 @@
       <c r="G797" s="2"/>
       <c r="H797" s="2"/>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" ht="16">
       <c r="A798" s="2"/>
       <c r="D798" s="6"/>
       <c r="E798" s="2"/>
@@ -7781,7 +7811,7 @@
       <c r="G798" s="2"/>
       <c r="H798" s="2"/>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" ht="16">
       <c r="A799" s="2"/>
       <c r="D799" s="6"/>
       <c r="E799" s="2"/>
@@ -7789,7 +7819,7 @@
       <c r="G799" s="2"/>
       <c r="H799" s="2"/>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" ht="16">
       <c r="A800" s="2"/>
       <c r="D800" s="6"/>
       <c r="E800" s="2"/>
@@ -7797,7 +7827,7 @@
       <c r="G800" s="2"/>
       <c r="H800" s="2"/>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" ht="16">
       <c r="A801" s="2"/>
       <c r="D801" s="6"/>
       <c r="E801" s="2"/>
@@ -7805,7 +7835,7 @@
       <c r="G801" s="2"/>
       <c r="H801" s="2"/>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" ht="16">
       <c r="A802" s="2"/>
       <c r="D802" s="6"/>
       <c r="E802" s="2"/>
@@ -7813,7 +7843,7 @@
       <c r="G802" s="2"/>
       <c r="H802" s="2"/>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" ht="16">
       <c r="A803" s="2"/>
       <c r="D803" s="6"/>
       <c r="E803" s="2"/>
@@ -7821,7 +7851,7 @@
       <c r="G803" s="2"/>
       <c r="H803" s="2"/>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" ht="16">
       <c r="A804" s="2"/>
       <c r="D804" s="6"/>
       <c r="E804" s="2"/>
@@ -7829,7 +7859,7 @@
       <c r="G804" s="2"/>
       <c r="H804" s="2"/>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" ht="16">
       <c r="A805" s="2"/>
       <c r="D805" s="6"/>
       <c r="E805" s="2"/>
@@ -7837,7 +7867,7 @@
       <c r="G805" s="2"/>
       <c r="H805" s="2"/>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" ht="16">
       <c r="A806" s="2"/>
       <c r="D806" s="6"/>
       <c r="E806" s="2"/>
@@ -7845,7 +7875,7 @@
       <c r="G806" s="2"/>
       <c r="H806" s="2"/>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" ht="16">
       <c r="A807" s="2"/>
       <c r="D807" s="6"/>
       <c r="E807" s="2"/>
@@ -7853,7 +7883,7 @@
       <c r="G807" s="2"/>
       <c r="H807" s="2"/>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" ht="16">
       <c r="A808" s="2"/>
       <c r="D808" s="6"/>
       <c r="E808" s="2"/>
@@ -7861,7 +7891,7 @@
       <c r="G808" s="2"/>
       <c r="H808" s="2"/>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" ht="16">
       <c r="A809" s="2"/>
       <c r="D809" s="6"/>
       <c r="E809" s="2"/>
@@ -7869,7 +7899,7 @@
       <c r="G809" s="2"/>
       <c r="H809" s="2"/>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" ht="16">
       <c r="A810" s="2"/>
       <c r="D810" s="6"/>
       <c r="E810" s="2"/>
@@ -7877,7 +7907,7 @@
       <c r="G810" s="2"/>
       <c r="H810" s="2"/>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" ht="16">
       <c r="A811" s="2"/>
       <c r="D811" s="6"/>
       <c r="E811" s="2"/>
@@ -7885,7 +7915,7 @@
       <c r="G811" s="2"/>
       <c r="H811" s="2"/>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" ht="16">
       <c r="A812" s="2"/>
       <c r="D812" s="6"/>
       <c r="E812" s="2"/>
@@ -7893,7 +7923,7 @@
       <c r="G812" s="2"/>
       <c r="H812" s="2"/>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" ht="16">
       <c r="A813" s="2"/>
       <c r="D813" s="6"/>
       <c r="E813" s="2"/>
@@ -7901,7 +7931,7 @@
       <c r="G813" s="2"/>
       <c r="H813" s="2"/>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" ht="16">
       <c r="A814" s="2"/>
       <c r="D814" s="6"/>
       <c r="E814" s="2"/>
@@ -7909,7 +7939,7 @@
       <c r="G814" s="2"/>
       <c r="H814" s="2"/>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" ht="16">
       <c r="A815" s="2"/>
       <c r="D815" s="6"/>
       <c r="E815" s="2"/>
@@ -7917,7 +7947,7 @@
       <c r="G815" s="2"/>
       <c r="H815" s="2"/>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" ht="16">
       <c r="A816" s="2"/>
       <c r="D816" s="6"/>
       <c r="E816" s="2"/>
@@ -7925,7 +7955,7 @@
       <c r="G816" s="2"/>
       <c r="H816" s="2"/>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" ht="16">
       <c r="A817" s="2"/>
       <c r="D817" s="6"/>
       <c r="E817" s="2"/>
@@ -7933,7 +7963,7 @@
       <c r="G817" s="2"/>
       <c r="H817" s="2"/>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" ht="16">
       <c r="A818" s="2"/>
       <c r="D818" s="6"/>
       <c r="E818" s="2"/>
@@ -7941,7 +7971,7 @@
       <c r="G818" s="2"/>
       <c r="H818" s="2"/>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" ht="16">
       <c r="A819" s="2"/>
       <c r="D819" s="6"/>
       <c r="E819" s="2"/>
@@ -7949,7 +7979,7 @@
       <c r="G819" s="2"/>
       <c r="H819" s="2"/>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" ht="16">
       <c r="A820" s="2"/>
       <c r="D820" s="6"/>
       <c r="E820" s="2"/>
@@ -7957,7 +7987,7 @@
       <c r="G820" s="2"/>
       <c r="H820" s="2"/>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" ht="16">
       <c r="A821" s="2"/>
       <c r="D821" s="6"/>
       <c r="E821" s="2"/>
@@ -7965,7 +7995,7 @@
       <c r="G821" s="2"/>
       <c r="H821" s="2"/>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" ht="16">
       <c r="A822" s="2"/>
       <c r="D822" s="6"/>
       <c r="E822" s="2"/>
@@ -7973,7 +8003,7 @@
       <c r="G822" s="2"/>
       <c r="H822" s="2"/>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" ht="16">
       <c r="A823" s="2"/>
       <c r="D823" s="6"/>
       <c r="E823" s="2"/>
@@ -7981,7 +8011,7 @@
       <c r="G823" s="2"/>
       <c r="H823" s="2"/>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" ht="16">
       <c r="A824" s="2"/>
       <c r="D824" s="6"/>
       <c r="E824" s="2"/>
@@ -7989,7 +8019,7 @@
       <c r="G824" s="2"/>
       <c r="H824" s="2"/>
     </row>
-    <row r="825" spans="1:8">
+    <row r="825" spans="1:8" ht="16">
       <c r="A825" s="2"/>
       <c r="D825" s="6"/>
       <c r="E825" s="2"/>
@@ -7997,7 +8027,7 @@
       <c r="G825" s="2"/>
       <c r="H825" s="2"/>
     </row>
-    <row r="826" spans="1:8">
+    <row r="826" spans="1:8" ht="16">
       <c r="A826" s="2"/>
       <c r="D826" s="6"/>
       <c r="E826" s="2"/>
@@ -8005,7 +8035,7 @@
       <c r="G826" s="2"/>
       <c r="H826" s="2"/>
     </row>
-    <row r="827" spans="1:8">
+    <row r="827" spans="1:8" ht="16">
       <c r="A827" s="2"/>
       <c r="D827" s="6"/>
       <c r="E827" s="2"/>
@@ -8013,7 +8043,7 @@
       <c r="G827" s="2"/>
       <c r="H827" s="2"/>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" ht="16">
       <c r="A828" s="2"/>
       <c r="D828" s="6"/>
       <c r="E828" s="2"/>
@@ -8021,7 +8051,7 @@
       <c r="G828" s="2"/>
       <c r="H828" s="2"/>
     </row>
-    <row r="829" spans="1:8">
+    <row r="829" spans="1:8" ht="16">
       <c r="A829" s="2"/>
       <c r="D829" s="6"/>
       <c r="E829" s="2"/>
@@ -8029,7 +8059,7 @@
       <c r="G829" s="2"/>
       <c r="H829" s="2"/>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" ht="16">
       <c r="A830" s="2"/>
       <c r="D830" s="6"/>
       <c r="E830" s="2"/>
@@ -8037,7 +8067,7 @@
       <c r="G830" s="2"/>
       <c r="H830" s="2"/>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" ht="16">
       <c r="A831" s="2"/>
       <c r="D831" s="6"/>
       <c r="E831" s="2"/>
@@ -8045,7 +8075,7 @@
       <c r="G831" s="2"/>
       <c r="H831" s="2"/>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" ht="16">
       <c r="A832" s="2"/>
       <c r="D832" s="6"/>
       <c r="E832" s="2"/>
@@ -8053,7 +8083,7 @@
       <c r="G832" s="2"/>
       <c r="H832" s="2"/>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" ht="16">
       <c r="A833" s="2"/>
       <c r="D833" s="6"/>
       <c r="E833" s="2"/>
@@ -8061,7 +8091,7 @@
       <c r="G833" s="2"/>
       <c r="H833" s="2"/>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" ht="16">
       <c r="A834" s="2"/>
       <c r="D834" s="6"/>
       <c r="E834" s="2"/>
@@ -8069,7 +8099,7 @@
       <c r="G834" s="2"/>
       <c r="H834" s="2"/>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" ht="16">
       <c r="A835" s="2"/>
       <c r="D835" s="6"/>
       <c r="E835" s="2"/>
@@ -8077,7 +8107,7 @@
       <c r="G835" s="2"/>
       <c r="H835" s="2"/>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" ht="16">
       <c r="A836" s="2"/>
       <c r="D836" s="6"/>
       <c r="E836" s="2"/>
@@ -8085,7 +8115,7 @@
       <c r="G836" s="2"/>
       <c r="H836" s="2"/>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" ht="16">
       <c r="A837" s="2"/>
       <c r="D837" s="6"/>
       <c r="E837" s="2"/>
@@ -8093,7 +8123,7 @@
       <c r="G837" s="2"/>
       <c r="H837" s="2"/>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" ht="16">
       <c r="A838" s="2"/>
       <c r="D838" s="6"/>
       <c r="E838" s="2"/>
@@ -8101,7 +8131,7 @@
       <c r="G838" s="2"/>
       <c r="H838" s="2"/>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" ht="16">
       <c r="A839" s="2"/>
       <c r="D839" s="6"/>
       <c r="E839" s="2"/>
@@ -8109,7 +8139,7 @@
       <c r="G839" s="2"/>
       <c r="H839" s="2"/>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" ht="16">
       <c r="A840" s="2"/>
       <c r="D840" s="6"/>
       <c r="E840" s="2"/>
@@ -8117,7 +8147,7 @@
       <c r="G840" s="2"/>
       <c r="H840" s="2"/>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" ht="16">
       <c r="A841" s="2"/>
       <c r="D841" s="6"/>
       <c r="E841" s="2"/>
@@ -8125,7 +8155,7 @@
       <c r="G841" s="2"/>
       <c r="H841" s="2"/>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" ht="16">
       <c r="A842" s="2"/>
       <c r="D842" s="6"/>
       <c r="E842" s="2"/>
@@ -8133,7 +8163,7 @@
       <c r="G842" s="2"/>
       <c r="H842" s="2"/>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" ht="16">
       <c r="A843" s="2"/>
       <c r="D843" s="6"/>
       <c r="E843" s="2"/>
@@ -8141,7 +8171,7 @@
       <c r="G843" s="2"/>
       <c r="H843" s="2"/>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" ht="16">
       <c r="A844" s="2"/>
       <c r="D844" s="6"/>
       <c r="E844" s="2"/>
@@ -8149,7 +8179,7 @@
       <c r="G844" s="2"/>
       <c r="H844" s="2"/>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" ht="16">
       <c r="A845" s="2"/>
       <c r="D845" s="6"/>
       <c r="E845" s="2"/>
@@ -8157,7 +8187,7 @@
       <c r="G845" s="2"/>
       <c r="H845" s="2"/>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" ht="16">
       <c r="A846" s="2"/>
       <c r="D846" s="6"/>
       <c r="E846" s="2"/>
@@ -8165,7 +8195,7 @@
       <c r="G846" s="2"/>
       <c r="H846" s="2"/>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" ht="16">
       <c r="A847" s="2"/>
       <c r="D847" s="6"/>
       <c r="E847" s="2"/>
@@ -8173,7 +8203,7 @@
       <c r="G847" s="2"/>
       <c r="H847" s="2"/>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" ht="16">
       <c r="A848" s="2"/>
       <c r="D848" s="6"/>
       <c r="E848" s="2"/>
@@ -8181,7 +8211,7 @@
       <c r="G848" s="2"/>
       <c r="H848" s="2"/>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" ht="16">
       <c r="A849" s="2"/>
       <c r="D849" s="6"/>
       <c r="E849" s="2"/>
@@ -8189,7 +8219,7 @@
       <c r="G849" s="2"/>
       <c r="H849" s="2"/>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" ht="16">
       <c r="A850" s="2"/>
       <c r="D850" s="6"/>
       <c r="E850" s="2"/>
@@ -8197,7 +8227,7 @@
       <c r="G850" s="2"/>
       <c r="H850" s="2"/>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" ht="16">
       <c r="A851" s="2"/>
       <c r="D851" s="6"/>
       <c r="E851" s="2"/>
@@ -8205,7 +8235,7 @@
       <c r="G851" s="2"/>
       <c r="H851" s="2"/>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" ht="16">
       <c r="A852" s="2"/>
       <c r="D852" s="6"/>
       <c r="E852" s="2"/>
@@ -8213,7 +8243,7 @@
       <c r="G852" s="2"/>
       <c r="H852" s="2"/>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" ht="16">
       <c r="A853" s="2"/>
       <c r="D853" s="6"/>
       <c r="E853" s="2"/>
@@ -8221,7 +8251,7 @@
       <c r="G853" s="2"/>
       <c r="H853" s="2"/>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" ht="16">
       <c r="A854" s="2"/>
       <c r="D854" s="6"/>
       <c r="E854" s="2"/>
@@ -8229,7 +8259,7 @@
       <c r="G854" s="2"/>
       <c r="H854" s="2"/>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" ht="16">
       <c r="A855" s="2"/>
       <c r="D855" s="6"/>
       <c r="E855" s="2"/>
@@ -8237,7 +8267,7 @@
       <c r="G855" s="2"/>
       <c r="H855" s="2"/>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" ht="16">
       <c r="A856" s="2"/>
       <c r="D856" s="6"/>
       <c r="E856" s="2"/>
@@ -8245,7 +8275,7 @@
       <c r="G856" s="2"/>
       <c r="H856" s="2"/>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" ht="16">
       <c r="A857" s="2"/>
       <c r="D857" s="6"/>
       <c r="E857" s="2"/>
@@ -8253,7 +8283,7 @@
       <c r="G857" s="2"/>
       <c r="H857" s="2"/>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" ht="16">
       <c r="A858" s="2"/>
       <c r="D858" s="6"/>
       <c r="E858" s="2"/>
@@ -8261,7 +8291,7 @@
       <c r="G858" s="2"/>
       <c r="H858" s="2"/>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" ht="16">
       <c r="A859" s="2"/>
       <c r="D859" s="6"/>
       <c r="E859" s="2"/>
@@ -8269,7 +8299,7 @@
       <c r="G859" s="2"/>
       <c r="H859" s="2"/>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" ht="16">
       <c r="A860" s="2"/>
       <c r="D860" s="6"/>
       <c r="E860" s="2"/>
@@ -8277,7 +8307,7 @@
       <c r="G860" s="2"/>
       <c r="H860" s="2"/>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" ht="16">
       <c r="A861" s="2"/>
       <c r="D861" s="6"/>
       <c r="E861" s="2"/>
@@ -8285,7 +8315,7 @@
       <c r="G861" s="2"/>
       <c r="H861" s="2"/>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="1:8" ht="16">
       <c r="A862" s="2"/>
       <c r="D862" s="6"/>
       <c r="E862" s="2"/>
@@ -8293,7 +8323,7 @@
       <c r="G862" s="2"/>
       <c r="H862" s="2"/>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="1:8" ht="16">
       <c r="A863" s="2"/>
       <c r="D863" s="6"/>
       <c r="E863" s="2"/>
@@ -8301,7 +8331,7 @@
       <c r="G863" s="2"/>
       <c r="H863" s="2"/>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="1:8" ht="16">
       <c r="A864" s="2"/>
       <c r="D864" s="6"/>
       <c r="E864" s="2"/>
@@ -8309,7 +8339,7 @@
       <c r="G864" s="2"/>
       <c r="H864" s="2"/>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" ht="16">
       <c r="A865" s="2"/>
       <c r="D865" s="6"/>
       <c r="E865" s="2"/>
@@ -8317,7 +8347,7 @@
       <c r="G865" s="2"/>
       <c r="H865" s="2"/>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:8" ht="16">
       <c r="A866" s="2"/>
       <c r="D866" s="6"/>
       <c r="E866" s="2"/>
@@ -8325,7 +8355,7 @@
       <c r="G866" s="2"/>
       <c r="H866" s="2"/>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" ht="16">
       <c r="A867" s="2"/>
       <c r="D867" s="6"/>
       <c r="E867" s="2"/>
@@ -8333,7 +8363,7 @@
       <c r="G867" s="2"/>
       <c r="H867" s="2"/>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" ht="16">
       <c r="A868" s="2"/>
       <c r="D868" s="6"/>
       <c r="E868" s="2"/>
@@ -8341,7 +8371,7 @@
       <c r="G868" s="2"/>
       <c r="H868" s="2"/>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" ht="16">
       <c r="A869" s="2"/>
       <c r="D869" s="6"/>
       <c r="E869" s="2"/>
@@ -8349,7 +8379,7 @@
       <c r="G869" s="2"/>
       <c r="H869" s="2"/>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" ht="16">
       <c r="A870" s="2"/>
       <c r="D870" s="6"/>
       <c r="E870" s="2"/>
@@ -8357,7 +8387,7 @@
       <c r="G870" s="2"/>
       <c r="H870" s="2"/>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" ht="16">
       <c r="A871" s="2"/>
       <c r="D871" s="6"/>
       <c r="E871" s="2"/>
@@ -8365,7 +8395,7 @@
       <c r="G871" s="2"/>
       <c r="H871" s="2"/>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" ht="16">
       <c r="A872" s="2"/>
       <c r="D872" s="6"/>
       <c r="E872" s="2"/>
@@ -8373,7 +8403,7 @@
       <c r="G872" s="2"/>
       <c r="H872" s="2"/>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" ht="16">
       <c r="A873" s="2"/>
       <c r="D873" s="6"/>
       <c r="E873" s="2"/>
@@ -8381,7 +8411,7 @@
       <c r="G873" s="2"/>
       <c r="H873" s="2"/>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" ht="16">
       <c r="A874" s="2"/>
       <c r="D874" s="6"/>
       <c r="E874" s="2"/>
@@ -8389,7 +8419,7 @@
       <c r="G874" s="2"/>
       <c r="H874" s="2"/>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" ht="16">
       <c r="A875" s="2"/>
       <c r="D875" s="6"/>
       <c r="E875" s="2"/>
@@ -8397,7 +8427,7 @@
       <c r="G875" s="2"/>
       <c r="H875" s="2"/>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" ht="16">
       <c r="A876" s="2"/>
       <c r="D876" s="6"/>
       <c r="E876" s="2"/>
@@ -8405,7 +8435,7 @@
       <c r="G876" s="2"/>
       <c r="H876" s="2"/>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" ht="16">
       <c r="A877" s="2"/>
       <c r="D877" s="6"/>
       <c r="E877" s="2"/>
@@ -8413,7 +8443,7 @@
       <c r="G877" s="2"/>
       <c r="H877" s="2"/>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" ht="16">
       <c r="A878" s="2"/>
       <c r="D878" s="6"/>
       <c r="E878" s="2"/>
@@ -8421,7 +8451,7 @@
       <c r="G878" s="2"/>
       <c r="H878" s="2"/>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" ht="16">
       <c r="A879" s="2"/>
       <c r="D879" s="6"/>
       <c r="E879" s="2"/>
@@ -8429,7 +8459,7 @@
       <c r="G879" s="2"/>
       <c r="H879" s="2"/>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" ht="16">
       <c r="A880" s="2"/>
       <c r="D880" s="6"/>
       <c r="E880" s="2"/>
@@ -8437,7 +8467,7 @@
       <c r="G880" s="2"/>
       <c r="H880" s="2"/>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" ht="16">
       <c r="A881" s="2"/>
       <c r="D881" s="6"/>
       <c r="E881" s="2"/>
@@ -8445,7 +8475,7 @@
       <c r="G881" s="2"/>
       <c r="H881" s="2"/>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" ht="16">
       <c r="A882" s="2"/>
       <c r="D882" s="6"/>
       <c r="E882" s="2"/>
@@ -8453,7 +8483,7 @@
       <c r="G882" s="2"/>
       <c r="H882" s="2"/>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" ht="16">
       <c r="A883" s="2"/>
       <c r="D883" s="6"/>
       <c r="E883" s="2"/>
@@ -8461,7 +8491,7 @@
       <c r="G883" s="2"/>
       <c r="H883" s="2"/>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" ht="16">
       <c r="A884" s="2"/>
       <c r="D884" s="6"/>
       <c r="E884" s="2"/>
@@ -8469,7 +8499,7 @@
       <c r="G884" s="2"/>
       <c r="H884" s="2"/>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" ht="16">
       <c r="A885" s="2"/>
       <c r="D885" s="6"/>
       <c r="E885" s="2"/>
@@ -8477,7 +8507,7 @@
       <c r="G885" s="2"/>
       <c r="H885" s="2"/>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" ht="16">
       <c r="A886" s="2"/>
       <c r="D886" s="6"/>
       <c r="E886" s="2"/>
@@ -8485,7 +8515,7 @@
       <c r="G886" s="2"/>
       <c r="H886" s="2"/>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" ht="16">
       <c r="A887" s="2"/>
       <c r="D887" s="6"/>
       <c r="E887" s="2"/>
@@ -8493,7 +8523,7 @@
       <c r="G887" s="2"/>
       <c r="H887" s="2"/>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" ht="16">
       <c r="A888" s="2"/>
       <c r="D888" s="6"/>
       <c r="E888" s="2"/>
@@ -8501,7 +8531,7 @@
       <c r="G888" s="2"/>
       <c r="H888" s="2"/>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" ht="16">
       <c r="A889" s="2"/>
       <c r="D889" s="6"/>
       <c r="E889" s="2"/>
@@ -8509,7 +8539,7 @@
       <c r="G889" s="2"/>
       <c r="H889" s="2"/>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" ht="16">
       <c r="A890" s="2"/>
       <c r="D890" s="6"/>
       <c r="E890" s="2"/>
@@ -8517,7 +8547,7 @@
       <c r="G890" s="2"/>
       <c r="H890" s="2"/>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" ht="16">
       <c r="A891" s="2"/>
       <c r="D891" s="6"/>
       <c r="E891" s="2"/>
@@ -8525,7 +8555,7 @@
       <c r="G891" s="2"/>
       <c r="H891" s="2"/>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" ht="16">
       <c r="A892" s="2"/>
       <c r="D892" s="6"/>
       <c r="E892" s="2"/>
@@ -8533,7 +8563,7 @@
       <c r="G892" s="2"/>
       <c r="H892" s="2"/>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" ht="16">
       <c r="A893" s="2"/>
       <c r="D893" s="6"/>
       <c r="E893" s="2"/>
@@ -8541,7 +8571,7 @@
       <c r="G893" s="2"/>
       <c r="H893" s="2"/>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" ht="16">
       <c r="A894" s="2"/>
       <c r="D894" s="6"/>
       <c r="E894" s="2"/>
@@ -8549,7 +8579,7 @@
       <c r="G894" s="2"/>
       <c r="H894" s="2"/>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" ht="16">
       <c r="A895" s="2"/>
       <c r="D895" s="6"/>
       <c r="E895" s="2"/>
@@ -8557,7 +8587,7 @@
       <c r="G895" s="2"/>
       <c r="H895" s="2"/>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" ht="16">
       <c r="A896" s="2"/>
       <c r="D896" s="6"/>
       <c r="E896" s="2"/>
@@ -8565,7 +8595,7 @@
       <c r="G896" s="2"/>
       <c r="H896" s="2"/>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" ht="16">
       <c r="A897" s="2"/>
       <c r="D897" s="6"/>
       <c r="E897" s="2"/>
@@ -8573,7 +8603,7 @@
       <c r="G897" s="2"/>
       <c r="H897" s="2"/>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" ht="16">
       <c r="A898" s="2"/>
       <c r="D898" s="6"/>
       <c r="E898" s="2"/>
@@ -8581,7 +8611,7 @@
       <c r="G898" s="2"/>
       <c r="H898" s="2"/>
     </row>
-    <row r="899" spans="1:8">
+    <row r="899" spans="1:8" ht="16">
       <c r="A899" s="2"/>
       <c r="D899" s="6"/>
       <c r="E899" s="2"/>
@@ -8589,7 +8619,7 @@
       <c r="G899" s="2"/>
       <c r="H899" s="2"/>
     </row>
-    <row r="900" spans="1:8">
+    <row r="900" spans="1:8" ht="16">
       <c r="A900" s="2"/>
       <c r="D900" s="6"/>
       <c r="E900" s="2"/>
@@ -8597,7 +8627,7 @@
       <c r="G900" s="2"/>
       <c r="H900" s="2"/>
     </row>
-    <row r="901" spans="1:8">
+    <row r="901" spans="1:8" ht="16">
       <c r="A901" s="2"/>
       <c r="D901" s="6"/>
       <c r="E901" s="2"/>
@@ -8605,7 +8635,7 @@
       <c r="G901" s="2"/>
       <c r="H901" s="2"/>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" ht="16">
       <c r="A902" s="2"/>
       <c r="D902" s="6"/>
       <c r="E902" s="2"/>
@@ -8613,7 +8643,7 @@
       <c r="G902" s="2"/>
       <c r="H902" s="2"/>
     </row>
-    <row r="903" spans="1:8">
+    <row r="903" spans="1:8" ht="16">
       <c r="A903" s="2"/>
       <c r="D903" s="6"/>
       <c r="E903" s="2"/>
@@ -8621,7 +8651,7 @@
       <c r="G903" s="2"/>
       <c r="H903" s="2"/>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" ht="16">
       <c r="A904" s="2"/>
       <c r="D904" s="6"/>
       <c r="E904" s="2"/>
@@ -8629,7 +8659,7 @@
       <c r="G904" s="2"/>
       <c r="H904" s="2"/>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" ht="16">
       <c r="A905" s="2"/>
       <c r="D905" s="6"/>
       <c r="E905" s="2"/>
@@ -8637,7 +8667,7 @@
       <c r="G905" s="2"/>
       <c r="H905" s="2"/>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" ht="16">
       <c r="A906" s="2"/>
       <c r="D906" s="6"/>
       <c r="E906" s="2"/>
@@ -8645,7 +8675,7 @@
       <c r="G906" s="2"/>
       <c r="H906" s="2"/>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" ht="16">
       <c r="A907" s="2"/>
       <c r="D907" s="6"/>
       <c r="E907" s="2"/>
@@ -8653,7 +8683,7 @@
       <c r="G907" s="2"/>
       <c r="H907" s="2"/>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" ht="16">
       <c r="A908" s="2"/>
       <c r="D908" s="6"/>
       <c r="E908" s="2"/>
@@ -8661,7 +8691,7 @@
       <c r="G908" s="2"/>
       <c r="H908" s="2"/>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" ht="16">
       <c r="A909" s="2"/>
       <c r="D909" s="6"/>
       <c r="E909" s="2"/>
@@ -8669,7 +8699,7 @@
       <c r="G909" s="2"/>
       <c r="H909" s="2"/>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" ht="16">
       <c r="A910" s="2"/>
       <c r="D910" s="6"/>
       <c r="E910" s="2"/>
@@ -8677,7 +8707,7 @@
       <c r="G910" s="2"/>
       <c r="H910" s="2"/>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" ht="16">
       <c r="A911" s="2"/>
       <c r="D911" s="6"/>
       <c r="E911" s="2"/>
@@ -8685,7 +8715,7 @@
       <c r="G911" s="2"/>
       <c r="H911" s="2"/>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" ht="16">
       <c r="A912" s="2"/>
       <c r="D912" s="6"/>
       <c r="E912" s="2"/>
@@ -8693,7 +8723,7 @@
       <c r="G912" s="2"/>
       <c r="H912" s="2"/>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" ht="16">
       <c r="A913" s="2"/>
       <c r="D913" s="6"/>
       <c r="E913" s="2"/>
@@ -8701,7 +8731,7 @@
       <c r="G913" s="2"/>
       <c r="H913" s="2"/>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" ht="16">
       <c r="A914" s="2"/>
       <c r="D914" s="6"/>
       <c r="E914" s="2"/>
@@ -8709,7 +8739,7 @@
       <c r="G914" s="2"/>
       <c r="H914" s="2"/>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" ht="16">
       <c r="A915" s="2"/>
       <c r="D915" s="6"/>
       <c r="E915" s="2"/>
@@ -8717,7 +8747,7 @@
       <c r="G915" s="2"/>
       <c r="H915" s="2"/>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" ht="16">
       <c r="A916" s="2"/>
       <c r="D916" s="6"/>
       <c r="E916" s="2"/>
@@ -8725,7 +8755,7 @@
       <c r="G916" s="2"/>
       <c r="H916" s="2"/>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" ht="16">
       <c r="A917" s="2"/>
       <c r="D917" s="6"/>
       <c r="E917" s="2"/>
@@ -8733,7 +8763,7 @@
       <c r="G917" s="2"/>
       <c r="H917" s="2"/>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" ht="16">
       <c r="A918" s="2"/>
       <c r="D918" s="6"/>
       <c r="E918" s="2"/>
@@ -8741,7 +8771,7 @@
       <c r="G918" s="2"/>
       <c r="H918" s="2"/>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" ht="16">
       <c r="A919" s="2"/>
       <c r="D919" s="6"/>
       <c r="E919" s="2"/>
@@ -8749,7 +8779,7 @@
       <c r="G919" s="2"/>
       <c r="H919" s="2"/>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" ht="16">
       <c r="A920" s="2"/>
       <c r="D920" s="6"/>
       <c r="E920" s="2"/>
@@ -8757,7 +8787,7 @@
       <c r="G920" s="2"/>
       <c r="H920" s="2"/>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" ht="16">
       <c r="A921" s="2"/>
       <c r="D921" s="6"/>
       <c r="E921" s="2"/>
@@ -8765,7 +8795,7 @@
       <c r="G921" s="2"/>
       <c r="H921" s="2"/>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" ht="16">
       <c r="A922" s="2"/>
       <c r="D922" s="6"/>
       <c r="E922" s="2"/>
@@ -8773,7 +8803,7 @@
       <c r="G922" s="2"/>
       <c r="H922" s="2"/>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" ht="16">
       <c r="A923" s="2"/>
       <c r="D923" s="6"/>
       <c r="E923" s="2"/>
@@ -8781,7 +8811,7 @@
       <c r="G923" s="2"/>
       <c r="H923" s="2"/>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" ht="16">
       <c r="A924" s="2"/>
       <c r="D924" s="6"/>
       <c r="E924" s="2"/>
@@ -8789,7 +8819,7 @@
       <c r="G924" s="2"/>
       <c r="H924" s="2"/>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" ht="16">
       <c r="A925" s="2"/>
       <c r="D925" s="6"/>
       <c r="E925" s="2"/>
@@ -8797,7 +8827,7 @@
       <c r="G925" s="2"/>
       <c r="H925" s="2"/>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" ht="16">
       <c r="A926" s="2"/>
       <c r="D926" s="6"/>
       <c r="E926" s="2"/>
@@ -8805,7 +8835,7 @@
       <c r="G926" s="2"/>
       <c r="H926" s="2"/>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" ht="16">
       <c r="A927" s="2"/>
       <c r="D927" s="6"/>
       <c r="E927" s="2"/>
@@ -8813,7 +8843,7 @@
       <c r="G927" s="2"/>
       <c r="H927" s="2"/>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" ht="16">
       <c r="A928" s="2"/>
       <c r="D928" s="6"/>
       <c r="E928" s="2"/>
@@ -8821,7 +8851,7 @@
       <c r="G928" s="2"/>
       <c r="H928" s="2"/>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" ht="16">
       <c r="A929" s="2"/>
       <c r="D929" s="6"/>
       <c r="E929" s="2"/>
@@ -8829,7 +8859,7 @@
       <c r="G929" s="2"/>
       <c r="H929" s="2"/>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" ht="16">
       <c r="A930" s="2"/>
       <c r="D930" s="6"/>
       <c r="E930" s="2"/>
@@ -8837,7 +8867,7 @@
       <c r="G930" s="2"/>
       <c r="H930" s="2"/>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" ht="16">
       <c r="A931" s="2"/>
       <c r="D931" s="6"/>
       <c r="E931" s="2"/>
@@ -8845,7 +8875,7 @@
       <c r="G931" s="2"/>
       <c r="H931" s="2"/>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" ht="16">
       <c r="A932" s="2"/>
       <c r="D932" s="6"/>
       <c r="E932" s="2"/>
@@ -8853,7 +8883,7 @@
       <c r="G932" s="2"/>
       <c r="H932" s="2"/>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" ht="16">
       <c r="A933" s="2"/>
       <c r="D933" s="6"/>
       <c r="E933" s="2"/>
@@ -8861,7 +8891,7 @@
       <c r="G933" s="2"/>
       <c r="H933" s="2"/>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" ht="16">
       <c r="A934" s="2"/>
       <c r="D934" s="6"/>
       <c r="E934" s="2"/>
@@ -8869,7 +8899,7 @@
       <c r="G934" s="2"/>
       <c r="H934" s="2"/>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" ht="16">
       <c r="A935" s="2"/>
       <c r="D935" s="6"/>
       <c r="E935" s="2"/>
@@ -8877,7 +8907,7 @@
       <c r="G935" s="2"/>
       <c r="H935" s="2"/>
     </row>
-    <row r="936" spans="1:8">
+    <row r="936" spans="1:8" ht="16">
       <c r="A936" s="2"/>
       <c r="D936" s="6"/>
       <c r="E936" s="2"/>
@@ -8885,7 +8915,7 @@
       <c r="G936" s="2"/>
       <c r="H936" s="2"/>
     </row>
-    <row r="937" spans="1:8">
+    <row r="937" spans="1:8" ht="16">
       <c r="A937" s="2"/>
       <c r="D937" s="6"/>
       <c r="E937" s="2"/>
@@ -8893,7 +8923,7 @@
       <c r="G937" s="2"/>
       <c r="H937" s="2"/>
     </row>
-    <row r="938" spans="1:8">
+    <row r="938" spans="1:8" ht="16">
       <c r="A938" s="2"/>
       <c r="D938" s="6"/>
       <c r="E938" s="2"/>
@@ -8901,7 +8931,7 @@
       <c r="G938" s="2"/>
       <c r="H938" s="2"/>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:8" ht="16">
       <c r="A939" s="2"/>
       <c r="D939" s="6"/>
       <c r="E939" s="2"/>
@@ -8909,7 +8939,7 @@
       <c r="G939" s="2"/>
       <c r="H939" s="2"/>
     </row>
-    <row r="940" spans="1:8">
+    <row r="940" spans="1:8" ht="16">
       <c r="A940" s="2"/>
       <c r="D940" s="6"/>
       <c r="E940" s="2"/>
@@ -8917,7 +8947,7 @@
       <c r="G940" s="2"/>
       <c r="H940" s="2"/>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:8" ht="16">
       <c r="A941" s="2"/>
       <c r="D941" s="6"/>
       <c r="E941" s="2"/>
@@ -8925,7 +8955,7 @@
       <c r="G941" s="2"/>
       <c r="H941" s="2"/>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:8" ht="16">
       <c r="A942" s="2"/>
       <c r="D942" s="6"/>
       <c r="E942" s="2"/>
@@ -8933,7 +8963,7 @@
       <c r="G942" s="2"/>
       <c r="H942" s="2"/>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:8" ht="16">
       <c r="A943" s="2"/>
       <c r="D943" s="6"/>
       <c r="E943" s="2"/>
@@ -8941,7 +8971,7 @@
       <c r="G943" s="2"/>
       <c r="H943" s="2"/>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:8" ht="16">
       <c r="A944" s="2"/>
       <c r="D944" s="6"/>
       <c r="E944" s="2"/>
@@ -8949,7 +8979,7 @@
       <c r="G944" s="2"/>
       <c r="H944" s="2"/>
     </row>
-    <row r="945" spans="1:8">
+    <row r="945" spans="1:8" ht="16">
       <c r="A945" s="2"/>
       <c r="D945" s="6"/>
       <c r="E945" s="2"/>
@@ -8957,7 +8987,7 @@
       <c r="G945" s="2"/>
       <c r="H945" s="2"/>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" ht="16">
       <c r="A946" s="2"/>
       <c r="D946" s="6"/>
       <c r="E946" s="2"/>
@@ -8965,7 +8995,7 @@
       <c r="G946" s="2"/>
       <c r="H946" s="2"/>
     </row>
-    <row r="947" spans="1:8">
+    <row r="947" spans="1:8" ht="16">
       <c r="A947" s="2"/>
       <c r="D947" s="6"/>
       <c r="E947" s="2"/>
@@ -8973,7 +9003,7 @@
       <c r="G947" s="2"/>
       <c r="H947" s="2"/>
     </row>
-    <row r="948" spans="1:8">
+    <row r="948" spans="1:8" ht="16">
       <c r="A948" s="2"/>
       <c r="D948" s="6"/>
       <c r="E948" s="2"/>
@@ -8981,7 +9011,7 @@
       <c r="G948" s="2"/>
       <c r="H948" s="2"/>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:8" ht="16">
       <c r="A949" s="2"/>
       <c r="D949" s="6"/>
       <c r="E949" s="2"/>
@@ -8989,7 +9019,7 @@
       <c r="G949" s="2"/>
       <c r="H949" s="2"/>
     </row>
-    <row r="950" spans="1:8">
+    <row r="950" spans="1:8" ht="16">
       <c r="A950" s="2"/>
       <c r="D950" s="6"/>
       <c r="E950" s="2"/>
@@ -8997,7 +9027,7 @@
       <c r="G950" s="2"/>
       <c r="H950" s="2"/>
     </row>
-    <row r="951" spans="1:8">
+    <row r="951" spans="1:8" ht="16">
       <c r="A951" s="2"/>
       <c r="D951" s="6"/>
       <c r="E951" s="2"/>
@@ -9005,7 +9035,7 @@
       <c r="G951" s="2"/>
       <c r="H951" s="2"/>
     </row>
-    <row r="952" spans="1:8">
+    <row r="952" spans="1:8" ht="16">
       <c r="A952" s="2"/>
       <c r="D952" s="6"/>
       <c r="E952" s="2"/>
@@ -9013,7 +9043,7 @@
       <c r="G952" s="2"/>
       <c r="H952" s="2"/>
     </row>
-    <row r="953" spans="1:8">
+    <row r="953" spans="1:8" ht="16">
       <c r="A953" s="2"/>
       <c r="D953" s="6"/>
       <c r="E953" s="2"/>
@@ -9021,7 +9051,7 @@
       <c r="G953" s="2"/>
       <c r="H953" s="2"/>
     </row>
-    <row r="954" spans="1:8">
+    <row r="954" spans="1:8" ht="16">
       <c r="A954" s="2"/>
       <c r="D954" s="6"/>
       <c r="E954" s="2"/>
@@ -9029,7 +9059,7 @@
       <c r="G954" s="2"/>
       <c r="H954" s="2"/>
     </row>
-    <row r="955" spans="1:8">
+    <row r="955" spans="1:8" ht="16">
       <c r="A955" s="2"/>
       <c r="D955" s="6"/>
       <c r="E955" s="2"/>
@@ -9037,7 +9067,7 @@
       <c r="G955" s="2"/>
       <c r="H955" s="2"/>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" ht="16">
       <c r="A956" s="2"/>
       <c r="D956" s="6"/>
       <c r="E956" s="2"/>
@@ -9045,7 +9075,7 @@
       <c r="G956" s="2"/>
       <c r="H956" s="2"/>
     </row>
-    <row r="957" spans="1:8">
+    <row r="957" spans="1:8" ht="16">
       <c r="A957" s="2"/>
       <c r="D957" s="6"/>
       <c r="E957" s="2"/>
@@ -9053,7 +9083,7 @@
       <c r="G957" s="2"/>
       <c r="H957" s="2"/>
     </row>
-    <row r="958" spans="1:8">
+    <row r="958" spans="1:8" ht="16">
       <c r="A958" s="2"/>
       <c r="D958" s="6"/>
       <c r="E958" s="2"/>
@@ -9061,7 +9091,7 @@
       <c r="G958" s="2"/>
       <c r="H958" s="2"/>
     </row>
-    <row r="959" spans="1:8">
+    <row r="959" spans="1:8" ht="16">
       <c r="A959" s="2"/>
       <c r="D959" s="6"/>
       <c r="E959" s="2"/>
@@ -9069,7 +9099,7 @@
       <c r="G959" s="2"/>
       <c r="H959" s="2"/>
     </row>
-    <row r="960" spans="1:8">
+    <row r="960" spans="1:8" ht="16">
       <c r="A960" s="2"/>
       <c r="D960" s="6"/>
       <c r="E960" s="2"/>
@@ -9077,7 +9107,7 @@
       <c r="G960" s="2"/>
       <c r="H960" s="2"/>
     </row>
-    <row r="961" spans="1:8">
+    <row r="961" spans="1:8" ht="16">
       <c r="A961" s="2"/>
       <c r="D961" s="6"/>
       <c r="E961" s="2"/>
@@ -9085,7 +9115,7 @@
       <c r="G961" s="2"/>
       <c r="H961" s="2"/>
     </row>
-    <row r="962" spans="1:8">
+    <row r="962" spans="1:8" ht="16">
       <c r="A962" s="2"/>
       <c r="D962" s="6"/>
       <c r="E962" s="2"/>
@@ -9093,7 +9123,7 @@
       <c r="G962" s="2"/>
       <c r="H962" s="2"/>
     </row>
-    <row r="963" spans="1:8">
+    <row r="963" spans="1:8" ht="16">
       <c r="A963" s="2"/>
       <c r="D963" s="6"/>
       <c r="E963" s="2"/>
@@ -9101,7 +9131,7 @@
       <c r="G963" s="2"/>
       <c r="H963" s="2"/>
     </row>
-    <row r="964" spans="1:8">
+    <row r="964" spans="1:8" ht="16">
       <c r="A964" s="2"/>
       <c r="D964" s="6"/>
       <c r="E964" s="2"/>
@@ -9109,7 +9139,7 @@
       <c r="G964" s="2"/>
       <c r="H964" s="2"/>
     </row>
-    <row r="965" spans="1:8">
+    <row r="965" spans="1:8" ht="16">
       <c r="A965" s="2"/>
       <c r="D965" s="6"/>
       <c r="E965" s="2"/>
@@ -9117,7 +9147,7 @@
       <c r="G965" s="2"/>
       <c r="H965" s="2"/>
     </row>
-    <row r="966" spans="1:8">
+    <row r="966" spans="1:8" ht="16">
       <c r="A966" s="2"/>
       <c r="D966" s="6"/>
       <c r="E966" s="2"/>
@@ -9125,7 +9155,7 @@
       <c r="G966" s="2"/>
       <c r="H966" s="2"/>
     </row>
-    <row r="967" spans="1:8">
+    <row r="967" spans="1:8" ht="16">
       <c r="A967" s="2"/>
       <c r="D967" s="6"/>
       <c r="E967" s="2"/>
@@ -9133,7 +9163,7 @@
       <c r="G967" s="2"/>
       <c r="H967" s="2"/>
     </row>
-    <row r="968" spans="1:8">
+    <row r="968" spans="1:8" ht="16">
       <c r="A968" s="2"/>
       <c r="D968" s="6"/>
       <c r="E968" s="2"/>
@@ -9141,7 +9171,7 @@
       <c r="G968" s="2"/>
       <c r="H968" s="2"/>
     </row>
-    <row r="969" spans="1:8">
+    <row r="969" spans="1:8" ht="16">
       <c r="A969" s="2"/>
       <c r="D969" s="6"/>
       <c r="E969" s="2"/>
@@ -9149,7 +9179,7 @@
       <c r="G969" s="2"/>
       <c r="H969" s="2"/>
     </row>
-    <row r="970" spans="1:8">
+    <row r="970" spans="1:8" ht="16">
       <c r="A970" s="2"/>
       <c r="D970" s="6"/>
       <c r="E970" s="2"/>
@@ -9157,7 +9187,7 @@
       <c r="G970" s="2"/>
       <c r="H970" s="2"/>
     </row>
-    <row r="971" spans="1:8">
+    <row r="971" spans="1:8" ht="16">
       <c r="A971" s="2"/>
       <c r="D971" s="6"/>
       <c r="E971" s="2"/>
@@ -9165,7 +9195,7 @@
       <c r="G971" s="2"/>
       <c r="H971" s="2"/>
     </row>
-    <row r="972" spans="1:8">
+    <row r="972" spans="1:8" ht="16">
       <c r="A972" s="2"/>
       <c r="D972" s="6"/>
       <c r="E972" s="2"/>
@@ -9173,7 +9203,7 @@
       <c r="G972" s="2"/>
       <c r="H972" s="2"/>
     </row>
-    <row r="973" spans="1:8">
+    <row r="973" spans="1:8" ht="16">
       <c r="A973" s="2"/>
       <c r="D973" s="6"/>
       <c r="E973" s="2"/>
@@ -9181,7 +9211,7 @@
       <c r="G973" s="2"/>
       <c r="H973" s="2"/>
     </row>
-    <row r="974" spans="1:8">
+    <row r="974" spans="1:8" ht="16">
       <c r="A974" s="2"/>
       <c r="D974" s="6"/>
       <c r="E974" s="2"/>
@@ -9189,7 +9219,7 @@
       <c r="G974" s="2"/>
       <c r="H974" s="2"/>
     </row>
-    <row r="975" spans="1:8">
+    <row r="975" spans="1:8" ht="16">
       <c r="A975" s="2"/>
       <c r="D975" s="6"/>
       <c r="E975" s="2"/>
@@ -9197,7 +9227,7 @@
       <c r="G975" s="2"/>
       <c r="H975" s="2"/>
     </row>
-    <row r="976" spans="1:8">
+    <row r="976" spans="1:8" ht="16">
       <c r="A976" s="2"/>
       <c r="D976" s="6"/>
       <c r="E976" s="2"/>
@@ -9205,7 +9235,7 @@
       <c r="G976" s="2"/>
       <c r="H976" s="2"/>
     </row>
-    <row r="977" spans="1:8">
+    <row r="977" spans="1:8" ht="16">
       <c r="A977" s="2"/>
       <c r="D977" s="6"/>
       <c r="E977" s="2"/>
@@ -9213,7 +9243,7 @@
       <c r="G977" s="2"/>
       <c r="H977" s="2"/>
     </row>
-    <row r="978" spans="1:8">
+    <row r="978" spans="1:8" ht="16">
       <c r="A978" s="2"/>
       <c r="D978" s="6"/>
       <c r="E978" s="2"/>
@@ -9221,7 +9251,7 @@
       <c r="G978" s="2"/>
       <c r="H978" s="2"/>
     </row>
-    <row r="979" spans="1:8">
+    <row r="979" spans="1:8" ht="16">
       <c r="A979" s="2"/>
       <c r="D979" s="6"/>
       <c r="E979" s="2"/>
@@ -9229,7 +9259,7 @@
       <c r="G979" s="2"/>
       <c r="H979" s="2"/>
     </row>
-    <row r="980" spans="1:8">
+    <row r="980" spans="1:8" ht="16">
       <c r="A980" s="2"/>
       <c r="D980" s="6"/>
       <c r="E980" s="2"/>
@@ -9237,7 +9267,7 @@
       <c r="G980" s="2"/>
       <c r="H980" s="2"/>
     </row>
-    <row r="981" spans="1:8">
+    <row r="981" spans="1:8" ht="16">
       <c r="A981" s="2"/>
       <c r="D981" s="6"/>
       <c r="E981" s="2"/>
@@ -9245,7 +9275,7 @@
       <c r="G981" s="2"/>
       <c r="H981" s="2"/>
     </row>
-    <row r="982" spans="1:8">
+    <row r="982" spans="1:8" ht="16">
       <c r="A982" s="2"/>
       <c r="D982" s="6"/>
       <c r="E982" s="2"/>
@@ -9253,7 +9283,7 @@
       <c r="G982" s="2"/>
       <c r="H982" s="2"/>
     </row>
-    <row r="983" spans="1:8">
+    <row r="983" spans="1:8" ht="16">
       <c r="A983" s="2"/>
       <c r="D983" s="6"/>
       <c r="E983" s="2"/>
@@ -9261,7 +9291,7 @@
       <c r="G983" s="2"/>
       <c r="H983" s="2"/>
     </row>
-    <row r="984" spans="1:8">
+    <row r="984" spans="1:8" ht="16">
       <c r="A984" s="2"/>
       <c r="D984" s="6"/>
       <c r="E984" s="2"/>
@@ -9269,7 +9299,7 @@
       <c r="G984" s="2"/>
       <c r="H984" s="2"/>
     </row>
-    <row r="985" spans="1:8">
+    <row r="985" spans="1:8" ht="16">
       <c r="A985" s="2"/>
       <c r="D985" s="6"/>
       <c r="E985" s="2"/>
@@ -9277,7 +9307,7 @@
       <c r="G985" s="2"/>
       <c r="H985" s="2"/>
     </row>
-    <row r="986" spans="1:8">
+    <row r="986" spans="1:8" ht="16">
       <c r="A986" s="2"/>
       <c r="D986" s="6"/>
       <c r="E986" s="2"/>
@@ -9285,7 +9315,7 @@
       <c r="G986" s="2"/>
       <c r="H986" s="2"/>
     </row>
-    <row r="987" spans="1:8">
+    <row r="987" spans="1:8" ht="16">
       <c r="A987" s="2"/>
       <c r="D987" s="6"/>
       <c r="E987" s="2"/>
@@ -9293,7 +9323,7 @@
       <c r="G987" s="2"/>
       <c r="H987" s="2"/>
     </row>
-    <row r="988" spans="1:8">
+    <row r="988" spans="1:8" ht="16">
       <c r="A988" s="2"/>
       <c r="D988" s="6"/>
       <c r="E988" s="2"/>
@@ -9301,7 +9331,7 @@
       <c r="G988" s="2"/>
       <c r="H988" s="2"/>
     </row>
-    <row r="989" spans="1:8">
+    <row r="989" spans="1:8" ht="16">
       <c r="A989" s="2"/>
       <c r="D989" s="6"/>
       <c r="E989" s="2"/>
@@ -9309,7 +9339,7 @@
       <c r="G989" s="2"/>
       <c r="H989" s="2"/>
     </row>
-    <row r="990" spans="1:8">
+    <row r="990" spans="1:8" ht="16">
       <c r="A990" s="2"/>
       <c r="D990" s="6"/>
       <c r="E990" s="2"/>
@@ -9317,7 +9347,7 @@
       <c r="G990" s="2"/>
       <c r="H990" s="2"/>
     </row>
-    <row r="991" spans="1:8">
+    <row r="991" spans="1:8" ht="16">
       <c r="A991" s="2"/>
       <c r="D991" s="6"/>
       <c r="E991" s="2"/>
@@ -9325,7 +9355,7 @@
       <c r="G991" s="2"/>
       <c r="H991" s="2"/>
     </row>
-    <row r="992" spans="1:8">
+    <row r="992" spans="1:8" ht="16">
       <c r="A992" s="2"/>
       <c r="D992" s="6"/>
       <c r="E992" s="2"/>
@@ -9333,7 +9363,7 @@
       <c r="G992" s="2"/>
       <c r="H992" s="2"/>
     </row>
-    <row r="993" spans="1:8">
+    <row r="993" spans="1:8" ht="16">
       <c r="A993" s="2"/>
       <c r="D993" s="6"/>
       <c r="E993" s="2"/>
@@ -9341,7 +9371,7 @@
       <c r="G993" s="2"/>
       <c r="H993" s="2"/>
     </row>
-    <row r="994" spans="1:8">
+    <row r="994" spans="1:8" ht="16">
       <c r="A994" s="2"/>
       <c r="D994" s="6"/>
       <c r="E994" s="2"/>
@@ -9349,7 +9379,7 @@
       <c r="G994" s="2"/>
       <c r="H994" s="2"/>
     </row>
-    <row r="995" spans="1:8">
+    <row r="995" spans="1:8" ht="16">
       <c r="A995" s="2"/>
       <c r="D995" s="6"/>
       <c r="E995" s="2"/>
@@ -9357,7 +9387,7 @@
       <c r="G995" s="2"/>
       <c r="H995" s="2"/>
     </row>
-    <row r="996" spans="1:8">
+    <row r="996" spans="1:8" ht="16">
       <c r="A996" s="2"/>
       <c r="D996" s="6"/>
       <c r="E996" s="2"/>
@@ -9365,7 +9395,7 @@
       <c r="G996" s="2"/>
       <c r="H996" s="2"/>
     </row>
-    <row r="997" spans="1:8">
+    <row r="997" spans="1:8" ht="16">
       <c r="A997" s="2"/>
       <c r="D997" s="6"/>
       <c r="E997" s="2"/>
@@ -9373,7 +9403,7 @@
       <c r="G997" s="2"/>
       <c r="H997" s="2"/>
     </row>
-    <row r="998" spans="1:8">
+    <row r="998" spans="1:8" ht="16">
       <c r="A998" s="2"/>
       <c r="D998" s="6"/>
       <c r="E998" s="2"/>
@@ -9381,7 +9411,7 @@
       <c r="G998" s="2"/>
       <c r="H998" s="2"/>
     </row>
-    <row r="999" spans="1:8">
+    <row r="999" spans="1:8" ht="16">
       <c r="A999" s="2"/>
       <c r="D999" s="6"/>
       <c r="E999" s="2"/>
@@ -9389,7 +9419,7 @@
       <c r="G999" s="2"/>
       <c r="H999" s="2"/>
     </row>
-    <row r="1000" spans="1:8">
+    <row r="1000" spans="1:8" ht="16">
       <c r="A1000" s="2"/>
       <c r="D1000" s="6"/>
       <c r="E1000" s="2"/>
@@ -9408,41 +9438,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="27" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="28" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="29" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="15" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="D1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>123</v>
       </c>
@@ -9450,13 +9484,19 @@
         <v>121</v>
       </c>
       <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="79" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>124</v>
       </c>
@@ -9466,11 +9506,17 @@
       <c r="C3">
         <v>45</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="63" customHeight="1">
+      <c r="D3" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="63" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>125</v>
       </c>
@@ -9480,14 +9526,17 @@
       <c r="C4">
         <v>40</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="130" customHeight="1">
+      <c r="D4" s="7">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="130" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>122</v>
       </c>
@@ -9497,14 +9546,17 @@
       <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="64" customHeight="1">
+      <c r="D5" s="7">
+        <v>15</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="64" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>132</v>
       </c>
@@ -9514,14 +9566,17 @@
       <c r="C6">
         <v>38</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="78" customHeight="1">
+      <c r="D6" s="7">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="78" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>133</v>
       </c>
@@ -9531,14 +9586,17 @@
       <c r="C7">
         <v>39</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="7">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" customHeight="1">
+      <c r="F7" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>126</v>
       </c>
@@ -9548,11 +9606,17 @@
       <c r="C8">
         <v>38</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31" customHeight="1">
+      <c r="D8" s="7">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="31" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>129</v>
       </c>
@@ -9562,14 +9626,17 @@
       <c r="C9">
         <v>50</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="31" customHeight="1">
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="144" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>134</v>
       </c>
@@ -9579,11 +9646,17 @@
       <c r="C10">
         <v>30</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="61" customHeight="1">
+      <c r="D10" s="7">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="61" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>135</v>
       </c>
@@ -9593,14 +9666,17 @@
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="D11" s="7">
+        <v>15</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="49" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>137</v>
       </c>
@@ -9608,13 +9684,19 @@
         <v>138</v>
       </c>
       <c r="C12">
-        <v>28</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1">
+        <v>45</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="78" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>139</v>
       </c>
@@ -9622,24 +9704,16 @@
         <v>140</v>
       </c>
       <c r="C13">
-        <v>45</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="44" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14">
         <v>60</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>146</v>
+      <c r="D13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/litreview/heattol_litreview.xlsx
+++ b/litreview/heattol_litreview.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nicole/GitHub/heattolerance/litreview/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8EF82E-C4A8-0B46-9BAF-5DAA4E694B3C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="15540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="24380" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="heattol_litreview" sheetId="2" r:id="rId2"/>
     <sheet name="scratch" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -528,17 +522,17 @@
     <t>White Reisling berries ripened faster in cooler phytotron than in field conditions.</t>
   </si>
   <si>
-    <t>Warmer temperatures caused phenology to advance.  The effect was seen most prominently before budburst.  Between budburst and flowering the effect of higher temperatures was slithly less.  The increased temperatures had the least  effect on phenological timing between flowering and fruit set.</t>
-  </si>
-  <si>
     <t>Before and after budburst, flowering, fruit set</t>
+  </si>
+  <si>
+    <t>Warmer temperatures caused phenology to advance.  The effect was seen most prominently before budburst.  Between budburst and flowering the effect of higher temperatures was slightly less.  The increased temperatures had the least  effect on phenological timing between flowering and fruit set.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -602,12 +596,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -627,8 +635,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -636,9 +642,23 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -975,12 +995,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="26" width="10.5" customWidth="1"/>
   </cols>
@@ -1096,14 +1116,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A14" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="11" customWidth="1"/>
@@ -1113,7 +1133,7 @@
     <col min="9" max="27" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="17">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1162,7 +1182,7 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="17">
+    <row r="2" spans="1:27">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="17">
+    <row r="4" spans="1:27">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -1250,7 +1270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="17">
+    <row r="5" spans="1:27">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1279,7 +1299,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="17">
+    <row r="6" spans="1:27">
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
@@ -1335,7 +1355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="17">
+    <row r="8" spans="1:27">
       <c r="A8" s="2" t="s">
         <v>63</v>
       </c>
@@ -1364,7 +1384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="17">
+    <row r="9" spans="1:27">
       <c r="A9" s="5" t="s">
         <v>69</v>
       </c>
@@ -1420,7 +1440,7 @@
       </c>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:27" ht="17">
+    <row r="11" spans="1:27">
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
@@ -1449,7 +1469,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="17">
+    <row r="12" spans="1:27">
       <c r="A12" s="5" t="s">
         <v>88</v>
       </c>
@@ -1478,7 +1498,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="17">
+    <row r="13" spans="1:27">
       <c r="A13" s="5" t="s">
         <v>93</v>
       </c>
@@ -1510,7 +1530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="34">
+    <row r="14" spans="1:27" ht="30">
       <c r="A14" s="7" t="s">
         <v>111</v>
       </c>
@@ -1539,7 +1559,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16">
+    <row r="15" spans="1:27">
       <c r="A15" s="2"/>
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
@@ -1547,7 +1567,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="16">
+    <row r="16" spans="1:27">
       <c r="A16" s="2"/>
       <c r="D16" s="6"/>
       <c r="E16" s="2"/>
@@ -1555,7 +1575,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="16">
+    <row r="17" spans="1:8">
       <c r="A17" s="2"/>
       <c r="D17" s="6"/>
       <c r="E17" s="2"/>
@@ -1563,7 +1583,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="16">
+    <row r="18" spans="1:8">
       <c r="A18" s="2"/>
       <c r="D18" s="6"/>
       <c r="E18" s="2"/>
@@ -1571,7 +1591,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="16">
+    <row r="19" spans="1:8">
       <c r="A19" s="2"/>
       <c r="D19" s="6"/>
       <c r="E19" s="2"/>
@@ -1579,7 +1599,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="16">
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="D20" s="6"/>
       <c r="E20" s="2"/>
@@ -1587,7 +1607,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="16">
+    <row r="21" spans="1:8">
       <c r="A21" s="2"/>
       <c r="D21" s="6"/>
       <c r="E21" s="2"/>
@@ -1595,7 +1615,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="16">
+    <row r="22" spans="1:8">
       <c r="A22" s="2"/>
       <c r="D22" s="6"/>
       <c r="E22" s="2"/>
@@ -1603,7 +1623,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="16">
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="D23" s="6"/>
       <c r="E23" s="2"/>
@@ -1611,7 +1631,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="16">
+    <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="D24" s="6"/>
       <c r="E24" s="2"/>
@@ -1619,7 +1639,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="16">
+    <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="D25" s="6"/>
       <c r="E25" s="2"/>
@@ -1627,7 +1647,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="16">
+    <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="D26" s="6"/>
       <c r="E26" s="2"/>
@@ -1635,7 +1655,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="16">
+    <row r="27" spans="1:8">
       <c r="A27" s="2"/>
       <c r="D27" s="6"/>
       <c r="E27" s="2"/>
@@ -1643,7 +1663,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="16">
+    <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="D28" s="6"/>
       <c r="E28" s="2"/>
@@ -1651,7 +1671,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="16">
+    <row r="29" spans="1:8">
       <c r="A29" s="2"/>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
@@ -1659,7 +1679,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="16">
+    <row r="30" spans="1:8">
       <c r="A30" s="2"/>
       <c r="D30" s="6"/>
       <c r="E30" s="2"/>
@@ -1667,7 +1687,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="16">
+    <row r="31" spans="1:8">
       <c r="A31" s="2"/>
       <c r="D31" s="6"/>
       <c r="E31" s="2"/>
@@ -1675,7 +1695,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="16">
+    <row r="32" spans="1:8">
       <c r="A32" s="2"/>
       <c r="D32" s="6"/>
       <c r="E32" s="2"/>
@@ -1683,7 +1703,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="16">
+    <row r="33" spans="1:8">
       <c r="A33" s="2"/>
       <c r="D33" s="6"/>
       <c r="E33" s="2"/>
@@ -1691,7 +1711,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="16">
+    <row r="34" spans="1:8">
       <c r="A34" s="2"/>
       <c r="D34" s="6"/>
       <c r="E34" s="2"/>
@@ -1699,7 +1719,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="16">
+    <row r="35" spans="1:8">
       <c r="A35" s="2"/>
       <c r="D35" s="6"/>
       <c r="E35" s="2"/>
@@ -1707,7 +1727,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="16">
+    <row r="36" spans="1:8">
       <c r="A36" s="2"/>
       <c r="D36" s="6"/>
       <c r="E36" s="2"/>
@@ -1715,7 +1735,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="16">
+    <row r="37" spans="1:8">
       <c r="A37" s="2"/>
       <c r="D37" s="6"/>
       <c r="E37" s="2"/>
@@ -1723,7 +1743,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="16">
+    <row r="38" spans="1:8">
       <c r="A38" s="2"/>
       <c r="D38" s="6"/>
       <c r="E38" s="2"/>
@@ -1731,7 +1751,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="16">
+    <row r="39" spans="1:8">
       <c r="A39" s="2"/>
       <c r="D39" s="6"/>
       <c r="E39" s="2"/>
@@ -1739,7 +1759,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="16">
+    <row r="40" spans="1:8">
       <c r="A40" s="2"/>
       <c r="D40" s="6"/>
       <c r="E40" s="2"/>
@@ -1747,7 +1767,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="16">
+    <row r="41" spans="1:8">
       <c r="A41" s="2"/>
       <c r="D41" s="6"/>
       <c r="E41" s="2"/>
@@ -1755,7 +1775,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="16">
+    <row r="42" spans="1:8">
       <c r="A42" s="2"/>
       <c r="D42" s="6"/>
       <c r="E42" s="2"/>
@@ -1763,7 +1783,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="16">
+    <row r="43" spans="1:8">
       <c r="A43" s="2"/>
       <c r="D43" s="6"/>
       <c r="E43" s="2"/>
@@ -1771,7 +1791,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="16">
+    <row r="44" spans="1:8">
       <c r="A44" s="2"/>
       <c r="D44" s="6"/>
       <c r="E44" s="2"/>
@@ -1779,7 +1799,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" ht="16">
+    <row r="45" spans="1:8">
       <c r="A45" s="2"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2"/>
@@ -1787,7 +1807,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" ht="16">
+    <row r="46" spans="1:8">
       <c r="A46" s="2"/>
       <c r="D46" s="6"/>
       <c r="E46" s="2"/>
@@ -1795,7 +1815,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" ht="16">
+    <row r="47" spans="1:8">
       <c r="A47" s="2"/>
       <c r="D47" s="6"/>
       <c r="E47" s="2"/>
@@ -1803,7 +1823,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="16">
+    <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="D48" s="6"/>
       <c r="E48" s="2"/>
@@ -1811,7 +1831,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" ht="16">
+    <row r="49" spans="1:8">
       <c r="A49" s="2"/>
       <c r="D49" s="6"/>
       <c r="E49" s="2"/>
@@ -1819,7 +1839,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="16">
+    <row r="50" spans="1:8">
       <c r="A50" s="2"/>
       <c r="D50" s="6"/>
       <c r="E50" s="2"/>
@@ -1827,7 +1847,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="16">
+    <row r="51" spans="1:8">
       <c r="A51" s="2"/>
       <c r="D51" s="6"/>
       <c r="E51" s="2"/>
@@ -1835,7 +1855,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="16">
+    <row r="52" spans="1:8">
       <c r="A52" s="2"/>
       <c r="D52" s="6"/>
       <c r="E52" s="2"/>
@@ -1843,7 +1863,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="16">
+    <row r="53" spans="1:8">
       <c r="A53" s="2"/>
       <c r="D53" s="6"/>
       <c r="E53" s="2"/>
@@ -1851,7 +1871,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="16">
+    <row r="54" spans="1:8">
       <c r="A54" s="2"/>
       <c r="D54" s="6"/>
       <c r="E54" s="2"/>
@@ -1859,7 +1879,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="16">
+    <row r="55" spans="1:8">
       <c r="A55" s="2"/>
       <c r="D55" s="6"/>
       <c r="E55" s="2"/>
@@ -1867,7 +1887,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="16">
+    <row r="56" spans="1:8">
       <c r="A56" s="2"/>
       <c r="D56" s="6"/>
       <c r="E56" s="2"/>
@@ -1875,7 +1895,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="16">
+    <row r="57" spans="1:8">
       <c r="A57" s="2"/>
       <c r="D57" s="6"/>
       <c r="E57" s="2"/>
@@ -1883,7 +1903,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="16">
+    <row r="58" spans="1:8">
       <c r="A58" s="2"/>
       <c r="D58" s="6"/>
       <c r="E58" s="2"/>
@@ -1891,7 +1911,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="16">
+    <row r="59" spans="1:8">
       <c r="A59" s="2"/>
       <c r="D59" s="6"/>
       <c r="E59" s="2"/>
@@ -1899,7 +1919,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="16">
+    <row r="60" spans="1:8">
       <c r="A60" s="2"/>
       <c r="D60" s="6"/>
       <c r="E60" s="2"/>
@@ -1907,7 +1927,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="16">
+    <row r="61" spans="1:8">
       <c r="A61" s="2"/>
       <c r="D61" s="6"/>
       <c r="E61" s="2"/>
@@ -1915,7 +1935,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:8" ht="16">
+    <row r="62" spans="1:8">
       <c r="A62" s="2"/>
       <c r="D62" s="6"/>
       <c r="E62" s="2"/>
@@ -1923,7 +1943,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="16">
+    <row r="63" spans="1:8">
       <c r="A63" s="2"/>
       <c r="D63" s="6"/>
       <c r="E63" s="2"/>
@@ -1931,7 +1951,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="16">
+    <row r="64" spans="1:8">
       <c r="A64" s="2"/>
       <c r="D64" s="6"/>
       <c r="E64" s="2"/>
@@ -1939,7 +1959,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="16">
+    <row r="65" spans="1:8">
       <c r="A65" s="2"/>
       <c r="D65" s="6"/>
       <c r="E65" s="2"/>
@@ -1947,7 +1967,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:8" ht="16">
+    <row r="66" spans="1:8">
       <c r="A66" s="2"/>
       <c r="D66" s="6"/>
       <c r="E66" s="2"/>
@@ -1955,7 +1975,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="1:8" ht="16">
+    <row r="67" spans="1:8">
       <c r="A67" s="2"/>
       <c r="D67" s="6"/>
       <c r="E67" s="2"/>
@@ -1963,7 +1983,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="1:8" ht="16">
+    <row r="68" spans="1:8">
       <c r="A68" s="2"/>
       <c r="D68" s="6"/>
       <c r="E68" s="2"/>
@@ -1971,7 +1991,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="16">
+    <row r="69" spans="1:8">
       <c r="A69" s="2"/>
       <c r="D69" s="6"/>
       <c r="E69" s="2"/>
@@ -1979,7 +1999,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" ht="16">
+    <row r="70" spans="1:8">
       <c r="A70" s="2"/>
       <c r="D70" s="6"/>
       <c r="E70" s="2"/>
@@ -1987,7 +2007,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" ht="16">
+    <row r="71" spans="1:8">
       <c r="A71" s="2"/>
       <c r="D71" s="6"/>
       <c r="E71" s="2"/>
@@ -1995,7 +2015,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="72" spans="1:8" ht="16">
+    <row r="72" spans="1:8">
       <c r="A72" s="2"/>
       <c r="D72" s="6"/>
       <c r="E72" s="2"/>
@@ -2003,7 +2023,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:8" ht="16">
+    <row r="73" spans="1:8">
       <c r="A73" s="2"/>
       <c r="D73" s="6"/>
       <c r="E73" s="2"/>
@@ -2011,7 +2031,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="1:8" ht="16">
+    <row r="74" spans="1:8">
       <c r="A74" s="2"/>
       <c r="D74" s="6"/>
       <c r="E74" s="2"/>
@@ -2019,7 +2039,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="1:8" ht="16">
+    <row r="75" spans="1:8">
       <c r="A75" s="2"/>
       <c r="D75" s="6"/>
       <c r="E75" s="2"/>
@@ -2027,7 +2047,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
     </row>
-    <row r="76" spans="1:8" ht="16">
+    <row r="76" spans="1:8">
       <c r="A76" s="2"/>
       <c r="D76" s="6"/>
       <c r="E76" s="2"/>
@@ -2035,7 +2055,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:8" ht="16">
+    <row r="77" spans="1:8">
       <c r="A77" s="2"/>
       <c r="D77" s="6"/>
       <c r="E77" s="2"/>
@@ -2043,7 +2063,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:8" ht="16">
+    <row r="78" spans="1:8">
       <c r="A78" s="2"/>
       <c r="D78" s="6"/>
       <c r="E78" s="2"/>
@@ -2051,7 +2071,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
     </row>
-    <row r="79" spans="1:8" ht="16">
+    <row r="79" spans="1:8">
       <c r="A79" s="2"/>
       <c r="D79" s="6"/>
       <c r="E79" s="2"/>
@@ -2059,7 +2079,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
     </row>
-    <row r="80" spans="1:8" ht="16">
+    <row r="80" spans="1:8">
       <c r="A80" s="2"/>
       <c r="D80" s="6"/>
       <c r="E80" s="2"/>
@@ -2067,7 +2087,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="16">
+    <row r="81" spans="1:8">
       <c r="A81" s="2"/>
       <c r="D81" s="6"/>
       <c r="E81" s="2"/>
@@ -2075,7 +2095,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
-    <row r="82" spans="1:8" ht="16">
+    <row r="82" spans="1:8">
       <c r="A82" s="2"/>
       <c r="D82" s="6"/>
       <c r="E82" s="2"/>
@@ -2083,7 +2103,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" ht="16">
+    <row r="83" spans="1:8">
       <c r="A83" s="2"/>
       <c r="D83" s="6"/>
       <c r="E83" s="2"/>
@@ -2091,7 +2111,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="16">
+    <row r="84" spans="1:8">
       <c r="A84" s="2"/>
       <c r="D84" s="6"/>
       <c r="E84" s="2"/>
@@ -2099,7 +2119,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" ht="16">
+    <row r="85" spans="1:8">
       <c r="A85" s="2"/>
       <c r="D85" s="6"/>
       <c r="E85" s="2"/>
@@ -2107,7 +2127,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="16">
+    <row r="86" spans="1:8">
       <c r="A86" s="2"/>
       <c r="D86" s="6"/>
       <c r="E86" s="2"/>
@@ -2115,7 +2135,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" ht="16">
+    <row r="87" spans="1:8">
       <c r="A87" s="2"/>
       <c r="D87" s="6"/>
       <c r="E87" s="2"/>
@@ -2123,7 +2143,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
     </row>
-    <row r="88" spans="1:8" ht="16">
+    <row r="88" spans="1:8">
       <c r="A88" s="2"/>
       <c r="D88" s="6"/>
       <c r="E88" s="2"/>
@@ -2131,7 +2151,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="16">
+    <row r="89" spans="1:8">
       <c r="A89" s="2"/>
       <c r="D89" s="6"/>
       <c r="E89" s="2"/>
@@ -2139,7 +2159,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="16">
+    <row r="90" spans="1:8">
       <c r="A90" s="2"/>
       <c r="D90" s="6"/>
       <c r="E90" s="2"/>
@@ -2147,7 +2167,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
     </row>
-    <row r="91" spans="1:8" ht="16">
+    <row r="91" spans="1:8">
       <c r="A91" s="2"/>
       <c r="D91" s="6"/>
       <c r="E91" s="2"/>
@@ -2155,7 +2175,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="16">
+    <row r="92" spans="1:8">
       <c r="A92" s="2"/>
       <c r="D92" s="6"/>
       <c r="E92" s="2"/>
@@ -2163,7 +2183,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
     </row>
-    <row r="93" spans="1:8" ht="16">
+    <row r="93" spans="1:8">
       <c r="A93" s="2"/>
       <c r="D93" s="6"/>
       <c r="E93" s="2"/>
@@ -2171,7 +2191,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
     </row>
-    <row r="94" spans="1:8" ht="16">
+    <row r="94" spans="1:8">
       <c r="A94" s="2"/>
       <c r="D94" s="6"/>
       <c r="E94" s="2"/>
@@ -2179,7 +2199,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="16">
+    <row r="95" spans="1:8">
       <c r="A95" s="2"/>
       <c r="D95" s="6"/>
       <c r="E95" s="2"/>
@@ -2187,7 +2207,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="16">
+    <row r="96" spans="1:8">
       <c r="A96" s="2"/>
       <c r="D96" s="6"/>
       <c r="E96" s="2"/>
@@ -2195,7 +2215,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8" ht="16">
+    <row r="97" spans="1:8">
       <c r="A97" s="2"/>
       <c r="D97" s="6"/>
       <c r="E97" s="2"/>
@@ -2203,7 +2223,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" ht="16">
+    <row r="98" spans="1:8">
       <c r="A98" s="2"/>
       <c r="D98" s="6"/>
       <c r="E98" s="2"/>
@@ -2211,7 +2231,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
     </row>
-    <row r="99" spans="1:8" ht="16">
+    <row r="99" spans="1:8">
       <c r="A99" s="2"/>
       <c r="D99" s="6"/>
       <c r="E99" s="2"/>
@@ -2219,7 +2239,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
     </row>
-    <row r="100" spans="1:8" ht="16">
+    <row r="100" spans="1:8">
       <c r="A100" s="2"/>
       <c r="D100" s="6"/>
       <c r="E100" s="2"/>
@@ -2227,7 +2247,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" ht="16">
+    <row r="101" spans="1:8">
       <c r="A101" s="2"/>
       <c r="D101" s="6"/>
       <c r="E101" s="2"/>
@@ -2235,7 +2255,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" ht="16">
+    <row r="102" spans="1:8">
       <c r="A102" s="2"/>
       <c r="D102" s="6"/>
       <c r="E102" s="2"/>
@@ -2243,7 +2263,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
     </row>
-    <row r="103" spans="1:8" ht="16">
+    <row r="103" spans="1:8">
       <c r="A103" s="2"/>
       <c r="D103" s="6"/>
       <c r="E103" s="2"/>
@@ -2251,7 +2271,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
     </row>
-    <row r="104" spans="1:8" ht="16">
+    <row r="104" spans="1:8">
       <c r="A104" s="2"/>
       <c r="D104" s="6"/>
       <c r="E104" s="2"/>
@@ -2259,7 +2279,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
     </row>
-    <row r="105" spans="1:8" ht="16">
+    <row r="105" spans="1:8">
       <c r="A105" s="2"/>
       <c r="D105" s="6"/>
       <c r="E105" s="2"/>
@@ -2267,7 +2287,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:8" ht="16">
+    <row r="106" spans="1:8">
       <c r="A106" s="2"/>
       <c r="D106" s="6"/>
       <c r="E106" s="2"/>
@@ -2275,7 +2295,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" ht="16">
+    <row r="107" spans="1:8">
       <c r="A107" s="2"/>
       <c r="D107" s="6"/>
       <c r="E107" s="2"/>
@@ -2283,7 +2303,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" ht="16">
+    <row r="108" spans="1:8">
       <c r="A108" s="2"/>
       <c r="D108" s="6"/>
       <c r="E108" s="2"/>
@@ -2291,7 +2311,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8" ht="16">
+    <row r="109" spans="1:8">
       <c r="A109" s="2"/>
       <c r="D109" s="6"/>
       <c r="E109" s="2"/>
@@ -2299,7 +2319,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
     </row>
-    <row r="110" spans="1:8" ht="16">
+    <row r="110" spans="1:8">
       <c r="A110" s="2"/>
       <c r="D110" s="6"/>
       <c r="E110" s="2"/>
@@ -2307,7 +2327,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:8" ht="16">
+    <row r="111" spans="1:8">
       <c r="A111" s="2"/>
       <c r="D111" s="6"/>
       <c r="E111" s="2"/>
@@ -2315,7 +2335,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:8" ht="16">
+    <row r="112" spans="1:8">
       <c r="A112" s="2"/>
       <c r="D112" s="6"/>
       <c r="E112" s="2"/>
@@ -2323,7 +2343,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:8" ht="16">
+    <row r="113" spans="1:8">
       <c r="A113" s="2"/>
       <c r="D113" s="6"/>
       <c r="E113" s="2"/>
@@ -2331,7 +2351,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:8" ht="16">
+    <row r="114" spans="1:8">
       <c r="A114" s="2"/>
       <c r="D114" s="6"/>
       <c r="E114" s="2"/>
@@ -2339,7 +2359,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:8" ht="16">
+    <row r="115" spans="1:8">
       <c r="A115" s="2"/>
       <c r="D115" s="6"/>
       <c r="E115" s="2"/>
@@ -2347,7 +2367,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
     </row>
-    <row r="116" spans="1:8" ht="16">
+    <row r="116" spans="1:8">
       <c r="A116" s="2"/>
       <c r="D116" s="6"/>
       <c r="E116" s="2"/>
@@ -2355,7 +2375,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" ht="16">
+    <row r="117" spans="1:8">
       <c r="A117" s="2"/>
       <c r="D117" s="6"/>
       <c r="E117" s="2"/>
@@ -2363,7 +2383,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
     </row>
-    <row r="118" spans="1:8" ht="16">
+    <row r="118" spans="1:8">
       <c r="A118" s="2"/>
       <c r="D118" s="6"/>
       <c r="E118" s="2"/>
@@ -2371,7 +2391,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:8" ht="16">
+    <row r="119" spans="1:8">
       <c r="A119" s="2"/>
       <c r="D119" s="6"/>
       <c r="E119" s="2"/>
@@ -2379,7 +2399,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:8" ht="16">
+    <row r="120" spans="1:8">
       <c r="A120" s="2"/>
       <c r="D120" s="6"/>
       <c r="E120" s="2"/>
@@ -2387,7 +2407,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
     </row>
-    <row r="121" spans="1:8" ht="16">
+    <row r="121" spans="1:8">
       <c r="A121" s="2"/>
       <c r="D121" s="6"/>
       <c r="E121" s="2"/>
@@ -2395,7 +2415,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:8" ht="16">
+    <row r="122" spans="1:8">
       <c r="A122" s="2"/>
       <c r="D122" s="6"/>
       <c r="E122" s="2"/>
@@ -2403,7 +2423,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:8" ht="16">
+    <row r="123" spans="1:8">
       <c r="A123" s="2"/>
       <c r="D123" s="6"/>
       <c r="E123" s="2"/>
@@ -2411,7 +2431,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:8" ht="16">
+    <row r="124" spans="1:8">
       <c r="A124" s="2"/>
       <c r="D124" s="6"/>
       <c r="E124" s="2"/>
@@ -2419,7 +2439,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:8" ht="16">
+    <row r="125" spans="1:8">
       <c r="A125" s="2"/>
       <c r="D125" s="6"/>
       <c r="E125" s="2"/>
@@ -2427,7 +2447,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
     </row>
-    <row r="126" spans="1:8" ht="16">
+    <row r="126" spans="1:8">
       <c r="A126" s="2"/>
       <c r="D126" s="6"/>
       <c r="E126" s="2"/>
@@ -2435,7 +2455,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:8" ht="16">
+    <row r="127" spans="1:8">
       <c r="A127" s="2"/>
       <c r="D127" s="6"/>
       <c r="E127" s="2"/>
@@ -2443,7 +2463,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:8" ht="16">
+    <row r="128" spans="1:8">
       <c r="A128" s="2"/>
       <c r="D128" s="6"/>
       <c r="E128" s="2"/>
@@ -2451,7 +2471,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
     </row>
-    <row r="129" spans="1:8" ht="16">
+    <row r="129" spans="1:8">
       <c r="A129" s="2"/>
       <c r="D129" s="6"/>
       <c r="E129" s="2"/>
@@ -2459,7 +2479,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:8" ht="16">
+    <row r="130" spans="1:8">
       <c r="A130" s="2"/>
       <c r="D130" s="6"/>
       <c r="E130" s="2"/>
@@ -2467,7 +2487,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8" ht="16">
+    <row r="131" spans="1:8">
       <c r="A131" s="2"/>
       <c r="D131" s="6"/>
       <c r="E131" s="2"/>
@@ -2475,7 +2495,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:8" ht="16">
+    <row r="132" spans="1:8">
       <c r="A132" s="2"/>
       <c r="D132" s="6"/>
       <c r="E132" s="2"/>
@@ -2483,7 +2503,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
     </row>
-    <row r="133" spans="1:8" ht="16">
+    <row r="133" spans="1:8">
       <c r="A133" s="2"/>
       <c r="D133" s="6"/>
       <c r="E133" s="2"/>
@@ -2491,7 +2511,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:8" ht="16">
+    <row r="134" spans="1:8">
       <c r="A134" s="2"/>
       <c r="D134" s="6"/>
       <c r="E134" s="2"/>
@@ -2499,7 +2519,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:8" ht="16">
+    <row r="135" spans="1:8">
       <c r="A135" s="2"/>
       <c r="D135" s="6"/>
       <c r="E135" s="2"/>
@@ -2507,7 +2527,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:8" ht="16">
+    <row r="136" spans="1:8">
       <c r="A136" s="2"/>
       <c r="D136" s="6"/>
       <c r="E136" s="2"/>
@@ -2515,7 +2535,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:8" ht="16">
+    <row r="137" spans="1:8">
       <c r="A137" s="2"/>
       <c r="D137" s="6"/>
       <c r="E137" s="2"/>
@@ -2523,7 +2543,7 @@
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8" ht="16">
+    <row r="138" spans="1:8">
       <c r="A138" s="2"/>
       <c r="D138" s="6"/>
       <c r="E138" s="2"/>
@@ -2531,7 +2551,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:8" ht="16">
+    <row r="139" spans="1:8">
       <c r="A139" s="2"/>
       <c r="D139" s="6"/>
       <c r="E139" s="2"/>
@@ -2539,7 +2559,7 @@
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
     </row>
-    <row r="140" spans="1:8" ht="16">
+    <row r="140" spans="1:8">
       <c r="A140" s="2"/>
       <c r="D140" s="6"/>
       <c r="E140" s="2"/>
@@ -2547,7 +2567,7 @@
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:8" ht="16">
+    <row r="141" spans="1:8">
       <c r="A141" s="2"/>
       <c r="D141" s="6"/>
       <c r="E141" s="2"/>
@@ -2555,7 +2575,7 @@
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
     </row>
-    <row r="142" spans="1:8" ht="16">
+    <row r="142" spans="1:8">
       <c r="A142" s="2"/>
       <c r="D142" s="6"/>
       <c r="E142" s="2"/>
@@ -2563,7 +2583,7 @@
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
     </row>
-    <row r="143" spans="1:8" ht="16">
+    <row r="143" spans="1:8">
       <c r="A143" s="2"/>
       <c r="D143" s="6"/>
       <c r="E143" s="2"/>
@@ -2571,7 +2591,7 @@
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
     </row>
-    <row r="144" spans="1:8" ht="16">
+    <row r="144" spans="1:8">
       <c r="A144" s="2"/>
       <c r="D144" s="6"/>
       <c r="E144" s="2"/>
@@ -2579,7 +2599,7 @@
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
     </row>
-    <row r="145" spans="1:8" ht="16">
+    <row r="145" spans="1:8">
       <c r="A145" s="2"/>
       <c r="D145" s="6"/>
       <c r="E145" s="2"/>
@@ -2587,7 +2607,7 @@
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
     </row>
-    <row r="146" spans="1:8" ht="16">
+    <row r="146" spans="1:8">
       <c r="A146" s="2"/>
       <c r="D146" s="6"/>
       <c r="E146" s="2"/>
@@ -2595,7 +2615,7 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
     </row>
-    <row r="147" spans="1:8" ht="16">
+    <row r="147" spans="1:8">
       <c r="A147" s="2"/>
       <c r="D147" s="6"/>
       <c r="E147" s="2"/>
@@ -2603,7 +2623,7 @@
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
     </row>
-    <row r="148" spans="1:8" ht="16">
+    <row r="148" spans="1:8">
       <c r="A148" s="2"/>
       <c r="D148" s="6"/>
       <c r="E148" s="2"/>
@@ -2611,7 +2631,7 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
     </row>
-    <row r="149" spans="1:8" ht="16">
+    <row r="149" spans="1:8">
       <c r="A149" s="2"/>
       <c r="D149" s="6"/>
       <c r="E149" s="2"/>
@@ -2619,7 +2639,7 @@
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
     </row>
-    <row r="150" spans="1:8" ht="16">
+    <row r="150" spans="1:8">
       <c r="A150" s="2"/>
       <c r="D150" s="6"/>
       <c r="E150" s="2"/>
@@ -2627,7 +2647,7 @@
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
     </row>
-    <row r="151" spans="1:8" ht="16">
+    <row r="151" spans="1:8">
       <c r="A151" s="2"/>
       <c r="D151" s="6"/>
       <c r="E151" s="2"/>
@@ -2635,7 +2655,7 @@
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:8" ht="16">
+    <row r="152" spans="1:8">
       <c r="A152" s="2"/>
       <c r="D152" s="6"/>
       <c r="E152" s="2"/>
@@ -2643,7 +2663,7 @@
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
     </row>
-    <row r="153" spans="1:8" ht="16">
+    <row r="153" spans="1:8">
       <c r="A153" s="2"/>
       <c r="D153" s="6"/>
       <c r="E153" s="2"/>
@@ -2651,7 +2671,7 @@
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:8" ht="16">
+    <row r="154" spans="1:8">
       <c r="A154" s="2"/>
       <c r="D154" s="6"/>
       <c r="E154" s="2"/>
@@ -2659,7 +2679,7 @@
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
     </row>
-    <row r="155" spans="1:8" ht="16">
+    <row r="155" spans="1:8">
       <c r="A155" s="2"/>
       <c r="D155" s="6"/>
       <c r="E155" s="2"/>
@@ -2667,7 +2687,7 @@
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
     </row>
-    <row r="156" spans="1:8" ht="16">
+    <row r="156" spans="1:8">
       <c r="A156" s="2"/>
       <c r="D156" s="6"/>
       <c r="E156" s="2"/>
@@ -2675,7 +2695,7 @@
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
     </row>
-    <row r="157" spans="1:8" ht="16">
+    <row r="157" spans="1:8">
       <c r="A157" s="2"/>
       <c r="D157" s="6"/>
       <c r="E157" s="2"/>
@@ -2683,7 +2703,7 @@
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
     </row>
-    <row r="158" spans="1:8" ht="16">
+    <row r="158" spans="1:8">
       <c r="A158" s="2"/>
       <c r="D158" s="6"/>
       <c r="E158" s="2"/>
@@ -2691,7 +2711,7 @@
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
     </row>
-    <row r="159" spans="1:8" ht="16">
+    <row r="159" spans="1:8">
       <c r="A159" s="2"/>
       <c r="D159" s="6"/>
       <c r="E159" s="2"/>
@@ -2699,7 +2719,7 @@
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
     </row>
-    <row r="160" spans="1:8" ht="16">
+    <row r="160" spans="1:8">
       <c r="A160" s="2"/>
       <c r="D160" s="6"/>
       <c r="E160" s="2"/>
@@ -2707,7 +2727,7 @@
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
     </row>
-    <row r="161" spans="1:8" ht="16">
+    <row r="161" spans="1:8">
       <c r="A161" s="2"/>
       <c r="D161" s="6"/>
       <c r="E161" s="2"/>
@@ -2715,7 +2735,7 @@
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
     </row>
-    <row r="162" spans="1:8" ht="16">
+    <row r="162" spans="1:8">
       <c r="A162" s="2"/>
       <c r="D162" s="6"/>
       <c r="E162" s="2"/>
@@ -2723,7 +2743,7 @@
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
     </row>
-    <row r="163" spans="1:8" ht="16">
+    <row r="163" spans="1:8">
       <c r="A163" s="2"/>
       <c r="D163" s="6"/>
       <c r="E163" s="2"/>
@@ -2731,7 +2751,7 @@
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
     </row>
-    <row r="164" spans="1:8" ht="16">
+    <row r="164" spans="1:8">
       <c r="A164" s="2"/>
       <c r="D164" s="6"/>
       <c r="E164" s="2"/>
@@ -2739,7 +2759,7 @@
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" ht="16">
+    <row r="165" spans="1:8">
       <c r="A165" s="2"/>
       <c r="D165" s="6"/>
       <c r="E165" s="2"/>
@@ -2747,7 +2767,7 @@
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:8" ht="16">
+    <row r="166" spans="1:8">
       <c r="A166" s="2"/>
       <c r="D166" s="6"/>
       <c r="E166" s="2"/>
@@ -2755,7 +2775,7 @@
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:8" ht="16">
+    <row r="167" spans="1:8">
       <c r="A167" s="2"/>
       <c r="D167" s="6"/>
       <c r="E167" s="2"/>
@@ -2763,7 +2783,7 @@
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:8" ht="16">
+    <row r="168" spans="1:8">
       <c r="A168" s="2"/>
       <c r="D168" s="6"/>
       <c r="E168" s="2"/>
@@ -2771,7 +2791,7 @@
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
     </row>
-    <row r="169" spans="1:8" ht="16">
+    <row r="169" spans="1:8">
       <c r="A169" s="2"/>
       <c r="D169" s="6"/>
       <c r="E169" s="2"/>
@@ -2779,7 +2799,7 @@
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:8" ht="16">
+    <row r="170" spans="1:8">
       <c r="A170" s="2"/>
       <c r="D170" s="6"/>
       <c r="E170" s="2"/>
@@ -2787,7 +2807,7 @@
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
     </row>
-    <row r="171" spans="1:8" ht="16">
+    <row r="171" spans="1:8">
       <c r="A171" s="2"/>
       <c r="D171" s="6"/>
       <c r="E171" s="2"/>
@@ -2795,7 +2815,7 @@
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:8" ht="16">
+    <row r="172" spans="1:8">
       <c r="A172" s="2"/>
       <c r="D172" s="6"/>
       <c r="E172" s="2"/>
@@ -2803,7 +2823,7 @@
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:8" ht="16">
+    <row r="173" spans="1:8">
       <c r="A173" s="2"/>
       <c r="D173" s="6"/>
       <c r="E173" s="2"/>
@@ -2811,7 +2831,7 @@
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
     </row>
-    <row r="174" spans="1:8" ht="16">
+    <row r="174" spans="1:8">
       <c r="A174" s="2"/>
       <c r="D174" s="6"/>
       <c r="E174" s="2"/>
@@ -2819,7 +2839,7 @@
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:8" ht="16">
+    <row r="175" spans="1:8">
       <c r="A175" s="2"/>
       <c r="D175" s="6"/>
       <c r="E175" s="2"/>
@@ -2827,7 +2847,7 @@
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
     </row>
-    <row r="176" spans="1:8" ht="16">
+    <row r="176" spans="1:8">
       <c r="A176" s="2"/>
       <c r="D176" s="6"/>
       <c r="E176" s="2"/>
@@ -2835,7 +2855,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:8" ht="16">
+    <row r="177" spans="1:8">
       <c r="A177" s="2"/>
       <c r="D177" s="6"/>
       <c r="E177" s="2"/>
@@ -2843,7 +2863,7 @@
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
     </row>
-    <row r="178" spans="1:8" ht="16">
+    <row r="178" spans="1:8">
       <c r="A178" s="2"/>
       <c r="D178" s="6"/>
       <c r="E178" s="2"/>
@@ -2851,7 +2871,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" ht="16">
+    <row r="179" spans="1:8">
       <c r="A179" s="2"/>
       <c r="D179" s="6"/>
       <c r="E179" s="2"/>
@@ -2859,7 +2879,7 @@
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:8" ht="16">
+    <row r="180" spans="1:8">
       <c r="A180" s="2"/>
       <c r="D180" s="6"/>
       <c r="E180" s="2"/>
@@ -2867,7 +2887,7 @@
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
     </row>
-    <row r="181" spans="1:8" ht="16">
+    <row r="181" spans="1:8">
       <c r="A181" s="2"/>
       <c r="D181" s="6"/>
       <c r="E181" s="2"/>
@@ -2875,7 +2895,7 @@
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:8" ht="16">
+    <row r="182" spans="1:8">
       <c r="A182" s="2"/>
       <c r="D182" s="6"/>
       <c r="E182" s="2"/>
@@ -2883,7 +2903,7 @@
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
     </row>
-    <row r="183" spans="1:8" ht="16">
+    <row r="183" spans="1:8">
       <c r="A183" s="2"/>
       <c r="D183" s="6"/>
       <c r="E183" s="2"/>
@@ -2891,7 +2911,7 @@
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:8" ht="16">
+    <row r="184" spans="1:8">
       <c r="A184" s="2"/>
       <c r="D184" s="6"/>
       <c r="E184" s="2"/>
@@ -2899,7 +2919,7 @@
       <c r="G184" s="2"/>
       <c r="H184" s="2"/>
     </row>
-    <row r="185" spans="1:8" ht="16">
+    <row r="185" spans="1:8">
       <c r="A185" s="2"/>
       <c r="D185" s="6"/>
       <c r="E185" s="2"/>
@@ -2907,7 +2927,7 @@
       <c r="G185" s="2"/>
       <c r="H185" s="2"/>
     </row>
-    <row r="186" spans="1:8" ht="16">
+    <row r="186" spans="1:8">
       <c r="A186" s="2"/>
       <c r="D186" s="6"/>
       <c r="E186" s="2"/>
@@ -2915,7 +2935,7 @@
       <c r="G186" s="2"/>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:8" ht="16">
+    <row r="187" spans="1:8">
       <c r="A187" s="2"/>
       <c r="D187" s="6"/>
       <c r="E187" s="2"/>
@@ -2923,7 +2943,7 @@
       <c r="G187" s="2"/>
       <c r="H187" s="2"/>
     </row>
-    <row r="188" spans="1:8" ht="16">
+    <row r="188" spans="1:8">
       <c r="A188" s="2"/>
       <c r="D188" s="6"/>
       <c r="E188" s="2"/>
@@ -2931,7 +2951,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:8" ht="16">
+    <row r="189" spans="1:8">
       <c r="A189" s="2"/>
       <c r="D189" s="6"/>
       <c r="E189" s="2"/>
@@ -2939,7 +2959,7 @@
       <c r="G189" s="2"/>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:8" ht="16">
+    <row r="190" spans="1:8">
       <c r="A190" s="2"/>
       <c r="D190" s="6"/>
       <c r="E190" s="2"/>
@@ -2947,7 +2967,7 @@
       <c r="G190" s="2"/>
       <c r="H190" s="2"/>
     </row>
-    <row r="191" spans="1:8" ht="16">
+    <row r="191" spans="1:8">
       <c r="A191" s="2"/>
       <c r="D191" s="6"/>
       <c r="E191" s="2"/>
@@ -2955,7 +2975,7 @@
       <c r="G191" s="2"/>
       <c r="H191" s="2"/>
     </row>
-    <row r="192" spans="1:8" ht="16">
+    <row r="192" spans="1:8">
       <c r="A192" s="2"/>
       <c r="D192" s="6"/>
       <c r="E192" s="2"/>
@@ -2963,7 +2983,7 @@
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:8" ht="16">
+    <row r="193" spans="1:8">
       <c r="A193" s="2"/>
       <c r="D193" s="6"/>
       <c r="E193" s="2"/>
@@ -2971,7 +2991,7 @@
       <c r="G193" s="2"/>
       <c r="H193" s="2"/>
     </row>
-    <row r="194" spans="1:8" ht="16">
+    <row r="194" spans="1:8">
       <c r="A194" s="2"/>
       <c r="D194" s="6"/>
       <c r="E194" s="2"/>
@@ -2979,7 +2999,7 @@
       <c r="G194" s="2"/>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:8" ht="16">
+    <row r="195" spans="1:8">
       <c r="A195" s="2"/>
       <c r="D195" s="6"/>
       <c r="E195" s="2"/>
@@ -2987,7 +3007,7 @@
       <c r="G195" s="2"/>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:8" ht="16">
+    <row r="196" spans="1:8">
       <c r="A196" s="2"/>
       <c r="D196" s="6"/>
       <c r="E196" s="2"/>
@@ -2995,7 +3015,7 @@
       <c r="G196" s="2"/>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:8" ht="16">
+    <row r="197" spans="1:8">
       <c r="A197" s="2"/>
       <c r="D197" s="6"/>
       <c r="E197" s="2"/>
@@ -3003,7 +3023,7 @@
       <c r="G197" s="2"/>
       <c r="H197" s="2"/>
     </row>
-    <row r="198" spans="1:8" ht="16">
+    <row r="198" spans="1:8">
       <c r="A198" s="2"/>
       <c r="D198" s="6"/>
       <c r="E198" s="2"/>
@@ -3011,7 +3031,7 @@
       <c r="G198" s="2"/>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:8" ht="16">
+    <row r="199" spans="1:8">
       <c r="A199" s="2"/>
       <c r="D199" s="6"/>
       <c r="E199" s="2"/>
@@ -3019,7 +3039,7 @@
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:8" ht="16">
+    <row r="200" spans="1:8">
       <c r="A200" s="2"/>
       <c r="D200" s="6"/>
       <c r="E200" s="2"/>
@@ -3027,7 +3047,7 @@
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" ht="16">
+    <row r="201" spans="1:8">
       <c r="A201" s="2"/>
       <c r="D201" s="6"/>
       <c r="E201" s="2"/>
@@ -3035,7 +3055,7 @@
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
     </row>
-    <row r="202" spans="1:8" ht="16">
+    <row r="202" spans="1:8">
       <c r="A202" s="2"/>
       <c r="D202" s="6"/>
       <c r="E202" s="2"/>
@@ -3043,7 +3063,7 @@
       <c r="G202" s="2"/>
       <c r="H202" s="2"/>
     </row>
-    <row r="203" spans="1:8" ht="16">
+    <row r="203" spans="1:8">
       <c r="A203" s="2"/>
       <c r="D203" s="6"/>
       <c r="E203" s="2"/>
@@ -3051,7 +3071,7 @@
       <c r="G203" s="2"/>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:8" ht="16">
+    <row r="204" spans="1:8">
       <c r="A204" s="2"/>
       <c r="D204" s="6"/>
       <c r="E204" s="2"/>
@@ -3059,7 +3079,7 @@
       <c r="G204" s="2"/>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:8" ht="16">
+    <row r="205" spans="1:8">
       <c r="A205" s="2"/>
       <c r="D205" s="6"/>
       <c r="E205" s="2"/>
@@ -3067,7 +3087,7 @@
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
     </row>
-    <row r="206" spans="1:8" ht="16">
+    <row r="206" spans="1:8">
       <c r="A206" s="2"/>
       <c r="D206" s="6"/>
       <c r="E206" s="2"/>
@@ -3075,7 +3095,7 @@
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="1:8" ht="16">
+    <row r="207" spans="1:8">
       <c r="A207" s="2"/>
       <c r="D207" s="6"/>
       <c r="E207" s="2"/>
@@ -3083,7 +3103,7 @@
       <c r="G207" s="2"/>
       <c r="H207" s="2"/>
     </row>
-    <row r="208" spans="1:8" ht="16">
+    <row r="208" spans="1:8">
       <c r="A208" s="2"/>
       <c r="D208" s="6"/>
       <c r="E208" s="2"/>
@@ -3091,7 +3111,7 @@
       <c r="G208" s="2"/>
       <c r="H208" s="2"/>
     </row>
-    <row r="209" spans="1:8" ht="16">
+    <row r="209" spans="1:8">
       <c r="A209" s="2"/>
       <c r="D209" s="6"/>
       <c r="E209" s="2"/>
@@ -3099,7 +3119,7 @@
       <c r="G209" s="2"/>
       <c r="H209" s="2"/>
     </row>
-    <row r="210" spans="1:8" ht="16">
+    <row r="210" spans="1:8">
       <c r="A210" s="2"/>
       <c r="D210" s="6"/>
       <c r="E210" s="2"/>
@@ -3107,7 +3127,7 @@
       <c r="G210" s="2"/>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:8" ht="16">
+    <row r="211" spans="1:8">
       <c r="A211" s="2"/>
       <c r="D211" s="6"/>
       <c r="E211" s="2"/>
@@ -3115,7 +3135,7 @@
       <c r="G211" s="2"/>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:8" ht="16">
+    <row r="212" spans="1:8">
       <c r="A212" s="2"/>
       <c r="D212" s="6"/>
       <c r="E212" s="2"/>
@@ -3123,7 +3143,7 @@
       <c r="G212" s="2"/>
       <c r="H212" s="2"/>
     </row>
-    <row r="213" spans="1:8" ht="16">
+    <row r="213" spans="1:8">
       <c r="A213" s="2"/>
       <c r="D213" s="6"/>
       <c r="E213" s="2"/>
@@ -3131,7 +3151,7 @@
       <c r="G213" s="2"/>
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="1:8" ht="16">
+    <row r="214" spans="1:8">
       <c r="A214" s="2"/>
       <c r="D214" s="6"/>
       <c r="E214" s="2"/>
@@ -3139,7 +3159,7 @@
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="1:8" ht="16">
+    <row r="215" spans="1:8">
       <c r="A215" s="2"/>
       <c r="D215" s="6"/>
       <c r="E215" s="2"/>
@@ -3147,7 +3167,7 @@
       <c r="G215" s="2"/>
       <c r="H215" s="2"/>
     </row>
-    <row r="216" spans="1:8" ht="16">
+    <row r="216" spans="1:8">
       <c r="A216" s="2"/>
       <c r="D216" s="6"/>
       <c r="E216" s="2"/>
@@ -3155,7 +3175,7 @@
       <c r="G216" s="2"/>
       <c r="H216" s="2"/>
     </row>
-    <row r="217" spans="1:8" ht="16">
+    <row r="217" spans="1:8">
       <c r="A217" s="2"/>
       <c r="D217" s="6"/>
       <c r="E217" s="2"/>
@@ -3163,7 +3183,7 @@
       <c r="G217" s="2"/>
       <c r="H217" s="2"/>
     </row>
-    <row r="218" spans="1:8" ht="16">
+    <row r="218" spans="1:8">
       <c r="A218" s="2"/>
       <c r="D218" s="6"/>
       <c r="E218" s="2"/>
@@ -3171,7 +3191,7 @@
       <c r="G218" s="2"/>
       <c r="H218" s="2"/>
     </row>
-    <row r="219" spans="1:8" ht="16">
+    <row r="219" spans="1:8">
       <c r="A219" s="2"/>
       <c r="D219" s="6"/>
       <c r="E219" s="2"/>
@@ -3179,7 +3199,7 @@
       <c r="G219" s="2"/>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:8" ht="16">
+    <row r="220" spans="1:8">
       <c r="A220" s="2"/>
       <c r="D220" s="6"/>
       <c r="E220" s="2"/>
@@ -3187,7 +3207,7 @@
       <c r="G220" s="2"/>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:8" ht="16">
+    <row r="221" spans="1:8">
       <c r="A221" s="2"/>
       <c r="D221" s="6"/>
       <c r="E221" s="2"/>
@@ -3195,7 +3215,7 @@
       <c r="G221" s="2"/>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:8" ht="16">
+    <row r="222" spans="1:8">
       <c r="A222" s="2"/>
       <c r="D222" s="6"/>
       <c r="E222" s="2"/>
@@ -3203,7 +3223,7 @@
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:8" ht="16">
+    <row r="223" spans="1:8">
       <c r="A223" s="2"/>
       <c r="D223" s="6"/>
       <c r="E223" s="2"/>
@@ -3211,7 +3231,7 @@
       <c r="G223" s="2"/>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="1:8" ht="16">
+    <row r="224" spans="1:8">
       <c r="A224" s="2"/>
       <c r="D224" s="6"/>
       <c r="E224" s="2"/>
@@ -3219,7 +3239,7 @@
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
     </row>
-    <row r="225" spans="1:8" ht="16">
+    <row r="225" spans="1:8">
       <c r="A225" s="2"/>
       <c r="D225" s="6"/>
       <c r="E225" s="2"/>
@@ -3227,7 +3247,7 @@
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
     </row>
-    <row r="226" spans="1:8" ht="16">
+    <row r="226" spans="1:8">
       <c r="A226" s="2"/>
       <c r="D226" s="6"/>
       <c r="E226" s="2"/>
@@ -3235,7 +3255,7 @@
       <c r="G226" s="2"/>
       <c r="H226" s="2"/>
     </row>
-    <row r="227" spans="1:8" ht="16">
+    <row r="227" spans="1:8">
       <c r="A227" s="2"/>
       <c r="D227" s="6"/>
       <c r="E227" s="2"/>
@@ -3243,7 +3263,7 @@
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
     </row>
-    <row r="228" spans="1:8" ht="16">
+    <row r="228" spans="1:8">
       <c r="A228" s="2"/>
       <c r="D228" s="6"/>
       <c r="E228" s="2"/>
@@ -3251,7 +3271,7 @@
       <c r="G228" s="2"/>
       <c r="H228" s="2"/>
     </row>
-    <row r="229" spans="1:8" ht="16">
+    <row r="229" spans="1:8">
       <c r="A229" s="2"/>
       <c r="D229" s="6"/>
       <c r="E229" s="2"/>
@@ -3259,7 +3279,7 @@
       <c r="G229" s="2"/>
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="1:8" ht="16">
+    <row r="230" spans="1:8">
       <c r="A230" s="2"/>
       <c r="D230" s="6"/>
       <c r="E230" s="2"/>
@@ -3267,7 +3287,7 @@
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
     </row>
-    <row r="231" spans="1:8" ht="16">
+    <row r="231" spans="1:8">
       <c r="A231" s="2"/>
       <c r="D231" s="6"/>
       <c r="E231" s="2"/>
@@ -3275,7 +3295,7 @@
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="1:8" ht="16">
+    <row r="232" spans="1:8">
       <c r="A232" s="2"/>
       <c r="D232" s="6"/>
       <c r="E232" s="2"/>
@@ -3283,7 +3303,7 @@
       <c r="G232" s="2"/>
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="1:8" ht="16">
+    <row r="233" spans="1:8">
       <c r="A233" s="2"/>
       <c r="D233" s="6"/>
       <c r="E233" s="2"/>
@@ -3291,7 +3311,7 @@
       <c r="G233" s="2"/>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:8" ht="16">
+    <row r="234" spans="1:8">
       <c r="A234" s="2"/>
       <c r="D234" s="6"/>
       <c r="E234" s="2"/>
@@ -3299,7 +3319,7 @@
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
     </row>
-    <row r="235" spans="1:8" ht="16">
+    <row r="235" spans="1:8">
       <c r="A235" s="2"/>
       <c r="D235" s="6"/>
       <c r="E235" s="2"/>
@@ -3307,7 +3327,7 @@
       <c r="G235" s="2"/>
       <c r="H235" s="2"/>
     </row>
-    <row r="236" spans="1:8" ht="16">
+    <row r="236" spans="1:8">
       <c r="A236" s="2"/>
       <c r="D236" s="6"/>
       <c r="E236" s="2"/>
@@ -3315,7 +3335,7 @@
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="1:8" ht="16">
+    <row r="237" spans="1:8">
       <c r="A237" s="2"/>
       <c r="D237" s="6"/>
       <c r="E237" s="2"/>
@@ -3323,7 +3343,7 @@
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="1:8" ht="16">
+    <row r="238" spans="1:8">
       <c r="A238" s="2"/>
       <c r="D238" s="6"/>
       <c r="E238" s="2"/>
@@ -3331,7 +3351,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:8" ht="16">
+    <row r="239" spans="1:8">
       <c r="A239" s="2"/>
       <c r="D239" s="6"/>
       <c r="E239" s="2"/>
@@ -3339,7 +3359,7 @@
       <c r="G239" s="2"/>
       <c r="H239" s="2"/>
     </row>
-    <row r="240" spans="1:8" ht="16">
+    <row r="240" spans="1:8">
       <c r="A240" s="2"/>
       <c r="D240" s="6"/>
       <c r="E240" s="2"/>
@@ -3347,7 +3367,7 @@
       <c r="G240" s="2"/>
       <c r="H240" s="2"/>
     </row>
-    <row r="241" spans="1:8" ht="16">
+    <row r="241" spans="1:8">
       <c r="A241" s="2"/>
       <c r="D241" s="6"/>
       <c r="E241" s="2"/>
@@ -3355,7 +3375,7 @@
       <c r="G241" s="2"/>
       <c r="H241" s="2"/>
     </row>
-    <row r="242" spans="1:8" ht="16">
+    <row r="242" spans="1:8">
       <c r="A242" s="2"/>
       <c r="D242" s="6"/>
       <c r="E242" s="2"/>
@@ -3363,7 +3383,7 @@
       <c r="G242" s="2"/>
       <c r="H242" s="2"/>
     </row>
-    <row r="243" spans="1:8" ht="16">
+    <row r="243" spans="1:8">
       <c r="A243" s="2"/>
       <c r="D243" s="6"/>
       <c r="E243" s="2"/>
@@ -3371,7 +3391,7 @@
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
     </row>
-    <row r="244" spans="1:8" ht="16">
+    <row r="244" spans="1:8">
       <c r="A244" s="2"/>
       <c r="D244" s="6"/>
       <c r="E244" s="2"/>
@@ -3379,7 +3399,7 @@
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
     </row>
-    <row r="245" spans="1:8" ht="16">
+    <row r="245" spans="1:8">
       <c r="A245" s="2"/>
       <c r="D245" s="6"/>
       <c r="E245" s="2"/>
@@ -3387,7 +3407,7 @@
       <c r="G245" s="2"/>
       <c r="H245" s="2"/>
     </row>
-    <row r="246" spans="1:8" ht="16">
+    <row r="246" spans="1:8">
       <c r="A246" s="2"/>
       <c r="D246" s="6"/>
       <c r="E246" s="2"/>
@@ -3395,7 +3415,7 @@
       <c r="G246" s="2"/>
       <c r="H246" s="2"/>
     </row>
-    <row r="247" spans="1:8" ht="16">
+    <row r="247" spans="1:8">
       <c r="A247" s="2"/>
       <c r="D247" s="6"/>
       <c r="E247" s="2"/>
@@ -3403,7 +3423,7 @@
       <c r="G247" s="2"/>
       <c r="H247" s="2"/>
     </row>
-    <row r="248" spans="1:8" ht="16">
+    <row r="248" spans="1:8">
       <c r="A248" s="2"/>
       <c r="D248" s="6"/>
       <c r="E248" s="2"/>
@@ -3411,7 +3431,7 @@
       <c r="G248" s="2"/>
       <c r="H248" s="2"/>
     </row>
-    <row r="249" spans="1:8" ht="16">
+    <row r="249" spans="1:8">
       <c r="A249" s="2"/>
       <c r="D249" s="6"/>
       <c r="E249" s="2"/>
@@ -3419,7 +3439,7 @@
       <c r="G249" s="2"/>
       <c r="H249" s="2"/>
     </row>
-    <row r="250" spans="1:8" ht="16">
+    <row r="250" spans="1:8">
       <c r="A250" s="2"/>
       <c r="D250" s="6"/>
       <c r="E250" s="2"/>
@@ -3427,7 +3447,7 @@
       <c r="G250" s="2"/>
       <c r="H250" s="2"/>
     </row>
-    <row r="251" spans="1:8" ht="16">
+    <row r="251" spans="1:8">
       <c r="A251" s="2"/>
       <c r="D251" s="6"/>
       <c r="E251" s="2"/>
@@ -3435,7 +3455,7 @@
       <c r="G251" s="2"/>
       <c r="H251" s="2"/>
     </row>
-    <row r="252" spans="1:8" ht="16">
+    <row r="252" spans="1:8">
       <c r="A252" s="2"/>
       <c r="D252" s="6"/>
       <c r="E252" s="2"/>
@@ -3443,7 +3463,7 @@
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
     </row>
-    <row r="253" spans="1:8" ht="16">
+    <row r="253" spans="1:8">
       <c r="A253" s="2"/>
       <c r="D253" s="6"/>
       <c r="E253" s="2"/>
@@ -3451,7 +3471,7 @@
       <c r="G253" s="2"/>
       <c r="H253" s="2"/>
     </row>
-    <row r="254" spans="1:8" ht="16">
+    <row r="254" spans="1:8">
       <c r="A254" s="2"/>
       <c r="D254" s="6"/>
       <c r="E254" s="2"/>
@@ -3459,7 +3479,7 @@
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
     </row>
-    <row r="255" spans="1:8" ht="16">
+    <row r="255" spans="1:8">
       <c r="A255" s="2"/>
       <c r="D255" s="6"/>
       <c r="E255" s="2"/>
@@ -3467,7 +3487,7 @@
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
     </row>
-    <row r="256" spans="1:8" ht="16">
+    <row r="256" spans="1:8">
       <c r="A256" s="2"/>
       <c r="D256" s="6"/>
       <c r="E256" s="2"/>
@@ -3475,7 +3495,7 @@
       <c r="G256" s="2"/>
       <c r="H256" s="2"/>
     </row>
-    <row r="257" spans="1:8" ht="16">
+    <row r="257" spans="1:8">
       <c r="A257" s="2"/>
       <c r="D257" s="6"/>
       <c r="E257" s="2"/>
@@ -3483,7 +3503,7 @@
       <c r="G257" s="2"/>
       <c r="H257" s="2"/>
     </row>
-    <row r="258" spans="1:8" ht="16">
+    <row r="258" spans="1:8">
       <c r="A258" s="2"/>
       <c r="D258" s="6"/>
       <c r="E258" s="2"/>
@@ -3491,7 +3511,7 @@
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
     </row>
-    <row r="259" spans="1:8" ht="16">
+    <row r="259" spans="1:8">
       <c r="A259" s="2"/>
       <c r="D259" s="6"/>
       <c r="E259" s="2"/>
@@ -3499,7 +3519,7 @@
       <c r="G259" s="2"/>
       <c r="H259" s="2"/>
     </row>
-    <row r="260" spans="1:8" ht="16">
+    <row r="260" spans="1:8">
       <c r="A260" s="2"/>
       <c r="D260" s="6"/>
       <c r="E260" s="2"/>
@@ -3507,7 +3527,7 @@
       <c r="G260" s="2"/>
       <c r="H260" s="2"/>
     </row>
-    <row r="261" spans="1:8" ht="16">
+    <row r="261" spans="1:8">
       <c r="A261" s="2"/>
       <c r="D261" s="6"/>
       <c r="E261" s="2"/>
@@ -3515,7 +3535,7 @@
       <c r="G261" s="2"/>
       <c r="H261" s="2"/>
     </row>
-    <row r="262" spans="1:8" ht="16">
+    <row r="262" spans="1:8">
       <c r="A262" s="2"/>
       <c r="D262" s="6"/>
       <c r="E262" s="2"/>
@@ -3523,7 +3543,7 @@
       <c r="G262" s="2"/>
       <c r="H262" s="2"/>
     </row>
-    <row r="263" spans="1:8" ht="16">
+    <row r="263" spans="1:8">
       <c r="A263" s="2"/>
       <c r="D263" s="6"/>
       <c r="E263" s="2"/>
@@ -3531,7 +3551,7 @@
       <c r="G263" s="2"/>
       <c r="H263" s="2"/>
     </row>
-    <row r="264" spans="1:8" ht="16">
+    <row r="264" spans="1:8">
       <c r="A264" s="2"/>
       <c r="D264" s="6"/>
       <c r="E264" s="2"/>
@@ -3539,7 +3559,7 @@
       <c r="G264" s="2"/>
       <c r="H264" s="2"/>
     </row>
-    <row r="265" spans="1:8" ht="16">
+    <row r="265" spans="1:8">
       <c r="A265" s="2"/>
       <c r="D265" s="6"/>
       <c r="E265" s="2"/>
@@ -3547,7 +3567,7 @@
       <c r="G265" s="2"/>
       <c r="H265" s="2"/>
     </row>
-    <row r="266" spans="1:8" ht="16">
+    <row r="266" spans="1:8">
       <c r="A266" s="2"/>
       <c r="D266" s="6"/>
       <c r="E266" s="2"/>
@@ -3555,7 +3575,7 @@
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
     </row>
-    <row r="267" spans="1:8" ht="16">
+    <row r="267" spans="1:8">
       <c r="A267" s="2"/>
       <c r="D267" s="6"/>
       <c r="E267" s="2"/>
@@ -3563,7 +3583,7 @@
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
     </row>
-    <row r="268" spans="1:8" ht="16">
+    <row r="268" spans="1:8">
       <c r="A268" s="2"/>
       <c r="D268" s="6"/>
       <c r="E268" s="2"/>
@@ -3571,7 +3591,7 @@
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
     </row>
-    <row r="269" spans="1:8" ht="16">
+    <row r="269" spans="1:8">
       <c r="A269" s="2"/>
       <c r="D269" s="6"/>
       <c r="E269" s="2"/>
@@ -3579,7 +3599,7 @@
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
     </row>
-    <row r="270" spans="1:8" ht="16">
+    <row r="270" spans="1:8">
       <c r="A270" s="2"/>
       <c r="D270" s="6"/>
       <c r="E270" s="2"/>
@@ -3587,7 +3607,7 @@
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
     </row>
-    <row r="271" spans="1:8" ht="16">
+    <row r="271" spans="1:8">
       <c r="A271" s="2"/>
       <c r="D271" s="6"/>
       <c r="E271" s="2"/>
@@ -3595,7 +3615,7 @@
       <c r="G271" s="2"/>
       <c r="H271" s="2"/>
     </row>
-    <row r="272" spans="1:8" ht="16">
+    <row r="272" spans="1:8">
       <c r="A272" s="2"/>
       <c r="D272" s="6"/>
       <c r="E272" s="2"/>
@@ -3603,7 +3623,7 @@
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
     </row>
-    <row r="273" spans="1:8" ht="16">
+    <row r="273" spans="1:8">
       <c r="A273" s="2"/>
       <c r="D273" s="6"/>
       <c r="E273" s="2"/>
@@ -3611,7 +3631,7 @@
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
     </row>
-    <row r="274" spans="1:8" ht="16">
+    <row r="274" spans="1:8">
       <c r="A274" s="2"/>
       <c r="D274" s="6"/>
       <c r="E274" s="2"/>
@@ -3619,7 +3639,7 @@
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
     </row>
-    <row r="275" spans="1:8" ht="16">
+    <row r="275" spans="1:8">
       <c r="A275" s="2"/>
       <c r="D275" s="6"/>
       <c r="E275" s="2"/>
@@ -3627,7 +3647,7 @@
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
     </row>
-    <row r="276" spans="1:8" ht="16">
+    <row r="276" spans="1:8">
       <c r="A276" s="2"/>
       <c r="D276" s="6"/>
       <c r="E276" s="2"/>
@@ -3635,7 +3655,7 @@
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
     </row>
-    <row r="277" spans="1:8" ht="16">
+    <row r="277" spans="1:8">
       <c r="A277" s="2"/>
       <c r="D277" s="6"/>
       <c r="E277" s="2"/>
@@ -3643,7 +3663,7 @@
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
     </row>
-    <row r="278" spans="1:8" ht="16">
+    <row r="278" spans="1:8">
       <c r="A278" s="2"/>
       <c r="D278" s="6"/>
       <c r="E278" s="2"/>
@@ -3651,7 +3671,7 @@
       <c r="G278" s="2"/>
       <c r="H278" s="2"/>
     </row>
-    <row r="279" spans="1:8" ht="16">
+    <row r="279" spans="1:8">
       <c r="A279" s="2"/>
       <c r="D279" s="6"/>
       <c r="E279" s="2"/>
@@ -3659,7 +3679,7 @@
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
     </row>
-    <row r="280" spans="1:8" ht="16">
+    <row r="280" spans="1:8">
       <c r="A280" s="2"/>
       <c r="D280" s="6"/>
       <c r="E280" s="2"/>
@@ -3667,7 +3687,7 @@
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
     </row>
-    <row r="281" spans="1:8" ht="16">
+    <row r="281" spans="1:8">
       <c r="A281" s="2"/>
       <c r="D281" s="6"/>
       <c r="E281" s="2"/>
@@ -3675,7 +3695,7 @@
       <c r="G281" s="2"/>
       <c r="H281" s="2"/>
     </row>
-    <row r="282" spans="1:8" ht="16">
+    <row r="282" spans="1:8">
       <c r="A282" s="2"/>
       <c r="D282" s="6"/>
       <c r="E282" s="2"/>
@@ -3683,7 +3703,7 @@
       <c r="G282" s="2"/>
       <c r="H282" s="2"/>
     </row>
-    <row r="283" spans="1:8" ht="16">
+    <row r="283" spans="1:8">
       <c r="A283" s="2"/>
       <c r="D283" s="6"/>
       <c r="E283" s="2"/>
@@ -3691,7 +3711,7 @@
       <c r="G283" s="2"/>
       <c r="H283" s="2"/>
     </row>
-    <row r="284" spans="1:8" ht="16">
+    <row r="284" spans="1:8">
       <c r="A284" s="2"/>
       <c r="D284" s="6"/>
       <c r="E284" s="2"/>
@@ -3699,7 +3719,7 @@
       <c r="G284" s="2"/>
       <c r="H284" s="2"/>
     </row>
-    <row r="285" spans="1:8" ht="16">
+    <row r="285" spans="1:8">
       <c r="A285" s="2"/>
       <c r="D285" s="6"/>
       <c r="E285" s="2"/>
@@ -3707,7 +3727,7 @@
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
     </row>
-    <row r="286" spans="1:8" ht="16">
+    <row r="286" spans="1:8">
       <c r="A286" s="2"/>
       <c r="D286" s="6"/>
       <c r="E286" s="2"/>
@@ -3715,7 +3735,7 @@
       <c r="G286" s="2"/>
       <c r="H286" s="2"/>
     </row>
-    <row r="287" spans="1:8" ht="16">
+    <row r="287" spans="1:8">
       <c r="A287" s="2"/>
       <c r="D287" s="6"/>
       <c r="E287" s="2"/>
@@ -3723,7 +3743,7 @@
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
     </row>
-    <row r="288" spans="1:8" ht="16">
+    <row r="288" spans="1:8">
       <c r="A288" s="2"/>
       <c r="D288" s="6"/>
       <c r="E288" s="2"/>
@@ -3731,7 +3751,7 @@
       <c r="G288" s="2"/>
       <c r="H288" s="2"/>
     </row>
-    <row r="289" spans="1:8" ht="16">
+    <row r="289" spans="1:8">
       <c r="A289" s="2"/>
       <c r="D289" s="6"/>
       <c r="E289" s="2"/>
@@ -3739,7 +3759,7 @@
       <c r="G289" s="2"/>
       <c r="H289" s="2"/>
     </row>
-    <row r="290" spans="1:8" ht="16">
+    <row r="290" spans="1:8">
       <c r="A290" s="2"/>
       <c r="D290" s="6"/>
       <c r="E290" s="2"/>
@@ -3747,7 +3767,7 @@
       <c r="G290" s="2"/>
       <c r="H290" s="2"/>
     </row>
-    <row r="291" spans="1:8" ht="16">
+    <row r="291" spans="1:8">
       <c r="A291" s="2"/>
       <c r="D291" s="6"/>
       <c r="E291" s="2"/>
@@ -3755,7 +3775,7 @@
       <c r="G291" s="2"/>
       <c r="H291" s="2"/>
     </row>
-    <row r="292" spans="1:8" ht="16">
+    <row r="292" spans="1:8">
       <c r="A292" s="2"/>
       <c r="D292" s="6"/>
       <c r="E292" s="2"/>
@@ -3763,7 +3783,7 @@
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
     </row>
-    <row r="293" spans="1:8" ht="16">
+    <row r="293" spans="1:8">
       <c r="A293" s="2"/>
       <c r="D293" s="6"/>
       <c r="E293" s="2"/>
@@ -3771,7 +3791,7 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:8" ht="16">
+    <row r="294" spans="1:8">
       <c r="A294" s="2"/>
       <c r="D294" s="6"/>
       <c r="E294" s="2"/>
@@ -3779,7 +3799,7 @@
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
     </row>
-    <row r="295" spans="1:8" ht="16">
+    <row r="295" spans="1:8">
       <c r="A295" s="2"/>
       <c r="D295" s="6"/>
       <c r="E295" s="2"/>
@@ -3787,7 +3807,7 @@
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
     </row>
-    <row r="296" spans="1:8" ht="16">
+    <row r="296" spans="1:8">
       <c r="A296" s="2"/>
       <c r="D296" s="6"/>
       <c r="E296" s="2"/>
@@ -3795,7 +3815,7 @@
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
     </row>
-    <row r="297" spans="1:8" ht="16">
+    <row r="297" spans="1:8">
       <c r="A297" s="2"/>
       <c r="D297" s="6"/>
       <c r="E297" s="2"/>
@@ -3803,7 +3823,7 @@
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
     </row>
-    <row r="298" spans="1:8" ht="16">
+    <row r="298" spans="1:8">
       <c r="A298" s="2"/>
       <c r="D298" s="6"/>
       <c r="E298" s="2"/>
@@ -3811,7 +3831,7 @@
       <c r="G298" s="2"/>
       <c r="H298" s="2"/>
     </row>
-    <row r="299" spans="1:8" ht="16">
+    <row r="299" spans="1:8">
       <c r="A299" s="2"/>
       <c r="D299" s="6"/>
       <c r="E299" s="2"/>
@@ -3819,7 +3839,7 @@
       <c r="G299" s="2"/>
       <c r="H299" s="2"/>
     </row>
-    <row r="300" spans="1:8" ht="16">
+    <row r="300" spans="1:8">
       <c r="A300" s="2"/>
       <c r="D300" s="6"/>
       <c r="E300" s="2"/>
@@ -3827,7 +3847,7 @@
       <c r="G300" s="2"/>
       <c r="H300" s="2"/>
     </row>
-    <row r="301" spans="1:8" ht="16">
+    <row r="301" spans="1:8">
       <c r="A301" s="2"/>
       <c r="D301" s="6"/>
       <c r="E301" s="2"/>
@@ -3835,7 +3855,7 @@
       <c r="G301" s="2"/>
       <c r="H301" s="2"/>
     </row>
-    <row r="302" spans="1:8" ht="16">
+    <row r="302" spans="1:8">
       <c r="A302" s="2"/>
       <c r="D302" s="6"/>
       <c r="E302" s="2"/>
@@ -3843,7 +3863,7 @@
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
     </row>
-    <row r="303" spans="1:8" ht="16">
+    <row r="303" spans="1:8">
       <c r="A303" s="2"/>
       <c r="D303" s="6"/>
       <c r="E303" s="2"/>
@@ -3851,7 +3871,7 @@
       <c r="G303" s="2"/>
       <c r="H303" s="2"/>
     </row>
-    <row r="304" spans="1:8" ht="16">
+    <row r="304" spans="1:8">
       <c r="A304" s="2"/>
       <c r="D304" s="6"/>
       <c r="E304" s="2"/>
@@ -3859,7 +3879,7 @@
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
     </row>
-    <row r="305" spans="1:8" ht="16">
+    <row r="305" spans="1:8">
       <c r="A305" s="2"/>
       <c r="D305" s="6"/>
       <c r="E305" s="2"/>
@@ -3867,7 +3887,7 @@
       <c r="G305" s="2"/>
       <c r="H305" s="2"/>
     </row>
-    <row r="306" spans="1:8" ht="16">
+    <row r="306" spans="1:8">
       <c r="A306" s="2"/>
       <c r="D306" s="6"/>
       <c r="E306" s="2"/>
@@ -3875,7 +3895,7 @@
       <c r="G306" s="2"/>
       <c r="H306" s="2"/>
     </row>
-    <row r="307" spans="1:8" ht="16">
+    <row r="307" spans="1:8">
       <c r="A307" s="2"/>
       <c r="D307" s="6"/>
       <c r="E307" s="2"/>
@@ -3883,7 +3903,7 @@
       <c r="G307" s="2"/>
       <c r="H307" s="2"/>
     </row>
-    <row r="308" spans="1:8" ht="16">
+    <row r="308" spans="1:8">
       <c r="A308" s="2"/>
       <c r="D308" s="6"/>
       <c r="E308" s="2"/>
@@ -3891,7 +3911,7 @@
       <c r="G308" s="2"/>
       <c r="H308" s="2"/>
     </row>
-    <row r="309" spans="1:8" ht="16">
+    <row r="309" spans="1:8">
       <c r="A309" s="2"/>
       <c r="D309" s="6"/>
       <c r="E309" s="2"/>
@@ -3899,7 +3919,7 @@
       <c r="G309" s="2"/>
       <c r="H309" s="2"/>
     </row>
-    <row r="310" spans="1:8" ht="16">
+    <row r="310" spans="1:8">
       <c r="A310" s="2"/>
       <c r="D310" s="6"/>
       <c r="E310" s="2"/>
@@ -3907,7 +3927,7 @@
       <c r="G310" s="2"/>
       <c r="H310" s="2"/>
     </row>
-    <row r="311" spans="1:8" ht="16">
+    <row r="311" spans="1:8">
       <c r="A311" s="2"/>
       <c r="D311" s="6"/>
       <c r="E311" s="2"/>
@@ -3915,7 +3935,7 @@
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
     </row>
-    <row r="312" spans="1:8" ht="16">
+    <row r="312" spans="1:8">
       <c r="A312" s="2"/>
       <c r="D312" s="6"/>
       <c r="E312" s="2"/>
@@ -3923,7 +3943,7 @@
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
     </row>
-    <row r="313" spans="1:8" ht="16">
+    <row r="313" spans="1:8">
       <c r="A313" s="2"/>
       <c r="D313" s="6"/>
       <c r="E313" s="2"/>
@@ -3931,7 +3951,7 @@
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
     </row>
-    <row r="314" spans="1:8" ht="16">
+    <row r="314" spans="1:8">
       <c r="A314" s="2"/>
       <c r="D314" s="6"/>
       <c r="E314" s="2"/>
@@ -3939,7 +3959,7 @@
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
     </row>
-    <row r="315" spans="1:8" ht="16">
+    <row r="315" spans="1:8">
       <c r="A315" s="2"/>
       <c r="D315" s="6"/>
       <c r="E315" s="2"/>
@@ -3947,7 +3967,7 @@
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
     </row>
-    <row r="316" spans="1:8" ht="16">
+    <row r="316" spans="1:8">
       <c r="A316" s="2"/>
       <c r="D316" s="6"/>
       <c r="E316" s="2"/>
@@ -3955,7 +3975,7 @@
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
     </row>
-    <row r="317" spans="1:8" ht="16">
+    <row r="317" spans="1:8">
       <c r="A317" s="2"/>
       <c r="D317" s="6"/>
       <c r="E317" s="2"/>
@@ -3963,7 +3983,7 @@
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
     </row>
-    <row r="318" spans="1:8" ht="16">
+    <row r="318" spans="1:8">
       <c r="A318" s="2"/>
       <c r="D318" s="6"/>
       <c r="E318" s="2"/>
@@ -3971,7 +3991,7 @@
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
     </row>
-    <row r="319" spans="1:8" ht="16">
+    <row r="319" spans="1:8">
       <c r="A319" s="2"/>
       <c r="D319" s="6"/>
       <c r="E319" s="2"/>
@@ -3979,7 +3999,7 @@
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
     </row>
-    <row r="320" spans="1:8" ht="16">
+    <row r="320" spans="1:8">
       <c r="A320" s="2"/>
       <c r="D320" s="6"/>
       <c r="E320" s="2"/>
@@ -3987,7 +4007,7 @@
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
     </row>
-    <row r="321" spans="1:8" ht="16">
+    <row r="321" spans="1:8">
       <c r="A321" s="2"/>
       <c r="D321" s="6"/>
       <c r="E321" s="2"/>
@@ -3995,7 +4015,7 @@
       <c r="G321" s="2"/>
       <c r="H321" s="2"/>
     </row>
-    <row r="322" spans="1:8" ht="16">
+    <row r="322" spans="1:8">
       <c r="A322" s="2"/>
       <c r="D322" s="6"/>
       <c r="E322" s="2"/>
@@ -4003,7 +4023,7 @@
       <c r="G322" s="2"/>
       <c r="H322" s="2"/>
     </row>
-    <row r="323" spans="1:8" ht="16">
+    <row r="323" spans="1:8">
       <c r="A323" s="2"/>
       <c r="D323" s="6"/>
       <c r="E323" s="2"/>
@@ -4011,7 +4031,7 @@
       <c r="G323" s="2"/>
       <c r="H323" s="2"/>
     </row>
-    <row r="324" spans="1:8" ht="16">
+    <row r="324" spans="1:8">
       <c r="A324" s="2"/>
       <c r="D324" s="6"/>
       <c r="E324" s="2"/>
@@ -4019,7 +4039,7 @@
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
     </row>
-    <row r="325" spans="1:8" ht="16">
+    <row r="325" spans="1:8">
       <c r="A325" s="2"/>
       <c r="D325" s="6"/>
       <c r="E325" s="2"/>
@@ -4027,7 +4047,7 @@
       <c r="G325" s="2"/>
       <c r="H325" s="2"/>
     </row>
-    <row r="326" spans="1:8" ht="16">
+    <row r="326" spans="1:8">
       <c r="A326" s="2"/>
       <c r="D326" s="6"/>
       <c r="E326" s="2"/>
@@ -4035,7 +4055,7 @@
       <c r="G326" s="2"/>
       <c r="H326" s="2"/>
     </row>
-    <row r="327" spans="1:8" ht="16">
+    <row r="327" spans="1:8">
       <c r="A327" s="2"/>
       <c r="D327" s="6"/>
       <c r="E327" s="2"/>
@@ -4043,7 +4063,7 @@
       <c r="G327" s="2"/>
       <c r="H327" s="2"/>
     </row>
-    <row r="328" spans="1:8" ht="16">
+    <row r="328" spans="1:8">
       <c r="A328" s="2"/>
       <c r="D328" s="6"/>
       <c r="E328" s="2"/>
@@ -4051,7 +4071,7 @@
       <c r="G328" s="2"/>
       <c r="H328" s="2"/>
     </row>
-    <row r="329" spans="1:8" ht="16">
+    <row r="329" spans="1:8">
       <c r="A329" s="2"/>
       <c r="D329" s="6"/>
       <c r="E329" s="2"/>
@@ -4059,7 +4079,7 @@
       <c r="G329" s="2"/>
       <c r="H329" s="2"/>
     </row>
-    <row r="330" spans="1:8" ht="16">
+    <row r="330" spans="1:8">
       <c r="A330" s="2"/>
       <c r="D330" s="6"/>
       <c r="E330" s="2"/>
@@ -4067,7 +4087,7 @@
       <c r="G330" s="2"/>
       <c r="H330" s="2"/>
     </row>
-    <row r="331" spans="1:8" ht="16">
+    <row r="331" spans="1:8">
       <c r="A331" s="2"/>
       <c r="D331" s="6"/>
       <c r="E331" s="2"/>
@@ -4075,7 +4095,7 @@
       <c r="G331" s="2"/>
       <c r="H331" s="2"/>
     </row>
-    <row r="332" spans="1:8" ht="16">
+    <row r="332" spans="1:8">
       <c r="A332" s="2"/>
       <c r="D332" s="6"/>
       <c r="E332" s="2"/>
@@ -4083,7 +4103,7 @@
       <c r="G332" s="2"/>
       <c r="H332" s="2"/>
     </row>
-    <row r="333" spans="1:8" ht="16">
+    <row r="333" spans="1:8">
       <c r="A333" s="2"/>
       <c r="D333" s="6"/>
       <c r="E333" s="2"/>
@@ -4091,7 +4111,7 @@
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
     </row>
-    <row r="334" spans="1:8" ht="16">
+    <row r="334" spans="1:8">
       <c r="A334" s="2"/>
       <c r="D334" s="6"/>
       <c r="E334" s="2"/>
@@ -4099,7 +4119,7 @@
       <c r="G334" s="2"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="1:8" ht="16">
+    <row r="335" spans="1:8">
       <c r="A335" s="2"/>
       <c r="D335" s="6"/>
       <c r="E335" s="2"/>
@@ -4107,7 +4127,7 @@
       <c r="G335" s="2"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="1:8" ht="16">
+    <row r="336" spans="1:8">
       <c r="A336" s="2"/>
       <c r="D336" s="6"/>
       <c r="E336" s="2"/>
@@ -4115,7 +4135,7 @@
       <c r="G336" s="2"/>
       <c r="H336" s="2"/>
     </row>
-    <row r="337" spans="1:8" ht="16">
+    <row r="337" spans="1:8">
       <c r="A337" s="2"/>
       <c r="D337" s="6"/>
       <c r="E337" s="2"/>
@@ -4123,7 +4143,7 @@
       <c r="G337" s="2"/>
       <c r="H337" s="2"/>
     </row>
-    <row r="338" spans="1:8" ht="16">
+    <row r="338" spans="1:8">
       <c r="A338" s="2"/>
       <c r="D338" s="6"/>
       <c r="E338" s="2"/>
@@ -4131,7 +4151,7 @@
       <c r="G338" s="2"/>
       <c r="H338" s="2"/>
     </row>
-    <row r="339" spans="1:8" ht="16">
+    <row r="339" spans="1:8">
       <c r="A339" s="2"/>
       <c r="D339" s="6"/>
       <c r="E339" s="2"/>
@@ -4139,7 +4159,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="1:8" ht="16">
+    <row r="340" spans="1:8">
       <c r="A340" s="2"/>
       <c r="D340" s="6"/>
       <c r="E340" s="2"/>
@@ -4147,7 +4167,7 @@
       <c r="G340" s="2"/>
       <c r="H340" s="2"/>
     </row>
-    <row r="341" spans="1:8" ht="16">
+    <row r="341" spans="1:8">
       <c r="A341" s="2"/>
       <c r="D341" s="6"/>
       <c r="E341" s="2"/>
@@ -4155,7 +4175,7 @@
       <c r="G341" s="2"/>
       <c r="H341" s="2"/>
     </row>
-    <row r="342" spans="1:8" ht="16">
+    <row r="342" spans="1:8">
       <c r="A342" s="2"/>
       <c r="D342" s="6"/>
       <c r="E342" s="2"/>
@@ -4163,7 +4183,7 @@
       <c r="G342" s="2"/>
       <c r="H342" s="2"/>
     </row>
-    <row r="343" spans="1:8" ht="16">
+    <row r="343" spans="1:8">
       <c r="A343" s="2"/>
       <c r="D343" s="6"/>
       <c r="E343" s="2"/>
@@ -4171,7 +4191,7 @@
       <c r="G343" s="2"/>
       <c r="H343" s="2"/>
     </row>
-    <row r="344" spans="1:8" ht="16">
+    <row r="344" spans="1:8">
       <c r="A344" s="2"/>
       <c r="D344" s="6"/>
       <c r="E344" s="2"/>
@@ -4179,7 +4199,7 @@
       <c r="G344" s="2"/>
       <c r="H344" s="2"/>
     </row>
-    <row r="345" spans="1:8" ht="16">
+    <row r="345" spans="1:8">
       <c r="A345" s="2"/>
       <c r="D345" s="6"/>
       <c r="E345" s="2"/>
@@ -4187,7 +4207,7 @@
       <c r="G345" s="2"/>
       <c r="H345" s="2"/>
     </row>
-    <row r="346" spans="1:8" ht="16">
+    <row r="346" spans="1:8">
       <c r="A346" s="2"/>
       <c r="D346" s="6"/>
       <c r="E346" s="2"/>
@@ -4195,7 +4215,7 @@
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
     </row>
-    <row r="347" spans="1:8" ht="16">
+    <row r="347" spans="1:8">
       <c r="A347" s="2"/>
       <c r="D347" s="6"/>
       <c r="E347" s="2"/>
@@ -4203,7 +4223,7 @@
       <c r="G347" s="2"/>
       <c r="H347" s="2"/>
     </row>
-    <row r="348" spans="1:8" ht="16">
+    <row r="348" spans="1:8">
       <c r="A348" s="2"/>
       <c r="D348" s="6"/>
       <c r="E348" s="2"/>
@@ -4211,7 +4231,7 @@
       <c r="G348" s="2"/>
       <c r="H348" s="2"/>
     </row>
-    <row r="349" spans="1:8" ht="16">
+    <row r="349" spans="1:8">
       <c r="A349" s="2"/>
       <c r="D349" s="6"/>
       <c r="E349" s="2"/>
@@ -4219,7 +4239,7 @@
       <c r="G349" s="2"/>
       <c r="H349" s="2"/>
     </row>
-    <row r="350" spans="1:8" ht="16">
+    <row r="350" spans="1:8">
       <c r="A350" s="2"/>
       <c r="D350" s="6"/>
       <c r="E350" s="2"/>
@@ -4227,7 +4247,7 @@
       <c r="G350" s="2"/>
       <c r="H350" s="2"/>
     </row>
-    <row r="351" spans="1:8" ht="16">
+    <row r="351" spans="1:8">
       <c r="A351" s="2"/>
       <c r="D351" s="6"/>
       <c r="E351" s="2"/>
@@ -4235,7 +4255,7 @@
       <c r="G351" s="2"/>
       <c r="H351" s="2"/>
     </row>
-    <row r="352" spans="1:8" ht="16">
+    <row r="352" spans="1:8">
       <c r="A352" s="2"/>
       <c r="D352" s="6"/>
       <c r="E352" s="2"/>
@@ -4243,7 +4263,7 @@
       <c r="G352" s="2"/>
       <c r="H352" s="2"/>
     </row>
-    <row r="353" spans="1:8" ht="16">
+    <row r="353" spans="1:8">
       <c r="A353" s="2"/>
       <c r="D353" s="6"/>
       <c r="E353" s="2"/>
@@ -4251,7 +4271,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="2"/>
     </row>
-    <row r="354" spans="1:8" ht="16">
+    <row r="354" spans="1:8">
       <c r="A354" s="2"/>
       <c r="D354" s="6"/>
       <c r="E354" s="2"/>
@@ -4259,7 +4279,7 @@
       <c r="G354" s="2"/>
       <c r="H354" s="2"/>
     </row>
-    <row r="355" spans="1:8" ht="16">
+    <row r="355" spans="1:8">
       <c r="A355" s="2"/>
       <c r="D355" s="6"/>
       <c r="E355" s="2"/>
@@ -4267,7 +4287,7 @@
       <c r="G355" s="2"/>
       <c r="H355" s="2"/>
     </row>
-    <row r="356" spans="1:8" ht="16">
+    <row r="356" spans="1:8">
       <c r="A356" s="2"/>
       <c r="D356" s="6"/>
       <c r="E356" s="2"/>
@@ -4275,7 +4295,7 @@
       <c r="G356" s="2"/>
       <c r="H356" s="2"/>
     </row>
-    <row r="357" spans="1:8" ht="16">
+    <row r="357" spans="1:8">
       <c r="A357" s="2"/>
       <c r="D357" s="6"/>
       <c r="E357" s="2"/>
@@ -4283,7 +4303,7 @@
       <c r="G357" s="2"/>
       <c r="H357" s="2"/>
     </row>
-    <row r="358" spans="1:8" ht="16">
+    <row r="358" spans="1:8">
       <c r="A358" s="2"/>
       <c r="D358" s="6"/>
       <c r="E358" s="2"/>
@@ -4291,7 +4311,7 @@
       <c r="G358" s="2"/>
       <c r="H358" s="2"/>
     </row>
-    <row r="359" spans="1:8" ht="16">
+    <row r="359" spans="1:8">
       <c r="A359" s="2"/>
       <c r="D359" s="6"/>
       <c r="E359" s="2"/>
@@ -4299,7 +4319,7 @@
       <c r="G359" s="2"/>
       <c r="H359" s="2"/>
     </row>
-    <row r="360" spans="1:8" ht="16">
+    <row r="360" spans="1:8">
       <c r="A360" s="2"/>
       <c r="D360" s="6"/>
       <c r="E360" s="2"/>
@@ -4307,7 +4327,7 @@
       <c r="G360" s="2"/>
       <c r="H360" s="2"/>
     </row>
-    <row r="361" spans="1:8" ht="16">
+    <row r="361" spans="1:8">
       <c r="A361" s="2"/>
       <c r="D361" s="6"/>
       <c r="E361" s="2"/>
@@ -4315,7 +4335,7 @@
       <c r="G361" s="2"/>
       <c r="H361" s="2"/>
     </row>
-    <row r="362" spans="1:8" ht="16">
+    <row r="362" spans="1:8">
       <c r="A362" s="2"/>
       <c r="D362" s="6"/>
       <c r="E362" s="2"/>
@@ -4323,7 +4343,7 @@
       <c r="G362" s="2"/>
       <c r="H362" s="2"/>
     </row>
-    <row r="363" spans="1:8" ht="16">
+    <row r="363" spans="1:8">
       <c r="A363" s="2"/>
       <c r="D363" s="6"/>
       <c r="E363" s="2"/>
@@ -4331,7 +4351,7 @@
       <c r="G363" s="2"/>
       <c r="H363" s="2"/>
     </row>
-    <row r="364" spans="1:8" ht="16">
+    <row r="364" spans="1:8">
       <c r="A364" s="2"/>
       <c r="D364" s="6"/>
       <c r="E364" s="2"/>
@@ -4339,7 +4359,7 @@
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="1:8" ht="16">
+    <row r="365" spans="1:8">
       <c r="A365" s="2"/>
       <c r="D365" s="6"/>
       <c r="E365" s="2"/>
@@ -4347,7 +4367,7 @@
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
     </row>
-    <row r="366" spans="1:8" ht="16">
+    <row r="366" spans="1:8">
       <c r="A366" s="2"/>
       <c r="D366" s="6"/>
       <c r="E366" s="2"/>
@@ -4355,7 +4375,7 @@
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" ht="16">
+    <row r="367" spans="1:8">
       <c r="A367" s="2"/>
       <c r="D367" s="6"/>
       <c r="E367" s="2"/>
@@ -4363,7 +4383,7 @@
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" ht="16">
+    <row r="368" spans="1:8">
       <c r="A368" s="2"/>
       <c r="D368" s="6"/>
       <c r="E368" s="2"/>
@@ -4371,7 +4391,7 @@
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="1:8" ht="16">
+    <row r="369" spans="1:8">
       <c r="A369" s="2"/>
       <c r="D369" s="6"/>
       <c r="E369" s="2"/>
@@ -4379,7 +4399,7 @@
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" ht="16">
+    <row r="370" spans="1:8">
       <c r="A370" s="2"/>
       <c r="D370" s="6"/>
       <c r="E370" s="2"/>
@@ -4387,7 +4407,7 @@
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="1:8" ht="16">
+    <row r="371" spans="1:8">
       <c r="A371" s="2"/>
       <c r="D371" s="6"/>
       <c r="E371" s="2"/>
@@ -4395,7 +4415,7 @@
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="1:8" ht="16">
+    <row r="372" spans="1:8">
       <c r="A372" s="2"/>
       <c r="D372" s="6"/>
       <c r="E372" s="2"/>
@@ -4403,7 +4423,7 @@
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
     </row>
-    <row r="373" spans="1:8" ht="16">
+    <row r="373" spans="1:8">
       <c r="A373" s="2"/>
       <c r="D373" s="6"/>
       <c r="E373" s="2"/>
@@ -4411,7 +4431,7 @@
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
     </row>
-    <row r="374" spans="1:8" ht="16">
+    <row r="374" spans="1:8">
       <c r="A374" s="2"/>
       <c r="D374" s="6"/>
       <c r="E374" s="2"/>
@@ -4419,7 +4439,7 @@
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
     </row>
-    <row r="375" spans="1:8" ht="16">
+    <row r="375" spans="1:8">
       <c r="A375" s="2"/>
       <c r="D375" s="6"/>
       <c r="E375" s="2"/>
@@ -4427,7 +4447,7 @@
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="1:8" ht="16">
+    <row r="376" spans="1:8">
       <c r="A376" s="2"/>
       <c r="D376" s="6"/>
       <c r="E376" s="2"/>
@@ -4435,7 +4455,7 @@
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
     </row>
-    <row r="377" spans="1:8" ht="16">
+    <row r="377" spans="1:8">
       <c r="A377" s="2"/>
       <c r="D377" s="6"/>
       <c r="E377" s="2"/>
@@ -4443,7 +4463,7 @@
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
     </row>
-    <row r="378" spans="1:8" ht="16">
+    <row r="378" spans="1:8">
       <c r="A378" s="2"/>
       <c r="D378" s="6"/>
       <c r="E378" s="2"/>
@@ -4451,7 +4471,7 @@
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
     </row>
-    <row r="379" spans="1:8" ht="16">
+    <row r="379" spans="1:8">
       <c r="A379" s="2"/>
       <c r="D379" s="6"/>
       <c r="E379" s="2"/>
@@ -4459,7 +4479,7 @@
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="1:8" ht="16">
+    <row r="380" spans="1:8">
       <c r="A380" s="2"/>
       <c r="D380" s="6"/>
       <c r="E380" s="2"/>
@@ -4467,7 +4487,7 @@
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
     </row>
-    <row r="381" spans="1:8" ht="16">
+    <row r="381" spans="1:8">
       <c r="A381" s="2"/>
       <c r="D381" s="6"/>
       <c r="E381" s="2"/>
@@ -4475,7 +4495,7 @@
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
     </row>
-    <row r="382" spans="1:8" ht="16">
+    <row r="382" spans="1:8">
       <c r="A382" s="2"/>
       <c r="D382" s="6"/>
       <c r="E382" s="2"/>
@@ -4483,7 +4503,7 @@
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
     </row>
-    <row r="383" spans="1:8" ht="16">
+    <row r="383" spans="1:8">
       <c r="A383" s="2"/>
       <c r="D383" s="6"/>
       <c r="E383" s="2"/>
@@ -4491,7 +4511,7 @@
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
     </row>
-    <row r="384" spans="1:8" ht="16">
+    <row r="384" spans="1:8">
       <c r="A384" s="2"/>
       <c r="D384" s="6"/>
       <c r="E384" s="2"/>
@@ -4499,7 +4519,7 @@
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
     </row>
-    <row r="385" spans="1:8" ht="16">
+    <row r="385" spans="1:8">
       <c r="A385" s="2"/>
       <c r="D385" s="6"/>
       <c r="E385" s="2"/>
@@ -4507,7 +4527,7 @@
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
     </row>
-    <row r="386" spans="1:8" ht="16">
+    <row r="386" spans="1:8">
       <c r="A386" s="2"/>
       <c r="D386" s="6"/>
       <c r="E386" s="2"/>
@@ -4515,7 +4535,7 @@
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
     </row>
-    <row r="387" spans="1:8" ht="16">
+    <row r="387" spans="1:8">
       <c r="A387" s="2"/>
       <c r="D387" s="6"/>
       <c r="E387" s="2"/>
@@ -4523,7 +4543,7 @@
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
     </row>
-    <row r="388" spans="1:8" ht="16">
+    <row r="388" spans="1:8">
       <c r="A388" s="2"/>
       <c r="D388" s="6"/>
       <c r="E388" s="2"/>
@@ -4531,7 +4551,7 @@
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="1:8" ht="16">
+    <row r="389" spans="1:8">
       <c r="A389" s="2"/>
       <c r="D389" s="6"/>
       <c r="E389" s="2"/>
@@ -4539,7 +4559,7 @@
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
     </row>
-    <row r="390" spans="1:8" ht="16">
+    <row r="390" spans="1:8">
       <c r="A390" s="2"/>
       <c r="D390" s="6"/>
       <c r="E390" s="2"/>
@@ -4547,7 +4567,7 @@
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="1:8" ht="16">
+    <row r="391" spans="1:8">
       <c r="A391" s="2"/>
       <c r="D391" s="6"/>
       <c r="E391" s="2"/>
@@ -4555,7 +4575,7 @@
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
     </row>
-    <row r="392" spans="1:8" ht="16">
+    <row r="392" spans="1:8">
       <c r="A392" s="2"/>
       <c r="D392" s="6"/>
       <c r="E392" s="2"/>
@@ -4563,7 +4583,7 @@
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
     </row>
-    <row r="393" spans="1:8" ht="16">
+    <row r="393" spans="1:8">
       <c r="A393" s="2"/>
       <c r="D393" s="6"/>
       <c r="E393" s="2"/>
@@ -4571,7 +4591,7 @@
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
     </row>
-    <row r="394" spans="1:8" ht="16">
+    <row r="394" spans="1:8">
       <c r="A394" s="2"/>
       <c r="D394" s="6"/>
       <c r="E394" s="2"/>
@@ -4579,7 +4599,7 @@
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
     </row>
-    <row r="395" spans="1:8" ht="16">
+    <row r="395" spans="1:8">
       <c r="A395" s="2"/>
       <c r="D395" s="6"/>
       <c r="E395" s="2"/>
@@ -4587,7 +4607,7 @@
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
     </row>
-    <row r="396" spans="1:8" ht="16">
+    <row r="396" spans="1:8">
       <c r="A396" s="2"/>
       <c r="D396" s="6"/>
       <c r="E396" s="2"/>
@@ -4595,7 +4615,7 @@
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
     </row>
-    <row r="397" spans="1:8" ht="16">
+    <row r="397" spans="1:8">
       <c r="A397" s="2"/>
       <c r="D397" s="6"/>
       <c r="E397" s="2"/>
@@ -4603,7 +4623,7 @@
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="1:8" ht="16">
+    <row r="398" spans="1:8">
       <c r="A398" s="2"/>
       <c r="D398" s="6"/>
       <c r="E398" s="2"/>
@@ -4611,7 +4631,7 @@
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
     </row>
-    <row r="399" spans="1:8" ht="16">
+    <row r="399" spans="1:8">
       <c r="A399" s="2"/>
       <c r="D399" s="6"/>
       <c r="E399" s="2"/>
@@ -4619,7 +4639,7 @@
       <c r="G399" s="2"/>
       <c r="H399" s="2"/>
     </row>
-    <row r="400" spans="1:8" ht="16">
+    <row r="400" spans="1:8">
       <c r="A400" s="2"/>
       <c r="D400" s="6"/>
       <c r="E400" s="2"/>
@@ -4627,7 +4647,7 @@
       <c r="G400" s="2"/>
       <c r="H400" s="2"/>
     </row>
-    <row r="401" spans="1:8" ht="16">
+    <row r="401" spans="1:8">
       <c r="A401" s="2"/>
       <c r="D401" s="6"/>
       <c r="E401" s="2"/>
@@ -4635,7 +4655,7 @@
       <c r="G401" s="2"/>
       <c r="H401" s="2"/>
     </row>
-    <row r="402" spans="1:8" ht="16">
+    <row r="402" spans="1:8">
       <c r="A402" s="2"/>
       <c r="D402" s="6"/>
       <c r="E402" s="2"/>
@@ -4643,7 +4663,7 @@
       <c r="G402" s="2"/>
       <c r="H402" s="2"/>
     </row>
-    <row r="403" spans="1:8" ht="16">
+    <row r="403" spans="1:8">
       <c r="A403" s="2"/>
       <c r="D403" s="6"/>
       <c r="E403" s="2"/>
@@ -4651,7 +4671,7 @@
       <c r="G403" s="2"/>
       <c r="H403" s="2"/>
     </row>
-    <row r="404" spans="1:8" ht="16">
+    <row r="404" spans="1:8">
       <c r="A404" s="2"/>
       <c r="D404" s="6"/>
       <c r="E404" s="2"/>
@@ -4659,7 +4679,7 @@
       <c r="G404" s="2"/>
       <c r="H404" s="2"/>
     </row>
-    <row r="405" spans="1:8" ht="16">
+    <row r="405" spans="1:8">
       <c r="A405" s="2"/>
       <c r="D405" s="6"/>
       <c r="E405" s="2"/>
@@ -4667,7 +4687,7 @@
       <c r="G405" s="2"/>
       <c r="H405" s="2"/>
     </row>
-    <row r="406" spans="1:8" ht="16">
+    <row r="406" spans="1:8">
       <c r="A406" s="2"/>
       <c r="D406" s="6"/>
       <c r="E406" s="2"/>
@@ -4675,7 +4695,7 @@
       <c r="G406" s="2"/>
       <c r="H406" s="2"/>
     </row>
-    <row r="407" spans="1:8" ht="16">
+    <row r="407" spans="1:8">
       <c r="A407" s="2"/>
       <c r="D407" s="6"/>
       <c r="E407" s="2"/>
@@ -4683,7 +4703,7 @@
       <c r="G407" s="2"/>
       <c r="H407" s="2"/>
     </row>
-    <row r="408" spans="1:8" ht="16">
+    <row r="408" spans="1:8">
       <c r="A408" s="2"/>
       <c r="D408" s="6"/>
       <c r="E408" s="2"/>
@@ -4691,7 +4711,7 @@
       <c r="G408" s="2"/>
       <c r="H408" s="2"/>
     </row>
-    <row r="409" spans="1:8" ht="16">
+    <row r="409" spans="1:8">
       <c r="A409" s="2"/>
       <c r="D409" s="6"/>
       <c r="E409" s="2"/>
@@ -4699,7 +4719,7 @@
       <c r="G409" s="2"/>
       <c r="H409" s="2"/>
     </row>
-    <row r="410" spans="1:8" ht="16">
+    <row r="410" spans="1:8">
       <c r="A410" s="2"/>
       <c r="D410" s="6"/>
       <c r="E410" s="2"/>
@@ -4707,7 +4727,7 @@
       <c r="G410" s="2"/>
       <c r="H410" s="2"/>
     </row>
-    <row r="411" spans="1:8" ht="16">
+    <row r="411" spans="1:8">
       <c r="A411" s="2"/>
       <c r="D411" s="6"/>
       <c r="E411" s="2"/>
@@ -4715,7 +4735,7 @@
       <c r="G411" s="2"/>
       <c r="H411" s="2"/>
     </row>
-    <row r="412" spans="1:8" ht="16">
+    <row r="412" spans="1:8">
       <c r="A412" s="2"/>
       <c r="D412" s="6"/>
       <c r="E412" s="2"/>
@@ -4723,7 +4743,7 @@
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
     </row>
-    <row r="413" spans="1:8" ht="16">
+    <row r="413" spans="1:8">
       <c r="A413" s="2"/>
       <c r="D413" s="6"/>
       <c r="E413" s="2"/>
@@ -4731,7 +4751,7 @@
       <c r="G413" s="2"/>
       <c r="H413" s="2"/>
     </row>
-    <row r="414" spans="1:8" ht="16">
+    <row r="414" spans="1:8">
       <c r="A414" s="2"/>
       <c r="D414" s="6"/>
       <c r="E414" s="2"/>
@@ -4739,7 +4759,7 @@
       <c r="G414" s="2"/>
       <c r="H414" s="2"/>
     </row>
-    <row r="415" spans="1:8" ht="16">
+    <row r="415" spans="1:8">
       <c r="A415" s="2"/>
       <c r="D415" s="6"/>
       <c r="E415" s="2"/>
@@ -4747,7 +4767,7 @@
       <c r="G415" s="2"/>
       <c r="H415" s="2"/>
     </row>
-    <row r="416" spans="1:8" ht="16">
+    <row r="416" spans="1:8">
       <c r="A416" s="2"/>
       <c r="D416" s="6"/>
       <c r="E416" s="2"/>
@@ -4755,7 +4775,7 @@
       <c r="G416" s="2"/>
       <c r="H416" s="2"/>
     </row>
-    <row r="417" spans="1:8" ht="16">
+    <row r="417" spans="1:8">
       <c r="A417" s="2"/>
       <c r="D417" s="6"/>
       <c r="E417" s="2"/>
@@ -4763,7 +4783,7 @@
       <c r="G417" s="2"/>
       <c r="H417" s="2"/>
     </row>
-    <row r="418" spans="1:8" ht="16">
+    <row r="418" spans="1:8">
       <c r="A418" s="2"/>
       <c r="D418" s="6"/>
       <c r="E418" s="2"/>
@@ -4771,7 +4791,7 @@
       <c r="G418" s="2"/>
       <c r="H418" s="2"/>
     </row>
-    <row r="419" spans="1:8" ht="16">
+    <row r="419" spans="1:8">
       <c r="A419" s="2"/>
       <c r="D419" s="6"/>
       <c r="E419" s="2"/>
@@ -4779,7 +4799,7 @@
       <c r="G419" s="2"/>
       <c r="H419" s="2"/>
     </row>
-    <row r="420" spans="1:8" ht="16">
+    <row r="420" spans="1:8">
       <c r="A420" s="2"/>
       <c r="D420" s="6"/>
       <c r="E420" s="2"/>
@@ -4787,7 +4807,7 @@
       <c r="G420" s="2"/>
       <c r="H420" s="2"/>
     </row>
-    <row r="421" spans="1:8" ht="16">
+    <row r="421" spans="1:8">
       <c r="A421" s="2"/>
       <c r="D421" s="6"/>
       <c r="E421" s="2"/>
@@ -4795,7 +4815,7 @@
       <c r="G421" s="2"/>
       <c r="H421" s="2"/>
     </row>
-    <row r="422" spans="1:8" ht="16">
+    <row r="422" spans="1:8">
       <c r="A422" s="2"/>
       <c r="D422" s="6"/>
       <c r="E422" s="2"/>
@@ -4803,7 +4823,7 @@
       <c r="G422" s="2"/>
       <c r="H422" s="2"/>
     </row>
-    <row r="423" spans="1:8" ht="16">
+    <row r="423" spans="1:8">
       <c r="A423" s="2"/>
       <c r="D423" s="6"/>
       <c r="E423" s="2"/>
@@ -4811,7 +4831,7 @@
       <c r="G423" s="2"/>
       <c r="H423" s="2"/>
     </row>
-    <row r="424" spans="1:8" ht="16">
+    <row r="424" spans="1:8">
       <c r="A424" s="2"/>
       <c r="D424" s="6"/>
       <c r="E424" s="2"/>
@@ -4819,7 +4839,7 @@
       <c r="G424" s="2"/>
       <c r="H424" s="2"/>
     </row>
-    <row r="425" spans="1:8" ht="16">
+    <row r="425" spans="1:8">
       <c r="A425" s="2"/>
       <c r="D425" s="6"/>
       <c r="E425" s="2"/>
@@ -4827,7 +4847,7 @@
       <c r="G425" s="2"/>
       <c r="H425" s="2"/>
     </row>
-    <row r="426" spans="1:8" ht="16">
+    <row r="426" spans="1:8">
       <c r="A426" s="2"/>
       <c r="D426" s="6"/>
       <c r="E426" s="2"/>
@@ -4835,7 +4855,7 @@
       <c r="G426" s="2"/>
       <c r="H426" s="2"/>
     </row>
-    <row r="427" spans="1:8" ht="16">
+    <row r="427" spans="1:8">
       <c r="A427" s="2"/>
       <c r="D427" s="6"/>
       <c r="E427" s="2"/>
@@ -4843,7 +4863,7 @@
       <c r="G427" s="2"/>
       <c r="H427" s="2"/>
     </row>
-    <row r="428" spans="1:8" ht="16">
+    <row r="428" spans="1:8">
       <c r="A428" s="2"/>
       <c r="D428" s="6"/>
       <c r="E428" s="2"/>
@@ -4851,7 +4871,7 @@
       <c r="G428" s="2"/>
       <c r="H428" s="2"/>
     </row>
-    <row r="429" spans="1:8" ht="16">
+    <row r="429" spans="1:8">
       <c r="A429" s="2"/>
       <c r="D429" s="6"/>
       <c r="E429" s="2"/>
@@ -4859,7 +4879,7 @@
       <c r="G429" s="2"/>
       <c r="H429" s="2"/>
     </row>
-    <row r="430" spans="1:8" ht="16">
+    <row r="430" spans="1:8">
       <c r="A430" s="2"/>
       <c r="D430" s="6"/>
       <c r="E430" s="2"/>
@@ -4867,7 +4887,7 @@
       <c r="G430" s="2"/>
       <c r="H430" s="2"/>
     </row>
-    <row r="431" spans="1:8" ht="16">
+    <row r="431" spans="1:8">
       <c r="A431" s="2"/>
       <c r="D431" s="6"/>
       <c r="E431" s="2"/>
@@ -4875,7 +4895,7 @@
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
     </row>
-    <row r="432" spans="1:8" ht="16">
+    <row r="432" spans="1:8">
       <c r="A432" s="2"/>
       <c r="D432" s="6"/>
       <c r="E432" s="2"/>
@@ -4883,7 +4903,7 @@
       <c r="G432" s="2"/>
       <c r="H432" s="2"/>
     </row>
-    <row r="433" spans="1:8" ht="16">
+    <row r="433" spans="1:8">
       <c r="A433" s="2"/>
       <c r="D433" s="6"/>
       <c r="E433" s="2"/>
@@ -4891,7 +4911,7 @@
       <c r="G433" s="2"/>
       <c r="H433" s="2"/>
     </row>
-    <row r="434" spans="1:8" ht="16">
+    <row r="434" spans="1:8">
       <c r="A434" s="2"/>
       <c r="D434" s="6"/>
       <c r="E434" s="2"/>
@@ -4899,7 +4919,7 @@
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
     </row>
-    <row r="435" spans="1:8" ht="16">
+    <row r="435" spans="1:8">
       <c r="A435" s="2"/>
       <c r="D435" s="6"/>
       <c r="E435" s="2"/>
@@ -4907,7 +4927,7 @@
       <c r="G435" s="2"/>
       <c r="H435" s="2"/>
     </row>
-    <row r="436" spans="1:8" ht="16">
+    <row r="436" spans="1:8">
       <c r="A436" s="2"/>
       <c r="D436" s="6"/>
       <c r="E436" s="2"/>
@@ -4915,7 +4935,7 @@
       <c r="G436" s="2"/>
       <c r="H436" s="2"/>
     </row>
-    <row r="437" spans="1:8" ht="16">
+    <row r="437" spans="1:8">
       <c r="A437" s="2"/>
       <c r="D437" s="6"/>
       <c r="E437" s="2"/>
@@ -4923,7 +4943,7 @@
       <c r="G437" s="2"/>
       <c r="H437" s="2"/>
     </row>
-    <row r="438" spans="1:8" ht="16">
+    <row r="438" spans="1:8">
       <c r="A438" s="2"/>
       <c r="D438" s="6"/>
       <c r="E438" s="2"/>
@@ -4931,7 +4951,7 @@
       <c r="G438" s="2"/>
       <c r="H438" s="2"/>
     </row>
-    <row r="439" spans="1:8" ht="16">
+    <row r="439" spans="1:8">
       <c r="A439" s="2"/>
       <c r="D439" s="6"/>
       <c r="E439" s="2"/>
@@ -4939,7 +4959,7 @@
       <c r="G439" s="2"/>
       <c r="H439" s="2"/>
     </row>
-    <row r="440" spans="1:8" ht="16">
+    <row r="440" spans="1:8">
       <c r="A440" s="2"/>
       <c r="D440" s="6"/>
       <c r="E440" s="2"/>
@@ -4947,7 +4967,7 @@
       <c r="G440" s="2"/>
       <c r="H440" s="2"/>
     </row>
-    <row r="441" spans="1:8" ht="16">
+    <row r="441" spans="1:8">
       <c r="A441" s="2"/>
       <c r="D441" s="6"/>
       <c r="E441" s="2"/>
@@ -4955,7 +4975,7 @@
       <c r="G441" s="2"/>
       <c r="H441" s="2"/>
     </row>
-    <row r="442" spans="1:8" ht="16">
+    <row r="442" spans="1:8">
       <c r="A442" s="2"/>
       <c r="D442" s="6"/>
       <c r="E442" s="2"/>
@@ -4963,7 +4983,7 @@
       <c r="G442" s="2"/>
       <c r="H442" s="2"/>
     </row>
-    <row r="443" spans="1:8" ht="16">
+    <row r="443" spans="1:8">
       <c r="A443" s="2"/>
       <c r="D443" s="6"/>
       <c r="E443" s="2"/>
@@ -4971,7 +4991,7 @@
       <c r="G443" s="2"/>
       <c r="H443" s="2"/>
     </row>
-    <row r="444" spans="1:8" ht="16">
+    <row r="444" spans="1:8">
       <c r="A444" s="2"/>
       <c r="D444" s="6"/>
       <c r="E444" s="2"/>
@@ -4979,7 +4999,7 @@
       <c r="G444" s="2"/>
       <c r="H444" s="2"/>
     </row>
-    <row r="445" spans="1:8" ht="16">
+    <row r="445" spans="1:8">
       <c r="A445" s="2"/>
       <c r="D445" s="6"/>
       <c r="E445" s="2"/>
@@ -4987,7 +5007,7 @@
       <c r="G445" s="2"/>
       <c r="H445" s="2"/>
     </row>
-    <row r="446" spans="1:8" ht="16">
+    <row r="446" spans="1:8">
       <c r="A446" s="2"/>
       <c r="D446" s="6"/>
       <c r="E446" s="2"/>
@@ -4995,7 +5015,7 @@
       <c r="G446" s="2"/>
       <c r="H446" s="2"/>
     </row>
-    <row r="447" spans="1:8" ht="16">
+    <row r="447" spans="1:8">
       <c r="A447" s="2"/>
       <c r="D447" s="6"/>
       <c r="E447" s="2"/>
@@ -5003,7 +5023,7 @@
       <c r="G447" s="2"/>
       <c r="H447" s="2"/>
     </row>
-    <row r="448" spans="1:8" ht="16">
+    <row r="448" spans="1:8">
       <c r="A448" s="2"/>
       <c r="D448" s="6"/>
       <c r="E448" s="2"/>
@@ -5011,7 +5031,7 @@
       <c r="G448" s="2"/>
       <c r="H448" s="2"/>
     </row>
-    <row r="449" spans="1:8" ht="16">
+    <row r="449" spans="1:8">
       <c r="A449" s="2"/>
       <c r="D449" s="6"/>
       <c r="E449" s="2"/>
@@ -5019,7 +5039,7 @@
       <c r="G449" s="2"/>
       <c r="H449" s="2"/>
     </row>
-    <row r="450" spans="1:8" ht="16">
+    <row r="450" spans="1:8">
       <c r="A450" s="2"/>
       <c r="D450" s="6"/>
       <c r="E450" s="2"/>
@@ -5027,7 +5047,7 @@
       <c r="G450" s="2"/>
       <c r="H450" s="2"/>
     </row>
-    <row r="451" spans="1:8" ht="16">
+    <row r="451" spans="1:8">
       <c r="A451" s="2"/>
       <c r="D451" s="6"/>
       <c r="E451" s="2"/>
@@ -5035,7 +5055,7 @@
       <c r="G451" s="2"/>
       <c r="H451" s="2"/>
     </row>
-    <row r="452" spans="1:8" ht="16">
+    <row r="452" spans="1:8">
       <c r="A452" s="2"/>
       <c r="D452" s="6"/>
       <c r="E452" s="2"/>
@@ -5043,7 +5063,7 @@
       <c r="G452" s="2"/>
       <c r="H452" s="2"/>
     </row>
-    <row r="453" spans="1:8" ht="16">
+    <row r="453" spans="1:8">
       <c r="A453" s="2"/>
       <c r="D453" s="6"/>
       <c r="E453" s="2"/>
@@ -5051,7 +5071,7 @@
       <c r="G453" s="2"/>
       <c r="H453" s="2"/>
     </row>
-    <row r="454" spans="1:8" ht="16">
+    <row r="454" spans="1:8">
       <c r="A454" s="2"/>
       <c r="D454" s="6"/>
       <c r="E454" s="2"/>
@@ -5059,7 +5079,7 @@
       <c r="G454" s="2"/>
       <c r="H454" s="2"/>
     </row>
-    <row r="455" spans="1:8" ht="16">
+    <row r="455" spans="1:8">
       <c r="A455" s="2"/>
       <c r="D455" s="6"/>
       <c r="E455" s="2"/>
@@ -5067,7 +5087,7 @@
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
     </row>
-    <row r="456" spans="1:8" ht="16">
+    <row r="456" spans="1:8">
       <c r="A456" s="2"/>
       <c r="D456" s="6"/>
       <c r="E456" s="2"/>
@@ -5075,7 +5095,7 @@
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
     </row>
-    <row r="457" spans="1:8" ht="16">
+    <row r="457" spans="1:8">
       <c r="A457" s="2"/>
       <c r="D457" s="6"/>
       <c r="E457" s="2"/>
@@ -5083,7 +5103,7 @@
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
     </row>
-    <row r="458" spans="1:8" ht="16">
+    <row r="458" spans="1:8">
       <c r="A458" s="2"/>
       <c r="D458" s="6"/>
       <c r="E458" s="2"/>
@@ -5091,7 +5111,7 @@
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
     </row>
-    <row r="459" spans="1:8" ht="16">
+    <row r="459" spans="1:8">
       <c r="A459" s="2"/>
       <c r="D459" s="6"/>
       <c r="E459" s="2"/>
@@ -5099,7 +5119,7 @@
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
     </row>
-    <row r="460" spans="1:8" ht="16">
+    <row r="460" spans="1:8">
       <c r="A460" s="2"/>
       <c r="D460" s="6"/>
       <c r="E460" s="2"/>
@@ -5107,7 +5127,7 @@
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
     </row>
-    <row r="461" spans="1:8" ht="16">
+    <row r="461" spans="1:8">
       <c r="A461" s="2"/>
       <c r="D461" s="6"/>
       <c r="E461" s="2"/>
@@ -5115,7 +5135,7 @@
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
     </row>
-    <row r="462" spans="1:8" ht="16">
+    <row r="462" spans="1:8">
       <c r="A462" s="2"/>
       <c r="D462" s="6"/>
       <c r="E462" s="2"/>
@@ -5123,7 +5143,7 @@
       <c r="G462" s="2"/>
       <c r="H462" s="2"/>
     </row>
-    <row r="463" spans="1:8" ht="16">
+    <row r="463" spans="1:8">
       <c r="A463" s="2"/>
       <c r="D463" s="6"/>
       <c r="E463" s="2"/>
@@ -5131,7 +5151,7 @@
       <c r="G463" s="2"/>
       <c r="H463" s="2"/>
     </row>
-    <row r="464" spans="1:8" ht="16">
+    <row r="464" spans="1:8">
       <c r="A464" s="2"/>
       <c r="D464" s="6"/>
       <c r="E464" s="2"/>
@@ -5139,7 +5159,7 @@
       <c r="G464" s="2"/>
       <c r="H464" s="2"/>
     </row>
-    <row r="465" spans="1:8" ht="16">
+    <row r="465" spans="1:8">
       <c r="A465" s="2"/>
       <c r="D465" s="6"/>
       <c r="E465" s="2"/>
@@ -5147,7 +5167,7 @@
       <c r="G465" s="2"/>
       <c r="H465" s="2"/>
     </row>
-    <row r="466" spans="1:8" ht="16">
+    <row r="466" spans="1:8">
       <c r="A466" s="2"/>
       <c r="D466" s="6"/>
       <c r="E466" s="2"/>
@@ -5155,7 +5175,7 @@
       <c r="G466" s="2"/>
       <c r="H466" s="2"/>
     </row>
-    <row r="467" spans="1:8" ht="16">
+    <row r="467" spans="1:8">
       <c r="A467" s="2"/>
       <c r="D467" s="6"/>
       <c r="E467" s="2"/>
@@ -5163,7 +5183,7 @@
       <c r="G467" s="2"/>
       <c r="H467" s="2"/>
     </row>
-    <row r="468" spans="1:8" ht="16">
+    <row r="468" spans="1:8">
       <c r="A468" s="2"/>
       <c r="D468" s="6"/>
       <c r="E468" s="2"/>
@@ -5171,7 +5191,7 @@
       <c r="G468" s="2"/>
       <c r="H468" s="2"/>
     </row>
-    <row r="469" spans="1:8" ht="16">
+    <row r="469" spans="1:8">
       <c r="A469" s="2"/>
       <c r="D469" s="6"/>
       <c r="E469" s="2"/>
@@ -5179,7 +5199,7 @@
       <c r="G469" s="2"/>
       <c r="H469" s="2"/>
     </row>
-    <row r="470" spans="1:8" ht="16">
+    <row r="470" spans="1:8">
       <c r="A470" s="2"/>
       <c r="D470" s="6"/>
       <c r="E470" s="2"/>
@@ -5187,7 +5207,7 @@
       <c r="G470" s="2"/>
       <c r="H470" s="2"/>
     </row>
-    <row r="471" spans="1:8" ht="16">
+    <row r="471" spans="1:8">
       <c r="A471" s="2"/>
       <c r="D471" s="6"/>
       <c r="E471" s="2"/>
@@ -5195,7 +5215,7 @@
       <c r="G471" s="2"/>
       <c r="H471" s="2"/>
     </row>
-    <row r="472" spans="1:8" ht="16">
+    <row r="472" spans="1:8">
       <c r="A472" s="2"/>
       <c r="D472" s="6"/>
       <c r="E472" s="2"/>
@@ -5203,7 +5223,7 @@
       <c r="G472" s="2"/>
       <c r="H472" s="2"/>
     </row>
-    <row r="473" spans="1:8" ht="16">
+    <row r="473" spans="1:8">
       <c r="A473" s="2"/>
       <c r="D473" s="6"/>
       <c r="E473" s="2"/>
@@ -5211,7 +5231,7 @@
       <c r="G473" s="2"/>
       <c r="H473" s="2"/>
     </row>
-    <row r="474" spans="1:8" ht="16">
+    <row r="474" spans="1:8">
       <c r="A474" s="2"/>
       <c r="D474" s="6"/>
       <c r="E474" s="2"/>
@@ -5219,7 +5239,7 @@
       <c r="G474" s="2"/>
       <c r="H474" s="2"/>
     </row>
-    <row r="475" spans="1:8" ht="16">
+    <row r="475" spans="1:8">
       <c r="A475" s="2"/>
       <c r="D475" s="6"/>
       <c r="E475" s="2"/>
@@ -5227,7 +5247,7 @@
       <c r="G475" s="2"/>
       <c r="H475" s="2"/>
     </row>
-    <row r="476" spans="1:8" ht="16">
+    <row r="476" spans="1:8">
       <c r="A476" s="2"/>
       <c r="D476" s="6"/>
       <c r="E476" s="2"/>
@@ -5235,7 +5255,7 @@
       <c r="G476" s="2"/>
       <c r="H476" s="2"/>
     </row>
-    <row r="477" spans="1:8" ht="16">
+    <row r="477" spans="1:8">
       <c r="A477" s="2"/>
       <c r="D477" s="6"/>
       <c r="E477" s="2"/>
@@ -5243,7 +5263,7 @@
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
     </row>
-    <row r="478" spans="1:8" ht="16">
+    <row r="478" spans="1:8">
       <c r="A478" s="2"/>
       <c r="D478" s="6"/>
       <c r="E478" s="2"/>
@@ -5251,7 +5271,7 @@
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
     </row>
-    <row r="479" spans="1:8" ht="16">
+    <row r="479" spans="1:8">
       <c r="A479" s="2"/>
       <c r="D479" s="6"/>
       <c r="E479" s="2"/>
@@ -5259,7 +5279,7 @@
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
     </row>
-    <row r="480" spans="1:8" ht="16">
+    <row r="480" spans="1:8">
       <c r="A480" s="2"/>
       <c r="D480" s="6"/>
       <c r="E480" s="2"/>
@@ -5267,7 +5287,7 @@
       <c r="G480" s="2"/>
       <c r="H480" s="2"/>
     </row>
-    <row r="481" spans="1:8" ht="16">
+    <row r="481" spans="1:8">
       <c r="A481" s="2"/>
       <c r="D481" s="6"/>
       <c r="E481" s="2"/>
@@ -5275,7 +5295,7 @@
       <c r="G481" s="2"/>
       <c r="H481" s="2"/>
     </row>
-    <row r="482" spans="1:8" ht="16">
+    <row r="482" spans="1:8">
       <c r="A482" s="2"/>
       <c r="D482" s="6"/>
       <c r="E482" s="2"/>
@@ -5283,7 +5303,7 @@
       <c r="G482" s="2"/>
       <c r="H482" s="2"/>
     </row>
-    <row r="483" spans="1:8" ht="16">
+    <row r="483" spans="1:8">
       <c r="A483" s="2"/>
       <c r="D483" s="6"/>
       <c r="E483" s="2"/>
@@ -5291,7 +5311,7 @@
       <c r="G483" s="2"/>
       <c r="H483" s="2"/>
     </row>
-    <row r="484" spans="1:8" ht="16">
+    <row r="484" spans="1:8">
       <c r="A484" s="2"/>
       <c r="D484" s="6"/>
       <c r="E484" s="2"/>
@@ -5299,7 +5319,7 @@
       <c r="G484" s="2"/>
       <c r="H484" s="2"/>
     </row>
-    <row r="485" spans="1:8" ht="16">
+    <row r="485" spans="1:8">
       <c r="A485" s="2"/>
       <c r="D485" s="6"/>
       <c r="E485" s="2"/>
@@ -5307,7 +5327,7 @@
       <c r="G485" s="2"/>
       <c r="H485" s="2"/>
     </row>
-    <row r="486" spans="1:8" ht="16">
+    <row r="486" spans="1:8">
       <c r="A486" s="2"/>
       <c r="D486" s="6"/>
       <c r="E486" s="2"/>
@@ -5315,7 +5335,7 @@
       <c r="G486" s="2"/>
       <c r="H486" s="2"/>
     </row>
-    <row r="487" spans="1:8" ht="16">
+    <row r="487" spans="1:8">
       <c r="A487" s="2"/>
       <c r="D487" s="6"/>
       <c r="E487" s="2"/>
@@ -5323,7 +5343,7 @@
       <c r="G487" s="2"/>
       <c r="H487" s="2"/>
     </row>
-    <row r="488" spans="1:8" ht="16">
+    <row r="488" spans="1:8">
       <c r="A488" s="2"/>
       <c r="D488" s="6"/>
       <c r="E488" s="2"/>
@@ -5331,7 +5351,7 @@
       <c r="G488" s="2"/>
       <c r="H488" s="2"/>
     </row>
-    <row r="489" spans="1:8" ht="16">
+    <row r="489" spans="1:8">
       <c r="A489" s="2"/>
       <c r="D489" s="6"/>
       <c r="E489" s="2"/>
@@ -5339,7 +5359,7 @@
       <c r="G489" s="2"/>
       <c r="H489" s="2"/>
     </row>
-    <row r="490" spans="1:8" ht="16">
+    <row r="490" spans="1:8">
       <c r="A490" s="2"/>
       <c r="D490" s="6"/>
       <c r="E490" s="2"/>
@@ -5347,7 +5367,7 @@
       <c r="G490" s="2"/>
       <c r="H490" s="2"/>
     </row>
-    <row r="491" spans="1:8" ht="16">
+    <row r="491" spans="1:8">
       <c r="A491" s="2"/>
       <c r="D491" s="6"/>
       <c r="E491" s="2"/>
@@ -5355,7 +5375,7 @@
       <c r="G491" s="2"/>
       <c r="H491" s="2"/>
     </row>
-    <row r="492" spans="1:8" ht="16">
+    <row r="492" spans="1:8">
       <c r="A492" s="2"/>
       <c r="D492" s="6"/>
       <c r="E492" s="2"/>
@@ -5363,7 +5383,7 @@
       <c r="G492" s="2"/>
       <c r="H492" s="2"/>
     </row>
-    <row r="493" spans="1:8" ht="16">
+    <row r="493" spans="1:8">
       <c r="A493" s="2"/>
       <c r="D493" s="6"/>
       <c r="E493" s="2"/>
@@ -5371,7 +5391,7 @@
       <c r="G493" s="2"/>
       <c r="H493" s="2"/>
     </row>
-    <row r="494" spans="1:8" ht="16">
+    <row r="494" spans="1:8">
       <c r="A494" s="2"/>
       <c r="D494" s="6"/>
       <c r="E494" s="2"/>
@@ -5379,7 +5399,7 @@
       <c r="G494" s="2"/>
       <c r="H494" s="2"/>
     </row>
-    <row r="495" spans="1:8" ht="16">
+    <row r="495" spans="1:8">
       <c r="A495" s="2"/>
       <c r="D495" s="6"/>
       <c r="E495" s="2"/>
@@ -5387,7 +5407,7 @@
       <c r="G495" s="2"/>
       <c r="H495" s="2"/>
     </row>
-    <row r="496" spans="1:8" ht="16">
+    <row r="496" spans="1:8">
       <c r="A496" s="2"/>
       <c r="D496" s="6"/>
       <c r="E496" s="2"/>
@@ -5395,7 +5415,7 @@
       <c r="G496" s="2"/>
       <c r="H496" s="2"/>
     </row>
-    <row r="497" spans="1:8" ht="16">
+    <row r="497" spans="1:8">
       <c r="A497" s="2"/>
       <c r="D497" s="6"/>
       <c r="E497" s="2"/>
@@ -5403,7 +5423,7 @@
       <c r="G497" s="2"/>
       <c r="H497" s="2"/>
     </row>
-    <row r="498" spans="1:8" ht="16">
+    <row r="498" spans="1:8">
       <c r="A498" s="2"/>
       <c r="D498" s="6"/>
       <c r="E498" s="2"/>
@@ -5411,7 +5431,7 @@
       <c r="G498" s="2"/>
       <c r="H498" s="2"/>
     </row>
-    <row r="499" spans="1:8" ht="16">
+    <row r="499" spans="1:8">
       <c r="A499" s="2"/>
       <c r="D499" s="6"/>
       <c r="E499" s="2"/>
@@ -5419,7 +5439,7 @@
       <c r="G499" s="2"/>
       <c r="H499" s="2"/>
     </row>
-    <row r="500" spans="1:8" ht="16">
+    <row r="500" spans="1:8">
       <c r="A500" s="2"/>
       <c r="D500" s="6"/>
       <c r="E500" s="2"/>
@@ -5427,7 +5447,7 @@
       <c r="G500" s="2"/>
       <c r="H500" s="2"/>
     </row>
-    <row r="501" spans="1:8" ht="16">
+    <row r="501" spans="1:8">
       <c r="A501" s="2"/>
       <c r="D501" s="6"/>
       <c r="E501" s="2"/>
@@ -5435,7 +5455,7 @@
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
     </row>
-    <row r="502" spans="1:8" ht="16">
+    <row r="502" spans="1:8">
       <c r="A502" s="2"/>
       <c r="D502" s="6"/>
       <c r="E502" s="2"/>
@@ -5443,7 +5463,7 @@
       <c r="G502" s="2"/>
       <c r="H502" s="2"/>
     </row>
-    <row r="503" spans="1:8" ht="16">
+    <row r="503" spans="1:8">
       <c r="A503" s="2"/>
       <c r="D503" s="6"/>
       <c r="E503" s="2"/>
@@ -5451,7 +5471,7 @@
       <c r="G503" s="2"/>
       <c r="H503" s="2"/>
     </row>
-    <row r="504" spans="1:8" ht="16">
+    <row r="504" spans="1:8">
       <c r="A504" s="2"/>
       <c r="D504" s="6"/>
       <c r="E504" s="2"/>
@@ -5459,7 +5479,7 @@
       <c r="G504" s="2"/>
       <c r="H504" s="2"/>
     </row>
-    <row r="505" spans="1:8" ht="16">
+    <row r="505" spans="1:8">
       <c r="A505" s="2"/>
       <c r="D505" s="6"/>
       <c r="E505" s="2"/>
@@ -5467,7 +5487,7 @@
       <c r="G505" s="2"/>
       <c r="H505" s="2"/>
     </row>
-    <row r="506" spans="1:8" ht="16">
+    <row r="506" spans="1:8">
       <c r="A506" s="2"/>
       <c r="D506" s="6"/>
       <c r="E506" s="2"/>
@@ -5475,7 +5495,7 @@
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
     </row>
-    <row r="507" spans="1:8" ht="16">
+    <row r="507" spans="1:8">
       <c r="A507" s="2"/>
       <c r="D507" s="6"/>
       <c r="E507" s="2"/>
@@ -5483,7 +5503,7 @@
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
     </row>
-    <row r="508" spans="1:8" ht="16">
+    <row r="508" spans="1:8">
       <c r="A508" s="2"/>
       <c r="D508" s="6"/>
       <c r="E508" s="2"/>
@@ -5491,7 +5511,7 @@
       <c r="G508" s="2"/>
       <c r="H508" s="2"/>
     </row>
-    <row r="509" spans="1:8" ht="16">
+    <row r="509" spans="1:8">
       <c r="A509" s="2"/>
       <c r="D509" s="6"/>
       <c r="E509" s="2"/>
@@ -5499,7 +5519,7 @@
       <c r="G509" s="2"/>
       <c r="H509" s="2"/>
     </row>
-    <row r="510" spans="1:8" ht="16">
+    <row r="510" spans="1:8">
       <c r="A510" s="2"/>
       <c r="D510" s="6"/>
       <c r="E510" s="2"/>
@@ -5507,7 +5527,7 @@
       <c r="G510" s="2"/>
       <c r="H510" s="2"/>
     </row>
-    <row r="511" spans="1:8" ht="16">
+    <row r="511" spans="1:8">
       <c r="A511" s="2"/>
       <c r="D511" s="6"/>
       <c r="E511" s="2"/>
@@ -5515,7 +5535,7 @@
       <c r="G511" s="2"/>
       <c r="H511" s="2"/>
     </row>
-    <row r="512" spans="1:8" ht="16">
+    <row r="512" spans="1:8">
       <c r="A512" s="2"/>
       <c r="D512" s="6"/>
       <c r="E512" s="2"/>
@@ -5523,7 +5543,7 @@
       <c r="G512" s="2"/>
       <c r="H512" s="2"/>
     </row>
-    <row r="513" spans="1:8" ht="16">
+    <row r="513" spans="1:8">
       <c r="A513" s="2"/>
       <c r="D513" s="6"/>
       <c r="E513" s="2"/>
@@ -5531,7 +5551,7 @@
       <c r="G513" s="2"/>
       <c r="H513" s="2"/>
     </row>
-    <row r="514" spans="1:8" ht="16">
+    <row r="514" spans="1:8">
       <c r="A514" s="2"/>
       <c r="D514" s="6"/>
       <c r="E514" s="2"/>
@@ -5539,7 +5559,7 @@
       <c r="G514" s="2"/>
       <c r="H514" s="2"/>
     </row>
-    <row r="515" spans="1:8" ht="16">
+    <row r="515" spans="1:8">
       <c r="A515" s="2"/>
       <c r="D515" s="6"/>
       <c r="E515" s="2"/>
@@ -5547,7 +5567,7 @@
       <c r="G515" s="2"/>
       <c r="H515" s="2"/>
     </row>
-    <row r="516" spans="1:8" ht="16">
+    <row r="516" spans="1:8">
       <c r="A516" s="2"/>
       <c r="D516" s="6"/>
       <c r="E516" s="2"/>
@@ -5555,7 +5575,7 @@
       <c r="G516" s="2"/>
       <c r="H516" s="2"/>
     </row>
-    <row r="517" spans="1:8" ht="16">
+    <row r="517" spans="1:8">
       <c r="A517" s="2"/>
       <c r="D517" s="6"/>
       <c r="E517" s="2"/>
@@ -5563,7 +5583,7 @@
       <c r="G517" s="2"/>
       <c r="H517" s="2"/>
     </row>
-    <row r="518" spans="1:8" ht="16">
+    <row r="518" spans="1:8">
       <c r="A518" s="2"/>
       <c r="D518" s="6"/>
       <c r="E518" s="2"/>
@@ -5571,7 +5591,7 @@
       <c r="G518" s="2"/>
       <c r="H518" s="2"/>
     </row>
-    <row r="519" spans="1:8" ht="16">
+    <row r="519" spans="1:8">
       <c r="A519" s="2"/>
       <c r="D519" s="6"/>
       <c r="E519" s="2"/>
@@ -5579,7 +5599,7 @@
       <c r="G519" s="2"/>
       <c r="H519" s="2"/>
     </row>
-    <row r="520" spans="1:8" ht="16">
+    <row r="520" spans="1:8">
       <c r="A520" s="2"/>
       <c r="D520" s="6"/>
       <c r="E520" s="2"/>
@@ -5587,7 +5607,7 @@
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
     </row>
-    <row r="521" spans="1:8" ht="16">
+    <row r="521" spans="1:8">
       <c r="A521" s="2"/>
       <c r="D521" s="6"/>
       <c r="E521" s="2"/>
@@ -5595,7 +5615,7 @@
       <c r="G521" s="2"/>
       <c r="H521" s="2"/>
     </row>
-    <row r="522" spans="1:8" ht="16">
+    <row r="522" spans="1:8">
       <c r="A522" s="2"/>
       <c r="D522" s="6"/>
       <c r="E522" s="2"/>
@@ -5603,7 +5623,7 @@
       <c r="G522" s="2"/>
       <c r="H522" s="2"/>
     </row>
-    <row r="523" spans="1:8" ht="16">
+    <row r="523" spans="1:8">
       <c r="A523" s="2"/>
       <c r="D523" s="6"/>
       <c r="E523" s="2"/>
@@ -5611,7 +5631,7 @@
       <c r="G523" s="2"/>
       <c r="H523" s="2"/>
     </row>
-    <row r="524" spans="1:8" ht="16">
+    <row r="524" spans="1:8">
       <c r="A524" s="2"/>
       <c r="D524" s="6"/>
       <c r="E524" s="2"/>
@@ -5619,7 +5639,7 @@
       <c r="G524" s="2"/>
       <c r="H524" s="2"/>
     </row>
-    <row r="525" spans="1:8" ht="16">
+    <row r="525" spans="1:8">
       <c r="A525" s="2"/>
       <c r="D525" s="6"/>
       <c r="E525" s="2"/>
@@ -5627,7 +5647,7 @@
       <c r="G525" s="2"/>
       <c r="H525" s="2"/>
     </row>
-    <row r="526" spans="1:8" ht="16">
+    <row r="526" spans="1:8">
       <c r="A526" s="2"/>
       <c r="D526" s="6"/>
       <c r="E526" s="2"/>
@@ -5635,7 +5655,7 @@
       <c r="G526" s="2"/>
       <c r="H526" s="2"/>
     </row>
-    <row r="527" spans="1:8" ht="16">
+    <row r="527" spans="1:8">
       <c r="A527" s="2"/>
       <c r="D527" s="6"/>
       <c r="E527" s="2"/>
@@ -5643,7 +5663,7 @@
       <c r="G527" s="2"/>
       <c r="H527" s="2"/>
     </row>
-    <row r="528" spans="1:8" ht="16">
+    <row r="528" spans="1:8">
       <c r="A528" s="2"/>
       <c r="D528" s="6"/>
       <c r="E528" s="2"/>
@@ -5651,7 +5671,7 @@
       <c r="G528" s="2"/>
       <c r="H528" s="2"/>
     </row>
-    <row r="529" spans="1:8" ht="16">
+    <row r="529" spans="1:8">
       <c r="A529" s="2"/>
       <c r="D529" s="6"/>
       <c r="E529" s="2"/>
@@ -5659,7 +5679,7 @@
       <c r="G529" s="2"/>
       <c r="H529" s="2"/>
     </row>
-    <row r="530" spans="1:8" ht="16">
+    <row r="530" spans="1:8">
       <c r="A530" s="2"/>
       <c r="D530" s="6"/>
       <c r="E530" s="2"/>
@@ -5667,7 +5687,7 @@
       <c r="G530" s="2"/>
       <c r="H530" s="2"/>
     </row>
-    <row r="531" spans="1:8" ht="16">
+    <row r="531" spans="1:8">
       <c r="A531" s="2"/>
       <c r="D531" s="6"/>
       <c r="E531" s="2"/>
@@ -5675,7 +5695,7 @@
       <c r="G531" s="2"/>
       <c r="H531" s="2"/>
     </row>
-    <row r="532" spans="1:8" ht="16">
+    <row r="532" spans="1:8">
       <c r="A532" s="2"/>
       <c r="D532" s="6"/>
       <c r="E532" s="2"/>
@@ -5683,7 +5703,7 @@
       <c r="G532" s="2"/>
       <c r="H532" s="2"/>
     </row>
-    <row r="533" spans="1:8" ht="16">
+    <row r="533" spans="1:8">
       <c r="A533" s="2"/>
       <c r="D533" s="6"/>
       <c r="E533" s="2"/>
@@ -5691,7 +5711,7 @@
       <c r="G533" s="2"/>
       <c r="H533" s="2"/>
     </row>
-    <row r="534" spans="1:8" ht="16">
+    <row r="534" spans="1:8">
       <c r="A534" s="2"/>
       <c r="D534" s="6"/>
       <c r="E534" s="2"/>
@@ -5699,7 +5719,7 @@
       <c r="G534" s="2"/>
       <c r="H534" s="2"/>
     </row>
-    <row r="535" spans="1:8" ht="16">
+    <row r="535" spans="1:8">
       <c r="A535" s="2"/>
       <c r="D535" s="6"/>
       <c r="E535" s="2"/>
@@ -5707,7 +5727,7 @@
       <c r="G535" s="2"/>
       <c r="H535" s="2"/>
     </row>
-    <row r="536" spans="1:8" ht="16">
+    <row r="536" spans="1:8">
       <c r="A536" s="2"/>
       <c r="D536" s="6"/>
       <c r="E536" s="2"/>
@@ -5715,7 +5735,7 @@
       <c r="G536" s="2"/>
       <c r="H536" s="2"/>
     </row>
-    <row r="537" spans="1:8" ht="16">
+    <row r="537" spans="1:8">
       <c r="A537" s="2"/>
       <c r="D537" s="6"/>
       <c r="E537" s="2"/>
@@ -5723,7 +5743,7 @@
       <c r="G537" s="2"/>
       <c r="H537" s="2"/>
     </row>
-    <row r="538" spans="1:8" ht="16">
+    <row r="538" spans="1:8">
       <c r="A538" s="2"/>
       <c r="D538" s="6"/>
       <c r="E538" s="2"/>
@@ -5731,7 +5751,7 @@
       <c r="G538" s="2"/>
       <c r="H538" s="2"/>
     </row>
-    <row r="539" spans="1:8" ht="16">
+    <row r="539" spans="1:8">
       <c r="A539" s="2"/>
       <c r="D539" s="6"/>
       <c r="E539" s="2"/>
@@ -5739,7 +5759,7 @@
       <c r="G539" s="2"/>
       <c r="H539" s="2"/>
     </row>
-    <row r="540" spans="1:8" ht="16">
+    <row r="540" spans="1:8">
       <c r="A540" s="2"/>
       <c r="D540" s="6"/>
       <c r="E540" s="2"/>
@@ -5747,7 +5767,7 @@
       <c r="G540" s="2"/>
       <c r="H540" s="2"/>
     </row>
-    <row r="541" spans="1:8" ht="16">
+    <row r="541" spans="1:8">
       <c r="A541" s="2"/>
       <c r="D541" s="6"/>
       <c r="E541" s="2"/>
@@ -5755,7 +5775,7 @@
       <c r="G541" s="2"/>
       <c r="H541" s="2"/>
     </row>
-    <row r="542" spans="1:8" ht="16">
+    <row r="542" spans="1:8">
       <c r="A542" s="2"/>
       <c r="D542" s="6"/>
       <c r="E542" s="2"/>
@@ -5763,7 +5783,7 @@
       <c r="G542" s="2"/>
       <c r="H542" s="2"/>
     </row>
-    <row r="543" spans="1:8" ht="16">
+    <row r="543" spans="1:8">
       <c r="A543" s="2"/>
       <c r="D543" s="6"/>
       <c r="E543" s="2"/>
@@ -5771,7 +5791,7 @@
       <c r="G543" s="2"/>
       <c r="H543" s="2"/>
     </row>
-    <row r="544" spans="1:8" ht="16">
+    <row r="544" spans="1:8">
       <c r="A544" s="2"/>
       <c r="D544" s="6"/>
       <c r="E544" s="2"/>
@@ -5779,7 +5799,7 @@
       <c r="G544" s="2"/>
       <c r="H544" s="2"/>
     </row>
-    <row r="545" spans="1:8" ht="16">
+    <row r="545" spans="1:8">
       <c r="A545" s="2"/>
       <c r="D545" s="6"/>
       <c r="E545" s="2"/>
@@ -5787,7 +5807,7 @@
       <c r="G545" s="2"/>
       <c r="H545" s="2"/>
     </row>
-    <row r="546" spans="1:8" ht="16">
+    <row r="546" spans="1:8">
       <c r="A546" s="2"/>
       <c r="D546" s="6"/>
       <c r="E546" s="2"/>
@@ -5795,7 +5815,7 @@
       <c r="G546" s="2"/>
       <c r="H546" s="2"/>
     </row>
-    <row r="547" spans="1:8" ht="16">
+    <row r="547" spans="1:8">
       <c r="A547" s="2"/>
       <c r="D547" s="6"/>
       <c r="E547" s="2"/>
@@ -5803,7 +5823,7 @@
       <c r="G547" s="2"/>
       <c r="H547" s="2"/>
     </row>
-    <row r="548" spans="1:8" ht="16">
+    <row r="548" spans="1:8">
       <c r="A548" s="2"/>
       <c r="D548" s="6"/>
       <c r="E548" s="2"/>
@@ -5811,7 +5831,7 @@
       <c r="G548" s="2"/>
       <c r="H548" s="2"/>
     </row>
-    <row r="549" spans="1:8" ht="16">
+    <row r="549" spans="1:8">
       <c r="A549" s="2"/>
       <c r="D549" s="6"/>
       <c r="E549" s="2"/>
@@ -5819,7 +5839,7 @@
       <c r="G549" s="2"/>
       <c r="H549" s="2"/>
     </row>
-    <row r="550" spans="1:8" ht="16">
+    <row r="550" spans="1:8">
       <c r="A550" s="2"/>
       <c r="D550" s="6"/>
       <c r="E550" s="2"/>
@@ -5827,7 +5847,7 @@
       <c r="G550" s="2"/>
       <c r="H550" s="2"/>
     </row>
-    <row r="551" spans="1:8" ht="16">
+    <row r="551" spans="1:8">
       <c r="A551" s="2"/>
       <c r="D551" s="6"/>
       <c r="E551" s="2"/>
@@ -5835,7 +5855,7 @@
       <c r="G551" s="2"/>
       <c r="H551" s="2"/>
     </row>
-    <row r="552" spans="1:8" ht="16">
+    <row r="552" spans="1:8">
       <c r="A552" s="2"/>
       <c r="D552" s="6"/>
       <c r="E552" s="2"/>
@@ -5843,7 +5863,7 @@
       <c r="G552" s="2"/>
       <c r="H552" s="2"/>
     </row>
-    <row r="553" spans="1:8" ht="16">
+    <row r="553" spans="1:8">
       <c r="A553" s="2"/>
       <c r="D553" s="6"/>
       <c r="E553" s="2"/>
@@ -5851,7 +5871,7 @@
       <c r="G553" s="2"/>
       <c r="H553" s="2"/>
     </row>
-    <row r="554" spans="1:8" ht="16">
+    <row r="554" spans="1:8">
       <c r="A554" s="2"/>
       <c r="D554" s="6"/>
       <c r="E554" s="2"/>
@@ -5859,7 +5879,7 @@
       <c r="G554" s="2"/>
       <c r="H554" s="2"/>
     </row>
-    <row r="555" spans="1:8" ht="16">
+    <row r="555" spans="1:8">
       <c r="A555" s="2"/>
       <c r="D555" s="6"/>
       <c r="E555" s="2"/>
@@ -5867,7 +5887,7 @@
       <c r="G555" s="2"/>
       <c r="H555" s="2"/>
     </row>
-    <row r="556" spans="1:8" ht="16">
+    <row r="556" spans="1:8">
       <c r="A556" s="2"/>
       <c r="D556" s="6"/>
       <c r="E556" s="2"/>
@@ -5875,7 +5895,7 @@
       <c r="G556" s="2"/>
       <c r="H556" s="2"/>
     </row>
-    <row r="557" spans="1:8" ht="16">
+    <row r="557" spans="1:8">
       <c r="A557" s="2"/>
       <c r="D557" s="6"/>
       <c r="E557" s="2"/>
@@ -5883,7 +5903,7 @@
       <c r="G557" s="2"/>
       <c r="H557" s="2"/>
     </row>
-    <row r="558" spans="1:8" ht="16">
+    <row r="558" spans="1:8">
       <c r="A558" s="2"/>
       <c r="D558" s="6"/>
       <c r="E558" s="2"/>
@@ -5891,7 +5911,7 @@
       <c r="G558" s="2"/>
       <c r="H558" s="2"/>
     </row>
-    <row r="559" spans="1:8" ht="16">
+    <row r="559" spans="1:8">
       <c r="A559" s="2"/>
       <c r="D559" s="6"/>
       <c r="E559" s="2"/>
@@ -5899,7 +5919,7 @@
       <c r="G559" s="2"/>
       <c r="H559" s="2"/>
     </row>
-    <row r="560" spans="1:8" ht="16">
+    <row r="560" spans="1:8">
       <c r="A560" s="2"/>
       <c r="D560" s="6"/>
       <c r="E560" s="2"/>
@@ -5907,7 +5927,7 @@
       <c r="G560" s="2"/>
       <c r="H560" s="2"/>
     </row>
-    <row r="561" spans="1:8" ht="16">
+    <row r="561" spans="1:8">
       <c r="A561" s="2"/>
       <c r="D561" s="6"/>
       <c r="E561" s="2"/>
@@ -5915,7 +5935,7 @@
       <c r="G561" s="2"/>
       <c r="H561" s="2"/>
     </row>
-    <row r="562" spans="1:8" ht="16">
+    <row r="562" spans="1:8">
       <c r="A562" s="2"/>
       <c r="D562" s="6"/>
       <c r="E562" s="2"/>
@@ -5923,7 +5943,7 @@
       <c r="G562" s="2"/>
       <c r="H562" s="2"/>
     </row>
-    <row r="563" spans="1:8" ht="16">
+    <row r="563" spans="1:8">
       <c r="A563" s="2"/>
       <c r="D563" s="6"/>
       <c r="E563" s="2"/>
@@ -5931,7 +5951,7 @@
       <c r="G563" s="2"/>
       <c r="H563" s="2"/>
     </row>
-    <row r="564" spans="1:8" ht="16">
+    <row r="564" spans="1:8">
       <c r="A564" s="2"/>
       <c r="D564" s="6"/>
       <c r="E564" s="2"/>
@@ -5939,7 +5959,7 @@
       <c r="G564" s="2"/>
       <c r="H564" s="2"/>
     </row>
-    <row r="565" spans="1:8" ht="16">
+    <row r="565" spans="1:8">
       <c r="A565" s="2"/>
       <c r="D565" s="6"/>
       <c r="E565" s="2"/>
@@ -5947,7 +5967,7 @@
       <c r="G565" s="2"/>
       <c r="H565" s="2"/>
     </row>
-    <row r="566" spans="1:8" ht="16">
+    <row r="566" spans="1:8">
       <c r="A566" s="2"/>
       <c r="D566" s="6"/>
       <c r="E566" s="2"/>
@@ -5955,7 +5975,7 @@
       <c r="G566" s="2"/>
       <c r="H566" s="2"/>
     </row>
-    <row r="567" spans="1:8" ht="16">
+    <row r="567" spans="1:8">
       <c r="A567" s="2"/>
       <c r="D567" s="6"/>
       <c r="E567" s="2"/>
@@ -5963,7 +5983,7 @@
       <c r="G567" s="2"/>
       <c r="H567" s="2"/>
     </row>
-    <row r="568" spans="1:8" ht="16">
+    <row r="568" spans="1:8">
       <c r="A568" s="2"/>
       <c r="D568" s="6"/>
       <c r="E568" s="2"/>
@@ -5971,7 +5991,7 @@
       <c r="G568" s="2"/>
       <c r="H568" s="2"/>
     </row>
-    <row r="569" spans="1:8" ht="16">
+    <row r="569" spans="1:8">
       <c r="A569" s="2"/>
       <c r="D569" s="6"/>
       <c r="E569" s="2"/>
@@ -5979,7 +5999,7 @@
       <c r="G569" s="2"/>
       <c r="H569" s="2"/>
     </row>
-    <row r="570" spans="1:8" ht="16">
+    <row r="570" spans="1:8">
       <c r="A570" s="2"/>
       <c r="D570" s="6"/>
       <c r="E570" s="2"/>
@@ -5987,7 +6007,7 @@
       <c r="G570" s="2"/>
       <c r="H570" s="2"/>
     </row>
-    <row r="571" spans="1:8" ht="16">
+    <row r="571" spans="1:8">
       <c r="A571" s="2"/>
       <c r="D571" s="6"/>
       <c r="E571" s="2"/>
@@ -5995,7 +6015,7 @@
       <c r="G571" s="2"/>
       <c r="H571" s="2"/>
     </row>
-    <row r="572" spans="1:8" ht="16">
+    <row r="572" spans="1:8">
       <c r="A572" s="2"/>
       <c r="D572" s="6"/>
       <c r="E572" s="2"/>
@@ -6003,7 +6023,7 @@
       <c r="G572" s="2"/>
       <c r="H572" s="2"/>
     </row>
-    <row r="573" spans="1:8" ht="16">
+    <row r="573" spans="1:8">
       <c r="A573" s="2"/>
       <c r="D573" s="6"/>
       <c r="E573" s="2"/>
@@ -6011,7 +6031,7 @@
       <c r="G573" s="2"/>
       <c r="H573" s="2"/>
     </row>
-    <row r="574" spans="1:8" ht="16">
+    <row r="574" spans="1:8">
       <c r="A574" s="2"/>
       <c r="D574" s="6"/>
       <c r="E574" s="2"/>
@@ -6019,7 +6039,7 @@
       <c r="G574" s="2"/>
       <c r="H574" s="2"/>
     </row>
-    <row r="575" spans="1:8" ht="16">
+    <row r="575" spans="1:8">
       <c r="A575" s="2"/>
       <c r="D575" s="6"/>
       <c r="E575" s="2"/>
@@ -6027,7 +6047,7 @@
       <c r="G575" s="2"/>
       <c r="H575" s="2"/>
     </row>
-    <row r="576" spans="1:8" ht="16">
+    <row r="576" spans="1:8">
       <c r="A576" s="2"/>
       <c r="D576" s="6"/>
       <c r="E576" s="2"/>
@@ -6035,7 +6055,7 @@
       <c r="G576" s="2"/>
       <c r="H576" s="2"/>
     </row>
-    <row r="577" spans="1:8" ht="16">
+    <row r="577" spans="1:8">
       <c r="A577" s="2"/>
       <c r="D577" s="6"/>
       <c r="E577" s="2"/>
@@ -6043,7 +6063,7 @@
       <c r="G577" s="2"/>
       <c r="H577" s="2"/>
     </row>
-    <row r="578" spans="1:8" ht="16">
+    <row r="578" spans="1:8">
       <c r="A578" s="2"/>
       <c r="D578" s="6"/>
       <c r="E578" s="2"/>
@@ -6051,7 +6071,7 @@
       <c r="G578" s="2"/>
       <c r="H578" s="2"/>
     </row>
-    <row r="579" spans="1:8" ht="16">
+    <row r="579" spans="1:8">
       <c r="A579" s="2"/>
       <c r="D579" s="6"/>
       <c r="E579" s="2"/>
@@ -6059,7 +6079,7 @@
       <c r="G579" s="2"/>
       <c r="H579" s="2"/>
     </row>
-    <row r="580" spans="1:8" ht="16">
+    <row r="580" spans="1:8">
       <c r="A580" s="2"/>
       <c r="D580" s="6"/>
       <c r="E580" s="2"/>
@@ -6067,7 +6087,7 @@
       <c r="G580" s="2"/>
       <c r="H580" s="2"/>
     </row>
-    <row r="581" spans="1:8" ht="16">
+    <row r="581" spans="1:8">
       <c r="A581" s="2"/>
       <c r="D581" s="6"/>
       <c r="E581" s="2"/>
@@ -6075,7 +6095,7 @@
       <c r="G581" s="2"/>
       <c r="H581" s="2"/>
     </row>
-    <row r="582" spans="1:8" ht="16">
+    <row r="582" spans="1:8">
       <c r="A582" s="2"/>
       <c r="D582" s="6"/>
       <c r="E582" s="2"/>
@@ -6083,7 +6103,7 @@
       <c r="G582" s="2"/>
       <c r="H582" s="2"/>
     </row>
-    <row r="583" spans="1:8" ht="16">
+    <row r="583" spans="1:8">
       <c r="A583" s="2"/>
       <c r="D583" s="6"/>
       <c r="E583" s="2"/>
@@ -6091,7 +6111,7 @@
       <c r="G583" s="2"/>
       <c r="H583" s="2"/>
     </row>
-    <row r="584" spans="1:8" ht="16">
+    <row r="584" spans="1:8">
       <c r="A584" s="2"/>
       <c r="D584" s="6"/>
       <c r="E584" s="2"/>
@@ -6099,7 +6119,7 @@
       <c r="G584" s="2"/>
       <c r="H584" s="2"/>
     </row>
-    <row r="585" spans="1:8" ht="16">
+    <row r="585" spans="1:8">
       <c r="A585" s="2"/>
       <c r="D585" s="6"/>
       <c r="E585" s="2"/>
@@ -6107,7 +6127,7 @@
       <c r="G585" s="2"/>
       <c r="H585" s="2"/>
     </row>
-    <row r="586" spans="1:8" ht="16">
+    <row r="586" spans="1:8">
       <c r="A586" s="2"/>
       <c r="D586" s="6"/>
       <c r="E586" s="2"/>
@@ -6115,7 +6135,7 @@
       <c r="G586" s="2"/>
       <c r="H586" s="2"/>
     </row>
-    <row r="587" spans="1:8" ht="16">
+    <row r="587" spans="1:8">
       <c r="A587" s="2"/>
       <c r="D587" s="6"/>
       <c r="E587" s="2"/>
@@ -6123,7 +6143,7 @@
       <c r="G587" s="2"/>
       <c r="H587" s="2"/>
     </row>
-    <row r="588" spans="1:8" ht="16">
+    <row r="588" spans="1:8">
       <c r="A588" s="2"/>
       <c r="D588" s="6"/>
       <c r="E588" s="2"/>
@@ -6131,7 +6151,7 @@
       <c r="G588" s="2"/>
       <c r="H588" s="2"/>
     </row>
-    <row r="589" spans="1:8" ht="16">
+    <row r="589" spans="1:8">
       <c r="A589" s="2"/>
       <c r="D589" s="6"/>
       <c r="E589" s="2"/>
@@ -6139,7 +6159,7 @@
       <c r="G589" s="2"/>
       <c r="H589" s="2"/>
     </row>
-    <row r="590" spans="1:8" ht="16">
+    <row r="590" spans="1:8">
       <c r="A590" s="2"/>
       <c r="D590" s="6"/>
       <c r="E590" s="2"/>
@@ -6147,7 +6167,7 @@
       <c r="G590" s="2"/>
       <c r="H590" s="2"/>
     </row>
-    <row r="591" spans="1:8" ht="16">
+    <row r="591" spans="1:8">
       <c r="A591" s="2"/>
       <c r="D591" s="6"/>
       <c r="E591" s="2"/>
@@ -6155,7 +6175,7 @@
       <c r="G591" s="2"/>
       <c r="H591" s="2"/>
     </row>
-    <row r="592" spans="1:8" ht="16">
+    <row r="592" spans="1:8">
       <c r="A592" s="2"/>
       <c r="D592" s="6"/>
       <c r="E592" s="2"/>
@@ -6163,7 +6183,7 @@
       <c r="G592" s="2"/>
       <c r="H592" s="2"/>
     </row>
-    <row r="593" spans="1:8" ht="16">
+    <row r="593" spans="1:8">
       <c r="A593" s="2"/>
       <c r="D593" s="6"/>
       <c r="E593" s="2"/>
@@ -6171,7 +6191,7 @@
       <c r="G593" s="2"/>
       <c r="H593" s="2"/>
     </row>
-    <row r="594" spans="1:8" ht="16">
+    <row r="594" spans="1:8">
       <c r="A594" s="2"/>
       <c r="D594" s="6"/>
       <c r="E594" s="2"/>
@@ -6179,7 +6199,7 @@
       <c r="G594" s="2"/>
       <c r="H594" s="2"/>
     </row>
-    <row r="595" spans="1:8" ht="16">
+    <row r="595" spans="1:8">
       <c r="A595" s="2"/>
       <c r="D595" s="6"/>
       <c r="E595" s="2"/>
@@ -6187,7 +6207,7 @@
       <c r="G595" s="2"/>
       <c r="H595" s="2"/>
     </row>
-    <row r="596" spans="1:8" ht="16">
+    <row r="596" spans="1:8">
       <c r="A596" s="2"/>
       <c r="D596" s="6"/>
       <c r="E596" s="2"/>
@@ -6195,7 +6215,7 @@
       <c r="G596" s="2"/>
       <c r="H596" s="2"/>
     </row>
-    <row r="597" spans="1:8" ht="16">
+    <row r="597" spans="1:8">
       <c r="A597" s="2"/>
       <c r="D597" s="6"/>
       <c r="E597" s="2"/>
@@ -6203,7 +6223,7 @@
       <c r="G597" s="2"/>
       <c r="H597" s="2"/>
     </row>
-    <row r="598" spans="1:8" ht="16">
+    <row r="598" spans="1:8">
       <c r="A598" s="2"/>
       <c r="D598" s="6"/>
       <c r="E598" s="2"/>
@@ -6211,7 +6231,7 @@
       <c r="G598" s="2"/>
       <c r="H598" s="2"/>
     </row>
-    <row r="599" spans="1:8" ht="16">
+    <row r="599" spans="1:8">
       <c r="A599" s="2"/>
       <c r="D599" s="6"/>
       <c r="E599" s="2"/>
@@ -6219,7 +6239,7 @@
       <c r="G599" s="2"/>
       <c r="H599" s="2"/>
     </row>
-    <row r="600" spans="1:8" ht="16">
+    <row r="600" spans="1:8">
       <c r="A600" s="2"/>
       <c r="D600" s="6"/>
       <c r="E600" s="2"/>
@@ -6227,7 +6247,7 @@
       <c r="G600" s="2"/>
       <c r="H600" s="2"/>
     </row>
-    <row r="601" spans="1:8" ht="16">
+    <row r="601" spans="1:8">
       <c r="A601" s="2"/>
       <c r="D601" s="6"/>
       <c r="E601" s="2"/>
@@ -6235,7 +6255,7 @@
       <c r="G601" s="2"/>
       <c r="H601" s="2"/>
     </row>
-    <row r="602" spans="1:8" ht="16">
+    <row r="602" spans="1:8">
       <c r="A602" s="2"/>
       <c r="D602" s="6"/>
       <c r="E602" s="2"/>
@@ -6243,7 +6263,7 @@
       <c r="G602" s="2"/>
       <c r="H602" s="2"/>
     </row>
-    <row r="603" spans="1:8" ht="16">
+    <row r="603" spans="1:8">
       <c r="A603" s="2"/>
       <c r="D603" s="6"/>
       <c r="E603" s="2"/>
@@ -6251,7 +6271,7 @@
       <c r="G603" s="2"/>
       <c r="H603" s="2"/>
     </row>
-    <row r="604" spans="1:8" ht="16">
+    <row r="604" spans="1:8">
       <c r="A604" s="2"/>
       <c r="D604" s="6"/>
       <c r="E604" s="2"/>
@@ -6259,7 +6279,7 @@
       <c r="G604" s="2"/>
       <c r="H604" s="2"/>
     </row>
-    <row r="605" spans="1:8" ht="16">
+    <row r="605" spans="1:8">
       <c r="A605" s="2"/>
       <c r="D605" s="6"/>
       <c r="E605" s="2"/>
@@ -6267,7 +6287,7 @@
       <c r="G605" s="2"/>
       <c r="H605" s="2"/>
     </row>
-    <row r="606" spans="1:8" ht="16">
+    <row r="606" spans="1:8">
       <c r="A606" s="2"/>
       <c r="D606" s="6"/>
       <c r="E606" s="2"/>
@@ -6275,7 +6295,7 @@
       <c r="G606" s="2"/>
       <c r="H606" s="2"/>
     </row>
-    <row r="607" spans="1:8" ht="16">
+    <row r="607" spans="1:8">
       <c r="A607" s="2"/>
       <c r="D607" s="6"/>
       <c r="E607" s="2"/>
@@ -6283,7 +6303,7 @@
       <c r="G607" s="2"/>
       <c r="H607" s="2"/>
     </row>
-    <row r="608" spans="1:8" ht="16">
+    <row r="608" spans="1:8">
       <c r="A608" s="2"/>
       <c r="D608" s="6"/>
       <c r="E608" s="2"/>
@@ -6291,7 +6311,7 @@
       <c r="G608" s="2"/>
       <c r="H608" s="2"/>
     </row>
-    <row r="609" spans="1:8" ht="16">
+    <row r="609" spans="1:8">
       <c r="A609" s="2"/>
       <c r="D609" s="6"/>
       <c r="E609" s="2"/>
@@ -6299,7 +6319,7 @@
       <c r="G609" s="2"/>
       <c r="H609" s="2"/>
     </row>
-    <row r="610" spans="1:8" ht="16">
+    <row r="610" spans="1:8">
       <c r="A610" s="2"/>
       <c r="D610" s="6"/>
       <c r="E610" s="2"/>
@@ -6307,7 +6327,7 @@
       <c r="G610" s="2"/>
       <c r="H610" s="2"/>
     </row>
-    <row r="611" spans="1:8" ht="16">
+    <row r="611" spans="1:8">
       <c r="A611" s="2"/>
       <c r="D611" s="6"/>
       <c r="E611" s="2"/>
@@ -6315,7 +6335,7 @@
       <c r="G611" s="2"/>
       <c r="H611" s="2"/>
     </row>
-    <row r="612" spans="1:8" ht="16">
+    <row r="612" spans="1:8">
       <c r="A612" s="2"/>
       <c r="D612" s="6"/>
       <c r="E612" s="2"/>
@@ -6323,7 +6343,7 @@
       <c r="G612" s="2"/>
       <c r="H612" s="2"/>
     </row>
-    <row r="613" spans="1:8" ht="16">
+    <row r="613" spans="1:8">
       <c r="A613" s="2"/>
       <c r="D613" s="6"/>
       <c r="E613" s="2"/>
@@ -6331,7 +6351,7 @@
       <c r="G613" s="2"/>
       <c r="H613" s="2"/>
     </row>
-    <row r="614" spans="1:8" ht="16">
+    <row r="614" spans="1:8">
       <c r="A614" s="2"/>
       <c r="D614" s="6"/>
       <c r="E614" s="2"/>
@@ -6339,7 +6359,7 @@
       <c r="G614" s="2"/>
       <c r="H614" s="2"/>
     </row>
-    <row r="615" spans="1:8" ht="16">
+    <row r="615" spans="1:8">
       <c r="A615" s="2"/>
       <c r="D615" s="6"/>
       <c r="E615" s="2"/>
@@ -6347,7 +6367,7 @@
       <c r="G615" s="2"/>
       <c r="H615" s="2"/>
     </row>
-    <row r="616" spans="1:8" ht="16">
+    <row r="616" spans="1:8">
       <c r="A616" s="2"/>
       <c r="D616" s="6"/>
       <c r="E616" s="2"/>
@@ -6355,7 +6375,7 @@
       <c r="G616" s="2"/>
       <c r="H616" s="2"/>
     </row>
-    <row r="617" spans="1:8" ht="16">
+    <row r="617" spans="1:8">
       <c r="A617" s="2"/>
       <c r="D617" s="6"/>
       <c r="E617" s="2"/>
@@ -6363,7 +6383,7 @@
       <c r="G617" s="2"/>
       <c r="H617" s="2"/>
     </row>
-    <row r="618" spans="1:8" ht="16">
+    <row r="618" spans="1:8">
       <c r="A618" s="2"/>
       <c r="D618" s="6"/>
       <c r="E618" s="2"/>
@@ -6371,7 +6391,7 @@
       <c r="G618" s="2"/>
       <c r="H618" s="2"/>
     </row>
-    <row r="619" spans="1:8" ht="16">
+    <row r="619" spans="1:8">
       <c r="A619" s="2"/>
       <c r="D619" s="6"/>
       <c r="E619" s="2"/>
@@ -6379,7 +6399,7 @@
       <c r="G619" s="2"/>
       <c r="H619" s="2"/>
     </row>
-    <row r="620" spans="1:8" ht="16">
+    <row r="620" spans="1:8">
       <c r="A620" s="2"/>
       <c r="D620" s="6"/>
       <c r="E620" s="2"/>
@@ -6387,7 +6407,7 @@
       <c r="G620" s="2"/>
       <c r="H620" s="2"/>
     </row>
-    <row r="621" spans="1:8" ht="16">
+    <row r="621" spans="1:8">
       <c r="A621" s="2"/>
       <c r="D621" s="6"/>
       <c r="E621" s="2"/>
@@ -6395,7 +6415,7 @@
       <c r="G621" s="2"/>
       <c r="H621" s="2"/>
     </row>
-    <row r="622" spans="1:8" ht="16">
+    <row r="622" spans="1:8">
       <c r="A622" s="2"/>
       <c r="D622" s="6"/>
       <c r="E622" s="2"/>
@@ -6403,7 +6423,7 @@
       <c r="G622" s="2"/>
       <c r="H622" s="2"/>
     </row>
-    <row r="623" spans="1:8" ht="16">
+    <row r="623" spans="1:8">
       <c r="A623" s="2"/>
       <c r="D623" s="6"/>
       <c r="E623" s="2"/>
@@ -6411,7 +6431,7 @@
       <c r="G623" s="2"/>
       <c r="H623" s="2"/>
     </row>
-    <row r="624" spans="1:8" ht="16">
+    <row r="624" spans="1:8">
       <c r="A624" s="2"/>
       <c r="D624" s="6"/>
       <c r="E624" s="2"/>
@@ -6419,7 +6439,7 @@
       <c r="G624" s="2"/>
       <c r="H624" s="2"/>
     </row>
-    <row r="625" spans="1:8" ht="16">
+    <row r="625" spans="1:8">
       <c r="A625" s="2"/>
       <c r="D625" s="6"/>
       <c r="E625" s="2"/>
@@ -6427,7 +6447,7 @@
       <c r="G625" s="2"/>
       <c r="H625" s="2"/>
     </row>
-    <row r="626" spans="1:8" ht="16">
+    <row r="626" spans="1:8">
       <c r="A626" s="2"/>
       <c r="D626" s="6"/>
       <c r="E626" s="2"/>
@@ -6435,7 +6455,7 @@
       <c r="G626" s="2"/>
       <c r="H626" s="2"/>
     </row>
-    <row r="627" spans="1:8" ht="16">
+    <row r="627" spans="1:8">
       <c r="A627" s="2"/>
       <c r="D627" s="6"/>
       <c r="E627" s="2"/>
@@ -6443,7 +6463,7 @@
       <c r="G627" s="2"/>
       <c r="H627" s="2"/>
     </row>
-    <row r="628" spans="1:8" ht="16">
+    <row r="628" spans="1:8">
       <c r="A628" s="2"/>
       <c r="D628" s="6"/>
       <c r="E628" s="2"/>
@@ -6451,7 +6471,7 @@
       <c r="G628" s="2"/>
       <c r="H628" s="2"/>
     </row>
-    <row r="629" spans="1:8" ht="16">
+    <row r="629" spans="1:8">
       <c r="A629" s="2"/>
       <c r="D629" s="6"/>
       <c r="E629" s="2"/>
@@ -6459,7 +6479,7 @@
       <c r="G629" s="2"/>
       <c r="H629" s="2"/>
     </row>
-    <row r="630" spans="1:8" ht="16">
+    <row r="630" spans="1:8">
       <c r="A630" s="2"/>
       <c r="D630" s="6"/>
       <c r="E630" s="2"/>
@@ -6467,7 +6487,7 @@
       <c r="G630" s="2"/>
       <c r="H630" s="2"/>
     </row>
-    <row r="631" spans="1:8" ht="16">
+    <row r="631" spans="1:8">
       <c r="A631" s="2"/>
       <c r="D631" s="6"/>
       <c r="E631" s="2"/>
@@ -6475,7 +6495,7 @@
       <c r="G631" s="2"/>
       <c r="H631" s="2"/>
     </row>
-    <row r="632" spans="1:8" ht="16">
+    <row r="632" spans="1:8">
       <c r="A632" s="2"/>
       <c r="D632" s="6"/>
       <c r="E632" s="2"/>
@@ -6483,7 +6503,7 @@
       <c r="G632" s="2"/>
       <c r="H632" s="2"/>
     </row>
-    <row r="633" spans="1:8" ht="16">
+    <row r="633" spans="1:8">
       <c r="A633" s="2"/>
       <c r="D633" s="6"/>
       <c r="E633" s="2"/>
@@ -6491,7 +6511,7 @@
       <c r="G633" s="2"/>
       <c r="H633" s="2"/>
     </row>
-    <row r="634" spans="1:8" ht="16">
+    <row r="634" spans="1:8">
       <c r="A634" s="2"/>
       <c r="D634" s="6"/>
       <c r="E634" s="2"/>
@@ -6499,7 +6519,7 @@
       <c r="G634" s="2"/>
       <c r="H634" s="2"/>
     </row>
-    <row r="635" spans="1:8" ht="16">
+    <row r="635" spans="1:8">
       <c r="A635" s="2"/>
       <c r="D635" s="6"/>
       <c r="E635" s="2"/>
@@ -6507,7 +6527,7 @@
       <c r="G635" s="2"/>
       <c r="H635" s="2"/>
     </row>
-    <row r="636" spans="1:8" ht="16">
+    <row r="636" spans="1:8">
       <c r="A636" s="2"/>
       <c r="D636" s="6"/>
       <c r="E636" s="2"/>
@@ -6515,7 +6535,7 @@
       <c r="G636" s="2"/>
       <c r="H636" s="2"/>
     </row>
-    <row r="637" spans="1:8" ht="16">
+    <row r="637" spans="1:8">
       <c r="A637" s="2"/>
       <c r="D637" s="6"/>
       <c r="E637" s="2"/>
@@ -6523,7 +6543,7 @@
       <c r="G637" s="2"/>
       <c r="H637" s="2"/>
     </row>
-    <row r="638" spans="1:8" ht="16">
+    <row r="638" spans="1:8">
       <c r="A638" s="2"/>
       <c r="D638" s="6"/>
       <c r="E638" s="2"/>
@@ -6531,7 +6551,7 @@
       <c r="G638" s="2"/>
       <c r="H638" s="2"/>
     </row>
-    <row r="639" spans="1:8" ht="16">
+    <row r="639" spans="1:8">
       <c r="A639" s="2"/>
       <c r="D639" s="6"/>
       <c r="E639" s="2"/>
@@ -6539,7 +6559,7 @@
       <c r="G639" s="2"/>
       <c r="H639" s="2"/>
     </row>
-    <row r="640" spans="1:8" ht="16">
+    <row r="640" spans="1:8">
       <c r="A640" s="2"/>
       <c r="D640" s="6"/>
       <c r="E640" s="2"/>
@@ -6547,7 +6567,7 @@
       <c r="G640" s="2"/>
       <c r="H640" s="2"/>
     </row>
-    <row r="641" spans="1:8" ht="16">
+    <row r="641" spans="1:8">
       <c r="A641" s="2"/>
       <c r="D641" s="6"/>
       <c r="E641" s="2"/>
@@ -6555,7 +6575,7 @@
       <c r="G641" s="2"/>
       <c r="H641" s="2"/>
     </row>
-    <row r="642" spans="1:8" ht="16">
+    <row r="642" spans="1:8">
       <c r="A642" s="2"/>
       <c r="D642" s="6"/>
       <c r="E642" s="2"/>
@@ -6563,7 +6583,7 @@
       <c r="G642" s="2"/>
       <c r="H642" s="2"/>
     </row>
-    <row r="643" spans="1:8" ht="16">
+    <row r="643" spans="1:8">
       <c r="A643" s="2"/>
       <c r="D643" s="6"/>
       <c r="E643" s="2"/>
@@ -6571,7 +6591,7 @@
       <c r="G643" s="2"/>
       <c r="H643" s="2"/>
     </row>
-    <row r="644" spans="1:8" ht="16">
+    <row r="644" spans="1:8">
       <c r="A644" s="2"/>
       <c r="D644" s="6"/>
       <c r="E644" s="2"/>
@@ -6579,7 +6599,7 @@
       <c r="G644" s="2"/>
       <c r="H644" s="2"/>
     </row>
-    <row r="645" spans="1:8" ht="16">
+    <row r="645" spans="1:8">
       <c r="A645" s="2"/>
       <c r="D645" s="6"/>
       <c r="E645" s="2"/>
@@ -6587,7 +6607,7 @@
       <c r="G645" s="2"/>
       <c r="H645" s="2"/>
     </row>
-    <row r="646" spans="1:8" ht="16">
+    <row r="646" spans="1:8">
       <c r="A646" s="2"/>
       <c r="D646" s="6"/>
       <c r="E646" s="2"/>
@@ -6595,7 +6615,7 @@
       <c r="G646" s="2"/>
       <c r="H646" s="2"/>
     </row>
-    <row r="647" spans="1:8" ht="16">
+    <row r="647" spans="1:8">
       <c r="A647" s="2"/>
       <c r="D647" s="6"/>
       <c r="E647" s="2"/>
@@ -6603,7 +6623,7 @@
       <c r="G647" s="2"/>
       <c r="H647" s="2"/>
     </row>
-    <row r="648" spans="1:8" ht="16">
+    <row r="648" spans="1:8">
       <c r="A648" s="2"/>
       <c r="D648" s="6"/>
       <c r="E648" s="2"/>
@@ -6611,7 +6631,7 @@
       <c r="G648" s="2"/>
       <c r="H648" s="2"/>
     </row>
-    <row r="649" spans="1:8" ht="16">
+    <row r="649" spans="1:8">
       <c r="A649" s="2"/>
       <c r="D649" s="6"/>
       <c r="E649" s="2"/>
@@ -6619,7 +6639,7 @@
       <c r="G649" s="2"/>
       <c r="H649" s="2"/>
     </row>
-    <row r="650" spans="1:8" ht="16">
+    <row r="650" spans="1:8">
       <c r="A650" s="2"/>
       <c r="D650" s="6"/>
       <c r="E650" s="2"/>
@@ -6627,7 +6647,7 @@
       <c r="G650" s="2"/>
       <c r="H650" s="2"/>
     </row>
-    <row r="651" spans="1:8" ht="16">
+    <row r="651" spans="1:8">
       <c r="A651" s="2"/>
       <c r="D651" s="6"/>
       <c r="E651" s="2"/>
@@ -6635,7 +6655,7 @@
       <c r="G651" s="2"/>
       <c r="H651" s="2"/>
     </row>
-    <row r="652" spans="1:8" ht="16">
+    <row r="652" spans="1:8">
       <c r="A652" s="2"/>
       <c r="D652" s="6"/>
       <c r="E652" s="2"/>
@@ -6643,7 +6663,7 @@
       <c r="G652" s="2"/>
       <c r="H652" s="2"/>
     </row>
-    <row r="653" spans="1:8" ht="16">
+    <row r="653" spans="1:8">
       <c r="A653" s="2"/>
       <c r="D653" s="6"/>
       <c r="E653" s="2"/>
@@ -6651,7 +6671,7 @@
       <c r="G653" s="2"/>
       <c r="H653" s="2"/>
     </row>
-    <row r="654" spans="1:8" ht="16">
+    <row r="654" spans="1:8">
       <c r="A654" s="2"/>
       <c r="D654" s="6"/>
       <c r="E654" s="2"/>
@@ -6659,7 +6679,7 @@
       <c r="G654" s="2"/>
       <c r="H654" s="2"/>
     </row>
-    <row r="655" spans="1:8" ht="16">
+    <row r="655" spans="1:8">
       <c r="A655" s="2"/>
       <c r="D655" s="6"/>
       <c r="E655" s="2"/>
@@ -6667,7 +6687,7 @@
       <c r="G655" s="2"/>
       <c r="H655" s="2"/>
     </row>
-    <row r="656" spans="1:8" ht="16">
+    <row r="656" spans="1:8">
       <c r="A656" s="2"/>
       <c r="D656" s="6"/>
       <c r="E656" s="2"/>
@@ -6675,7 +6695,7 @@
       <c r="G656" s="2"/>
       <c r="H656" s="2"/>
     </row>
-    <row r="657" spans="1:8" ht="16">
+    <row r="657" spans="1:8">
       <c r="A657" s="2"/>
       <c r="D657" s="6"/>
       <c r="E657" s="2"/>
@@ -6683,7 +6703,7 @@
       <c r="G657" s="2"/>
       <c r="H657" s="2"/>
     </row>
-    <row r="658" spans="1:8" ht="16">
+    <row r="658" spans="1:8">
       <c r="A658" s="2"/>
       <c r="D658" s="6"/>
       <c r="E658" s="2"/>
@@ -6691,7 +6711,7 @@
       <c r="G658" s="2"/>
       <c r="H658" s="2"/>
     </row>
-    <row r="659" spans="1:8" ht="16">
+    <row r="659" spans="1:8">
       <c r="A659" s="2"/>
       <c r="D659" s="6"/>
       <c r="E659" s="2"/>
@@ -6699,7 +6719,7 @@
       <c r="G659" s="2"/>
       <c r="H659" s="2"/>
     </row>
-    <row r="660" spans="1:8" ht="16">
+    <row r="660" spans="1:8">
       <c r="A660" s="2"/>
       <c r="D660" s="6"/>
       <c r="E660" s="2"/>
@@ -6707,7 +6727,7 @@
       <c r="G660" s="2"/>
       <c r="H660" s="2"/>
     </row>
-    <row r="661" spans="1:8" ht="16">
+    <row r="661" spans="1:8">
       <c r="A661" s="2"/>
       <c r="D661" s="6"/>
       <c r="E661" s="2"/>
@@ -6715,7 +6735,7 @@
       <c r="G661" s="2"/>
       <c r="H661" s="2"/>
     </row>
-    <row r="662" spans="1:8" ht="16">
+    <row r="662" spans="1:8">
       <c r="A662" s="2"/>
       <c r="D662" s="6"/>
       <c r="E662" s="2"/>
@@ -6723,7 +6743,7 @@
       <c r="G662" s="2"/>
       <c r="H662" s="2"/>
     </row>
-    <row r="663" spans="1:8" ht="16">
+    <row r="663" spans="1:8">
       <c r="A663" s="2"/>
       <c r="D663" s="6"/>
       <c r="E663" s="2"/>
@@ -6731,7 +6751,7 @@
       <c r="G663" s="2"/>
       <c r="H663" s="2"/>
     </row>
-    <row r="664" spans="1:8" ht="16">
+    <row r="664" spans="1:8">
       <c r="A664" s="2"/>
       <c r="D664" s="6"/>
       <c r="E664" s="2"/>
@@ -6739,7 +6759,7 @@
       <c r="G664" s="2"/>
       <c r="H664" s="2"/>
     </row>
-    <row r="665" spans="1:8" ht="16">
+    <row r="665" spans="1:8">
       <c r="A665" s="2"/>
       <c r="D665" s="6"/>
       <c r="E665" s="2"/>
@@ -6747,7 +6767,7 @@
       <c r="G665" s="2"/>
       <c r="H665" s="2"/>
     </row>
-    <row r="666" spans="1:8" ht="16">
+    <row r="666" spans="1:8">
       <c r="A666" s="2"/>
       <c r="D666" s="6"/>
       <c r="E666" s="2"/>
@@ -6755,7 +6775,7 @@
       <c r="G666" s="2"/>
       <c r="H666" s="2"/>
     </row>
-    <row r="667" spans="1:8" ht="16">
+    <row r="667" spans="1:8">
       <c r="A667" s="2"/>
       <c r="D667" s="6"/>
       <c r="E667" s="2"/>
@@ -6763,7 +6783,7 @@
       <c r="G667" s="2"/>
       <c r="H667" s="2"/>
     </row>
-    <row r="668" spans="1:8" ht="16">
+    <row r="668" spans="1:8">
       <c r="A668" s="2"/>
       <c r="D668" s="6"/>
       <c r="E668" s="2"/>
@@ -6771,7 +6791,7 @@
       <c r="G668" s="2"/>
       <c r="H668" s="2"/>
     </row>
-    <row r="669" spans="1:8" ht="16">
+    <row r="669" spans="1:8">
       <c r="A669" s="2"/>
       <c r="D669" s="6"/>
       <c r="E669" s="2"/>
@@ -6779,7 +6799,7 @@
       <c r="G669" s="2"/>
       <c r="H669" s="2"/>
     </row>
-    <row r="670" spans="1:8" ht="16">
+    <row r="670" spans="1:8">
       <c r="A670" s="2"/>
       <c r="D670" s="6"/>
       <c r="E670" s="2"/>
@@ -6787,7 +6807,7 @@
       <c r="G670" s="2"/>
       <c r="H670" s="2"/>
     </row>
-    <row r="671" spans="1:8" ht="16">
+    <row r="671" spans="1:8">
       <c r="A671" s="2"/>
       <c r="D671" s="6"/>
       <c r="E671" s="2"/>
@@ -6795,7 +6815,7 @@
       <c r="G671" s="2"/>
       <c r="H671" s="2"/>
     </row>
-    <row r="672" spans="1:8" ht="16">
+    <row r="672" spans="1:8">
       <c r="A672" s="2"/>
       <c r="D672" s="6"/>
       <c r="E672" s="2"/>
@@ -6803,7 +6823,7 @@
       <c r="G672" s="2"/>
       <c r="H672" s="2"/>
     </row>
-    <row r="673" spans="1:8" ht="16">
+    <row r="673" spans="1:8">
       <c r="A673" s="2"/>
       <c r="D673" s="6"/>
       <c r="E673" s="2"/>
@@ -6811,7 +6831,7 @@
       <c r="G673" s="2"/>
       <c r="H673" s="2"/>
     </row>
-    <row r="674" spans="1:8" ht="16">
+    <row r="674" spans="1:8">
       <c r="A674" s="2"/>
       <c r="D674" s="6"/>
       <c r="E674" s="2"/>
@@ -6819,7 +6839,7 @@
       <c r="G674" s="2"/>
       <c r="H674" s="2"/>
     </row>
-    <row r="675" spans="1:8" ht="16">
+    <row r="675" spans="1:8">
       <c r="A675" s="2"/>
       <c r="D675" s="6"/>
       <c r="E675" s="2"/>
@@ -6827,7 +6847,7 @@
       <c r="G675" s="2"/>
       <c r="H675" s="2"/>
     </row>
-    <row r="676" spans="1:8" ht="16">
+    <row r="676" spans="1:8">
       <c r="A676" s="2"/>
       <c r="D676" s="6"/>
       <c r="E676" s="2"/>
@@ -6835,7 +6855,7 @@
       <c r="G676" s="2"/>
       <c r="H676" s="2"/>
     </row>
-    <row r="677" spans="1:8" ht="16">
+    <row r="677" spans="1:8">
       <c r="A677" s="2"/>
       <c r="D677" s="6"/>
       <c r="E677" s="2"/>
@@ -6843,7 +6863,7 @@
       <c r="G677" s="2"/>
       <c r="H677" s="2"/>
     </row>
-    <row r="678" spans="1:8" ht="16">
+    <row r="678" spans="1:8">
       <c r="A678" s="2"/>
       <c r="D678" s="6"/>
       <c r="E678" s="2"/>
@@ -6851,7 +6871,7 @@
       <c r="G678" s="2"/>
       <c r="H678" s="2"/>
     </row>
-    <row r="679" spans="1:8" ht="16">
+    <row r="679" spans="1:8">
       <c r="A679" s="2"/>
       <c r="D679" s="6"/>
       <c r="E679" s="2"/>
@@ -6859,7 +6879,7 @@
       <c r="G679" s="2"/>
       <c r="H679" s="2"/>
     </row>
-    <row r="680" spans="1:8" ht="16">
+    <row r="680" spans="1:8">
       <c r="A680" s="2"/>
       <c r="D680" s="6"/>
       <c r="E680" s="2"/>
@@ -6867,7 +6887,7 @@
       <c r="G680" s="2"/>
       <c r="H680" s="2"/>
     </row>
-    <row r="681" spans="1:8" ht="16">
+    <row r="681" spans="1:8">
       <c r="A681" s="2"/>
       <c r="D681" s="6"/>
       <c r="E681" s="2"/>
@@ -6875,7 +6895,7 @@
       <c r="G681" s="2"/>
       <c r="H681" s="2"/>
     </row>
-    <row r="682" spans="1:8" ht="16">
+    <row r="682" spans="1:8">
       <c r="A682" s="2"/>
       <c r="D682" s="6"/>
       <c r="E682" s="2"/>
@@ -6883,7 +6903,7 @@
       <c r="G682" s="2"/>
       <c r="H682" s="2"/>
     </row>
-    <row r="683" spans="1:8" ht="16">
+    <row r="683" spans="1:8">
       <c r="A683" s="2"/>
       <c r="D683" s="6"/>
       <c r="E683" s="2"/>
@@ -6891,7 +6911,7 @@
       <c r="G683" s="2"/>
       <c r="H683" s="2"/>
     </row>
-    <row r="684" spans="1:8" ht="16">
+    <row r="684" spans="1:8">
       <c r="A684" s="2"/>
       <c r="D684" s="6"/>
       <c r="E684" s="2"/>
@@ -6899,7 +6919,7 @@
       <c r="G684" s="2"/>
       <c r="H684" s="2"/>
     </row>
-    <row r="685" spans="1:8" ht="16">
+    <row r="685" spans="1:8">
       <c r="A685" s="2"/>
       <c r="D685" s="6"/>
       <c r="E685" s="2"/>
@@ -6907,7 +6927,7 @@
       <c r="G685" s="2"/>
       <c r="H685" s="2"/>
     </row>
-    <row r="686" spans="1:8" ht="16">
+    <row r="686" spans="1:8">
       <c r="A686" s="2"/>
       <c r="D686" s="6"/>
       <c r="E686" s="2"/>
@@ -6915,7 +6935,7 @@
       <c r="G686" s="2"/>
       <c r="H686" s="2"/>
     </row>
-    <row r="687" spans="1:8" ht="16">
+    <row r="687" spans="1:8">
       <c r="A687" s="2"/>
       <c r="D687" s="6"/>
       <c r="E687" s="2"/>
@@ -6923,7 +6943,7 @@
       <c r="G687" s="2"/>
       <c r="H687" s="2"/>
     </row>
-    <row r="688" spans="1:8" ht="16">
+    <row r="688" spans="1:8">
       <c r="A688" s="2"/>
       <c r="D688" s="6"/>
       <c r="E688" s="2"/>
@@ -6931,7 +6951,7 @@
       <c r="G688" s="2"/>
       <c r="H688" s="2"/>
     </row>
-    <row r="689" spans="1:8" ht="16">
+    <row r="689" spans="1:8">
       <c r="A689" s="2"/>
       <c r="D689" s="6"/>
       <c r="E689" s="2"/>
@@ -6939,7 +6959,7 @@
       <c r="G689" s="2"/>
       <c r="H689" s="2"/>
     </row>
-    <row r="690" spans="1:8" ht="16">
+    <row r="690" spans="1:8">
       <c r="A690" s="2"/>
       <c r="D690" s="6"/>
       <c r="E690" s="2"/>
@@ -6947,7 +6967,7 @@
       <c r="G690" s="2"/>
       <c r="H690" s="2"/>
     </row>
-    <row r="691" spans="1:8" ht="16">
+    <row r="691" spans="1:8">
       <c r="A691" s="2"/>
       <c r="D691" s="6"/>
       <c r="E691" s="2"/>
@@ -6955,7 +6975,7 @@
       <c r="G691" s="2"/>
       <c r="H691" s="2"/>
     </row>
-    <row r="692" spans="1:8" ht="16">
+    <row r="692" spans="1:8">
       <c r="A692" s="2"/>
       <c r="D692" s="6"/>
       <c r="E692" s="2"/>
@@ -6963,7 +6983,7 @@
       <c r="G692" s="2"/>
       <c r="H692" s="2"/>
     </row>
-    <row r="693" spans="1:8" ht="16">
+    <row r="693" spans="1:8">
       <c r="A693" s="2"/>
       <c r="D693" s="6"/>
       <c r="E693" s="2"/>
@@ -6971,7 +6991,7 @@
       <c r="G693" s="2"/>
       <c r="H693" s="2"/>
     </row>
-    <row r="694" spans="1:8" ht="16">
+    <row r="694" spans="1:8">
       <c r="A694" s="2"/>
       <c r="D694" s="6"/>
       <c r="E694" s="2"/>
@@ -6979,7 +6999,7 @@
       <c r="G694" s="2"/>
       <c r="H694" s="2"/>
     </row>
-    <row r="695" spans="1:8" ht="16">
+    <row r="695" spans="1:8">
       <c r="A695" s="2"/>
       <c r="D695" s="6"/>
       <c r="E695" s="2"/>
@@ -6987,7 +7007,7 @@
       <c r="G695" s="2"/>
       <c r="H695" s="2"/>
     </row>
-    <row r="696" spans="1:8" ht="16">
+    <row r="696" spans="1:8">
       <c r="A696" s="2"/>
       <c r="D696" s="6"/>
       <c r="E696" s="2"/>
@@ -6995,7 +7015,7 @@
       <c r="G696" s="2"/>
       <c r="H696" s="2"/>
     </row>
-    <row r="697" spans="1:8" ht="16">
+    <row r="697" spans="1:8">
       <c r="A697" s="2"/>
       <c r="D697" s="6"/>
       <c r="E697" s="2"/>
@@ -7003,7 +7023,7 @@
       <c r="G697" s="2"/>
       <c r="H697" s="2"/>
     </row>
-    <row r="698" spans="1:8" ht="16">
+    <row r="698" spans="1:8">
       <c r="A698" s="2"/>
       <c r="D698" s="6"/>
       <c r="E698" s="2"/>
@@ -7011,7 +7031,7 @@
       <c r="G698" s="2"/>
       <c r="H698" s="2"/>
     </row>
-    <row r="699" spans="1:8" ht="16">
+    <row r="699" spans="1:8">
       <c r="A699" s="2"/>
       <c r="D699" s="6"/>
       <c r="E699" s="2"/>
@@ -7019,7 +7039,7 @@
       <c r="G699" s="2"/>
       <c r="H699" s="2"/>
     </row>
-    <row r="700" spans="1:8" ht="16">
+    <row r="700" spans="1:8">
       <c r="A700" s="2"/>
       <c r="D700" s="6"/>
       <c r="E700" s="2"/>
@@ -7027,7 +7047,7 @@
       <c r="G700" s="2"/>
       <c r="H700" s="2"/>
     </row>
-    <row r="701" spans="1:8" ht="16">
+    <row r="701" spans="1:8">
       <c r="A701" s="2"/>
       <c r="D701" s="6"/>
       <c r="E701" s="2"/>
@@ -7035,7 +7055,7 @@
       <c r="G701" s="2"/>
       <c r="H701" s="2"/>
     </row>
-    <row r="702" spans="1:8" ht="16">
+    <row r="702" spans="1:8">
       <c r="A702" s="2"/>
       <c r="D702" s="6"/>
       <c r="E702" s="2"/>
@@ -7043,7 +7063,7 @@
       <c r="G702" s="2"/>
       <c r="H702" s="2"/>
     </row>
-    <row r="703" spans="1:8" ht="16">
+    <row r="703" spans="1:8">
       <c r="A703" s="2"/>
       <c r="D703" s="6"/>
       <c r="E703" s="2"/>
@@ -7051,7 +7071,7 @@
       <c r="G703" s="2"/>
       <c r="H703" s="2"/>
     </row>
-    <row r="704" spans="1:8" ht="16">
+    <row r="704" spans="1:8">
       <c r="A704" s="2"/>
       <c r="D704" s="6"/>
       <c r="E704" s="2"/>
@@ -7059,7 +7079,7 @@
       <c r="G704" s="2"/>
       <c r="H704" s="2"/>
     </row>
-    <row r="705" spans="1:8" ht="16">
+    <row r="705" spans="1:8">
       <c r="A705" s="2"/>
       <c r="D705" s="6"/>
       <c r="E705" s="2"/>
@@ -7067,7 +7087,7 @@
       <c r="G705" s="2"/>
       <c r="H705" s="2"/>
     </row>
-    <row r="706" spans="1:8" ht="16">
+    <row r="706" spans="1:8">
       <c r="A706" s="2"/>
       <c r="D706" s="6"/>
       <c r="E706" s="2"/>
@@ -7075,7 +7095,7 @@
       <c r="G706" s="2"/>
       <c r="H706" s="2"/>
     </row>
-    <row r="707" spans="1:8" ht="16">
+    <row r="707" spans="1:8">
       <c r="A707" s="2"/>
       <c r="D707" s="6"/>
       <c r="E707" s="2"/>
@@ -7083,7 +7103,7 @@
       <c r="G707" s="2"/>
       <c r="H707" s="2"/>
     </row>
-    <row r="708" spans="1:8" ht="16">
+    <row r="708" spans="1:8">
       <c r="A708" s="2"/>
       <c r="D708" s="6"/>
       <c r="E708" s="2"/>
@@ -7091,7 +7111,7 @@
       <c r="G708" s="2"/>
       <c r="H708" s="2"/>
     </row>
-    <row r="709" spans="1:8" ht="16">
+    <row r="709" spans="1:8">
       <c r="A709" s="2"/>
       <c r="D709" s="6"/>
       <c r="E709" s="2"/>
@@ -7099,7 +7119,7 @@
       <c r="G709" s="2"/>
       <c r="H709" s="2"/>
     </row>
-    <row r="710" spans="1:8" ht="16">
+    <row r="710" spans="1:8">
       <c r="A710" s="2"/>
       <c r="D710" s="6"/>
       <c r="E710" s="2"/>
@@ -7107,7 +7127,7 @@
       <c r="G710" s="2"/>
       <c r="H710" s="2"/>
     </row>
-    <row r="711" spans="1:8" ht="16">
+    <row r="711" spans="1:8">
       <c r="A711" s="2"/>
       <c r="D711" s="6"/>
       <c r="E711" s="2"/>
@@ -7115,7 +7135,7 @@
       <c r="G711" s="2"/>
       <c r="H711" s="2"/>
     </row>
-    <row r="712" spans="1:8" ht="16">
+    <row r="712" spans="1:8">
       <c r="A712" s="2"/>
       <c r="D712" s="6"/>
       <c r="E712" s="2"/>
@@ -7123,7 +7143,7 @@
       <c r="G712" s="2"/>
       <c r="H712" s="2"/>
     </row>
-    <row r="713" spans="1:8" ht="16">
+    <row r="713" spans="1:8">
       <c r="A713" s="2"/>
       <c r="D713" s="6"/>
       <c r="E713" s="2"/>
@@ -7131,7 +7151,7 @@
       <c r="G713" s="2"/>
       <c r="H713" s="2"/>
     </row>
-    <row r="714" spans="1:8" ht="16">
+    <row r="714" spans="1:8">
       <c r="A714" s="2"/>
       <c r="D714" s="6"/>
       <c r="E714" s="2"/>
@@ -7139,7 +7159,7 @@
       <c r="G714" s="2"/>
       <c r="H714" s="2"/>
     </row>
-    <row r="715" spans="1:8" ht="16">
+    <row r="715" spans="1:8">
       <c r="A715" s="2"/>
       <c r="D715" s="6"/>
       <c r="E715" s="2"/>
@@ -7147,7 +7167,7 @@
       <c r="G715" s="2"/>
       <c r="H715" s="2"/>
     </row>
-    <row r="716" spans="1:8" ht="16">
+    <row r="716" spans="1:8">
       <c r="A716" s="2"/>
       <c r="D716" s="6"/>
       <c r="E716" s="2"/>
@@ -7155,7 +7175,7 @@
       <c r="G716" s="2"/>
       <c r="H716" s="2"/>
     </row>
-    <row r="717" spans="1:8" ht="16">
+    <row r="717" spans="1:8">
       <c r="A717" s="2"/>
       <c r="D717" s="6"/>
       <c r="E717" s="2"/>
@@ -7163,7 +7183,7 @@
       <c r="G717" s="2"/>
       <c r="H717" s="2"/>
     </row>
-    <row r="718" spans="1:8" ht="16">
+    <row r="718" spans="1:8">
       <c r="A718" s="2"/>
       <c r="D718" s="6"/>
       <c r="E718" s="2"/>
@@ -7171,7 +7191,7 @@
       <c r="G718" s="2"/>
       <c r="H718" s="2"/>
     </row>
-    <row r="719" spans="1:8" ht="16">
+    <row r="719" spans="1:8">
       <c r="A719" s="2"/>
       <c r="D719" s="6"/>
       <c r="E719" s="2"/>
@@ -7179,7 +7199,7 @@
       <c r="G719" s="2"/>
       <c r="H719" s="2"/>
     </row>
-    <row r="720" spans="1:8" ht="16">
+    <row r="720" spans="1:8">
       <c r="A720" s="2"/>
       <c r="D720" s="6"/>
       <c r="E720" s="2"/>
@@ -7187,7 +7207,7 @@
       <c r="G720" s="2"/>
       <c r="H720" s="2"/>
     </row>
-    <row r="721" spans="1:8" ht="16">
+    <row r="721" spans="1:8">
       <c r="A721" s="2"/>
       <c r="D721" s="6"/>
       <c r="E721" s="2"/>
@@ -7195,7 +7215,7 @@
       <c r="G721" s="2"/>
       <c r="H721" s="2"/>
     </row>
-    <row r="722" spans="1:8" ht="16">
+    <row r="722" spans="1:8">
       <c r="A722" s="2"/>
       <c r="D722" s="6"/>
       <c r="E722" s="2"/>
@@ -7203,7 +7223,7 @@
       <c r="G722" s="2"/>
       <c r="H722" s="2"/>
     </row>
-    <row r="723" spans="1:8" ht="16">
+    <row r="723" spans="1:8">
       <c r="A723" s="2"/>
       <c r="D723" s="6"/>
       <c r="E723" s="2"/>
@@ -7211,7 +7231,7 @@
       <c r="G723" s="2"/>
       <c r="H723" s="2"/>
     </row>
-    <row r="724" spans="1:8" ht="16">
+    <row r="724" spans="1:8">
       <c r="A724" s="2"/>
       <c r="D724" s="6"/>
       <c r="E724" s="2"/>
@@ -7219,7 +7239,7 @@
       <c r="G724" s="2"/>
       <c r="H724" s="2"/>
     </row>
-    <row r="725" spans="1:8" ht="16">
+    <row r="725" spans="1:8">
       <c r="A725" s="2"/>
       <c r="D725" s="6"/>
       <c r="E725" s="2"/>
@@ -7227,7 +7247,7 @@
       <c r="G725" s="2"/>
       <c r="H725" s="2"/>
     </row>
-    <row r="726" spans="1:8" ht="16">
+    <row r="726" spans="1:8">
       <c r="A726" s="2"/>
       <c r="D726" s="6"/>
       <c r="E726" s="2"/>
@@ -7235,7 +7255,7 @@
       <c r="G726" s="2"/>
       <c r="H726" s="2"/>
     </row>
-    <row r="727" spans="1:8" ht="16">
+    <row r="727" spans="1:8">
       <c r="A727" s="2"/>
       <c r="D727" s="6"/>
       <c r="E727" s="2"/>
@@ -7243,7 +7263,7 @@
       <c r="G727" s="2"/>
       <c r="H727" s="2"/>
     </row>
-    <row r="728" spans="1:8" ht="16">
+    <row r="728" spans="1:8">
       <c r="A728" s="2"/>
       <c r="D728" s="6"/>
       <c r="E728" s="2"/>
@@ -7251,7 +7271,7 @@
       <c r="G728" s="2"/>
       <c r="H728" s="2"/>
     </row>
-    <row r="729" spans="1:8" ht="16">
+    <row r="729" spans="1:8">
       <c r="A729" s="2"/>
       <c r="D729" s="6"/>
       <c r="E729" s="2"/>
@@ -7259,7 +7279,7 @@
       <c r="G729" s="2"/>
       <c r="H729" s="2"/>
     </row>
-    <row r="730" spans="1:8" ht="16">
+    <row r="730" spans="1:8">
       <c r="A730" s="2"/>
       <c r="D730" s="6"/>
       <c r="E730" s="2"/>
@@ -7267,7 +7287,7 @@
       <c r="G730" s="2"/>
       <c r="H730" s="2"/>
     </row>
-    <row r="731" spans="1:8" ht="16">
+    <row r="731" spans="1:8">
       <c r="A731" s="2"/>
       <c r="D731" s="6"/>
       <c r="E731" s="2"/>
@@ -7275,7 +7295,7 @@
       <c r="G731" s="2"/>
       <c r="H731" s="2"/>
     </row>
-    <row r="732" spans="1:8" ht="16">
+    <row r="732" spans="1:8">
       <c r="A732" s="2"/>
       <c r="D732" s="6"/>
       <c r="E732" s="2"/>
@@ -7283,7 +7303,7 @@
       <c r="G732" s="2"/>
       <c r="H732" s="2"/>
     </row>
-    <row r="733" spans="1:8" ht="16">
+    <row r="733" spans="1:8">
       <c r="A733" s="2"/>
       <c r="D733" s="6"/>
       <c r="E733" s="2"/>
@@ -7291,7 +7311,7 @@
       <c r="G733" s="2"/>
       <c r="H733" s="2"/>
     </row>
-    <row r="734" spans="1:8" ht="16">
+    <row r="734" spans="1:8">
       <c r="A734" s="2"/>
       <c r="D734" s="6"/>
       <c r="E734" s="2"/>
@@ -7299,7 +7319,7 @@
       <c r="G734" s="2"/>
       <c r="H734" s="2"/>
     </row>
-    <row r="735" spans="1:8" ht="16">
+    <row r="735" spans="1:8">
       <c r="A735" s="2"/>
       <c r="D735" s="6"/>
       <c r="E735" s="2"/>
@@ -7307,7 +7327,7 @@
       <c r="G735" s="2"/>
       <c r="H735" s="2"/>
     </row>
-    <row r="736" spans="1:8" ht="16">
+    <row r="736" spans="1:8">
       <c r="A736" s="2"/>
       <c r="D736" s="6"/>
       <c r="E736" s="2"/>
@@ -7315,7 +7335,7 @@
       <c r="G736" s="2"/>
       <c r="H736" s="2"/>
     </row>
-    <row r="737" spans="1:8" ht="16">
+    <row r="737" spans="1:8">
       <c r="A737" s="2"/>
       <c r="D737" s="6"/>
       <c r="E737" s="2"/>
@@ -7323,7 +7343,7 @@
       <c r="G737" s="2"/>
       <c r="H737" s="2"/>
     </row>
-    <row r="738" spans="1:8" ht="16">
+    <row r="738" spans="1:8">
       <c r="A738" s="2"/>
       <c r="D738" s="6"/>
       <c r="E738" s="2"/>
@@ -7331,7 +7351,7 @@
       <c r="G738" s="2"/>
       <c r="H738" s="2"/>
     </row>
-    <row r="739" spans="1:8" ht="16">
+    <row r="739" spans="1:8">
       <c r="A739" s="2"/>
       <c r="D739" s="6"/>
       <c r="E739" s="2"/>
@@ -7339,7 +7359,7 @@
       <c r="G739" s="2"/>
       <c r="H739" s="2"/>
     </row>
-    <row r="740" spans="1:8" ht="16">
+    <row r="740" spans="1:8">
       <c r="A740" s="2"/>
       <c r="D740" s="6"/>
       <c r="E740" s="2"/>
@@ -7347,7 +7367,7 @@
       <c r="G740" s="2"/>
       <c r="H740" s="2"/>
     </row>
-    <row r="741" spans="1:8" ht="16">
+    <row r="741" spans="1:8">
       <c r="A741" s="2"/>
       <c r="D741" s="6"/>
       <c r="E741" s="2"/>
@@ -7355,7 +7375,7 @@
       <c r="G741" s="2"/>
       <c r="H741" s="2"/>
     </row>
-    <row r="742" spans="1:8" ht="16">
+    <row r="742" spans="1:8">
       <c r="A742" s="2"/>
       <c r="D742" s="6"/>
       <c r="E742" s="2"/>
@@ -7363,7 +7383,7 @@
       <c r="G742" s="2"/>
       <c r="H742" s="2"/>
     </row>
-    <row r="743" spans="1:8" ht="16">
+    <row r="743" spans="1:8">
       <c r="A743" s="2"/>
       <c r="D743" s="6"/>
       <c r="E743" s="2"/>
@@ -7371,7 +7391,7 @@
       <c r="G743" s="2"/>
       <c r="H743" s="2"/>
     </row>
-    <row r="744" spans="1:8" ht="16">
+    <row r="744" spans="1:8">
       <c r="A744" s="2"/>
       <c r="D744" s="6"/>
       <c r="E744" s="2"/>
@@ -7379,7 +7399,7 @@
       <c r="G744" s="2"/>
       <c r="H744" s="2"/>
     </row>
-    <row r="745" spans="1:8" ht="16">
+    <row r="745" spans="1:8">
       <c r="A745" s="2"/>
       <c r="D745" s="6"/>
       <c r="E745" s="2"/>
@@ -7387,7 +7407,7 @@
       <c r="G745" s="2"/>
       <c r="H745" s="2"/>
     </row>
-    <row r="746" spans="1:8" ht="16">
+    <row r="746" spans="1:8">
       <c r="A746" s="2"/>
       <c r="D746" s="6"/>
       <c r="E746" s="2"/>
@@ -7395,7 +7415,7 @@
       <c r="G746" s="2"/>
       <c r="H746" s="2"/>
     </row>
-    <row r="747" spans="1:8" ht="16">
+    <row r="747" spans="1:8">
       <c r="A747" s="2"/>
       <c r="D747" s="6"/>
       <c r="E747" s="2"/>
@@ -7403,7 +7423,7 @@
       <c r="G747" s="2"/>
       <c r="H747" s="2"/>
     </row>
-    <row r="748" spans="1:8" ht="16">
+    <row r="748" spans="1:8">
       <c r="A748" s="2"/>
       <c r="D748" s="6"/>
       <c r="E748" s="2"/>
@@ -7411,7 +7431,7 @@
       <c r="G748" s="2"/>
       <c r="H748" s="2"/>
     </row>
-    <row r="749" spans="1:8" ht="16">
+    <row r="749" spans="1:8">
       <c r="A749" s="2"/>
       <c r="D749" s="6"/>
       <c r="E749" s="2"/>
@@ -7419,7 +7439,7 @@
       <c r="G749" s="2"/>
       <c r="H749" s="2"/>
     </row>
-    <row r="750" spans="1:8" ht="16">
+    <row r="750" spans="1:8">
       <c r="A750" s="2"/>
       <c r="D750" s="6"/>
       <c r="E750" s="2"/>
@@ -7427,7 +7447,7 @@
       <c r="G750" s="2"/>
       <c r="H750" s="2"/>
     </row>
-    <row r="751" spans="1:8" ht="16">
+    <row r="751" spans="1:8">
       <c r="A751" s="2"/>
       <c r="D751" s="6"/>
       <c r="E751" s="2"/>
@@ -7435,7 +7455,7 @@
       <c r="G751" s="2"/>
       <c r="H751" s="2"/>
     </row>
-    <row r="752" spans="1:8" ht="16">
+    <row r="752" spans="1:8">
       <c r="A752" s="2"/>
       <c r="D752" s="6"/>
       <c r="E752" s="2"/>
@@ -7443,7 +7463,7 @@
       <c r="G752" s="2"/>
       <c r="H752" s="2"/>
     </row>
-    <row r="753" spans="1:8" ht="16">
+    <row r="753" spans="1:8">
       <c r="A753" s="2"/>
       <c r="D753" s="6"/>
       <c r="E753" s="2"/>
@@ -7451,7 +7471,7 @@
       <c r="G753" s="2"/>
       <c r="H753" s="2"/>
     </row>
-    <row r="754" spans="1:8" ht="16">
+    <row r="754" spans="1:8">
       <c r="A754" s="2"/>
       <c r="D754" s="6"/>
       <c r="E754" s="2"/>
@@ -7459,7 +7479,7 @@
       <c r="G754" s="2"/>
       <c r="H754" s="2"/>
     </row>
-    <row r="755" spans="1:8" ht="16">
+    <row r="755" spans="1:8">
       <c r="A755" s="2"/>
       <c r="D755" s="6"/>
       <c r="E755" s="2"/>
@@ -7467,7 +7487,7 @@
       <c r="G755" s="2"/>
       <c r="H755" s="2"/>
     </row>
-    <row r="756" spans="1:8" ht="16">
+    <row r="756" spans="1:8">
       <c r="A756" s="2"/>
       <c r="D756" s="6"/>
       <c r="E756" s="2"/>
@@ -7475,7 +7495,7 @@
       <c r="G756" s="2"/>
       <c r="H756" s="2"/>
     </row>
-    <row r="757" spans="1:8" ht="16">
+    <row r="757" spans="1:8">
       <c r="A757" s="2"/>
       <c r="D757" s="6"/>
       <c r="E757" s="2"/>
@@ -7483,7 +7503,7 @@
       <c r="G757" s="2"/>
       <c r="H757" s="2"/>
     </row>
-    <row r="758" spans="1:8" ht="16">
+    <row r="758" spans="1:8">
       <c r="A758" s="2"/>
       <c r="D758" s="6"/>
       <c r="E758" s="2"/>
@@ -7491,7 +7511,7 @@
       <c r="G758" s="2"/>
       <c r="H758" s="2"/>
     </row>
-    <row r="759" spans="1:8" ht="16">
+    <row r="759" spans="1:8">
       <c r="A759" s="2"/>
       <c r="D759" s="6"/>
       <c r="E759" s="2"/>
@@ -7499,7 +7519,7 @@
       <c r="G759" s="2"/>
       <c r="H759" s="2"/>
     </row>
-    <row r="760" spans="1:8" ht="16">
+    <row r="760" spans="1:8">
       <c r="A760" s="2"/>
       <c r="D760" s="6"/>
       <c r="E760" s="2"/>
@@ -7507,7 +7527,7 @@
       <c r="G760" s="2"/>
       <c r="H760" s="2"/>
     </row>
-    <row r="761" spans="1:8" ht="16">
+    <row r="761" spans="1:8">
       <c r="A761" s="2"/>
       <c r="D761" s="6"/>
       <c r="E761" s="2"/>
@@ -7515,7 +7535,7 @@
       <c r="G761" s="2"/>
       <c r="H761" s="2"/>
     </row>
-    <row r="762" spans="1:8" ht="16">
+    <row r="762" spans="1:8">
       <c r="A762" s="2"/>
       <c r="D762" s="6"/>
       <c r="E762" s="2"/>
@@ -7523,7 +7543,7 @@
       <c r="G762" s="2"/>
       <c r="H762" s="2"/>
     </row>
-    <row r="763" spans="1:8" ht="16">
+    <row r="763" spans="1:8">
       <c r="A763" s="2"/>
       <c r="D763" s="6"/>
       <c r="E763" s="2"/>
@@ -7531,7 +7551,7 @@
       <c r="G763" s="2"/>
       <c r="H763" s="2"/>
     </row>
-    <row r="764" spans="1:8" ht="16">
+    <row r="764" spans="1:8">
       <c r="A764" s="2"/>
       <c r="D764" s="6"/>
       <c r="E764" s="2"/>
@@ -7539,7 +7559,7 @@
       <c r="G764" s="2"/>
       <c r="H764" s="2"/>
     </row>
-    <row r="765" spans="1:8" ht="16">
+    <row r="765" spans="1:8">
       <c r="A765" s="2"/>
       <c r="D765" s="6"/>
       <c r="E765" s="2"/>
@@ -7547,7 +7567,7 @@
       <c r="G765" s="2"/>
       <c r="H765" s="2"/>
     </row>
-    <row r="766" spans="1:8" ht="16">
+    <row r="766" spans="1:8">
       <c r="A766" s="2"/>
       <c r="D766" s="6"/>
       <c r="E766" s="2"/>
@@ -7555,7 +7575,7 @@
       <c r="G766" s="2"/>
       <c r="H766" s="2"/>
     </row>
-    <row r="767" spans="1:8" ht="16">
+    <row r="767" spans="1:8">
       <c r="A767" s="2"/>
       <c r="D767" s="6"/>
       <c r="E767" s="2"/>
@@ -7563,7 +7583,7 @@
       <c r="G767" s="2"/>
       <c r="H767" s="2"/>
     </row>
-    <row r="768" spans="1:8" ht="16">
+    <row r="768" spans="1:8">
       <c r="A768" s="2"/>
       <c r="D768" s="6"/>
       <c r="E768" s="2"/>
@@ -7571,7 +7591,7 @@
       <c r="G768" s="2"/>
       <c r="H768" s="2"/>
     </row>
-    <row r="769" spans="1:8" ht="16">
+    <row r="769" spans="1:8">
       <c r="A769" s="2"/>
       <c r="D769" s="6"/>
       <c r="E769" s="2"/>
@@ -7579,7 +7599,7 @@
       <c r="G769" s="2"/>
       <c r="H769" s="2"/>
     </row>
-    <row r="770" spans="1:8" ht="16">
+    <row r="770" spans="1:8">
       <c r="A770" s="2"/>
       <c r="D770" s="6"/>
       <c r="E770" s="2"/>
@@ -7587,7 +7607,7 @@
       <c r="G770" s="2"/>
       <c r="H770" s="2"/>
     </row>
-    <row r="771" spans="1:8" ht="16">
+    <row r="771" spans="1:8">
       <c r="A771" s="2"/>
       <c r="D771" s="6"/>
       <c r="E771" s="2"/>
@@ -7595,7 +7615,7 @@
       <c r="G771" s="2"/>
       <c r="H771" s="2"/>
     </row>
-    <row r="772" spans="1:8" ht="16">
+    <row r="772" spans="1:8">
       <c r="A772" s="2"/>
       <c r="D772" s="6"/>
       <c r="E772" s="2"/>
@@ -7603,7 +7623,7 @@
       <c r="G772" s="2"/>
       <c r="H772" s="2"/>
     </row>
-    <row r="773" spans="1:8" ht="16">
+    <row r="773" spans="1:8">
       <c r="A773" s="2"/>
       <c r="D773" s="6"/>
       <c r="E773" s="2"/>
@@ -7611,7 +7631,7 @@
       <c r="G773" s="2"/>
       <c r="H773" s="2"/>
     </row>
-    <row r="774" spans="1:8" ht="16">
+    <row r="774" spans="1:8">
       <c r="A774" s="2"/>
       <c r="D774" s="6"/>
       <c r="E774" s="2"/>
@@ -7619,7 +7639,7 @@
       <c r="G774" s="2"/>
       <c r="H774" s="2"/>
     </row>
-    <row r="775" spans="1:8" ht="16">
+    <row r="775" spans="1:8">
       <c r="A775" s="2"/>
       <c r="D775" s="6"/>
       <c r="E775" s="2"/>
@@ -7627,7 +7647,7 @@
       <c r="G775" s="2"/>
       <c r="H775" s="2"/>
     </row>
-    <row r="776" spans="1:8" ht="16">
+    <row r="776" spans="1:8">
       <c r="A776" s="2"/>
       <c r="D776" s="6"/>
       <c r="E776" s="2"/>
@@ -7635,7 +7655,7 @@
       <c r="G776" s="2"/>
       <c r="H776" s="2"/>
     </row>
-    <row r="777" spans="1:8" ht="16">
+    <row r="777" spans="1:8">
       <c r="A777" s="2"/>
       <c r="D777" s="6"/>
       <c r="E777" s="2"/>
@@ -7643,7 +7663,7 @@
       <c r="G777" s="2"/>
       <c r="H777" s="2"/>
     </row>
-    <row r="778" spans="1:8" ht="16">
+    <row r="778" spans="1:8">
       <c r="A778" s="2"/>
       <c r="D778" s="6"/>
       <c r="E778" s="2"/>
@@ -7651,7 +7671,7 @@
       <c r="G778" s="2"/>
       <c r="H778" s="2"/>
     </row>
-    <row r="779" spans="1:8" ht="16">
+    <row r="779" spans="1:8">
       <c r="A779" s="2"/>
       <c r="D779" s="6"/>
       <c r="E779" s="2"/>
@@ -7659,7 +7679,7 @@
       <c r="G779" s="2"/>
       <c r="H779" s="2"/>
     </row>
-    <row r="780" spans="1:8" ht="16">
+    <row r="780" spans="1:8">
       <c r="A780" s="2"/>
       <c r="D780" s="6"/>
       <c r="E780" s="2"/>
@@ -7667,7 +7687,7 @@
       <c r="G780" s="2"/>
       <c r="H780" s="2"/>
     </row>
-    <row r="781" spans="1:8" ht="16">
+    <row r="781" spans="1:8">
       <c r="A781" s="2"/>
       <c r="D781" s="6"/>
       <c r="E781" s="2"/>
@@ -7675,7 +7695,7 @@
       <c r="G781" s="2"/>
       <c r="H781" s="2"/>
     </row>
-    <row r="782" spans="1:8" ht="16">
+    <row r="782" spans="1:8">
       <c r="A782" s="2"/>
       <c r="D782" s="6"/>
       <c r="E782" s="2"/>
@@ -7683,7 +7703,7 @@
       <c r="G782" s="2"/>
       <c r="H782" s="2"/>
     </row>
-    <row r="783" spans="1:8" ht="16">
+    <row r="783" spans="1:8">
       <c r="A783" s="2"/>
       <c r="D783" s="6"/>
       <c r="E783" s="2"/>
@@ -7691,7 +7711,7 @@
       <c r="G783" s="2"/>
       <c r="H783" s="2"/>
     </row>
-    <row r="784" spans="1:8" ht="16">
+    <row r="784" spans="1:8">
       <c r="A784" s="2"/>
       <c r="D784" s="6"/>
       <c r="E784" s="2"/>
@@ -7699,7 +7719,7 @@
       <c r="G784" s="2"/>
       <c r="H784" s="2"/>
     </row>
-    <row r="785" spans="1:8" ht="16">
+    <row r="785" spans="1:8">
       <c r="A785" s="2"/>
       <c r="D785" s="6"/>
       <c r="E785" s="2"/>
@@ -7707,7 +7727,7 @@
       <c r="G785" s="2"/>
       <c r="H785" s="2"/>
     </row>
-    <row r="786" spans="1:8" ht="16">
+    <row r="786" spans="1:8">
       <c r="A786" s="2"/>
       <c r="D786" s="6"/>
       <c r="E786" s="2"/>
@@ -7715,7 +7735,7 @@
       <c r="G786" s="2"/>
       <c r="H786" s="2"/>
     </row>
-    <row r="787" spans="1:8" ht="16">
+    <row r="787" spans="1:8">
       <c r="A787" s="2"/>
       <c r="D787" s="6"/>
       <c r="E787" s="2"/>
@@ -7723,7 +7743,7 @@
       <c r="G787" s="2"/>
       <c r="H787" s="2"/>
     </row>
-    <row r="788" spans="1:8" ht="16">
+    <row r="788" spans="1:8">
       <c r="A788" s="2"/>
       <c r="D788" s="6"/>
       <c r="E788" s="2"/>
@@ -7731,7 +7751,7 @@
       <c r="G788" s="2"/>
       <c r="H788" s="2"/>
     </row>
-    <row r="789" spans="1:8" ht="16">
+    <row r="789" spans="1:8">
       <c r="A789" s="2"/>
       <c r="D789" s="6"/>
       <c r="E789" s="2"/>
@@ -7739,7 +7759,7 @@
       <c r="G789" s="2"/>
       <c r="H789" s="2"/>
     </row>
-    <row r="790" spans="1:8" ht="16">
+    <row r="790" spans="1:8">
       <c r="A790" s="2"/>
       <c r="D790" s="6"/>
       <c r="E790" s="2"/>
@@ -7747,7 +7767,7 @@
       <c r="G790" s="2"/>
       <c r="H790" s="2"/>
     </row>
-    <row r="791" spans="1:8" ht="16">
+    <row r="791" spans="1:8">
       <c r="A791" s="2"/>
       <c r="D791" s="6"/>
       <c r="E791" s="2"/>
@@ -7755,7 +7775,7 @@
       <c r="G791" s="2"/>
       <c r="H791" s="2"/>
     </row>
-    <row r="792" spans="1:8" ht="16">
+    <row r="792" spans="1:8">
       <c r="A792" s="2"/>
       <c r="D792" s="6"/>
       <c r="E792" s="2"/>
@@ -7763,7 +7783,7 @@
       <c r="G792" s="2"/>
       <c r="H792" s="2"/>
     </row>
-    <row r="793" spans="1:8" ht="16">
+    <row r="793" spans="1:8">
       <c r="A793" s="2"/>
       <c r="D793" s="6"/>
       <c r="E793" s="2"/>
@@ -7771,7 +7791,7 @@
       <c r="G793" s="2"/>
       <c r="H793" s="2"/>
     </row>
-    <row r="794" spans="1:8" ht="16">
+    <row r="794" spans="1:8">
       <c r="A794" s="2"/>
       <c r="D794" s="6"/>
       <c r="E794" s="2"/>
@@ -7779,7 +7799,7 @@
       <c r="G794" s="2"/>
       <c r="H794" s="2"/>
     </row>
-    <row r="795" spans="1:8" ht="16">
+    <row r="795" spans="1:8">
       <c r="A795" s="2"/>
       <c r="D795" s="6"/>
       <c r="E795" s="2"/>
@@ -7787,7 +7807,7 @@
       <c r="G795" s="2"/>
       <c r="H795" s="2"/>
     </row>
-    <row r="796" spans="1:8" ht="16">
+    <row r="796" spans="1:8">
       <c r="A796" s="2"/>
       <c r="D796" s="6"/>
       <c r="E796" s="2"/>
@@ -7795,7 +7815,7 @@
       <c r="G796" s="2"/>
       <c r="H796" s="2"/>
     </row>
-    <row r="797" spans="1:8" ht="16">
+    <row r="797" spans="1:8">
       <c r="A797" s="2"/>
       <c r="D797" s="6"/>
       <c r="E797" s="2"/>
@@ -7803,7 +7823,7 @@
       <c r="G797" s="2"/>
       <c r="H797" s="2"/>
     </row>
-    <row r="798" spans="1:8" ht="16">
+    <row r="798" spans="1:8">
       <c r="A798" s="2"/>
       <c r="D798" s="6"/>
       <c r="E798" s="2"/>
@@ -7811,7 +7831,7 @@
       <c r="G798" s="2"/>
       <c r="H798" s="2"/>
     </row>
-    <row r="799" spans="1:8" ht="16">
+    <row r="799" spans="1:8">
       <c r="A799" s="2"/>
       <c r="D799" s="6"/>
       <c r="E799" s="2"/>
@@ -7819,7 +7839,7 @@
       <c r="G799" s="2"/>
       <c r="H799" s="2"/>
     </row>
-    <row r="800" spans="1:8" ht="16">
+    <row r="800" spans="1:8">
       <c r="A800" s="2"/>
       <c r="D800" s="6"/>
       <c r="E800" s="2"/>
@@ -7827,7 +7847,7 @@
       <c r="G800" s="2"/>
       <c r="H800" s="2"/>
     </row>
-    <row r="801" spans="1:8" ht="16">
+    <row r="801" spans="1:8">
       <c r="A801" s="2"/>
       <c r="D801" s="6"/>
       <c r="E801" s="2"/>
@@ -7835,7 +7855,7 @@
       <c r="G801" s="2"/>
       <c r="H801" s="2"/>
     </row>
-    <row r="802" spans="1:8" ht="16">
+    <row r="802" spans="1:8">
       <c r="A802" s="2"/>
       <c r="D802" s="6"/>
       <c r="E802" s="2"/>
@@ -7843,7 +7863,7 @@
       <c r="G802" s="2"/>
       <c r="H802" s="2"/>
     </row>
-    <row r="803" spans="1:8" ht="16">
+    <row r="803" spans="1:8">
       <c r="A803" s="2"/>
       <c r="D803" s="6"/>
       <c r="E803" s="2"/>
@@ -7851,7 +7871,7 @@
       <c r="G803" s="2"/>
       <c r="H803" s="2"/>
     </row>
-    <row r="804" spans="1:8" ht="16">
+    <row r="804" spans="1:8">
       <c r="A804" s="2"/>
       <c r="D804" s="6"/>
       <c r="E804" s="2"/>
@@ -7859,7 +7879,7 @@
       <c r="G804" s="2"/>
       <c r="H804" s="2"/>
     </row>
-    <row r="805" spans="1:8" ht="16">
+    <row r="805" spans="1:8">
       <c r="A805" s="2"/>
       <c r="D805" s="6"/>
       <c r="E805" s="2"/>
@@ -7867,7 +7887,7 @@
       <c r="G805" s="2"/>
       <c r="H805" s="2"/>
     </row>
-    <row r="806" spans="1:8" ht="16">
+    <row r="806" spans="1:8">
       <c r="A806" s="2"/>
       <c r="D806" s="6"/>
       <c r="E806" s="2"/>
@@ -7875,7 +7895,7 @@
       <c r="G806" s="2"/>
       <c r="H806" s="2"/>
     </row>
-    <row r="807" spans="1:8" ht="16">
+    <row r="807" spans="1:8">
       <c r="A807" s="2"/>
       <c r="D807" s="6"/>
       <c r="E807" s="2"/>
@@ -7883,7 +7903,7 @@
       <c r="G807" s="2"/>
       <c r="H807" s="2"/>
     </row>
-    <row r="808" spans="1:8" ht="16">
+    <row r="808" spans="1:8">
       <c r="A808" s="2"/>
       <c r="D808" s="6"/>
       <c r="E808" s="2"/>
@@ -7891,7 +7911,7 @@
       <c r="G808" s="2"/>
       <c r="H808" s="2"/>
     </row>
-    <row r="809" spans="1:8" ht="16">
+    <row r="809" spans="1:8">
       <c r="A809" s="2"/>
       <c r="D809" s="6"/>
       <c r="E809" s="2"/>
@@ -7899,7 +7919,7 @@
       <c r="G809" s="2"/>
       <c r="H809" s="2"/>
     </row>
-    <row r="810" spans="1:8" ht="16">
+    <row r="810" spans="1:8">
       <c r="A810" s="2"/>
       <c r="D810" s="6"/>
       <c r="E810" s="2"/>
@@ -7907,7 +7927,7 @@
       <c r="G810" s="2"/>
       <c r="H810" s="2"/>
     </row>
-    <row r="811" spans="1:8" ht="16">
+    <row r="811" spans="1:8">
       <c r="A811" s="2"/>
       <c r="D811" s="6"/>
       <c r="E811" s="2"/>
@@ -7915,7 +7935,7 @@
       <c r="G811" s="2"/>
       <c r="H811" s="2"/>
     </row>
-    <row r="812" spans="1:8" ht="16">
+    <row r="812" spans="1:8">
       <c r="A812" s="2"/>
       <c r="D812" s="6"/>
       <c r="E812" s="2"/>
@@ -7923,7 +7943,7 @@
       <c r="G812" s="2"/>
       <c r="H812" s="2"/>
     </row>
-    <row r="813" spans="1:8" ht="16">
+    <row r="813" spans="1:8">
       <c r="A813" s="2"/>
       <c r="D813" s="6"/>
       <c r="E813" s="2"/>
@@ -7931,7 +7951,7 @@
       <c r="G813" s="2"/>
       <c r="H813" s="2"/>
     </row>
-    <row r="814" spans="1:8" ht="16">
+    <row r="814" spans="1:8">
       <c r="A814" s="2"/>
       <c r="D814" s="6"/>
       <c r="E814" s="2"/>
@@ -7939,7 +7959,7 @@
       <c r="G814" s="2"/>
       <c r="H814" s="2"/>
     </row>
-    <row r="815" spans="1:8" ht="16">
+    <row r="815" spans="1:8">
       <c r="A815" s="2"/>
       <c r="D815" s="6"/>
       <c r="E815" s="2"/>
@@ -7947,7 +7967,7 @@
       <c r="G815" s="2"/>
       <c r="H815" s="2"/>
     </row>
-    <row r="816" spans="1:8" ht="16">
+    <row r="816" spans="1:8">
       <c r="A816" s="2"/>
       <c r="D816" s="6"/>
       <c r="E816" s="2"/>
@@ -7955,7 +7975,7 @@
       <c r="G816" s="2"/>
       <c r="H816" s="2"/>
     </row>
-    <row r="817" spans="1:8" ht="16">
+    <row r="817" spans="1:8">
       <c r="A817" s="2"/>
       <c r="D817" s="6"/>
       <c r="E817" s="2"/>
@@ -7963,7 +7983,7 @@
       <c r="G817" s="2"/>
       <c r="H817" s="2"/>
     </row>
-    <row r="818" spans="1:8" ht="16">
+    <row r="818" spans="1:8">
       <c r="A818" s="2"/>
       <c r="D818" s="6"/>
       <c r="E818" s="2"/>
@@ -7971,7 +7991,7 @@
       <c r="G818" s="2"/>
       <c r="H818" s="2"/>
     </row>
-    <row r="819" spans="1:8" ht="16">
+    <row r="819" spans="1:8">
       <c r="A819" s="2"/>
       <c r="D819" s="6"/>
       <c r="E819" s="2"/>
@@ -7979,7 +7999,7 @@
       <c r="G819" s="2"/>
       <c r="H819" s="2"/>
     </row>
-    <row r="820" spans="1:8" ht="16">
+    <row r="820" spans="1:8">
       <c r="A820" s="2"/>
       <c r="D820" s="6"/>
       <c r="E820" s="2"/>
@@ -7987,7 +8007,7 @@
       <c r="G820" s="2"/>
       <c r="H820" s="2"/>
     </row>
-    <row r="821" spans="1:8" ht="16">
+    <row r="821" spans="1:8">
       <c r="A821" s="2"/>
       <c r="D821" s="6"/>
       <c r="E821" s="2"/>
@@ -7995,7 +8015,7 @@
       <c r="G821" s="2"/>
       <c r="H821" s="2"/>
     </row>
-    <row r="822" spans="1:8" ht="16">
+    <row r="822" spans="1:8">
       <c r="A822" s="2"/>
       <c r="D822" s="6"/>
       <c r="E822" s="2"/>
@@ -8003,7 +8023,7 @@
       <c r="G822" s="2"/>
       <c r="H822" s="2"/>
     </row>
-    <row r="823" spans="1:8" ht="16">
+    <row r="823" spans="1:8">
       <c r="A823" s="2"/>
       <c r="D823" s="6"/>
       <c r="E823" s="2"/>
@@ -8011,7 +8031,7 @@
       <c r="G823" s="2"/>
       <c r="H823" s="2"/>
     </row>
-    <row r="824" spans="1:8" ht="16">
+    <row r="824" spans="1:8">
       <c r="A824" s="2"/>
       <c r="D824" s="6"/>
       <c r="E824" s="2"/>
@@ -8019,7 +8039,7 @@
       <c r="G824" s="2"/>
       <c r="H824" s="2"/>
     </row>
-    <row r="825" spans="1:8" ht="16">
+    <row r="825" spans="1:8">
       <c r="A825" s="2"/>
       <c r="D825" s="6"/>
       <c r="E825" s="2"/>
@@ -8027,7 +8047,7 @@
       <c r="G825" s="2"/>
       <c r="H825" s="2"/>
     </row>
-    <row r="826" spans="1:8" ht="16">
+    <row r="826" spans="1:8">
       <c r="A826" s="2"/>
       <c r="D826" s="6"/>
       <c r="E826" s="2"/>
@@ -8035,7 +8055,7 @@
       <c r="G826" s="2"/>
       <c r="H826" s="2"/>
     </row>
-    <row r="827" spans="1:8" ht="16">
+    <row r="827" spans="1:8">
       <c r="A827" s="2"/>
       <c r="D827" s="6"/>
       <c r="E827" s="2"/>
@@ -8043,7 +8063,7 @@
       <c r="G827" s="2"/>
       <c r="H827" s="2"/>
     </row>
-    <row r="828" spans="1:8" ht="16">
+    <row r="828" spans="1:8">
       <c r="A828" s="2"/>
       <c r="D828" s="6"/>
       <c r="E828" s="2"/>
@@ -8051,7 +8071,7 @@
       <c r="G828" s="2"/>
       <c r="H828" s="2"/>
     </row>
-    <row r="829" spans="1:8" ht="16">
+    <row r="829" spans="1:8">
       <c r="A829" s="2"/>
       <c r="D829" s="6"/>
       <c r="E829" s="2"/>
@@ -8059,7 +8079,7 @@
       <c r="G829" s="2"/>
       <c r="H829" s="2"/>
     </row>
-    <row r="830" spans="1:8" ht="16">
+    <row r="830" spans="1:8">
       <c r="A830" s="2"/>
       <c r="D830" s="6"/>
       <c r="E830" s="2"/>
@@ -8067,7 +8087,7 @@
       <c r="G830" s="2"/>
       <c r="H830" s="2"/>
     </row>
-    <row r="831" spans="1:8" ht="16">
+    <row r="831" spans="1:8">
       <c r="A831" s="2"/>
       <c r="D831" s="6"/>
       <c r="E831" s="2"/>
@@ -8075,7 +8095,7 @@
       <c r="G831" s="2"/>
       <c r="H831" s="2"/>
     </row>
-    <row r="832" spans="1:8" ht="16">
+    <row r="832" spans="1:8">
       <c r="A832" s="2"/>
       <c r="D832" s="6"/>
       <c r="E832" s="2"/>
@@ -8083,7 +8103,7 @@
       <c r="G832" s="2"/>
       <c r="H832" s="2"/>
     </row>
-    <row r="833" spans="1:8" ht="16">
+    <row r="833" spans="1:8">
       <c r="A833" s="2"/>
       <c r="D833" s="6"/>
       <c r="E833" s="2"/>
@@ -8091,7 +8111,7 @@
       <c r="G833" s="2"/>
       <c r="H833" s="2"/>
     </row>
-    <row r="834" spans="1:8" ht="16">
+    <row r="834" spans="1:8">
       <c r="A834" s="2"/>
       <c r="D834" s="6"/>
       <c r="E834" s="2"/>
@@ -8099,7 +8119,7 @@
       <c r="G834" s="2"/>
       <c r="H834" s="2"/>
     </row>
-    <row r="835" spans="1:8" ht="16">
+    <row r="835" spans="1:8">
       <c r="A835" s="2"/>
       <c r="D835" s="6"/>
       <c r="E835" s="2"/>
@@ -8107,7 +8127,7 @@
       <c r="G835" s="2"/>
       <c r="H835" s="2"/>
     </row>
-    <row r="836" spans="1:8" ht="16">
+    <row r="836" spans="1:8">
       <c r="A836" s="2"/>
       <c r="D836" s="6"/>
       <c r="E836" s="2"/>
@@ -8115,7 +8135,7 @@
       <c r="G836" s="2"/>
       <c r="H836" s="2"/>
     </row>
-    <row r="837" spans="1:8" ht="16">
+    <row r="837" spans="1:8">
       <c r="A837" s="2"/>
       <c r="D837" s="6"/>
       <c r="E837" s="2"/>
@@ -8123,7 +8143,7 @@
       <c r="G837" s="2"/>
       <c r="H837" s="2"/>
     </row>
-    <row r="838" spans="1:8" ht="16">
+    <row r="838" spans="1:8">
       <c r="A838" s="2"/>
       <c r="D838" s="6"/>
       <c r="E838" s="2"/>
@@ -8131,7 +8151,7 @@
       <c r="G838" s="2"/>
       <c r="H838" s="2"/>
     </row>
-    <row r="839" spans="1:8" ht="16">
+    <row r="839" spans="1:8">
       <c r="A839" s="2"/>
       <c r="D839" s="6"/>
       <c r="E839" s="2"/>
@@ -8139,7 +8159,7 @@
       <c r="G839" s="2"/>
       <c r="H839" s="2"/>
     </row>
-    <row r="840" spans="1:8" ht="16">
+    <row r="840" spans="1:8">
       <c r="A840" s="2"/>
       <c r="D840" s="6"/>
       <c r="E840" s="2"/>
@@ -8147,7 +8167,7 @@
       <c r="G840" s="2"/>
       <c r="H840" s="2"/>
     </row>
-    <row r="841" spans="1:8" ht="16">
+    <row r="841" spans="1:8">
       <c r="A841" s="2"/>
       <c r="D841" s="6"/>
       <c r="E841" s="2"/>
@@ -8155,7 +8175,7 @@
       <c r="G841" s="2"/>
       <c r="H841" s="2"/>
     </row>
-    <row r="842" spans="1:8" ht="16">
+    <row r="842" spans="1:8">
       <c r="A842" s="2"/>
       <c r="D842" s="6"/>
       <c r="E842" s="2"/>
@@ -8163,7 +8183,7 @@
       <c r="G842" s="2"/>
       <c r="H842" s="2"/>
     </row>
-    <row r="843" spans="1:8" ht="16">
+    <row r="843" spans="1:8">
       <c r="A843" s="2"/>
       <c r="D843" s="6"/>
       <c r="E843" s="2"/>
@@ -8171,7 +8191,7 @@
       <c r="G843" s="2"/>
       <c r="H843" s="2"/>
     </row>
-    <row r="844" spans="1:8" ht="16">
+    <row r="844" spans="1:8">
       <c r="A844" s="2"/>
       <c r="D844" s="6"/>
       <c r="E844" s="2"/>
@@ -8179,7 +8199,7 @@
       <c r="G844" s="2"/>
       <c r="H844" s="2"/>
     </row>
-    <row r="845" spans="1:8" ht="16">
+    <row r="845" spans="1:8">
       <c r="A845" s="2"/>
       <c r="D845" s="6"/>
       <c r="E845" s="2"/>
@@ -8187,7 +8207,7 @@
       <c r="G845" s="2"/>
       <c r="H845" s="2"/>
     </row>
-    <row r="846" spans="1:8" ht="16">
+    <row r="846" spans="1:8">
       <c r="A846" s="2"/>
       <c r="D846" s="6"/>
       <c r="E846" s="2"/>
@@ -8195,7 +8215,7 @@
       <c r="G846" s="2"/>
       <c r="H846" s="2"/>
     </row>
-    <row r="847" spans="1:8" ht="16">
+    <row r="847" spans="1:8">
       <c r="A847" s="2"/>
       <c r="D847" s="6"/>
       <c r="E847" s="2"/>
@@ -8203,7 +8223,7 @@
       <c r="G847" s="2"/>
       <c r="H847" s="2"/>
     </row>
-    <row r="848" spans="1:8" ht="16">
+    <row r="848" spans="1:8">
       <c r="A848" s="2"/>
       <c r="D848" s="6"/>
       <c r="E848" s="2"/>
@@ -8211,7 +8231,7 @@
       <c r="G848" s="2"/>
       <c r="H848" s="2"/>
     </row>
-    <row r="849" spans="1:8" ht="16">
+    <row r="849" spans="1:8">
       <c r="A849" s="2"/>
       <c r="D849" s="6"/>
       <c r="E849" s="2"/>
@@ -8219,7 +8239,7 @@
       <c r="G849" s="2"/>
       <c r="H849" s="2"/>
     </row>
-    <row r="850" spans="1:8" ht="16">
+    <row r="850" spans="1:8">
       <c r="A850" s="2"/>
       <c r="D850" s="6"/>
       <c r="E850" s="2"/>
@@ -8227,7 +8247,7 @@
       <c r="G850" s="2"/>
       <c r="H850" s="2"/>
     </row>
-    <row r="851" spans="1:8" ht="16">
+    <row r="851" spans="1:8">
       <c r="A851" s="2"/>
       <c r="D851" s="6"/>
       <c r="E851" s="2"/>
@@ -8235,7 +8255,7 @@
       <c r="G851" s="2"/>
       <c r="H851" s="2"/>
     </row>
-    <row r="852" spans="1:8" ht="16">
+    <row r="852" spans="1:8">
       <c r="A852" s="2"/>
       <c r="D852" s="6"/>
       <c r="E852" s="2"/>
@@ -8243,7 +8263,7 @@
       <c r="G852" s="2"/>
       <c r="H852" s="2"/>
     </row>
-    <row r="853" spans="1:8" ht="16">
+    <row r="853" spans="1:8">
       <c r="A853" s="2"/>
       <c r="D853" s="6"/>
       <c r="E853" s="2"/>
@@ -8251,7 +8271,7 @@
       <c r="G853" s="2"/>
       <c r="H853" s="2"/>
     </row>
-    <row r="854" spans="1:8" ht="16">
+    <row r="854" spans="1:8">
       <c r="A854" s="2"/>
       <c r="D854" s="6"/>
       <c r="E854" s="2"/>
@@ -8259,7 +8279,7 @@
       <c r="G854" s="2"/>
       <c r="H854" s="2"/>
     </row>
-    <row r="855" spans="1:8" ht="16">
+    <row r="855" spans="1:8">
       <c r="A855" s="2"/>
       <c r="D855" s="6"/>
       <c r="E855" s="2"/>
@@ -8267,7 +8287,7 @@
       <c r="G855" s="2"/>
       <c r="H855" s="2"/>
     </row>
-    <row r="856" spans="1:8" ht="16">
+    <row r="856" spans="1:8">
       <c r="A856" s="2"/>
       <c r="D856" s="6"/>
       <c r="E856" s="2"/>
@@ -8275,7 +8295,7 @@
       <c r="G856" s="2"/>
       <c r="H856" s="2"/>
     </row>
-    <row r="857" spans="1:8" ht="16">
+    <row r="857" spans="1:8">
       <c r="A857" s="2"/>
       <c r="D857" s="6"/>
       <c r="E857" s="2"/>
@@ -8283,7 +8303,7 @@
       <c r="G857" s="2"/>
       <c r="H857" s="2"/>
     </row>
-    <row r="858" spans="1:8" ht="16">
+    <row r="858" spans="1:8">
       <c r="A858" s="2"/>
       <c r="D858" s="6"/>
       <c r="E858" s="2"/>
@@ -8291,7 +8311,7 @@
       <c r="G858" s="2"/>
       <c r="H858" s="2"/>
     </row>
-    <row r="859" spans="1:8" ht="16">
+    <row r="859" spans="1:8">
       <c r="A859" s="2"/>
       <c r="D859" s="6"/>
       <c r="E859" s="2"/>
@@ -8299,7 +8319,7 @@
       <c r="G859" s="2"/>
       <c r="H859" s="2"/>
     </row>
-    <row r="860" spans="1:8" ht="16">
+    <row r="860" spans="1:8">
       <c r="A860" s="2"/>
       <c r="D860" s="6"/>
       <c r="E860" s="2"/>
@@ -8307,7 +8327,7 @@
       <c r="G860" s="2"/>
       <c r="H860" s="2"/>
     </row>
-    <row r="861" spans="1:8" ht="16">
+    <row r="861" spans="1:8">
       <c r="A861" s="2"/>
       <c r="D861" s="6"/>
       <c r="E861" s="2"/>
@@ -8315,7 +8335,7 @@
       <c r="G861" s="2"/>
       <c r="H861" s="2"/>
     </row>
-    <row r="862" spans="1:8" ht="16">
+    <row r="862" spans="1:8">
       <c r="A862" s="2"/>
       <c r="D862" s="6"/>
       <c r="E862" s="2"/>
@@ -8323,7 +8343,7 @@
       <c r="G862" s="2"/>
       <c r="H862" s="2"/>
     </row>
-    <row r="863" spans="1:8" ht="16">
+    <row r="863" spans="1:8">
       <c r="A863" s="2"/>
       <c r="D863" s="6"/>
       <c r="E863" s="2"/>
@@ -8331,7 +8351,7 @@
       <c r="G863" s="2"/>
       <c r="H863" s="2"/>
     </row>
-    <row r="864" spans="1:8" ht="16">
+    <row r="864" spans="1:8">
       <c r="A864" s="2"/>
       <c r="D864" s="6"/>
       <c r="E864" s="2"/>
@@ -8339,7 +8359,7 @@
       <c r="G864" s="2"/>
       <c r="H864" s="2"/>
     </row>
-    <row r="865" spans="1:8" ht="16">
+    <row r="865" spans="1:8">
       <c r="A865" s="2"/>
       <c r="D865" s="6"/>
       <c r="E865" s="2"/>
@@ -8347,7 +8367,7 @@
       <c r="G865" s="2"/>
       <c r="H865" s="2"/>
     </row>
-    <row r="866" spans="1:8" ht="16">
+    <row r="866" spans="1:8">
       <c r="A866" s="2"/>
       <c r="D866" s="6"/>
       <c r="E866" s="2"/>
@@ -8355,7 +8375,7 @@
       <c r="G866" s="2"/>
       <c r="H866" s="2"/>
     </row>
-    <row r="867" spans="1:8" ht="16">
+    <row r="867" spans="1:8">
       <c r="A867" s="2"/>
       <c r="D867" s="6"/>
       <c r="E867" s="2"/>
@@ -8363,7 +8383,7 @@
       <c r="G867" s="2"/>
       <c r="H867" s="2"/>
     </row>
-    <row r="868" spans="1:8" ht="16">
+    <row r="868" spans="1:8">
       <c r="A868" s="2"/>
       <c r="D868" s="6"/>
       <c r="E868" s="2"/>
@@ -8371,7 +8391,7 @@
       <c r="G868" s="2"/>
       <c r="H868" s="2"/>
     </row>
-    <row r="869" spans="1:8" ht="16">
+    <row r="869" spans="1:8">
       <c r="A869" s="2"/>
       <c r="D869" s="6"/>
       <c r="E869" s="2"/>
@@ -8379,7 +8399,7 @@
       <c r="G869" s="2"/>
       <c r="H869" s="2"/>
     </row>
-    <row r="870" spans="1:8" ht="16">
+    <row r="870" spans="1:8">
       <c r="A870" s="2"/>
       <c r="D870" s="6"/>
       <c r="E870" s="2"/>
@@ -8387,7 +8407,7 @@
       <c r="G870" s="2"/>
       <c r="H870" s="2"/>
     </row>
-    <row r="871" spans="1:8" ht="16">
+    <row r="871" spans="1:8">
       <c r="A871" s="2"/>
       <c r="D871" s="6"/>
       <c r="E871" s="2"/>
@@ -8395,7 +8415,7 @@
       <c r="G871" s="2"/>
       <c r="H871" s="2"/>
     </row>
-    <row r="872" spans="1:8" ht="16">
+    <row r="872" spans="1:8">
       <c r="A872" s="2"/>
       <c r="D872" s="6"/>
       <c r="E872" s="2"/>
@@ -8403,7 +8423,7 @@
       <c r="G872" s="2"/>
       <c r="H872" s="2"/>
     </row>
-    <row r="873" spans="1:8" ht="16">
+    <row r="873" spans="1:8">
       <c r="A873" s="2"/>
       <c r="D873" s="6"/>
       <c r="E873" s="2"/>
@@ -8411,7 +8431,7 @@
       <c r="G873" s="2"/>
       <c r="H873" s="2"/>
     </row>
-    <row r="874" spans="1:8" ht="16">
+    <row r="874" spans="1:8">
       <c r="A874" s="2"/>
       <c r="D874" s="6"/>
       <c r="E874" s="2"/>
@@ -8419,7 +8439,7 @@
       <c r="G874" s="2"/>
       <c r="H874" s="2"/>
     </row>
-    <row r="875" spans="1:8" ht="16">
+    <row r="875" spans="1:8">
       <c r="A875" s="2"/>
       <c r="D875" s="6"/>
       <c r="E875" s="2"/>
@@ -8427,7 +8447,7 @@
       <c r="G875" s="2"/>
       <c r="H875" s="2"/>
     </row>
-    <row r="876" spans="1:8" ht="16">
+    <row r="876" spans="1:8">
       <c r="A876" s="2"/>
       <c r="D876" s="6"/>
       <c r="E876" s="2"/>
@@ -8435,7 +8455,7 @@
       <c r="G876" s="2"/>
       <c r="H876" s="2"/>
     </row>
-    <row r="877" spans="1:8" ht="16">
+    <row r="877" spans="1:8">
       <c r="A877" s="2"/>
       <c r="D877" s="6"/>
       <c r="E877" s="2"/>
@@ -8443,7 +8463,7 @@
       <c r="G877" s="2"/>
       <c r="H877" s="2"/>
     </row>
-    <row r="878" spans="1:8" ht="16">
+    <row r="878" spans="1:8">
       <c r="A878" s="2"/>
       <c r="D878" s="6"/>
       <c r="E878" s="2"/>
@@ -8451,7 +8471,7 @@
       <c r="G878" s="2"/>
       <c r="H878" s="2"/>
     </row>
-    <row r="879" spans="1:8" ht="16">
+    <row r="879" spans="1:8">
       <c r="A879" s="2"/>
       <c r="D879" s="6"/>
       <c r="E879" s="2"/>
@@ -8459,7 +8479,7 @@
       <c r="G879" s="2"/>
       <c r="H879" s="2"/>
     </row>
-    <row r="880" spans="1:8" ht="16">
+    <row r="880" spans="1:8">
       <c r="A880" s="2"/>
       <c r="D880" s="6"/>
       <c r="E880" s="2"/>
@@ -8467,7 +8487,7 @@
       <c r="G880" s="2"/>
       <c r="H880" s="2"/>
     </row>
-    <row r="881" spans="1:8" ht="16">
+    <row r="881" spans="1:8">
       <c r="A881" s="2"/>
       <c r="D881" s="6"/>
       <c r="E881" s="2"/>
@@ -8475,7 +8495,7 @@
       <c r="G881" s="2"/>
       <c r="H881" s="2"/>
     </row>
-    <row r="882" spans="1:8" ht="16">
+    <row r="882" spans="1:8">
       <c r="A882" s="2"/>
       <c r="D882" s="6"/>
       <c r="E882" s="2"/>
@@ -8483,7 +8503,7 @@
       <c r="G882" s="2"/>
       <c r="H882" s="2"/>
     </row>
-    <row r="883" spans="1:8" ht="16">
+    <row r="883" spans="1:8">
       <c r="A883" s="2"/>
       <c r="D883" s="6"/>
       <c r="E883" s="2"/>
@@ -8491,7 +8511,7 @@
       <c r="G883" s="2"/>
       <c r="H883" s="2"/>
     </row>
-    <row r="884" spans="1:8" ht="16">
+    <row r="884" spans="1:8">
       <c r="A884" s="2"/>
       <c r="D884" s="6"/>
       <c r="E884" s="2"/>
@@ -8499,7 +8519,7 @@
       <c r="G884" s="2"/>
       <c r="H884" s="2"/>
     </row>
-    <row r="885" spans="1:8" ht="16">
+    <row r="885" spans="1:8">
       <c r="A885" s="2"/>
       <c r="D885" s="6"/>
       <c r="E885" s="2"/>
@@ -8507,7 +8527,7 @@
       <c r="G885" s="2"/>
       <c r="H885" s="2"/>
     </row>
-    <row r="886" spans="1:8" ht="16">
+    <row r="886" spans="1:8">
       <c r="A886" s="2"/>
       <c r="D886" s="6"/>
       <c r="E886" s="2"/>
@@ -8515,7 +8535,7 @@
       <c r="G886" s="2"/>
       <c r="H886" s="2"/>
     </row>
-    <row r="887" spans="1:8" ht="16">
+    <row r="887" spans="1:8">
       <c r="A887" s="2"/>
       <c r="D887" s="6"/>
       <c r="E887" s="2"/>
@@ -8523,7 +8543,7 @@
       <c r="G887" s="2"/>
       <c r="H887" s="2"/>
     </row>
-    <row r="888" spans="1:8" ht="16">
+    <row r="888" spans="1:8">
       <c r="A888" s="2"/>
       <c r="D888" s="6"/>
       <c r="E888" s="2"/>
@@ -8531,7 +8551,7 @@
       <c r="G888" s="2"/>
       <c r="H888" s="2"/>
     </row>
-    <row r="889" spans="1:8" ht="16">
+    <row r="889" spans="1:8">
       <c r="A889" s="2"/>
       <c r="D889" s="6"/>
       <c r="E889" s="2"/>
@@ -8539,7 +8559,7 @@
       <c r="G889" s="2"/>
       <c r="H889" s="2"/>
     </row>
-    <row r="890" spans="1:8" ht="16">
+    <row r="890" spans="1:8">
       <c r="A890" s="2"/>
       <c r="D890" s="6"/>
       <c r="E890" s="2"/>
@@ -8547,7 +8567,7 @@
       <c r="G890" s="2"/>
       <c r="H890" s="2"/>
     </row>
-    <row r="891" spans="1:8" ht="16">
+    <row r="891" spans="1:8">
       <c r="A891" s="2"/>
       <c r="D891" s="6"/>
       <c r="E891" s="2"/>
@@ -8555,7 +8575,7 @@
       <c r="G891" s="2"/>
       <c r="H891" s="2"/>
     </row>
-    <row r="892" spans="1:8" ht="16">
+    <row r="892" spans="1:8">
       <c r="A892" s="2"/>
       <c r="D892" s="6"/>
       <c r="E892" s="2"/>
@@ -8563,7 +8583,7 @@
       <c r="G892" s="2"/>
       <c r="H892" s="2"/>
     </row>
-    <row r="893" spans="1:8" ht="16">
+    <row r="893" spans="1:8">
       <c r="A893" s="2"/>
       <c r="D893" s="6"/>
       <c r="E893" s="2"/>
@@ -8571,7 +8591,7 @@
       <c r="G893" s="2"/>
       <c r="H893" s="2"/>
     </row>
-    <row r="894" spans="1:8" ht="16">
+    <row r="894" spans="1:8">
       <c r="A894" s="2"/>
       <c r="D894" s="6"/>
       <c r="E894" s="2"/>
@@ -8579,7 +8599,7 @@
       <c r="G894" s="2"/>
       <c r="H894" s="2"/>
     </row>
-    <row r="895" spans="1:8" ht="16">
+    <row r="895" spans="1:8">
       <c r="A895" s="2"/>
       <c r="D895" s="6"/>
       <c r="E895" s="2"/>
@@ -8587,7 +8607,7 @@
       <c r="G895" s="2"/>
       <c r="H895" s="2"/>
     </row>
-    <row r="896" spans="1:8" ht="16">
+    <row r="896" spans="1:8">
       <c r="A896" s="2"/>
       <c r="D896" s="6"/>
       <c r="E896" s="2"/>
@@ -8595,7 +8615,7 @@
       <c r="G896" s="2"/>
       <c r="H896" s="2"/>
     </row>
-    <row r="897" spans="1:8" ht="16">
+    <row r="897" spans="1:8">
       <c r="A897" s="2"/>
       <c r="D897" s="6"/>
       <c r="E897" s="2"/>
@@ -8603,7 +8623,7 @@
       <c r="G897" s="2"/>
       <c r="H897" s="2"/>
     </row>
-    <row r="898" spans="1:8" ht="16">
+    <row r="898" spans="1:8">
       <c r="A898" s="2"/>
       <c r="D898" s="6"/>
       <c r="E898" s="2"/>
@@ -8611,7 +8631,7 @@
       <c r="G898" s="2"/>
       <c r="H898" s="2"/>
     </row>
-    <row r="899" spans="1:8" ht="16">
+    <row r="899" spans="1:8">
       <c r="A899" s="2"/>
       <c r="D899" s="6"/>
       <c r="E899" s="2"/>
@@ -8619,7 +8639,7 @@
       <c r="G899" s="2"/>
       <c r="H899" s="2"/>
     </row>
-    <row r="900" spans="1:8" ht="16">
+    <row r="900" spans="1:8">
       <c r="A900" s="2"/>
       <c r="D900" s="6"/>
       <c r="E900" s="2"/>
@@ -8627,7 +8647,7 @@
       <c r="G900" s="2"/>
       <c r="H900" s="2"/>
     </row>
-    <row r="901" spans="1:8" ht="16">
+    <row r="901" spans="1:8">
       <c r="A901" s="2"/>
       <c r="D901" s="6"/>
       <c r="E901" s="2"/>
@@ -8635,7 +8655,7 @@
       <c r="G901" s="2"/>
       <c r="H901" s="2"/>
     </row>
-    <row r="902" spans="1:8" ht="16">
+    <row r="902" spans="1:8">
       <c r="A902" s="2"/>
       <c r="D902" s="6"/>
       <c r="E902" s="2"/>
@@ -8643,7 +8663,7 @@
       <c r="G902" s="2"/>
       <c r="H902" s="2"/>
     </row>
-    <row r="903" spans="1:8" ht="16">
+    <row r="903" spans="1:8">
       <c r="A903" s="2"/>
       <c r="D903" s="6"/>
       <c r="E903" s="2"/>
@@ -8651,7 +8671,7 @@
       <c r="G903" s="2"/>
       <c r="H903" s="2"/>
     </row>
-    <row r="904" spans="1:8" ht="16">
+    <row r="904" spans="1:8">
       <c r="A904" s="2"/>
       <c r="D904" s="6"/>
       <c r="E904" s="2"/>
@@ -8659,7 +8679,7 @@
       <c r="G904" s="2"/>
       <c r="H904" s="2"/>
     </row>
-    <row r="905" spans="1:8" ht="16">
+    <row r="905" spans="1:8">
       <c r="A905" s="2"/>
       <c r="D905" s="6"/>
       <c r="E905" s="2"/>
@@ -8667,7 +8687,7 @@
       <c r="G905" s="2"/>
       <c r="H905" s="2"/>
     </row>
-    <row r="906" spans="1:8" ht="16">
+    <row r="906" spans="1:8">
       <c r="A906" s="2"/>
       <c r="D906" s="6"/>
       <c r="E906" s="2"/>
@@ -8675,7 +8695,7 @@
       <c r="G906" s="2"/>
       <c r="H906" s="2"/>
     </row>
-    <row r="907" spans="1:8" ht="16">
+    <row r="907" spans="1:8">
       <c r="A907" s="2"/>
       <c r="D907" s="6"/>
       <c r="E907" s="2"/>
@@ -8683,7 +8703,7 @@
       <c r="G907" s="2"/>
       <c r="H907" s="2"/>
     </row>
-    <row r="908" spans="1:8" ht="16">
+    <row r="908" spans="1:8">
       <c r="A908" s="2"/>
       <c r="D908" s="6"/>
       <c r="E908" s="2"/>
@@ -8691,7 +8711,7 @@
       <c r="G908" s="2"/>
       <c r="H908" s="2"/>
     </row>
-    <row r="909" spans="1:8" ht="16">
+    <row r="909" spans="1:8">
       <c r="A909" s="2"/>
       <c r="D909" s="6"/>
       <c r="E909" s="2"/>
@@ -8699,7 +8719,7 @@
       <c r="G909" s="2"/>
       <c r="H909" s="2"/>
     </row>
-    <row r="910" spans="1:8" ht="16">
+    <row r="910" spans="1:8">
       <c r="A910" s="2"/>
       <c r="D910" s="6"/>
       <c r="E910" s="2"/>
@@ -8707,7 +8727,7 @@
       <c r="G910" s="2"/>
       <c r="H910" s="2"/>
     </row>
-    <row r="911" spans="1:8" ht="16">
+    <row r="911" spans="1:8">
       <c r="A911" s="2"/>
       <c r="D911" s="6"/>
       <c r="E911" s="2"/>
@@ -8715,7 +8735,7 @@
       <c r="G911" s="2"/>
       <c r="H911" s="2"/>
     </row>
-    <row r="912" spans="1:8" ht="16">
+    <row r="912" spans="1:8">
       <c r="A912" s="2"/>
       <c r="D912" s="6"/>
       <c r="E912" s="2"/>
@@ -8723,7 +8743,7 @@
       <c r="G912" s="2"/>
       <c r="H912" s="2"/>
     </row>
-    <row r="913" spans="1:8" ht="16">
+    <row r="913" spans="1:8">
       <c r="A913" s="2"/>
       <c r="D913" s="6"/>
       <c r="E913" s="2"/>
@@ -8731,7 +8751,7 @@
       <c r="G913" s="2"/>
       <c r="H913" s="2"/>
     </row>
-    <row r="914" spans="1:8" ht="16">
+    <row r="914" spans="1:8">
       <c r="A914" s="2"/>
       <c r="D914" s="6"/>
       <c r="E914" s="2"/>
@@ -8739,7 +8759,7 @@
       <c r="G914" s="2"/>
       <c r="H914" s="2"/>
     </row>
-    <row r="915" spans="1:8" ht="16">
+    <row r="915" spans="1:8">
       <c r="A915" s="2"/>
       <c r="D915" s="6"/>
       <c r="E915" s="2"/>
@@ -8747,7 +8767,7 @@
       <c r="G915" s="2"/>
       <c r="H915" s="2"/>
     </row>
-    <row r="916" spans="1:8" ht="16">
+    <row r="916" spans="1:8">
       <c r="A916" s="2"/>
       <c r="D916" s="6"/>
       <c r="E916" s="2"/>
@@ -8755,7 +8775,7 @@
       <c r="G916" s="2"/>
       <c r="H916" s="2"/>
     </row>
-    <row r="917" spans="1:8" ht="16">
+    <row r="917" spans="1:8">
       <c r="A917" s="2"/>
       <c r="D917" s="6"/>
       <c r="E917" s="2"/>
@@ -8763,7 +8783,7 @@
       <c r="G917" s="2"/>
       <c r="H917" s="2"/>
     </row>
-    <row r="918" spans="1:8" ht="16">
+    <row r="918" spans="1:8">
       <c r="A918" s="2"/>
       <c r="D918" s="6"/>
       <c r="E918" s="2"/>
@@ -8771,7 +8791,7 @@
       <c r="G918" s="2"/>
       <c r="H918" s="2"/>
     </row>
-    <row r="919" spans="1:8" ht="16">
+    <row r="919" spans="1:8">
       <c r="A919" s="2"/>
       <c r="D919" s="6"/>
       <c r="E919" s="2"/>
@@ -8779,7 +8799,7 @@
       <c r="G919" s="2"/>
       <c r="H919" s="2"/>
     </row>
-    <row r="920" spans="1:8" ht="16">
+    <row r="920" spans="1:8">
       <c r="A920" s="2"/>
       <c r="D920" s="6"/>
       <c r="E920" s="2"/>
@@ -8787,7 +8807,7 @@
       <c r="G920" s="2"/>
       <c r="H920" s="2"/>
     </row>
-    <row r="921" spans="1:8" ht="16">
+    <row r="921" spans="1:8">
       <c r="A921" s="2"/>
       <c r="D921" s="6"/>
       <c r="E921" s="2"/>
@@ -8795,7 +8815,7 @@
       <c r="G921" s="2"/>
       <c r="H921" s="2"/>
     </row>
-    <row r="922" spans="1:8" ht="16">
+    <row r="922" spans="1:8">
       <c r="A922" s="2"/>
       <c r="D922" s="6"/>
       <c r="E922" s="2"/>
@@ -8803,7 +8823,7 @@
       <c r="G922" s="2"/>
       <c r="H922" s="2"/>
     </row>
-    <row r="923" spans="1:8" ht="16">
+    <row r="923" spans="1:8">
       <c r="A923" s="2"/>
       <c r="D923" s="6"/>
       <c r="E923" s="2"/>
@@ -8811,7 +8831,7 @@
       <c r="G923" s="2"/>
       <c r="H923" s="2"/>
     </row>
-    <row r="924" spans="1:8" ht="16">
+    <row r="924" spans="1:8">
       <c r="A924" s="2"/>
       <c r="D924" s="6"/>
       <c r="E924" s="2"/>
@@ -8819,7 +8839,7 @@
       <c r="G924" s="2"/>
       <c r="H924" s="2"/>
     </row>
-    <row r="925" spans="1:8" ht="16">
+    <row r="925" spans="1:8">
       <c r="A925" s="2"/>
       <c r="D925" s="6"/>
       <c r="E925" s="2"/>
@@ -8827,7 +8847,7 @@
       <c r="G925" s="2"/>
       <c r="H925" s="2"/>
     </row>
-    <row r="926" spans="1:8" ht="16">
+    <row r="926" spans="1:8">
       <c r="A926" s="2"/>
       <c r="D926" s="6"/>
       <c r="E926" s="2"/>
@@ -8835,7 +8855,7 @@
       <c r="G926" s="2"/>
       <c r="H926" s="2"/>
     </row>
-    <row r="927" spans="1:8" ht="16">
+    <row r="927" spans="1:8">
       <c r="A927" s="2"/>
       <c r="D927" s="6"/>
       <c r="E927" s="2"/>
@@ -8843,7 +8863,7 @@
       <c r="G927" s="2"/>
       <c r="H927" s="2"/>
     </row>
-    <row r="928" spans="1:8" ht="16">
+    <row r="928" spans="1:8">
       <c r="A928" s="2"/>
       <c r="D928" s="6"/>
       <c r="E928" s="2"/>
@@ -8851,7 +8871,7 @@
       <c r="G928" s="2"/>
       <c r="H928" s="2"/>
     </row>
-    <row r="929" spans="1:8" ht="16">
+    <row r="929" spans="1:8">
       <c r="A929" s="2"/>
       <c r="D929" s="6"/>
       <c r="E929" s="2"/>
@@ -8859,7 +8879,7 @@
       <c r="G929" s="2"/>
       <c r="H929" s="2"/>
     </row>
-    <row r="930" spans="1:8" ht="16">
+    <row r="930" spans="1:8">
       <c r="A930" s="2"/>
       <c r="D930" s="6"/>
       <c r="E930" s="2"/>
@@ -8867,7 +8887,7 @@
       <c r="G930" s="2"/>
       <c r="H930" s="2"/>
     </row>
-    <row r="931" spans="1:8" ht="16">
+    <row r="931" spans="1:8">
       <c r="A931" s="2"/>
       <c r="D931" s="6"/>
       <c r="E931" s="2"/>
@@ -8875,7 +8895,7 @@
       <c r="G931" s="2"/>
       <c r="H931" s="2"/>
     </row>
-    <row r="932" spans="1:8" ht="16">
+    <row r="932" spans="1:8">
       <c r="A932" s="2"/>
       <c r="D932" s="6"/>
       <c r="E932" s="2"/>
@@ -8883,7 +8903,7 @@
       <c r="G932" s="2"/>
       <c r="H932" s="2"/>
     </row>
-    <row r="933" spans="1:8" ht="16">
+    <row r="933" spans="1:8">
       <c r="A933" s="2"/>
       <c r="D933" s="6"/>
       <c r="E933" s="2"/>
@@ -8891,7 +8911,7 @@
       <c r="G933" s="2"/>
       <c r="H933" s="2"/>
     </row>
-    <row r="934" spans="1:8" ht="16">
+    <row r="934" spans="1:8">
       <c r="A934" s="2"/>
       <c r="D934" s="6"/>
       <c r="E934" s="2"/>
@@ -8899,7 +8919,7 @@
       <c r="G934" s="2"/>
       <c r="H934" s="2"/>
     </row>
-    <row r="935" spans="1:8" ht="16">
+    <row r="935" spans="1:8">
       <c r="A935" s="2"/>
       <c r="D935" s="6"/>
       <c r="E935" s="2"/>
@@ -8907,7 +8927,7 @@
       <c r="G935" s="2"/>
       <c r="H935" s="2"/>
     </row>
-    <row r="936" spans="1:8" ht="16">
+    <row r="936" spans="1:8">
       <c r="A936" s="2"/>
       <c r="D936" s="6"/>
       <c r="E936" s="2"/>
@@ -8915,7 +8935,7 @@
       <c r="G936" s="2"/>
       <c r="H936" s="2"/>
     </row>
-    <row r="937" spans="1:8" ht="16">
+    <row r="937" spans="1:8">
       <c r="A937" s="2"/>
       <c r="D937" s="6"/>
       <c r="E937" s="2"/>
@@ -8923,7 +8943,7 @@
       <c r="G937" s="2"/>
       <c r="H937" s="2"/>
     </row>
-    <row r="938" spans="1:8" ht="16">
+    <row r="938" spans="1:8">
       <c r="A938" s="2"/>
       <c r="D938" s="6"/>
       <c r="E938" s="2"/>
@@ -8931,7 +8951,7 @@
       <c r="G938" s="2"/>
       <c r="H938" s="2"/>
     </row>
-    <row r="939" spans="1:8" ht="16">
+    <row r="939" spans="1:8">
       <c r="A939" s="2"/>
       <c r="D939" s="6"/>
       <c r="E939" s="2"/>
@@ -8939,7 +8959,7 @@
       <c r="G939" s="2"/>
       <c r="H939" s="2"/>
     </row>
-    <row r="940" spans="1:8" ht="16">
+    <row r="940" spans="1:8">
       <c r="A940" s="2"/>
       <c r="D940" s="6"/>
       <c r="E940" s="2"/>
@@ -8947,7 +8967,7 @@
       <c r="G940" s="2"/>
       <c r="H940" s="2"/>
     </row>
-    <row r="941" spans="1:8" ht="16">
+    <row r="941" spans="1:8">
       <c r="A941" s="2"/>
       <c r="D941" s="6"/>
       <c r="E941" s="2"/>
@@ -8955,7 +8975,7 @@
       <c r="G941" s="2"/>
       <c r="H941" s="2"/>
     </row>
-    <row r="942" spans="1:8" ht="16">
+    <row r="942" spans="1:8">
       <c r="A942" s="2"/>
       <c r="D942" s="6"/>
       <c r="E942" s="2"/>
@@ -8963,7 +8983,7 @@
       <c r="G942" s="2"/>
       <c r="H942" s="2"/>
     </row>
-    <row r="943" spans="1:8" ht="16">
+    <row r="943" spans="1:8">
       <c r="A943" s="2"/>
       <c r="D943" s="6"/>
       <c r="E943" s="2"/>
@@ -8971,7 +8991,7 @@
       <c r="G943" s="2"/>
       <c r="H943" s="2"/>
     </row>
-    <row r="944" spans="1:8" ht="16">
+    <row r="944" spans="1:8">
       <c r="A944" s="2"/>
       <c r="D944" s="6"/>
       <c r="E944" s="2"/>
@@ -8979,7 +8999,7 @@
       <c r="G944" s="2"/>
       <c r="H944" s="2"/>
     </row>
-    <row r="945" spans="1:8" ht="16">
+    <row r="945" spans="1:8">
       <c r="A945" s="2"/>
       <c r="D945" s="6"/>
       <c r="E945" s="2"/>
@@ -8987,7 +9007,7 @@
       <c r="G945" s="2"/>
       <c r="H945" s="2"/>
     </row>
-    <row r="946" spans="1:8" ht="16">
+    <row r="946" spans="1:8">
       <c r="A946" s="2"/>
       <c r="D946" s="6"/>
       <c r="E946" s="2"/>
@@ -8995,7 +9015,7 @@
       <c r="G946" s="2"/>
       <c r="H946" s="2"/>
     </row>
-    <row r="947" spans="1:8" ht="16">
+    <row r="947" spans="1:8">
       <c r="A947" s="2"/>
       <c r="D947" s="6"/>
       <c r="E947" s="2"/>
@@ -9003,7 +9023,7 @@
       <c r="G947" s="2"/>
       <c r="H947" s="2"/>
     </row>
-    <row r="948" spans="1:8" ht="16">
+    <row r="948" spans="1:8">
       <c r="A948" s="2"/>
       <c r="D948" s="6"/>
       <c r="E948" s="2"/>
@@ -9011,7 +9031,7 @@
       <c r="G948" s="2"/>
       <c r="H948" s="2"/>
     </row>
-    <row r="949" spans="1:8" ht="16">
+    <row r="949" spans="1:8">
       <c r="A949" s="2"/>
       <c r="D949" s="6"/>
       <c r="E949" s="2"/>
@@ -9019,7 +9039,7 @@
       <c r="G949" s="2"/>
       <c r="H949" s="2"/>
     </row>
-    <row r="950" spans="1:8" ht="16">
+    <row r="950" spans="1:8">
       <c r="A950" s="2"/>
       <c r="D950" s="6"/>
       <c r="E950" s="2"/>
@@ -9027,7 +9047,7 @@
       <c r="G950" s="2"/>
       <c r="H950" s="2"/>
     </row>
-    <row r="951" spans="1:8" ht="16">
+    <row r="951" spans="1:8">
       <c r="A951" s="2"/>
       <c r="D951" s="6"/>
       <c r="E951" s="2"/>
@@ -9035,7 +9055,7 @@
       <c r="G951" s="2"/>
       <c r="H951" s="2"/>
     </row>
-    <row r="952" spans="1:8" ht="16">
+    <row r="952" spans="1:8">
       <c r="A952" s="2"/>
       <c r="D952" s="6"/>
       <c r="E952" s="2"/>
@@ -9043,7 +9063,7 @@
       <c r="G952" s="2"/>
       <c r="H952" s="2"/>
     </row>
-    <row r="953" spans="1:8" ht="16">
+    <row r="953" spans="1:8">
       <c r="A953" s="2"/>
       <c r="D953" s="6"/>
       <c r="E953" s="2"/>
@@ -9051,7 +9071,7 @@
       <c r="G953" s="2"/>
       <c r="H953" s="2"/>
     </row>
-    <row r="954" spans="1:8" ht="16">
+    <row r="954" spans="1:8">
       <c r="A954" s="2"/>
       <c r="D954" s="6"/>
       <c r="E954" s="2"/>
@@ -9059,7 +9079,7 @@
       <c r="G954" s="2"/>
       <c r="H954" s="2"/>
     </row>
-    <row r="955" spans="1:8" ht="16">
+    <row r="955" spans="1:8">
       <c r="A955" s="2"/>
       <c r="D955" s="6"/>
       <c r="E955" s="2"/>
@@ -9067,7 +9087,7 @@
       <c r="G955" s="2"/>
       <c r="H955" s="2"/>
     </row>
-    <row r="956" spans="1:8" ht="16">
+    <row r="956" spans="1:8">
       <c r="A956" s="2"/>
       <c r="D956" s="6"/>
       <c r="E956" s="2"/>
@@ -9075,7 +9095,7 @@
       <c r="G956" s="2"/>
       <c r="H956" s="2"/>
     </row>
-    <row r="957" spans="1:8" ht="16">
+    <row r="957" spans="1:8">
       <c r="A957" s="2"/>
       <c r="D957" s="6"/>
       <c r="E957" s="2"/>
@@ -9083,7 +9103,7 @@
       <c r="G957" s="2"/>
       <c r="H957" s="2"/>
     </row>
-    <row r="958" spans="1:8" ht="16">
+    <row r="958" spans="1:8">
       <c r="A958" s="2"/>
       <c r="D958" s="6"/>
       <c r="E958" s="2"/>
@@ -9091,7 +9111,7 @@
       <c r="G958" s="2"/>
       <c r="H958" s="2"/>
     </row>
-    <row r="959" spans="1:8" ht="16">
+    <row r="959" spans="1:8">
       <c r="A959" s="2"/>
       <c r="D959" s="6"/>
       <c r="E959" s="2"/>
@@ -9099,7 +9119,7 @@
       <c r="G959" s="2"/>
       <c r="H959" s="2"/>
     </row>
-    <row r="960" spans="1:8" ht="16">
+    <row r="960" spans="1:8">
       <c r="A960" s="2"/>
       <c r="D960" s="6"/>
       <c r="E960" s="2"/>
@@ -9107,7 +9127,7 @@
       <c r="G960" s="2"/>
       <c r="H960" s="2"/>
     </row>
-    <row r="961" spans="1:8" ht="16">
+    <row r="961" spans="1:8">
       <c r="A961" s="2"/>
       <c r="D961" s="6"/>
       <c r="E961" s="2"/>
@@ -9115,7 +9135,7 @@
       <c r="G961" s="2"/>
       <c r="H961" s="2"/>
     </row>
-    <row r="962" spans="1:8" ht="16">
+    <row r="962" spans="1:8">
       <c r="A962" s="2"/>
       <c r="D962" s="6"/>
       <c r="E962" s="2"/>
@@ -9123,7 +9143,7 @@
       <c r="G962" s="2"/>
       <c r="H962" s="2"/>
     </row>
-    <row r="963" spans="1:8" ht="16">
+    <row r="963" spans="1:8">
       <c r="A963" s="2"/>
       <c r="D963" s="6"/>
       <c r="E963" s="2"/>
@@ -9131,7 +9151,7 @@
       <c r="G963" s="2"/>
       <c r="H963" s="2"/>
     </row>
-    <row r="964" spans="1:8" ht="16">
+    <row r="964" spans="1:8">
       <c r="A964" s="2"/>
       <c r="D964" s="6"/>
       <c r="E964" s="2"/>
@@ -9139,7 +9159,7 @@
       <c r="G964" s="2"/>
       <c r="H964" s="2"/>
     </row>
-    <row r="965" spans="1:8" ht="16">
+    <row r="965" spans="1:8">
       <c r="A965" s="2"/>
       <c r="D965" s="6"/>
       <c r="E965" s="2"/>
@@ -9147,7 +9167,7 @@
       <c r="G965" s="2"/>
       <c r="H965" s="2"/>
     </row>
-    <row r="966" spans="1:8" ht="16">
+    <row r="966" spans="1:8">
       <c r="A966" s="2"/>
       <c r="D966" s="6"/>
       <c r="E966" s="2"/>
@@ -9155,7 +9175,7 @@
       <c r="G966" s="2"/>
       <c r="H966" s="2"/>
     </row>
-    <row r="967" spans="1:8" ht="16">
+    <row r="967" spans="1:8">
       <c r="A967" s="2"/>
       <c r="D967" s="6"/>
       <c r="E967" s="2"/>
@@ -9163,7 +9183,7 @@
       <c r="G967" s="2"/>
       <c r="H967" s="2"/>
     </row>
-    <row r="968" spans="1:8" ht="16">
+    <row r="968" spans="1:8">
       <c r="A968" s="2"/>
       <c r="D968" s="6"/>
       <c r="E968" s="2"/>
@@ -9171,7 +9191,7 @@
       <c r="G968" s="2"/>
       <c r="H968" s="2"/>
     </row>
-    <row r="969" spans="1:8" ht="16">
+    <row r="969" spans="1:8">
       <c r="A969" s="2"/>
       <c r="D969" s="6"/>
       <c r="E969" s="2"/>
@@ -9179,7 +9199,7 @@
       <c r="G969" s="2"/>
       <c r="H969" s="2"/>
     </row>
-    <row r="970" spans="1:8" ht="16">
+    <row r="970" spans="1:8">
       <c r="A970" s="2"/>
       <c r="D970" s="6"/>
       <c r="E970" s="2"/>
@@ -9187,7 +9207,7 @@
       <c r="G970" s="2"/>
       <c r="H970" s="2"/>
     </row>
-    <row r="971" spans="1:8" ht="16">
+    <row r="971" spans="1:8">
       <c r="A971" s="2"/>
       <c r="D971" s="6"/>
       <c r="E971" s="2"/>
@@ -9195,7 +9215,7 @@
       <c r="G971" s="2"/>
       <c r="H971" s="2"/>
     </row>
-    <row r="972" spans="1:8" ht="16">
+    <row r="972" spans="1:8">
       <c r="A972" s="2"/>
       <c r="D972" s="6"/>
       <c r="E972" s="2"/>
@@ -9203,7 +9223,7 @@
       <c r="G972" s="2"/>
       <c r="H972" s="2"/>
     </row>
-    <row r="973" spans="1:8" ht="16">
+    <row r="973" spans="1:8">
       <c r="A973" s="2"/>
       <c r="D973" s="6"/>
       <c r="E973" s="2"/>
@@ -9211,7 +9231,7 @@
       <c r="G973" s="2"/>
       <c r="H973" s="2"/>
     </row>
-    <row r="974" spans="1:8" ht="16">
+    <row r="974" spans="1:8">
       <c r="A974" s="2"/>
       <c r="D974" s="6"/>
       <c r="E974" s="2"/>
@@ -9219,7 +9239,7 @@
       <c r="G974" s="2"/>
       <c r="H974" s="2"/>
     </row>
-    <row r="975" spans="1:8" ht="16">
+    <row r="975" spans="1:8">
       <c r="A975" s="2"/>
       <c r="D975" s="6"/>
       <c r="E975" s="2"/>
@@ -9227,7 +9247,7 @@
       <c r="G975" s="2"/>
       <c r="H975" s="2"/>
     </row>
-    <row r="976" spans="1:8" ht="16">
+    <row r="976" spans="1:8">
       <c r="A976" s="2"/>
       <c r="D976" s="6"/>
       <c r="E976" s="2"/>
@@ -9235,7 +9255,7 @@
       <c r="G976" s="2"/>
       <c r="H976" s="2"/>
     </row>
-    <row r="977" spans="1:8" ht="16">
+    <row r="977" spans="1:8">
       <c r="A977" s="2"/>
       <c r="D977" s="6"/>
       <c r="E977" s="2"/>
@@ -9243,7 +9263,7 @@
       <c r="G977" s="2"/>
       <c r="H977" s="2"/>
     </row>
-    <row r="978" spans="1:8" ht="16">
+    <row r="978" spans="1:8">
       <c r="A978" s="2"/>
       <c r="D978" s="6"/>
       <c r="E978" s="2"/>
@@ -9251,7 +9271,7 @@
       <c r="G978" s="2"/>
       <c r="H978" s="2"/>
     </row>
-    <row r="979" spans="1:8" ht="16">
+    <row r="979" spans="1:8">
       <c r="A979" s="2"/>
       <c r="D979" s="6"/>
       <c r="E979" s="2"/>
@@ -9259,7 +9279,7 @@
       <c r="G979" s="2"/>
       <c r="H979" s="2"/>
     </row>
-    <row r="980" spans="1:8" ht="16">
+    <row r="980" spans="1:8">
       <c r="A980" s="2"/>
       <c r="D980" s="6"/>
       <c r="E980" s="2"/>
@@ -9267,7 +9287,7 @@
       <c r="G980" s="2"/>
       <c r="H980" s="2"/>
     </row>
-    <row r="981" spans="1:8" ht="16">
+    <row r="981" spans="1:8">
       <c r="A981" s="2"/>
       <c r="D981" s="6"/>
       <c r="E981" s="2"/>
@@ -9275,7 +9295,7 @@
       <c r="G981" s="2"/>
       <c r="H981" s="2"/>
     </row>
-    <row r="982" spans="1:8" ht="16">
+    <row r="982" spans="1:8">
       <c r="A982" s="2"/>
       <c r="D982" s="6"/>
       <c r="E982" s="2"/>
@@ -9283,7 +9303,7 @@
       <c r="G982" s="2"/>
       <c r="H982" s="2"/>
     </row>
-    <row r="983" spans="1:8" ht="16">
+    <row r="983" spans="1:8">
       <c r="A983" s="2"/>
       <c r="D983" s="6"/>
       <c r="E983" s="2"/>
@@ -9291,7 +9311,7 @@
       <c r="G983" s="2"/>
       <c r="H983" s="2"/>
     </row>
-    <row r="984" spans="1:8" ht="16">
+    <row r="984" spans="1:8">
       <c r="A984" s="2"/>
       <c r="D984" s="6"/>
       <c r="E984" s="2"/>
@@ -9299,7 +9319,7 @@
       <c r="G984" s="2"/>
       <c r="H984" s="2"/>
     </row>
-    <row r="985" spans="1:8" ht="16">
+    <row r="985" spans="1:8">
       <c r="A985" s="2"/>
       <c r="D985" s="6"/>
       <c r="E985" s="2"/>
@@ -9307,7 +9327,7 @@
       <c r="G985" s="2"/>
       <c r="H985" s="2"/>
     </row>
-    <row r="986" spans="1:8" ht="16">
+    <row r="986" spans="1:8">
       <c r="A986" s="2"/>
       <c r="D986" s="6"/>
       <c r="E986" s="2"/>
@@ -9315,7 +9335,7 @@
       <c r="G986" s="2"/>
       <c r="H986" s="2"/>
     </row>
-    <row r="987" spans="1:8" ht="16">
+    <row r="987" spans="1:8">
       <c r="A987" s="2"/>
       <c r="D987" s="6"/>
       <c r="E987" s="2"/>
@@ -9323,7 +9343,7 @@
       <c r="G987" s="2"/>
       <c r="H987" s="2"/>
     </row>
-    <row r="988" spans="1:8" ht="16">
+    <row r="988" spans="1:8">
       <c r="A988" s="2"/>
       <c r="D988" s="6"/>
       <c r="E988" s="2"/>
@@ -9331,7 +9351,7 @@
       <c r="G988" s="2"/>
       <c r="H988" s="2"/>
     </row>
-    <row r="989" spans="1:8" ht="16">
+    <row r="989" spans="1:8">
       <c r="A989" s="2"/>
       <c r="D989" s="6"/>
       <c r="E989" s="2"/>
@@ -9339,7 +9359,7 @@
       <c r="G989" s="2"/>
       <c r="H989" s="2"/>
     </row>
-    <row r="990" spans="1:8" ht="16">
+    <row r="990" spans="1:8">
       <c r="A990" s="2"/>
       <c r="D990" s="6"/>
       <c r="E990" s="2"/>
@@ -9347,7 +9367,7 @@
       <c r="G990" s="2"/>
       <c r="H990" s="2"/>
     </row>
-    <row r="991" spans="1:8" ht="16">
+    <row r="991" spans="1:8">
       <c r="A991" s="2"/>
       <c r="D991" s="6"/>
       <c r="E991" s="2"/>
@@ -9355,7 +9375,7 @@
       <c r="G991" s="2"/>
       <c r="H991" s="2"/>
     </row>
-    <row r="992" spans="1:8" ht="16">
+    <row r="992" spans="1:8">
       <c r="A992" s="2"/>
       <c r="D992" s="6"/>
       <c r="E992" s="2"/>
@@ -9363,7 +9383,7 @@
       <c r="G992" s="2"/>
       <c r="H992" s="2"/>
     </row>
-    <row r="993" spans="1:8" ht="16">
+    <row r="993" spans="1:8">
       <c r="A993" s="2"/>
       <c r="D993" s="6"/>
       <c r="E993" s="2"/>
@@ -9371,7 +9391,7 @@
       <c r="G993" s="2"/>
       <c r="H993" s="2"/>
     </row>
-    <row r="994" spans="1:8" ht="16">
+    <row r="994" spans="1:8">
       <c r="A994" s="2"/>
       <c r="D994" s="6"/>
       <c r="E994" s="2"/>
@@ -9379,7 +9399,7 @@
       <c r="G994" s="2"/>
       <c r="H994" s="2"/>
     </row>
-    <row r="995" spans="1:8" ht="16">
+    <row r="995" spans="1:8">
       <c r="A995" s="2"/>
       <c r="D995" s="6"/>
       <c r="E995" s="2"/>
@@ -9387,7 +9407,7 @@
       <c r="G995" s="2"/>
       <c r="H995" s="2"/>
     </row>
-    <row r="996" spans="1:8" ht="16">
+    <row r="996" spans="1:8">
       <c r="A996" s="2"/>
       <c r="D996" s="6"/>
       <c r="E996" s="2"/>
@@ -9395,7 +9415,7 @@
       <c r="G996" s="2"/>
       <c r="H996" s="2"/>
     </row>
-    <row r="997" spans="1:8" ht="16">
+    <row r="997" spans="1:8">
       <c r="A997" s="2"/>
       <c r="D997" s="6"/>
       <c r="E997" s="2"/>
@@ -9403,7 +9423,7 @@
       <c r="G997" s="2"/>
       <c r="H997" s="2"/>
     </row>
-    <row r="998" spans="1:8" ht="16">
+    <row r="998" spans="1:8">
       <c r="A998" s="2"/>
       <c r="D998" s="6"/>
       <c r="E998" s="2"/>
@@ -9411,7 +9431,7 @@
       <c r="G998" s="2"/>
       <c r="H998" s="2"/>
     </row>
-    <row r="999" spans="1:8" ht="16">
+    <row r="999" spans="1:8">
       <c r="A999" s="2"/>
       <c r="D999" s="6"/>
       <c r="E999" s="2"/>
@@ -9419,7 +9439,7 @@
       <c r="G999" s="2"/>
       <c r="H999" s="2"/>
     </row>
-    <row r="1000" spans="1:8" ht="16">
+    <row r="1000" spans="1:8">
       <c r="A1000" s="2"/>
       <c r="D1000" s="6"/>
       <c r="E1000" s="2"/>
@@ -9438,21 +9458,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9" style="11" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="60.1640625" style="11" customWidth="1"/>
     <col min="7" max="28" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9460,16 +9480,16 @@
       <c r="A1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>149</v>
       </c>
       <c r="F1" s="13" t="s">
@@ -9480,242 +9500,245 @@
       <c r="A2" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="11">
         <v>45</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="11">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="79" customHeight="1">
+    <row r="3" spans="1:6" ht="31" customHeight="1">
       <c r="A3" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="11">
+        <v>50</v>
+      </c>
+      <c r="D3" s="11">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" customHeight="1">
+      <c r="A4" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="11">
         <v>45</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D4" s="11">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="63" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:6" ht="63" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="11">
+        <v>60</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="7" customFormat="1" ht="36" customHeight="1">
+      <c r="A6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="11">
         <v>40</v>
       </c>
-      <c r="D4" s="7">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" ht="84" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="11">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75" customHeight="1">
+      <c r="A8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="11">
+        <v>40</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="48" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="11">
+        <v>38</v>
+      </c>
+      <c r="D9" s="11">
+        <v>15</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="130" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="F9" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="56" customHeight="1">
+      <c r="A10" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C10" s="11">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11">
         <v>15</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="64" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6">
+      <c r="E10" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" customHeight="1">
+      <c r="A11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="11">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D11" s="11">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E11" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="78" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7">
-        <v>15</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8">
-        <v>38</v>
-      </c>
-      <c r="D8" s="7">
-        <v>15</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9" s="7">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="144" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7">
-        <v>15</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="61" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
-      </c>
-      <c r="D11" s="7">
-        <v>15</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="49" customHeight="1">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>45</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="78" customHeight="1">
+    <row r="13" spans="1:6" ht="42" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13">
-        <v>60</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>156</v>
+        <v>125</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="11">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11">
+        <v>14</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
+        <v>150</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="61" customHeight="1"/>
+    <row r="15" spans="1:6" ht="49" customHeight="1"/>
+    <row r="16" spans="1:6" ht="78" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/litreview/heattol_litreview.xlsx
+++ b/litreview/heattol_litreview.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="166">
   <si>
     <t>Below metadata by Lizzie Wolkovich started on 29 July 2016</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>Warmer temperatures caused phenology to advance.  The effect was seen most prominently before budburst.  Between budburst and flowering the effect of higher temperatures was slightly less.  The increased temperatures had the least  effect on phenological timing between flowering and fruit set.</t>
+  </si>
+  <si>
+    <t>New studies on 19 Mar 2020 were added directly to manuscript!</t>
   </si>
 </sst>
 </file>
@@ -1005,27 +1008,27 @@
     <col min="1" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -9461,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -9736,7 +9739,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="61" customHeight="1"/>
+    <row r="14" spans="1:6" ht="61" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
     <row r="15" spans="1:6" ht="49" customHeight="1"/>
     <row r="16" spans="1:6" ht="78" customHeight="1"/>
   </sheetData>
